--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$150</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2319,7 +2319,7 @@
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -2346,7 +2346,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2757,13 +2756,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BL181"/>
+  <dimension ref="B1:BL150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="V146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="AQ160" sqref="AQ160"/>
+      <selection pane="bottomRight" activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -3028,31 +3027,31 @@
         <v/>
       </c>
       <c r="AK2" s="1" t="str">
-        <f t="shared" ref="AK2:AK33" si="1">IF(H2&gt;0,CONCATENATE(IF(W2&lt;=12,W2,W2-12),IF(OR(W2&lt;12,W2=24),"am","pm"),"-",IF(X2&lt;=12,X2,X2-12),IF(OR(X2&lt;12,X2=24),"am","pm")),"")</f>
+        <f t="shared" ref="AK2" si="1">IF(H2&gt;0,CONCATENATE(IF(W2&lt;=12,W2,W2-12),IF(OR(W2&lt;12,W2=24),"am","pm"),"-",IF(X2&lt;=12,X2,X2-12),IF(OR(X2&lt;12,X2=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AL2" s="1" t="str">
-        <f t="shared" ref="AL2:AL33" si="2">IF(J2&gt;0,CONCATENATE(IF(Y2&lt;=12,Y2,Y2-12),IF(OR(Y2&lt;12,Y2=24),"am","pm"),"-",IF(Z2&lt;=12,Z2,Z2-12),IF(OR(Z2&lt;12,Z2=24),"am","pm")),"")</f>
+        <f t="shared" ref="AL2" si="2">IF(J2&gt;0,CONCATENATE(IF(Y2&lt;=12,Y2,Y2-12),IF(OR(Y2&lt;12,Y2=24),"am","pm"),"-",IF(Z2&lt;=12,Z2,Z2-12),IF(OR(Z2&lt;12,Z2=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AM2" s="1" t="str">
-        <f t="shared" ref="AM2:AM33" si="3">IF(L2&gt;0,CONCATENATE(IF(AA2&lt;=12,AA2,AA2-12),IF(OR(AA2&lt;12,AA2=24),"am","pm"),"-",IF(AB2&lt;=12,AB2,AB2-12),IF(OR(AB2&lt;12,AB2=24),"am","pm")),"")</f>
+        <f t="shared" ref="AM2" si="3">IF(L2&gt;0,CONCATENATE(IF(AA2&lt;=12,AA2,AA2-12),IF(OR(AA2&lt;12,AA2=24),"am","pm"),"-",IF(AB2&lt;=12,AB2,AB2-12),IF(OR(AB2&lt;12,AB2=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AN2" s="1" t="str">
-        <f t="shared" ref="AN2:AN33" si="4">IF(N2&gt;0,CONCATENATE(IF(AC2&lt;=12,AC2,AC2-12),IF(OR(AC2&lt;12,AC2=24),"am","pm"),"-",IF(AD2&lt;=12,AD2,AD2-12),IF(OR(AD2&lt;12,AD2=24),"am","pm")),"")</f>
+        <f t="shared" ref="AN2" si="4">IF(N2&gt;0,CONCATENATE(IF(AC2&lt;=12,AC2,AC2-12),IF(OR(AC2&lt;12,AC2=24),"am","pm"),"-",IF(AD2&lt;=12,AD2,AD2-12),IF(OR(AD2&lt;12,AD2=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AO2" s="1" t="str">
-        <f t="shared" ref="AO2:AO33" si="5">IF(O2&gt;0,CONCATENATE(IF(AE2&lt;=12,AE2,AE2-12),IF(OR(AE2&lt;12,AE2=24),"am","pm"),"-",IF(AF2&lt;=12,AF2,AF2-12),IF(OR(AF2&lt;12,AF2=24),"am","pm")),"")</f>
+        <f t="shared" ref="AO2" si="5">IF(O2&gt;0,CONCATENATE(IF(AE2&lt;=12,AE2,AE2-12),IF(OR(AE2&lt;12,AE2=24),"am","pm"),"-",IF(AF2&lt;=12,AF2,AF2-12),IF(OR(AF2&lt;12,AF2=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AP2" s="1" t="str">
-        <f t="shared" ref="AP2:AP33" si="6">IF(R2&gt;0,CONCATENATE(IF(AG2&lt;=12,AG2,AG2-12),IF(OR(AG2&lt;12,AG2=24),"am","pm"),"-",IF(AH2&lt;=12,AH2,AH2-12),IF(OR(AH2&lt;12,AH2=24),"am","pm")),"")</f>
+        <f t="shared" ref="AP2" si="6">IF(R2&gt;0,CONCATENATE(IF(AG2&lt;=12,AG2,AG2-12),IF(OR(AG2&lt;12,AG2=24),"am","pm"),"-",IF(AH2&lt;=12,AH2,AH2-12),IF(OR(AH2&lt;12,AH2=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AQ2" s="1" t="str">
-        <f t="shared" ref="AQ2:AQ33" si="7">IF(T2&gt;0,CONCATENATE(IF(AI2&lt;=12,AI2,AI2-12),IF(OR(AI2&lt;12,AI2=24),"am","pm"),"-",IF(AJ2&lt;=12,AJ2,AJ2-12),IF(OR(AJ2&lt;12,AJ2=24),"am","pm")),"")</f>
+        <f t="shared" ref="AQ2" si="7">IF(T2&gt;0,CONCATENATE(IF(AI2&lt;=12,AI2,AI2-12),IF(OR(AI2&lt;12,AI2=24),"am","pm"),"-",IF(AJ2&lt;=12,AJ2,AJ2-12),IF(OR(AJ2&lt;12,AJ2=24),"am","pm")),"")</f>
         <v/>
       </c>
       <c r="AR2" s="7" t="s">
@@ -3136,7 +3135,7 @@
       <c r="C3" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>384</v>
       </c>
       <c r="W3" s="1" t="str">
@@ -4017,7 +4016,7 @@
       <c r="U8" s="1">
         <v>1800</v>
       </c>
-      <c r="V8" s="18" t="s">
+      <c r="V8" s="17" t="s">
         <v>103</v>
       </c>
       <c r="W8" s="1">
@@ -4346,7 +4345,7 @@
       <c r="C10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>192</v>
       </c>
       <c r="H10" s="1">
@@ -4554,7 +4553,7 @@
       <c r="C11" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>424</v>
       </c>
       <c r="W11" s="1" t="str">
@@ -4714,13 +4713,13 @@
       </c>
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>446</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>447</v>
       </c>
       <c r="W12" s="1" t="str">
@@ -5454,7 +5453,7 @@
       <c r="C16" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>194</v>
       </c>
       <c r="J16" s="1">
@@ -5804,13 +5803,13 @@
       </c>
     </row>
     <row r="18" spans="2:64" ht="21" customHeight="1">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>317</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="20" t="s">
         <v>318</v>
       </c>
       <c r="J18" s="1">
@@ -6016,7 +6015,7 @@
       <c r="C19" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>195</v>
       </c>
       <c r="H19" s="1">
@@ -7651,7 +7650,7 @@
       <c r="C28" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="18" t="s">
         <v>197</v>
       </c>
       <c r="H28" s="1">
@@ -8188,7 +8187,7 @@
       <c r="C31" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>438</v>
       </c>
       <c r="W31" s="1" t="str">
@@ -8342,13 +8341,13 @@
       </c>
     </row>
     <row r="32" spans="2:64" ht="21" customHeight="1">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>450</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="25" t="s">
         <v>451</v>
       </c>
       <c r="W32" s="1" t="str">
@@ -8970,7 +8969,7 @@
         <f t="shared" si="39"/>
         <v>3pm-6pm</v>
       </c>
-      <c r="AR35" s="22" t="s">
+      <c r="AR35" s="21" t="s">
         <v>491</v>
       </c>
       <c r="AS35" s="1" t="s">
@@ -9024,7 +9023,7 @@
         <f t="shared" si="48"/>
         <v>North Boulder</v>
       </c>
-      <c r="BG35" s="19">
+      <c r="BG35" s="18">
         <v>40.071910000000003</v>
       </c>
       <c r="BH35" s="10">
@@ -9042,7 +9041,7 @@
       <c r="C36" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="18" t="s">
         <v>200</v>
       </c>
       <c r="H36" s="1">
@@ -9775,7 +9774,7 @@
       <c r="C40" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="16" t="s">
         <v>276</v>
       </c>
       <c r="W40" s="1" t="str">
@@ -10259,7 +10258,7 @@
       <c r="C43" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="18" t="s">
         <v>201</v>
       </c>
       <c r="H43" s="1">
@@ -11315,7 +11314,7 @@
       <c r="C49" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="18" t="s">
         <v>202</v>
       </c>
       <c r="J49" s="1">
@@ -11517,7 +11516,7 @@
       <c r="C50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="18" t="s">
         <v>203</v>
       </c>
       <c r="H50" s="1">
@@ -12412,7 +12411,7 @@
       <c r="C55" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="18" t="s">
         <v>204</v>
       </c>
       <c r="H55" s="1">
@@ -12831,7 +12830,7 @@
       <c r="C57" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="19" t="s">
         <v>206</v>
       </c>
       <c r="H57" s="1">
@@ -13371,7 +13370,7 @@
       <c r="C60" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G60" s="25" t="s">
         <v>440</v>
       </c>
       <c r="W60" s="1" t="str">
@@ -13686,7 +13685,7 @@
         <f t="shared" si="50"/>
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
-      <c r="BL61" s="28" t="s">
+      <c r="BL61" s="27" t="s">
         <v>467</v>
       </c>
     </row>
@@ -13860,7 +13859,7 @@
       <c r="C63" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="18" t="s">
         <v>208</v>
       </c>
       <c r="J63" s="1">
@@ -14376,7 +14375,7 @@
       <c r="C66" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="18" t="s">
         <v>209</v>
       </c>
       <c r="H66" s="1">
@@ -14588,7 +14587,7 @@
       <c r="C67" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="19" t="s">
         <v>199</v>
       </c>
       <c r="H67" s="1">
@@ -15119,7 +15118,7 @@
       <c r="C70" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G70" s="25" t="s">
+      <c r="G70" s="24" t="s">
         <v>436</v>
       </c>
       <c r="W70" s="1" t="str">
@@ -15273,13 +15272,13 @@
       </c>
     </row>
     <row r="71" spans="2:63" ht="21" customHeight="1">
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="21" t="s">
         <v>443</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G71" s="25" t="s">
+      <c r="G71" s="24" t="s">
         <v>444</v>
       </c>
       <c r="V71" s="6"/>
@@ -15636,7 +15635,7 @@
       <c r="C73" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="19" t="s">
         <v>212</v>
       </c>
       <c r="J73" s="1">
@@ -15826,13 +15825,13 @@
       </c>
     </row>
     <row r="74" spans="2:63" ht="21" customHeight="1">
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="28" t="s">
         <v>481</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="G74" s="16" t="s">
         <v>482</v>
       </c>
       <c r="H74" s="1">
@@ -16015,7 +16014,7 @@
         <f t="shared" si="59"/>
         <v>North Boulder</v>
       </c>
-      <c r="BG74" s="19">
+      <c r="BG74" s="18">
         <v>40.036504999999998</v>
       </c>
       <c r="BH74" s="10">
@@ -16196,7 +16195,7 @@
       <c r="C76" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G76" s="17" t="s">
+      <c r="G76" s="16" t="s">
         <v>357</v>
       </c>
       <c r="W76" s="1" t="str">
@@ -17049,7 +17048,7 @@
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="AR80" s="22" t="s">
+      <c r="AR80" s="21" t="s">
         <v>489</v>
       </c>
       <c r="AU80" s="1" t="s">
@@ -17100,7 +17099,7 @@
         <f t="shared" si="59"/>
         <v>North Boulder</v>
       </c>
-      <c r="BG80" s="19">
+      <c r="BG80" s="18">
         <v>40.03172</v>
       </c>
       <c r="BH80" s="10">
@@ -18751,13 +18750,13 @@
       </c>
     </row>
     <row r="90" spans="2:63" ht="21" customHeight="1">
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="21" t="s">
         <v>448</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="25" t="s">
         <v>449</v>
       </c>
       <c r="W90" s="1" t="str">
@@ -18911,13 +18910,13 @@
       </c>
     </row>
     <row r="91" spans="2:63" ht="21" customHeight="1">
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="21" t="s">
         <v>441</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G91" s="26" t="s">
+      <c r="G91" s="25" t="s">
         <v>442</v>
       </c>
       <c r="W91" s="1" t="str">
@@ -19161,7 +19160,7 @@
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="AR92" s="22" t="s">
+      <c r="AR92" s="21" t="s">
         <v>485</v>
       </c>
       <c r="AU92" s="1" t="s">
@@ -19230,7 +19229,7 @@
       <c r="C93" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G93" s="20" t="s">
+      <c r="G93" s="19" t="s">
         <v>220</v>
       </c>
       <c r="J93" s="1">
@@ -19263,7 +19262,7 @@
       <c r="S93" s="1">
         <v>1800</v>
       </c>
-      <c r="V93" s="18" t="s">
+      <c r="V93" s="17" t="s">
         <v>131</v>
       </c>
       <c r="W93" s="1" t="str">
@@ -19798,7 +19797,7 @@
       <c r="C96" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G96" s="20" t="s">
+      <c r="G96" s="19" t="s">
         <v>221</v>
       </c>
       <c r="J96" s="1">
@@ -20532,7 +20531,7 @@
       <c r="C100" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G100" s="19" t="s">
+      <c r="G100" s="18" t="s">
         <v>222</v>
       </c>
       <c r="H100" s="1">
@@ -20900,7 +20899,7 @@
       <c r="C102" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G102" s="20" t="s">
+      <c r="G102" s="19" t="s">
         <v>223</v>
       </c>
       <c r="H102" s="1">
@@ -21476,7 +21475,7 @@
       <c r="C105" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G105" s="20" t="s">
+      <c r="G105" s="19" t="s">
         <v>225</v>
       </c>
       <c r="H105" s="1">
@@ -23103,7 +23102,7 @@
       <c r="C114" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G114" s="20" t="s">
+      <c r="G114" s="19" t="s">
         <v>227</v>
       </c>
       <c r="H114" s="1">
@@ -23311,7 +23310,7 @@
       <c r="C115" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G115" s="19" t="s">
+      <c r="G115" s="18" t="s">
         <v>213</v>
       </c>
       <c r="J115" s="1">
@@ -23513,7 +23512,7 @@
       <c r="C116" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G116" s="19" t="s">
+      <c r="G116" s="18" t="s">
         <v>228</v>
       </c>
       <c r="H116" s="1">
@@ -24261,7 +24260,7 @@
       <c r="C120" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G120" s="19" t="s">
+      <c r="G120" s="18" t="s">
         <v>198</v>
       </c>
       <c r="J120" s="1">
@@ -24502,7 +24501,7 @@
       <c r="U121" s="1">
         <v>1800</v>
       </c>
-      <c r="V121" s="27" t="s">
+      <c r="V121" s="26" t="s">
         <v>459</v>
       </c>
       <c r="W121" s="1">
@@ -24662,7 +24661,7 @@
       <c r="C122" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G122" s="19" t="s">
+      <c r="G122" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H122" s="1">
@@ -25033,7 +25032,7 @@
       <c r="C124" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G124" s="19" t="s">
+      <c r="G124" s="18" t="s">
         <v>207</v>
       </c>
       <c r="H124" s="1">
@@ -25244,7 +25243,7 @@
       <c r="C125" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G125" s="19" t="s">
         <v>211</v>
       </c>
       <c r="V125" s="10"/>
@@ -25402,13 +25401,13 @@
       </c>
     </row>
     <row r="126" spans="2:64" ht="21" customHeight="1">
-      <c r="B126" s="22" t="s">
+      <c r="B126" s="21" t="s">
         <v>476</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G126" s="26" t="s">
+      <c r="G126" s="25" t="s">
         <v>445</v>
       </c>
       <c r="W126" s="1" t="str">
@@ -25729,7 +25728,7 @@
       <c r="C128" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G128" s="21" t="s">
+      <c r="G128" s="20" t="s">
         <v>310</v>
       </c>
       <c r="H128" s="1">
@@ -25855,7 +25854,7 @@
         <f t="shared" si="81"/>
         <v/>
       </c>
-      <c r="AR128" s="22" t="s">
+      <c r="AR128" s="21" t="s">
         <v>311</v>
       </c>
       <c r="AS128" s="1" t="s">
@@ -25931,7 +25930,7 @@
       <c r="C129" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G129" s="17" t="s">
+      <c r="G129" s="16" t="s">
         <v>475</v>
       </c>
       <c r="W129" s="1" t="str">
@@ -26086,7 +26085,7 @@
         <f t="shared" si="94"/>
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
-      <c r="BL129" s="28" t="s">
+      <c r="BL129" s="27" t="s">
         <v>473</v>
       </c>
     </row>
@@ -26943,13 +26942,13 @@
       </c>
     </row>
     <row r="135" spans="2:64" ht="21" customHeight="1">
-      <c r="B135" s="23" t="s">
+      <c r="B135" s="22" t="s">
         <v>313</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G135" s="21" t="s">
+      <c r="G135" s="20" t="s">
         <v>316</v>
       </c>
       <c r="J135" s="1">
@@ -27069,7 +27068,7 @@
         <f t="shared" si="125"/>
         <v/>
       </c>
-      <c r="AR135" s="22" t="s">
+      <c r="AR135" s="21" t="s">
         <v>315</v>
       </c>
       <c r="AU135" s="1" t="s">
@@ -27142,7 +27141,7 @@
       <c r="C136" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G136" s="17" t="s">
+      <c r="G136" s="16" t="s">
         <v>474</v>
       </c>
       <c r="W136" s="1" t="str">
@@ -27283,7 +27282,7 @@
         <f t="shared" si="103"/>
         <v>North Boulder</v>
       </c>
-      <c r="BG136" s="19">
+      <c r="BG136" s="18">
         <v>40.062620000000003</v>
       </c>
       <c r="BH136" s="10">
@@ -27305,7 +27304,7 @@
       <c r="C137" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G137" s="19" t="s">
+      <c r="G137" s="18" t="s">
         <v>207</v>
       </c>
       <c r="H137" s="1">
@@ -28036,7 +28035,7 @@
       <c r="C141" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G141" s="30" t="s">
+      <c r="G141" s="29" t="s">
         <v>506</v>
       </c>
       <c r="W141" s="1" t="str">
@@ -28193,13 +28192,13 @@
       </c>
     </row>
     <row r="142" spans="2:64" ht="21" customHeight="1">
-      <c r="B142" s="22" t="s">
+      <c r="B142" s="21" t="s">
         <v>452</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G142" s="26" t="s">
+      <c r="G142" s="25" t="s">
         <v>453</v>
       </c>
       <c r="W142" s="1" t="str">
@@ -28561,7 +28560,7 @@
       <c r="C144" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G144" s="19" t="s">
+      <c r="G144" s="18" t="s">
         <v>230</v>
       </c>
       <c r="J144" s="1">
@@ -29605,13 +29604,13 @@
       </c>
     </row>
     <row r="150" spans="2:63" ht="21" customHeight="1">
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="22" t="s">
         <v>320</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G150" s="21" t="s">
+      <c r="G150" s="20" t="s">
         <v>323</v>
       </c>
       <c r="J150" s="1">
@@ -29806,188 +29805,8 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:63" ht="21" customHeight="1">
-      <c r="G151" s="3"/>
-      <c r="AR151" s="4"/>
-      <c r="AV151" s="5"/>
-      <c r="AW151" s="5"/>
-      <c r="AX151" s="6"/>
-    </row>
-    <row r="152" spans="2:63" ht="21" customHeight="1">
-      <c r="G152" s="8"/>
-      <c r="AX152" s="6"/>
-    </row>
-    <row r="153" spans="2:63" ht="21" customHeight="1">
-      <c r="G153" s="3"/>
-      <c r="AR153" s="7"/>
-      <c r="AV153" s="5"/>
-      <c r="AW153" s="5"/>
-      <c r="AX153" s="6"/>
-    </row>
-    <row r="154" spans="2:63" ht="21" customHeight="1">
-      <c r="AR154" s="4"/>
-      <c r="AV154" s="5"/>
-      <c r="AW154" s="5"/>
-      <c r="AX154" s="6"/>
-    </row>
-    <row r="155" spans="2:63" ht="21" customHeight="1">
-      <c r="G155" s="8"/>
-      <c r="AR155" s="14"/>
-      <c r="AX155" s="6"/>
-    </row>
-    <row r="156" spans="2:63" ht="21" customHeight="1">
-      <c r="AR156" s="7"/>
-      <c r="AV156" s="5"/>
-      <c r="AW156" s="5"/>
-      <c r="AX156" s="6"/>
-    </row>
-    <row r="157" spans="2:63" ht="21" customHeight="1">
-      <c r="AR157" s="4"/>
-      <c r="AV157" s="5"/>
-      <c r="AW157" s="5"/>
-      <c r="AX157" s="6"/>
-    </row>
-    <row r="158" spans="2:63" ht="21" customHeight="1">
-      <c r="G158" s="17"/>
-      <c r="AX158" s="6"/>
-      <c r="BG158" s="10"/>
-      <c r="BH158" s="10"/>
-    </row>
-    <row r="159" spans="2:63" ht="21" customHeight="1">
-      <c r="G159" s="8"/>
-      <c r="AR159" s="4"/>
-      <c r="AV159" s="5"/>
-      <c r="AW159" s="5"/>
-      <c r="AX159" s="6"/>
-    </row>
-    <row r="160" spans="2:63" ht="21" customHeight="1">
-      <c r="G160" s="8"/>
-      <c r="AR160" s="14"/>
-      <c r="AX160" s="6"/>
-    </row>
-    <row r="161" spans="7:60" ht="21" customHeight="1">
-      <c r="G161" s="8"/>
-      <c r="AR161" s="14"/>
-      <c r="AV161" s="5"/>
-      <c r="AW161" s="5"/>
-      <c r="AX161" s="6"/>
-    </row>
-    <row r="162" spans="7:60" ht="21" customHeight="1">
-      <c r="G162" s="8"/>
-      <c r="AX162" s="6"/>
-    </row>
-    <row r="163" spans="7:60" ht="21" customHeight="1">
-      <c r="AX163" s="6"/>
-    </row>
-    <row r="164" spans="7:60" ht="21" customHeight="1">
-      <c r="AR164" s="9"/>
-      <c r="AV164" s="5"/>
-      <c r="AW164" s="5"/>
-      <c r="AX164" s="6"/>
-    </row>
-    <row r="165" spans="7:60" ht="21" customHeight="1">
-      <c r="AV165" s="5"/>
-      <c r="AW165" s="5"/>
-      <c r="AX165" s="6"/>
-    </row>
-    <row r="166" spans="7:60" ht="21" customHeight="1">
-      <c r="AR166" s="4"/>
-      <c r="AV166" s="5"/>
-      <c r="AW166" s="5"/>
-      <c r="AX166" s="6"/>
-    </row>
-    <row r="167" spans="7:60" ht="21" customHeight="1">
-      <c r="AR167" s="4"/>
-      <c r="AV167" s="5"/>
-      <c r="AW167" s="5"/>
-      <c r="AX167" s="6"/>
-    </row>
-    <row r="168" spans="7:60" ht="21" customHeight="1">
-      <c r="G168" s="8"/>
-      <c r="AX168" s="6"/>
-    </row>
-    <row r="169" spans="7:60" ht="21" customHeight="1">
-      <c r="G169" s="8"/>
-      <c r="AR169" s="13"/>
-      <c r="AV169" s="5"/>
-      <c r="AW169" s="5"/>
-      <c r="AX169" s="6"/>
-    </row>
-    <row r="170" spans="7:60" ht="21" customHeight="1">
-      <c r="G170" s="8"/>
-      <c r="AV170" s="5"/>
-      <c r="AW170" s="5"/>
-      <c r="AX170" s="6"/>
-    </row>
-    <row r="171" spans="7:60" ht="21" customHeight="1">
-      <c r="G171" s="17"/>
-      <c r="AV171" s="5"/>
-      <c r="AX171" s="6"/>
-      <c r="BG171" s="10"/>
-      <c r="BH171" s="10"/>
-    </row>
-    <row r="172" spans="7:60" ht="21" customHeight="1">
-      <c r="AV172" s="5"/>
-      <c r="AW172" s="5"/>
-      <c r="AX172" s="6"/>
-      <c r="BG172" s="10"/>
-      <c r="BH172" s="10"/>
-    </row>
-    <row r="173" spans="7:60" ht="21" customHeight="1">
-      <c r="G173" s="8"/>
-      <c r="AR173" s="14"/>
-      <c r="AX173" s="6"/>
-    </row>
-    <row r="174" spans="7:60" ht="21" customHeight="1">
-      <c r="AV174" s="5"/>
-      <c r="AW174" s="5"/>
-      <c r="AX174" s="6"/>
-    </row>
-    <row r="175" spans="7:60" ht="21" customHeight="1">
-      <c r="G175" s="3"/>
-      <c r="AR175" s="4"/>
-      <c r="AV175" s="5"/>
-      <c r="AW175" s="5"/>
-      <c r="AX175" s="6"/>
-    </row>
-    <row r="176" spans="7:60" ht="21" customHeight="1">
-      <c r="G176" s="3"/>
-      <c r="AR176" s="14"/>
-      <c r="AV176" s="5"/>
-      <c r="AW176" s="5"/>
-      <c r="AX176" s="6"/>
-    </row>
-    <row r="177" spans="2:50" ht="21" customHeight="1">
-      <c r="G177" s="8"/>
-      <c r="AR177" s="14"/>
-      <c r="AX177" s="6"/>
-    </row>
-    <row r="178" spans="2:50" ht="21" customHeight="1">
-      <c r="AR178" s="7"/>
-      <c r="AV178" s="5"/>
-      <c r="AW178" s="5"/>
-      <c r="AX178" s="6"/>
-    </row>
-    <row r="179" spans="2:50" ht="21" customHeight="1">
-      <c r="B179" s="16"/>
-      <c r="G179" s="3"/>
-      <c r="AV179" s="5"/>
-      <c r="AW179" s="5"/>
-      <c r="AX179" s="6"/>
-    </row>
-    <row r="180" spans="2:50" ht="21" customHeight="1">
-      <c r="G180" s="8"/>
-      <c r="AR180" s="14"/>
-      <c r="AX180" s="6"/>
-    </row>
-    <row r="181" spans="2:50" ht="21" customHeight="1">
-      <c r="AR181" s="13"/>
-      <c r="AV181" s="5"/>
-      <c r="AW181" s="5"/>
-      <c r="AX181" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:C181"/>
+  <autoFilter ref="C1:C150"/>
   <sortState ref="B2:BL181">
     <sortCondition ref="B2:B181"/>
   </sortState>
@@ -30051,7 +29870,7 @@
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>40.036504999999998</v>
       </c>
       <c r="C2" s="10">
@@ -30091,7 +29910,7 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>40.03172</v>
       </c>
       <c r="C4" s="10">
@@ -30111,7 +29930,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>40.071910000000003</v>
       </c>
       <c r="C5" s="10">
@@ -30137,61 +29956,61 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="19"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="2:8" ht="15.75">
-      <c r="B16" s="20"/>
+      <c r="B16" s="19"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="19"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="2:2" ht="15.75">
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="2:2" ht="15.75">
-      <c r="B22" s="20"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" spans="2:2" ht="15.75">
-      <c r="B23" s="20"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="6"/>
@@ -30215,43 +30034,43 @@
       <c r="B30" s="6"/>
     </row>
     <row r="31" spans="2:2" ht="15.75">
-      <c r="B31" s="20"/>
+      <c r="B31" s="19"/>
     </row>
     <row r="32" spans="2:2" ht="15.75">
-      <c r="B32" s="20"/>
+      <c r="B32" s="19"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="19"/>
+      <c r="B33" s="18"/>
     </row>
     <row r="34" spans="2:2" ht="15.75">
-      <c r="B34" s="20"/>
+      <c r="B34" s="19"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="6"/>
     </row>
     <row r="36" spans="2:2" ht="15.75">
-      <c r="B36" s="20"/>
+      <c r="B36" s="19"/>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="6"/>
     </row>
     <row r="38" spans="2:2" ht="15.75">
-      <c r="B38" s="20"/>
+      <c r="B38" s="19"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="19"/>
+      <c r="B39" s="18"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="19"/>
+      <c r="B40" s="18"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="19"/>
+      <c r="B41" s="18"/>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="6"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="19"/>
+      <c r="B43" s="18"/>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="6"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -342,10 +342,6 @@
     <t>Wild Standard</t>
   </si>
   <si>
-    <t>Daily 3 - 6pm &lt;br&gt; Food: $3.5 Affogato &amp; Gelato &lt;br&gt; Drinks: $3 Carlsberg Beer, $5 Coffee Cocktails, 
-$3 Wells, $1 off Wine, $5 Shottino</t>
-  </si>
-  <si>
     <t>Daily 4 - 6pm &lt;br&gt; $3 Beer, $4 Cider, $5 Wine, $7 Cocktails, $6 Shot &amp; a Beer, $4-10 Snacks</t>
   </si>
   <si>
@@ -427,10 +423,6 @@
     <t>Daily 4 - 7pm &lt;br&gt; Food: $6 Cheese pizza, $8 Two topping pizza. &lt;br&gt; Drinks: $3 Wells &amp; Wine, 3$ Domestic Beers, $3.50 Import Beers.</t>
   </si>
   <si>
-    <t>Monday-Friday, 3 - 6pm &lt;br&gt; Food: $3 - $7 small plates menu &lt;br&gt; Drinks: $2 off Draft Beers, $6 cocktails and 33% off the wine list
-*On Mondays and Tuesdays, select bottles of wine are $30 from 3 pm until close</t>
-  </si>
-  <si>
     <t>Monday - Friday 3 - 6pm. Thursday Late Night Happy Hour 9pm - 12am &lt;br&gt; Food: $1 off small plate menu, $3 Tacos &lt;br&gt; Drinks: $1 off Classic Rio Margs &amp; Big Tex Margs, $3 draft beers, Tecate cans &amp; shots of Cinge</t>
   </si>
   <si>
@@ -990,9 +982,6 @@
   </si>
   <si>
     <t>5401, 2880 Wilderness Pl, Boulder, CO 80301</t>
-  </si>
-  <si>
-    <t>$4 Pints and $15 Pitchers.&lt;br&gt;Daily Specials:&lt;br&gt;Mon:&lt;br&gt;Kids eat free from kids’ menu after 5pm.&lt;br&gt;Industry night: $3 pints after 6pm. Open Mic night from 6-9pm.&lt;br&gt;First pint of beer only $1.25 with lunch purchase from 11am – 2pm.&lt;br&gt;Tue:Wing Night: 25 cent wings 6pm-Close.&lt;br&gt;First pint of beer only $1.25 with lunch purchase from 11am – 2pm.&lt;br&gt;Wed:&lt;br&gt;Bags Tournament starting at 6 for various prizes. Registration starts at 5.&lt;br&gt;Thur:&lt;br&gt;Live Music 5-9pm.&lt;br&gt;Fri:&lt;br&gt;Reverse Happy Hour $4 Pints and $15 Pitchers from 8-10pm.&lt;br&gt;Sat:&lt;br&gt;Go Buffs! $15 pitchers of Buffalo Gold all day.&lt;br&gt;Live Music 5-9pm.</t>
   </si>
   <si>
     <t>Zolo Southwestern Grill</t>
@@ -1446,12 +1435,6 @@
     <t>Wednesday: Kids Eat Free until 7pm</t>
   </si>
   <si>
-    <t xml:space="preserve">Family Night each Sunday where Kids under 10 receive a FREE kid’s entrée (choice of any entrée from the Centro kids’ menu) with the purchase of an adult entrée after 5 p.m. </t>
-  </si>
-  <si>
-    <t>Everyday! Free meals for children 3 and under when they eat off the children’s menu</t>
-  </si>
-  <si>
     <t>The Taj</t>
   </si>
   <si>
@@ -1756,6 +1739,21 @@
   </si>
   <si>
     <t>med</t>
+  </si>
+  <si>
+    <t>Daily 3 - 6pm &lt;br&gt; Food: $3.5 Affogato &amp; Gelato &lt;br&gt; Drinks: $3 Carlsberg Beer, $5 Coffee Cocktails, $3 Wells, $1 off Wine, $5 Shottino</t>
+  </si>
+  <si>
+    <t>Monday-Friday, 3 - 6pm &lt;br&gt; Food: $3 - $7 small plates menu &lt;br&gt; Drinks: $2 off Draft Beers, $6 cocktails and 33% off the wine list&lt;br&gt;*On Mondays and Tuesdays, select bottles of wine are $30 from 3 pm until close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Night each Sunday where Kids under 10 receive a FREE kid's entrée (choice of any entrée from the Centro kids' menu) with the purchase of an adult entrée after 5 p.m. </t>
+  </si>
+  <si>
+    <t>Everyday! Free meals for children 3 and under when they eat off the children's menu</t>
+  </si>
+  <si>
+    <t>$4 Pints and $15 Pitchers.&lt;br&gt;Daily Specials:&lt;br&gt;Mon:&lt;br&gt;Kids eat free from kids' menu after 5pm.&lt;br&gt;Industry night: $3 pints after 6pm. Open Mic night from 6-9pm.&lt;br&gt;First pint of beer only $1.25 with lunch purchase from 11am - 2pm.&lt;br&gt;Tue:Wing Night: 25 cent wings 6pm-Close.&lt;br&gt;First pint of beer only $1.25 with lunch purchase from 11am - 2pm.&lt;br&gt;Wed:&lt;br&gt;Bags Tournament starting at 6 for various prizes. Registration starts at 5.&lt;br&gt;Thur:&lt;br&gt;Live Music 5-9pm.&lt;br&gt;Fri:&lt;br&gt;Reverse Happy Hour $4 Pints and $15 Pitchers from 8-10pm.&lt;br&gt;Sat:&lt;br&gt;Go Buffs! $15 pitchers of Buffalo Gold all day.&lt;br&gt;Live Music 5-9pm.</t>
   </si>
 </sst>
 </file>
@@ -2759,10 +2757,10 @@
   <dimension ref="B1:BL150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="G159" sqref="G159"/>
+      <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2772,7 +2770,9 @@
     <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="36" width="6" style="1" customWidth="1"/>
+    <col min="8" max="21" width="6" style="1" customWidth="1"/>
+    <col min="22" max="22" width="34.85546875" style="1" customWidth="1"/>
+    <col min="23" max="36" width="6" style="1" customWidth="1"/>
     <col min="37" max="37" width="10.85546875" style="1" customWidth="1"/>
     <col min="38" max="38" width="13.5703125" style="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="1" customWidth="1"/>
@@ -2962,13 +2962,13 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="W2" s="1" t="str">
         <f t="shared" ref="W2:AJ2" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -3055,13 +3055,13 @@
         <v/>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>33</v>
@@ -3130,13 +3130,13 @@
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1">
       <c r="B3" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" ref="W3:W66" si="19">IF(H3&gt;0,H3/100,"")</f>
@@ -3223,13 +3223,13 @@
         <v/>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>33</v>
@@ -3293,13 +3293,13 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="19"/>
@@ -3386,10 +3386,10 @@
         <v/>
       </c>
       <c r="AR4" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV4" s="5" t="s">
         <v>33</v>
@@ -3453,13 +3453,13 @@
     </row>
     <row r="5" spans="2:64" ht="21" customHeight="1">
       <c r="B5" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="W5" s="1" t="str">
         <f t="shared" si="19"/>
@@ -3546,10 +3546,10 @@
         <v/>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV5" s="5" t="s">
         <v>33</v>
@@ -3613,13 +3613,13 @@
     </row>
     <row r="6" spans="2:64" ht="21" customHeight="1">
       <c r="B6" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W6" s="1" t="str">
         <f t="shared" si="19"/>
@@ -3706,13 +3706,13 @@
         <v/>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>33</v>
@@ -3776,13 +3776,13 @@
     </row>
     <row r="7" spans="2:64" ht="21" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J7" s="1">
         <v>1500</v>
@@ -3899,10 +3899,10 @@
         <v/>
       </c>
       <c r="AR7" s="14" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV7" s="5" t="s">
         <v>32</v>
@@ -3969,10 +3969,10 @@
         <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H8" s="1">
         <v>1500</v>
@@ -4017,7 +4017,7 @@
         <v>1800</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>103</v>
+        <v>569</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="19"/>
@@ -4104,13 +4104,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV8" s="5" t="s">
         <v>32</v>
@@ -4123,8 +4123,7 @@
         <v>{
     'name': "Amante Coffee",
     'area': "pearl",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Daily 3 - 6pm &lt;br&gt; Food: $3.5 Affogato &amp; Gelato &lt;br&gt; Drinks: $3 Carlsberg Beer, $5 Coffee Cocktails, 
-$3 Wells, $1 off Wine, $5 Shottino", 'link':"https://www.amantecoffee.com/", 'pricing':"",   'phone-number': "", 'address': "1035 Walnut StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Daily 3 - 6pm &lt;br&gt; Food: $3.5 Affogato &amp; Gelato &lt;br&gt; Drinks: $3 Carlsberg Beer, $5 Coffee Cocktails, $3 Wells, $1 off Wine, $5 Shottino", 'link':"https://www.amantecoffee.com/", 'pricing':"",   'phone-number': "", 'address': "1035 Walnut StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY8" s="1" t="str">
         <f t="shared" si="9"/>
@@ -4177,13 +4176,13 @@
     </row>
     <row r="9" spans="2:64" ht="21" customHeight="1">
       <c r="B9" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="19"/>
@@ -4270,13 +4269,13 @@
         <v/>
       </c>
       <c r="AR9" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV9" s="5" t="s">
         <v>33</v>
@@ -4343,10 +4342,10 @@
         <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>190</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="H10" s="1">
         <v>1600</v>
@@ -4391,7 +4390,7 @@
         <v>1800</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="19"/>
@@ -4478,13 +4477,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>32</v>
@@ -4548,13 +4547,13 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="19"/>
@@ -4641,16 +4640,16 @@
         <v/>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AS11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV11" s="5" t="s">
         <v>33</v>
@@ -4714,13 +4713,13 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
       <c r="B12" s="21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="19"/>
@@ -4807,10 +4806,10 @@
         <v/>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV12" s="5" t="s">
         <v>33</v>
@@ -4874,13 +4873,13 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1">
       <c r="B13" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H13" s="1">
         <v>1400</v>
@@ -4925,7 +4924,7 @@
         <v>1700</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="19"/>
@@ -5012,10 +5011,10 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR13" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV13" s="5" t="s">
         <v>32</v>
@@ -5079,13 +5078,13 @@
     </row>
     <row r="14" spans="2:64" ht="21" customHeight="1">
       <c r="B14" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="W14" s="1" t="str">
         <f t="shared" si="19"/>
@@ -5172,10 +5171,10 @@
         <v/>
       </c>
       <c r="AR14" s="9" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>33</v>
@@ -5239,13 +5238,13 @@
     </row>
     <row r="15" spans="2:64" ht="21" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H15" s="1">
         <v>1600</v>
@@ -5290,7 +5289,7 @@
         <v>1800</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="19"/>
@@ -5377,13 +5376,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="AS15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV15" s="5" t="s">
         <v>32</v>
@@ -5451,10 +5450,10 @@
         <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J16" s="1">
         <v>1500</v>
@@ -5487,7 +5486,7 @@
         <v>1800</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="19"/>
@@ -5574,13 +5573,13 @@
         <v/>
       </c>
       <c r="AR16" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AS16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV16" s="5" t="s">
         <v>32</v>
@@ -5644,13 +5643,13 @@
     </row>
     <row r="17" spans="2:64" ht="21" customHeight="1">
       <c r="B17" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="19"/>
@@ -5737,10 +5736,10 @@
         <v/>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV17" s="5" t="s">
         <v>33</v>
@@ -5804,13 +5803,13 @@
     </row>
     <row r="18" spans="2:64" ht="21" customHeight="1">
       <c r="B18" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J18" s="1">
         <v>1500</v>
@@ -5849,7 +5848,7 @@
         <v>1830</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>319</v>
+        <v>573</v>
       </c>
       <c r="W18" s="1" t="str">
         <f t="shared" si="19"/>
@@ -5937,10 +5936,10 @@
       </c>
       <c r="AR18" s="4"/>
       <c r="AT18" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>32</v>
@@ -5953,7 +5952,7 @@
         <v>{
     'name': "Boulder Beer Company",
     'area': "campus",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1830", 'tuesday-start':"1500", 'tuesday-end':"1830", 'wednesday-start':"1500", 'wednesday-end':"1830", 'thursday-start':"1500", 'thursday-end':"1830", 'friday-start':"1500", 'friday-end':"1830", 'saturday-start':"1500", 'saturday-end':"1830"},  'description': "$4 Pints and $15 Pitchers.&lt;br&gt;Daily Specials:&lt;br&gt;Mon:&lt;br&gt;Kids eat free from kids’ menu after 5pm.&lt;br&gt;Industry night: $3 pints after 6pm. Open Mic night from 6-9pm.&lt;br&gt;First pint of beer only $1.25 with lunch purchase from 11am – 2pm.&lt;br&gt;Tue:Wing Night: 25 cent wings 6pm-Close.&lt;br&gt;First pint of beer only $1.25 with lunch purchase from 11am – 2pm.&lt;br&gt;Wed:&lt;br&gt;Bags Tournament starting at 6 for various prizes. Registration starts at 5.&lt;br&gt;Thur:&lt;br&gt;Live Music 5-9pm.&lt;br&gt;Fri:&lt;br&gt;Reverse Happy Hour $4 Pints and $15 Pitchers from 8-10pm.&lt;br&gt;Sat:&lt;br&gt;Go Buffs! $15 pitchers of Buffalo Gold all day.&lt;br&gt;Live Music 5-9pm.", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5401, 2880 Wilderness Pl, Boulder, CO 80301", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1830", 'tuesday-start':"1500", 'tuesday-end':"1830", 'wednesday-start':"1500", 'wednesday-end':"1830", 'thursday-start':"1500", 'thursday-end':"1830", 'friday-start':"1500", 'friday-end':"1830", 'saturday-start':"1500", 'saturday-end':"1830"},  'description': "$4 Pints and $15 Pitchers.&lt;br&gt;Daily Specials:&lt;br&gt;Mon:&lt;br&gt;Kids eat free from kids' menu after 5pm.&lt;br&gt;Industry night: $3 pints after 6pm. Open Mic night from 6-9pm.&lt;br&gt;First pint of beer only $1.25 with lunch purchase from 11am - 2pm.&lt;br&gt;Tue:Wing Night: 25 cent wings 6pm-Close.&lt;br&gt;First pint of beer only $1.25 with lunch purchase from 11am - 2pm.&lt;br&gt;Wed:&lt;br&gt;Bags Tournament starting at 6 for various prizes. Registration starts at 5.&lt;br&gt;Thur:&lt;br&gt;Live Music 5-9pm.&lt;br&gt;Fri:&lt;br&gt;Reverse Happy Hour $4 Pints and $15 Pitchers from 8-10pm.&lt;br&gt;Sat:&lt;br&gt;Go Buffs! $15 pitchers of Buffalo Gold all day.&lt;br&gt;Live Music 5-9pm.", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5401, 2880 Wilderness Pl, Boulder, CO 80301", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY18" s="1" t="str">
         <f t="shared" si="9"/>
@@ -6005,7 +6004,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="2:64" ht="21" customHeight="1">
@@ -6013,10 +6012,10 @@
         <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H19" s="1">
         <v>1600</v>
@@ -6061,7 +6060,7 @@
         <v>1800</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="19"/>
@@ -6148,13 +6147,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AS19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV19" s="5" t="s">
         <v>32</v>
@@ -6218,13 +6217,13 @@
     </row>
     <row r="20" spans="2:64" ht="21" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W20" s="1" t="str">
         <f t="shared" si="19"/>
@@ -6311,13 +6310,13 @@
         <v/>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AS20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV20" s="5" t="s">
         <v>33</v>
@@ -6381,13 +6380,13 @@
     </row>
     <row r="21" spans="2:64" ht="21" customHeight="1">
       <c r="B21" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1" t="str">
@@ -6476,7 +6475,7 @@
       </c>
       <c r="AR21" s="4"/>
       <c r="AU21" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>33</v>
@@ -6543,10 +6542,10 @@
         <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H22" s="1">
         <v>1500</v>
@@ -6591,7 +6590,7 @@
         <v>1830</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="19"/>
@@ -6678,16 +6677,16 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR22" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AS22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV22" s="5" t="s">
         <v>32</v>
@@ -6751,13 +6750,13 @@
     </row>
     <row r="23" spans="2:64" ht="21" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="19"/>
@@ -6844,13 +6843,13 @@
         <v/>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AS23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>33</v>
@@ -6914,13 +6913,13 @@
     </row>
     <row r="24" spans="2:64" ht="21" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="19"/>
@@ -7007,13 +7006,13 @@
         <v/>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>33</v>
@@ -7077,13 +7076,13 @@
     </row>
     <row r="25" spans="2:64" ht="21" customHeight="1">
       <c r="B25" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="W25" s="1" t="str">
         <f t="shared" si="19"/>
@@ -7170,13 +7169,13 @@
         <v/>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AS25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>33</v>
@@ -7240,13 +7239,13 @@
     </row>
     <row r="26" spans="2:64" ht="21" customHeight="1">
       <c r="B26" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H26" s="1">
         <v>1500</v>
@@ -7375,10 +7374,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV26" s="5" t="s">
         <v>32</v>
@@ -7442,13 +7441,13 @@
     </row>
     <row r="27" spans="2:64" ht="21" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H27" s="1">
         <v>1600</v>
@@ -7578,10 +7577,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR27" s="4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>32</v>
@@ -7648,10 +7647,10 @@
         <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H28" s="1">
         <v>1400</v>
@@ -7696,7 +7695,7 @@
         <v>1800</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W28" s="1">
         <f t="shared" si="19"/>
@@ -7783,13 +7782,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR28" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AS28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV28" s="5" t="s">
         <v>32</v>
@@ -7854,7 +7853,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>470</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1">
@@ -7862,10 +7861,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="W29" s="1" t="str">
         <f t="shared" si="19"/>
@@ -7952,10 +7951,10 @@
         <v/>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV29" s="5" t="s">
         <v>33</v>
@@ -8019,13 +8018,13 @@
     </row>
     <row r="30" spans="2:64" ht="21" customHeight="1">
       <c r="B30" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="W30" s="1" t="str">
         <f t="shared" si="19"/>
@@ -8112,13 +8111,13 @@
         <v/>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AS30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>33</v>
@@ -8182,13 +8181,13 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" si="19"/>
@@ -8275,10 +8274,10 @@
         <v/>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>33</v>
@@ -8342,13 +8341,13 @@
     </row>
     <row r="32" spans="2:64" ht="21" customHeight="1">
       <c r="B32" s="21" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="19"/>
@@ -8435,10 +8434,10 @@
         <v/>
       </c>
       <c r="AR32" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="AU32" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="AU32" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="AV32" s="5" t="s">
         <v>33</v>
@@ -8502,13 +8501,13 @@
     </row>
     <row r="33" spans="2:64" ht="21" customHeight="1">
       <c r="B33" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="19"/>
@@ -8595,13 +8594,13 @@
         <v/>
       </c>
       <c r="AR33" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AS33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV33" s="5" t="s">
         <v>33</v>
@@ -8665,13 +8664,13 @@
     </row>
     <row r="34" spans="2:64" ht="21" customHeight="1">
       <c r="B34" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="W34" s="1" t="str">
         <f t="shared" si="19"/>
@@ -8758,13 +8757,13 @@
         <v/>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV34" s="5" t="s">
         <v>33</v>
@@ -8832,13 +8831,13 @@
     </row>
     <row r="35" spans="2:64" ht="21" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H35" s="1">
         <v>1500</v>
@@ -8883,7 +8882,7 @@
         <v>1800</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="19"/>
@@ -8970,13 +8969,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR35" s="21" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AS35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV35" s="5" t="s">
         <v>32</v>
@@ -9039,10 +9038,10 @@
         <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H36" s="1">
         <v>1400</v>
@@ -9087,7 +9086,7 @@
         <v>1800</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W36" s="1">
         <f t="shared" si="19"/>
@@ -9174,13 +9173,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR36" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AS36" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>32</v>
@@ -9244,13 +9243,13 @@
     </row>
     <row r="37" spans="2:64" ht="21" customHeight="1">
       <c r="B37" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="W37" s="1" t="str">
         <f t="shared" si="19"/>
@@ -9337,13 +9336,13 @@
         <v/>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AS37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>33</v>
@@ -9407,13 +9406,13 @@
     </row>
     <row r="38" spans="2:64" ht="21" customHeight="1">
       <c r="B38" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="19"/>
@@ -9500,10 +9499,10 @@
         <v/>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV38" s="5" t="s">
         <v>33</v>
@@ -9567,13 +9566,13 @@
     </row>
     <row r="39" spans="2:64" ht="21" customHeight="1">
       <c r="B39" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J39" s="1">
         <v>1500</v>
@@ -9606,7 +9605,7 @@
         <v>1800</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="19"/>
@@ -9693,13 +9692,13 @@
         <v/>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AS39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV39" s="5" t="s">
         <v>32</v>
@@ -9764,18 +9763,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="2:64" ht="21" customHeight="1">
       <c r="B40" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="W40" s="1" t="str">
         <f t="shared" si="19"/>
@@ -9862,13 +9861,13 @@
         <v/>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AS40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>33</v>
@@ -9932,13 +9931,13 @@
     </row>
     <row r="41" spans="2:64" ht="21" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="V41" s="6"/>
       <c r="W41" s="1" t="str">
@@ -10026,10 +10025,10 @@
         <v/>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV41" s="5" t="s">
         <v>33</v>
@@ -10093,13 +10092,13 @@
     </row>
     <row r="42" spans="2:64" ht="21" customHeight="1">
       <c r="B42" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="W42" s="1" t="str">
         <f t="shared" si="19"/>
@@ -10186,10 +10185,10 @@
         <v/>
       </c>
       <c r="AR42" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV42" s="5" t="s">
         <v>33</v>
@@ -10256,10 +10255,10 @@
         <v>73</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H43" s="1">
         <v>1700</v>
@@ -10298,7 +10297,7 @@
         <v>1800</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="19"/>
@@ -10385,13 +10384,13 @@
         <v/>
       </c>
       <c r="AR43" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV43" s="5" t="s">
         <v>32</v>
@@ -10455,13 +10454,13 @@
     </row>
     <row r="44" spans="2:64" ht="21" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="19"/>
@@ -10548,13 +10547,13 @@
         <v/>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AS44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>33</v>
@@ -10618,13 +10617,13 @@
     </row>
     <row r="45" spans="2:64" ht="21" customHeight="1">
       <c r="B45" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="W45" s="1" t="str">
         <f t="shared" si="19"/>
@@ -10711,10 +10710,10 @@
         <v/>
       </c>
       <c r="AR45" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV45" s="5" t="s">
         <v>33</v>
@@ -10778,13 +10777,13 @@
     </row>
     <row r="46" spans="2:64" ht="21" customHeight="1">
       <c r="B46" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="19"/>
@@ -10871,13 +10870,13 @@
         <v/>
       </c>
       <c r="AR46" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AS46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV46" s="5" t="s">
         <v>33</v>
@@ -10941,13 +10940,13 @@
     </row>
     <row r="47" spans="2:64" ht="21" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="W47" s="1" t="str">
         <f t="shared" si="19"/>
@@ -11034,10 +11033,10 @@
         <v/>
       </c>
       <c r="AR47" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>33</v>
@@ -11101,13 +11100,13 @@
     </row>
     <row r="48" spans="2:64" ht="21" customHeight="1">
       <c r="B48" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H48" s="1">
         <v>1500</v>
@@ -11152,7 +11151,7 @@
         <v>1900</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="W48" s="1">
         <f t="shared" si="19"/>
@@ -11239,13 +11238,13 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR48" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AT48" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV48" s="5" t="s">
         <v>32</v>
@@ -11312,10 +11311,10 @@
         <v>74</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J49" s="1">
         <v>1430</v>
@@ -11354,7 +11353,7 @@
         <v>1730</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W49" s="1" t="str">
         <f t="shared" si="19"/>
@@ -11441,13 +11440,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR49" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AS49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV49" s="5" t="s">
         <v>32</v>
@@ -11514,10 +11513,10 @@
         <v>26</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H50" s="1">
         <v>1500</v>
@@ -11562,7 +11561,7 @@
         <v>2000</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W50" s="1">
         <f t="shared" si="19"/>
@@ -11649,13 +11648,13 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR50" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU50" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>32</v>
@@ -11722,10 +11721,10 @@
         <v>26</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H51" s="1">
         <v>1500</v>
@@ -11770,7 +11769,7 @@
         <v>2000</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="W51" s="1">
         <f t="shared" si="19"/>
@@ -11858,7 +11857,7 @@
       </c>
       <c r="AR51" s="4"/>
       <c r="AU51" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV51" s="5" t="s">
         <v>32</v>
@@ -11922,13 +11921,13 @@
     </row>
     <row r="52" spans="2:64" ht="21" customHeight="1">
       <c r="B52" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="W52" s="1" t="str">
         <f t="shared" si="19"/>
@@ -12015,10 +12014,10 @@
         <v/>
       </c>
       <c r="AR52" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV52" s="5" t="s">
         <v>33</v>
@@ -12082,13 +12081,13 @@
     </row>
     <row r="53" spans="2:64" ht="21" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="W53" s="1" t="str">
         <f t="shared" si="19"/>
@@ -12175,10 +12174,10 @@
         <v/>
       </c>
       <c r="AR53" s="12" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV53" s="5" t="s">
         <v>33</v>
@@ -12242,13 +12241,13 @@
     </row>
     <row r="54" spans="2:64" ht="21" customHeight="1">
       <c r="B54" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="V54" s="6"/>
       <c r="W54" s="1" t="str">
@@ -12336,13 +12335,13 @@
         <v/>
       </c>
       <c r="AR54" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AS54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV54" s="5" t="s">
         <v>33</v>
@@ -12409,10 +12408,10 @@
         <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H55" s="1">
         <v>1500</v>
@@ -12457,7 +12456,7 @@
         <v>1800</v>
       </c>
       <c r="V55" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="19"/>
@@ -12544,16 +12543,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR55" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AS55" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT55" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV55" s="5" t="s">
         <v>32</v>
@@ -12620,10 +12619,10 @@
         <v>76</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H56" s="1">
         <v>1600</v>
@@ -12668,7 +12667,7 @@
         <v>1800</v>
       </c>
       <c r="V56" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W56" s="1">
         <f t="shared" si="19"/>
@@ -12755,13 +12754,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR56" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AS56" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV56" s="5" t="s">
         <v>32</v>
@@ -12825,13 +12824,13 @@
     </row>
     <row r="57" spans="2:64" ht="21" customHeight="1">
       <c r="B57" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H57" s="1">
         <v>1600</v>
@@ -12876,7 +12875,7 @@
         <v>1800</v>
       </c>
       <c r="V57" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W57" s="1">
         <f t="shared" si="19"/>
@@ -12963,13 +12962,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR57" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AS57" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV57" s="5" t="s">
         <v>32</v>
@@ -13034,18 +13033,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL57" s="1" t="s">
-        <v>471</v>
+        <v>572</v>
       </c>
     </row>
     <row r="58" spans="2:64" ht="21" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="19"/>
@@ -13132,10 +13131,10 @@
         <v/>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV58" s="5" t="s">
         <v>33</v>
@@ -13199,13 +13198,13 @@
     </row>
     <row r="59" spans="2:64" ht="21" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="19"/>
@@ -13292,16 +13291,16 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AS59" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT59" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV59" s="5" t="s">
         <v>33</v>
@@ -13365,13 +13364,13 @@
     </row>
     <row r="60" spans="2:64" ht="21" customHeight="1">
       <c r="B60" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="W60" s="1" t="str">
         <f t="shared" si="19"/>
@@ -13458,10 +13457,10 @@
         <v/>
       </c>
       <c r="AR60" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV60" s="5" t="s">
         <v>33</v>
@@ -13525,13 +13524,13 @@
     </row>
     <row r="61" spans="2:64" ht="21" customHeight="1">
       <c r="B61" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="W61" s="1" t="str">
         <f t="shared" si="19"/>
@@ -13618,10 +13617,10 @@
         <v/>
       </c>
       <c r="AR61" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV61" s="5" t="s">
         <v>33</v>
@@ -13686,18 +13685,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL61" s="27" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="2:64" ht="21" customHeight="1">
       <c r="B62" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="W62" s="1" t="str">
         <f t="shared" si="19"/>
@@ -13784,13 +13783,13 @@
         <v/>
       </c>
       <c r="AR62" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AS62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV62" s="5" t="s">
         <v>33</v>
@@ -13857,10 +13856,10 @@
         <v>77</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J63" s="1">
         <v>1500</v>
@@ -13893,7 +13892,7 @@
         <v>1800</v>
       </c>
       <c r="V63" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W63" s="1" t="str">
         <f t="shared" si="19"/>
@@ -13980,13 +13979,13 @@
         <v/>
       </c>
       <c r="AR63" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AS63" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV63" s="5" t="s">
         <v>32</v>
@@ -14050,13 +14049,13 @@
     </row>
     <row r="64" spans="2:64" ht="21" customHeight="1">
       <c r="B64" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="W64" s="1" t="str">
         <f t="shared" si="19"/>
@@ -14143,10 +14142,10 @@
         <v/>
       </c>
       <c r="AR64" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV64" s="5" t="s">
         <v>33</v>
@@ -14210,13 +14209,13 @@
     </row>
     <row r="65" spans="2:63" ht="21" customHeight="1">
       <c r="B65" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="W65" s="1" t="str">
         <f t="shared" si="19"/>
@@ -14303,10 +14302,10 @@
         <v/>
       </c>
       <c r="AR65" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV65" s="5" t="s">
         <v>33</v>
@@ -14373,10 +14372,10 @@
         <v>78</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H66" s="1">
         <v>1500</v>
@@ -14421,7 +14420,7 @@
         <v>1800</v>
       </c>
       <c r="V66" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W66" s="1">
         <f t="shared" si="19"/>
@@ -14508,13 +14507,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR66" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AS66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV66" s="5" t="s">
         <v>32</v>
@@ -14585,10 +14584,10 @@
         <v>79</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H67" s="1">
         <v>1700</v>
@@ -14633,7 +14632,7 @@
         <v>1900</v>
       </c>
       <c r="V67" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W67" s="1">
         <f t="shared" ref="W67:W130" si="61">IF(H67&gt;0,H67/100,"")</f>
@@ -14720,13 +14719,13 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR67" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AS67" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV67" s="5" t="s">
         <v>32</v>
@@ -14790,13 +14789,13 @@
     </row>
     <row r="68" spans="2:63" ht="21" customHeight="1">
       <c r="B68" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="61"/>
@@ -14883,13 +14882,13 @@
         <v/>
       </c>
       <c r="AR68" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AS68" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU68" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV68" s="5" t="s">
         <v>33</v>
@@ -14953,13 +14952,13 @@
     </row>
     <row r="69" spans="2:63" ht="21" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="W69" s="1" t="str">
         <f t="shared" si="61"/>
@@ -15046,10 +15045,10 @@
         <v/>
       </c>
       <c r="AR69" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV69" s="5" t="s">
         <v>33</v>
@@ -15113,13 +15112,13 @@
     </row>
     <row r="70" spans="2:63" ht="21" customHeight="1">
       <c r="B70" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="W70" s="1" t="str">
         <f t="shared" si="61"/>
@@ -15206,10 +15205,10 @@
         <v/>
       </c>
       <c r="AR70" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV70" s="5" t="s">
         <v>33</v>
@@ -15273,13 +15272,13 @@
     </row>
     <row r="71" spans="2:63" ht="21" customHeight="1">
       <c r="B71" s="21" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="V71" s="6"/>
       <c r="W71" s="1" t="str">
@@ -15367,10 +15366,10 @@
         <v/>
       </c>
       <c r="AR71" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV71" s="5" t="s">
         <v>33</v>
@@ -15437,10 +15436,10 @@
         <v>80</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J72" s="1">
         <v>1500</v>
@@ -15473,7 +15472,7 @@
         <v>1800</v>
       </c>
       <c r="V72" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W72" s="1" t="str">
         <f t="shared" si="61"/>
@@ -15560,13 +15559,13 @@
         <v/>
       </c>
       <c r="AR72" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AS72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU72" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV72" s="5" t="s">
         <v>32</v>
@@ -15633,10 +15632,10 @@
         <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J73" s="1">
         <v>1600</v>
@@ -15669,7 +15668,7 @@
         <v>1800</v>
       </c>
       <c r="V73" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W73" s="1" t="str">
         <f t="shared" si="61"/>
@@ -15756,13 +15755,13 @@
         <v/>
       </c>
       <c r="AR73" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AS73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU73" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV73" s="5" t="s">
         <v>32</v>
@@ -15826,13 +15825,13 @@
     </row>
     <row r="74" spans="2:63" ht="21" customHeight="1">
       <c r="B74" s="28" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H74" s="1">
         <v>1500</v>
@@ -15877,7 +15876,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="W74" s="1">
         <f t="shared" si="61"/>
@@ -15964,10 +15963,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR74" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AU74" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV74" s="5" t="s">
         <v>32</v>
@@ -16027,13 +16026,13 @@
     </row>
     <row r="75" spans="2:63" ht="21" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="W75" s="1" t="str">
         <f t="shared" si="61"/>
@@ -16120,13 +16119,13 @@
         <v/>
       </c>
       <c r="AR75" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AS75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV75" s="5" t="s">
         <v>33</v>
@@ -16190,13 +16189,13 @@
     </row>
     <row r="76" spans="2:63" ht="21" customHeight="1">
       <c r="B76" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="W76" s="1" t="str">
         <f t="shared" si="61"/>
@@ -16283,13 +16282,13 @@
         <v/>
       </c>
       <c r="AR76" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AS76" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV76" s="5" t="s">
         <v>33</v>
@@ -16356,10 +16355,10 @@
         <v>83</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H77" s="1">
         <v>1500</v>
@@ -16404,7 +16403,7 @@
         <v>1800</v>
       </c>
       <c r="V77" s="10" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="W77" s="1">
         <f t="shared" si="61"/>
@@ -16491,13 +16490,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR77" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AS77" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV77" s="5" t="s">
         <v>32</v>
@@ -16564,10 +16563,10 @@
         <v>84</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J78" s="1">
         <v>1630</v>
@@ -16594,7 +16593,7 @@
         <v>1830</v>
       </c>
       <c r="V78" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W78" s="1" t="str">
         <f t="shared" si="61"/>
@@ -16681,16 +16680,16 @@
         <v/>
       </c>
       <c r="AR78" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AS78" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT78" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU78" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV78" s="5" t="s">
         <v>32</v>
@@ -16757,10 +16756,10 @@
         <v>85</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J79" s="1">
         <v>1430</v>
@@ -16799,7 +16798,7 @@
         <v>1730</v>
       </c>
       <c r="V79" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W79" s="1" t="str">
         <f t="shared" si="61"/>
@@ -16886,13 +16885,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR79" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AS79" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV79" s="5" t="s">
         <v>32</v>
@@ -16956,13 +16955,13 @@
     </row>
     <row r="80" spans="2:63" ht="21" customHeight="1">
       <c r="B80" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="W80" s="1" t="str">
         <f t="shared" si="61"/>
@@ -17049,10 +17048,10 @@
         <v/>
       </c>
       <c r="AR80" s="21" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV80" s="5" t="s">
         <v>33</v>
@@ -17115,10 +17114,10 @@
         <v>86</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H81" s="1">
         <v>1500</v>
@@ -17163,7 +17162,7 @@
         <v>1800</v>
       </c>
       <c r="V81" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W81" s="1">
         <f t="shared" si="61"/>
@@ -17250,13 +17249,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR81" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AS81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV81" s="5" t="s">
         <v>32</v>
@@ -17320,13 +17319,13 @@
     </row>
     <row r="82" spans="2:63" ht="21" customHeight="1">
       <c r="B82" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W82" s="1" t="str">
         <f t="shared" si="61"/>
@@ -17417,7 +17416,7 @@
         <v>28</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV82" s="5" t="s">
         <v>33</v>
@@ -17481,13 +17480,13 @@
     </row>
     <row r="83" spans="2:63" ht="21" customHeight="1">
       <c r="B83" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="W83" s="1" t="str">
         <f t="shared" si="61"/>
@@ -17574,10 +17573,10 @@
         <v/>
       </c>
       <c r="AR83" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV83" s="5" t="s">
         <v>33</v>
@@ -17641,13 +17640,13 @@
     </row>
     <row r="84" spans="2:63" ht="21" customHeight="1">
       <c r="B84" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W84" s="1" t="str">
         <f t="shared" si="61"/>
@@ -17734,13 +17733,13 @@
         <v/>
       </c>
       <c r="AR84" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AS84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV84" s="5" t="s">
         <v>33</v>
@@ -17804,13 +17803,13 @@
     </row>
     <row r="85" spans="2:63" ht="21" customHeight="1">
       <c r="B85" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W85" s="1" t="str">
         <f t="shared" si="61"/>
@@ -17897,13 +17896,13 @@
         <v/>
       </c>
       <c r="AR85" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AS85" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU85" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV85" s="5" t="s">
         <v>33</v>
@@ -17970,10 +17969,10 @@
         <v>87</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H86" s="1">
         <v>1530</v>
@@ -18018,7 +18017,7 @@
         <v>1730</v>
       </c>
       <c r="V86" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W86" s="1">
         <f t="shared" si="61"/>
@@ -18105,13 +18104,13 @@
         <v>3.3pm-5.3pm</v>
       </c>
       <c r="AR86" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AS86" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU86" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV86" s="5" t="s">
         <v>32</v>
@@ -18178,10 +18177,10 @@
         <v>88</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H87" s="1">
         <v>1700</v>
@@ -18226,7 +18225,7 @@
         <v>1830</v>
       </c>
       <c r="V87" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W87" s="1">
         <f t="shared" si="61"/>
@@ -18313,13 +18312,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR87" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AS87" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU87" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV87" s="5" t="s">
         <v>32</v>
@@ -18386,10 +18385,10 @@
         <v>89</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H88" s="1">
         <v>1600</v>
@@ -18434,7 +18433,7 @@
         <v>1900</v>
       </c>
       <c r="V88" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" si="61"/>
@@ -18521,13 +18520,13 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR88" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AS88" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AU88" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV88" s="5" t="s">
         <v>32</v>
@@ -18591,13 +18590,13 @@
     </row>
     <row r="89" spans="2:63" ht="21" customHeight="1">
       <c r="B89" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="61"/>
@@ -18684,10 +18683,10 @@
         <v/>
       </c>
       <c r="AR89" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="AU89" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV89" s="5" t="s">
         <v>33</v>
@@ -18751,13 +18750,13 @@
     </row>
     <row r="90" spans="2:63" ht="21" customHeight="1">
       <c r="B90" s="21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="W90" s="1" t="str">
         <f t="shared" si="61"/>
@@ -18844,10 +18843,10 @@
         <v/>
       </c>
       <c r="AR90" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="AU90" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV90" s="5" t="s">
         <v>33</v>
@@ -18911,13 +18910,13 @@
     </row>
     <row r="91" spans="2:63" ht="21" customHeight="1">
       <c r="B91" s="21" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G91" s="25" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="W91" s="1" t="str">
         <f t="shared" si="61"/>
@@ -19004,7 +19003,7 @@
         <v/>
       </c>
       <c r="AU91" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV91" s="5" t="s">
         <v>33</v>
@@ -19068,13 +19067,13 @@
     </row>
     <row r="92" spans="2:63" ht="21" customHeight="1">
       <c r="B92" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="W92" s="1" t="str">
         <f t="shared" si="61"/>
@@ -19161,10 +19160,10 @@
         <v/>
       </c>
       <c r="AR92" s="21" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AU92" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV92" s="5" t="s">
         <v>33</v>
@@ -19227,10 +19226,10 @@
         <v>90</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J93" s="1">
         <v>1500</v>
@@ -19263,7 +19262,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="17" t="s">
-        <v>131</v>
+        <v>570</v>
       </c>
       <c r="W93" s="1" t="str">
         <f t="shared" si="61"/>
@@ -19350,13 +19349,13 @@
         <v/>
       </c>
       <c r="AR93" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AS93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU93" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV93" s="5" t="s">
         <v>32</v>
@@ -19369,8 +19368,7 @@
         <v>{
     'name': "Riffs Urban Fare",
     'area': "pearl",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Monday-Friday, 3 - 6pm &lt;br&gt; Food: $3 - $7 small plates menu &lt;br&gt; Drinks: $2 off Draft Beers, $6 cocktails and 33% off the wine list
-*On Mondays and Tuesdays, select bottles of wine are $30 from 3 pm until close", 'link':"http://riffsboulder.com/", 'pricing':"",   'phone-number': "", 'address': "1115 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Monday-Friday, 3 - 6pm &lt;br&gt; Food: $3 - $7 small plates menu &lt;br&gt; Drinks: $2 off Draft Beers, $6 cocktails and 33% off the wine list&lt;br&gt;*On Mondays and Tuesdays, select bottles of wine are $30 from 3 pm until close", 'link':"http://riffsboulder.com/", 'pricing':"",   'phone-number': "", 'address': "1115 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY93" s="1" t="str">
         <f t="shared" si="52"/>
@@ -19421,13 +19419,13 @@
     </row>
     <row r="94" spans="2:63" ht="21" customHeight="1">
       <c r="B94" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="W94" s="1" t="str">
         <f t="shared" si="61"/>
@@ -19514,16 +19512,16 @@
         <v/>
       </c>
       <c r="AR94" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AS94" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT94" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU94" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV94" s="5" t="s">
         <v>33</v>
@@ -19587,13 +19585,13 @@
     </row>
     <row r="95" spans="2:63" ht="21" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H95" s="1">
         <v>1400</v>
@@ -19638,7 +19636,7 @@
         <v>1800</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" si="61"/>
@@ -19725,10 +19723,10 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR95" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="AU95" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV95" s="5" t="s">
         <v>32</v>
@@ -19795,10 +19793,10 @@
         <v>24</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J96" s="1">
         <v>1500</v>
@@ -19831,7 +19829,7 @@
         <v>1800</v>
       </c>
       <c r="V96" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="61"/>
@@ -19918,13 +19916,13 @@
         <v/>
       </c>
       <c r="AR96" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AS96" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU96" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV96" s="5" t="s">
         <v>32</v>
@@ -19988,13 +19986,13 @@
     </row>
     <row r="97" spans="2:63" ht="21" customHeight="1">
       <c r="B97" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="W97" s="1" t="str">
         <f t="shared" si="61"/>
@@ -20081,13 +20079,13 @@
         <v/>
       </c>
       <c r="AR97" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AS97" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU97" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV97" s="5" t="s">
         <v>33</v>
@@ -20151,13 +20149,13 @@
     </row>
     <row r="98" spans="2:63" ht="21" customHeight="1">
       <c r="B98" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H98" s="1">
         <v>1500</v>
@@ -20202,7 +20200,7 @@
         <v>1800</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="W98" s="1">
         <f t="shared" si="61"/>
@@ -20289,16 +20287,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR98" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AS98" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT98" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU98" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV98" s="5" t="s">
         <v>32</v>
@@ -20366,13 +20364,13 @@
     </row>
     <row r="99" spans="2:63" ht="21" customHeight="1">
       <c r="B99" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="W99" s="1" t="str">
         <f t="shared" si="61"/>
@@ -20459,10 +20457,10 @@
         <v/>
       </c>
       <c r="AR99" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AU99" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV99" s="5" t="s">
         <v>33</v>
@@ -20529,10 +20527,10 @@
         <v>91</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H100" s="1">
         <v>1500</v>
@@ -20577,7 +20575,7 @@
         <v>1800</v>
       </c>
       <c r="V100" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W100" s="1">
         <f t="shared" si="61"/>
@@ -20664,13 +20662,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR100" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS100" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU100" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV100" s="5" t="s">
         <v>32</v>
@@ -20734,13 +20732,13 @@
     </row>
     <row r="101" spans="2:63" ht="21" customHeight="1">
       <c r="B101" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="W101" s="1" t="str">
         <f t="shared" si="61"/>
@@ -20827,10 +20825,10 @@
         <v/>
       </c>
       <c r="AR101" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AU101" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV101" s="5" t="s">
         <v>33</v>
@@ -20897,10 +20895,10 @@
         <v>92</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H102" s="1">
         <v>1500</v>
@@ -20945,7 +20943,7 @@
         <v>1700</v>
       </c>
       <c r="V102" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W102" s="1">
         <f t="shared" si="61"/>
@@ -21032,13 +21030,13 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR102" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AS102" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU102" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV102" s="5" t="s">
         <v>32</v>
@@ -21102,13 +21100,13 @@
     </row>
     <row r="103" spans="2:63" ht="21" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="W103" s="1" t="str">
         <f t="shared" si="61"/>
@@ -21195,10 +21193,10 @@
         <v/>
       </c>
       <c r="AR103" s="14" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="AU103" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV103" s="5" t="s">
         <v>33</v>
@@ -21265,10 +21263,10 @@
         <v>93</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H104" s="1">
         <v>1500</v>
@@ -21313,7 +21311,7 @@
         <v>1800</v>
       </c>
       <c r="V104" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W104" s="1">
         <f t="shared" si="61"/>
@@ -21400,13 +21398,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR104" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AS104" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU104" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV104" s="5" t="s">
         <v>32</v>
@@ -21473,10 +21471,10 @@
         <v>94</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H105" s="1">
         <v>1500</v>
@@ -21521,7 +21519,7 @@
         <v>1900</v>
       </c>
       <c r="V105" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="W105" s="1">
         <f t="shared" si="61"/>
@@ -21608,13 +21606,13 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR105" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AS105" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV105" s="5" t="s">
         <v>32</v>
@@ -21678,13 +21676,13 @@
     </row>
     <row r="106" spans="2:63" ht="21" customHeight="1">
       <c r="B106" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="W106" s="1" t="str">
         <f t="shared" si="61"/>
@@ -21771,10 +21769,10 @@
         <v/>
       </c>
       <c r="AR106" s="14" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AU106" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV106" s="5" t="s">
         <v>33</v>
@@ -21838,13 +21836,13 @@
     </row>
     <row r="107" spans="2:63" ht="21" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="W107" s="1" t="str">
         <f t="shared" si="61"/>
@@ -21931,10 +21929,10 @@
         <v/>
       </c>
       <c r="AR107" s="14" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AU107" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV107" s="5" t="s">
         <v>33</v>
@@ -21998,13 +21996,13 @@
     </row>
     <row r="108" spans="2:63" ht="21" customHeight="1">
       <c r="B108" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="W108" s="1" t="str">
         <f t="shared" si="61"/>
@@ -22091,10 +22089,10 @@
         <v/>
       </c>
       <c r="AR108" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AU108" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV108" s="5" t="s">
         <v>33</v>
@@ -22158,13 +22156,13 @@
     </row>
     <row r="109" spans="2:63" ht="21" customHeight="1">
       <c r="B109" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="W109" s="1" t="str">
         <f t="shared" si="61"/>
@@ -22251,13 +22249,13 @@
         <v/>
       </c>
       <c r="AR109" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AS109" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU109" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV109" s="5" t="s">
         <v>33</v>
@@ -22321,13 +22319,13 @@
     </row>
     <row r="110" spans="2:63" ht="21" customHeight="1">
       <c r="B110" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H110" s="1">
         <v>1600</v>
@@ -22372,7 +22370,7 @@
         <v>1800</v>
       </c>
       <c r="V110" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="W110" s="1">
         <f t="shared" si="61"/>
@@ -22459,13 +22457,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR110" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="AS110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU110" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV110" s="5" t="s">
         <v>32</v>
@@ -22529,13 +22527,13 @@
     </row>
     <row r="111" spans="2:63" ht="21" customHeight="1">
       <c r="B111" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H111" s="1">
         <v>1600</v>
@@ -22580,7 +22578,7 @@
         <v>1730</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="W111" s="1">
         <f t="shared" si="61"/>
@@ -22667,10 +22665,10 @@
         <v>11am-5.3pm</v>
       </c>
       <c r="AR111" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AU111" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV111" s="5" t="s">
         <v>32</v>
@@ -22737,10 +22735,10 @@
         <v>95</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J112" s="1">
         <v>1700</v>
@@ -22779,7 +22777,7 @@
         <v>1830</v>
       </c>
       <c r="V112" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="W112" s="1" t="str">
         <f t="shared" si="61"/>
@@ -22866,13 +22864,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR112" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AS112" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AU112" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV112" s="5" t="s">
         <v>32</v>
@@ -22936,13 +22934,13 @@
     </row>
     <row r="113" spans="2:64" ht="21" customHeight="1">
       <c r="B113" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="V113" s="6"/>
       <c r="W113" s="1" t="str">
@@ -23030,10 +23028,10 @@
         <v/>
       </c>
       <c r="AR113" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AU113" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV113" s="5" t="s">
         <v>33</v>
@@ -23100,10 +23098,10 @@
         <v>96</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H114" s="1">
         <v>1400</v>
@@ -23148,7 +23146,7 @@
         <v>1800</v>
       </c>
       <c r="V114" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W114" s="1">
         <f t="shared" si="61"/>
@@ -23235,13 +23233,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR114" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AS114" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU114" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV114" s="5" t="s">
         <v>32</v>
@@ -23308,10 +23306,10 @@
         <v>97</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J115" s="1">
         <v>1600</v>
@@ -23350,7 +23348,7 @@
         <v>1800</v>
       </c>
       <c r="V115" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="61"/>
@@ -23437,13 +23435,13 @@
         <v>11.3am-6pm</v>
       </c>
       <c r="AR115" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AS115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU115" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV115" s="5" t="s">
         <v>32</v>
@@ -23510,10 +23508,10 @@
         <v>98</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H116" s="1">
         <v>1500</v>
@@ -23558,7 +23556,7 @@
         <v>1800</v>
       </c>
       <c r="V116" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W116" s="1">
         <f t="shared" si="61"/>
@@ -23645,16 +23643,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR116" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AS116" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT116" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU116" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV116" s="5" t="s">
         <v>32</v>
@@ -23718,13 +23716,13 @@
     </row>
     <row r="117" spans="2:64" ht="21" customHeight="1">
       <c r="B117" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="W117" s="1" t="str">
         <f t="shared" si="61"/>
@@ -23811,10 +23809,10 @@
         <v/>
       </c>
       <c r="AR117" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AU117" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV117" s="5" t="s">
         <v>33</v>
@@ -23881,10 +23879,10 @@
         <v>65</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H118" s="1">
         <v>2100</v>
@@ -23929,7 +23927,7 @@
         <v>1800</v>
       </c>
       <c r="V118" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W118" s="1">
         <f t="shared" si="61"/>
@@ -24016,13 +24014,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR118" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AS118" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AU118" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV118" s="5" t="s">
         <v>32</v>
@@ -24087,18 +24085,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL118" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" spans="2:64" ht="21" customHeight="1">
       <c r="B119" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W119" s="1" t="str">
         <f t="shared" si="61"/>
@@ -24185,13 +24183,13 @@
         <v/>
       </c>
       <c r="AR119" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AS119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU119" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV119" s="5" t="s">
         <v>33</v>
@@ -24258,10 +24256,10 @@
         <v>70</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J120" s="1">
         <v>1600</v>
@@ -24294,7 +24292,7 @@
         <v>1800</v>
       </c>
       <c r="V120" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W120" s="1" t="str">
         <f t="shared" si="61"/>
@@ -24381,13 +24379,13 @@
         <v/>
       </c>
       <c r="AR120" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AS120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU120" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV120" s="5" t="s">
         <v>32</v>
@@ -24451,13 +24449,13 @@
     </row>
     <row r="121" spans="2:64" ht="21" customHeight="1">
       <c r="B121" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H121" s="1">
         <v>1500</v>
@@ -24502,7 +24500,7 @@
         <v>1800</v>
       </c>
       <c r="V121" s="26" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="W121" s="1">
         <f t="shared" si="61"/>
@@ -24589,10 +24587,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR121" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="AU121" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV121" s="5" t="s">
         <v>32</v>
@@ -24659,10 +24657,10 @@
         <v>71</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H122" s="1">
         <v>1500</v>
@@ -24707,7 +24705,7 @@
         <v>1800</v>
       </c>
       <c r="V122" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W122" s="1">
         <f t="shared" si="61"/>
@@ -24794,13 +24792,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR122" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AS122" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU122" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV122" s="5" t="s">
         <v>32</v>
@@ -24864,13 +24862,13 @@
     </row>
     <row r="123" spans="2:64" ht="21" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="W123" s="1" t="str">
         <f t="shared" si="61"/>
@@ -24957,13 +24955,13 @@
         <v/>
       </c>
       <c r="AR123" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AS123" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU123" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV123" s="5" t="s">
         <v>33</v>
@@ -25030,10 +25028,10 @@
         <v>27</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H124" s="1">
         <v>1400</v>
@@ -25078,7 +25076,7 @@
         <v>1700</v>
       </c>
       <c r="V124" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W124" s="1">
         <f t="shared" si="61"/>
@@ -25165,16 +25163,16 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR124" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AS124" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT124" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU124" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV124" s="5" t="s">
         <v>32</v>
@@ -25241,10 +25239,10 @@
         <v>81</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V125" s="10"/>
       <c r="W125" s="1" t="str">
@@ -25332,13 +25330,13 @@
         <v/>
       </c>
       <c r="AR125" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AS125" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU125" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV125" s="5" t="s">
         <v>32</v>
@@ -25402,13 +25400,13 @@
     </row>
     <row r="126" spans="2:64" ht="21" customHeight="1">
       <c r="B126" s="21" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G126" s="25" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="W126" s="1" t="str">
         <f t="shared" si="61"/>
@@ -25496,10 +25494,10 @@
       </c>
       <c r="AR126" s="4"/>
       <c r="AT126" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU126" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV126" s="5" t="s">
         <v>33</v>
@@ -25563,13 +25561,13 @@
     </row>
     <row r="127" spans="2:64" ht="21" customHeight="1">
       <c r="B127" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="W127" s="1" t="str">
         <f t="shared" si="61"/>
@@ -25656,10 +25654,10 @@
         <v/>
       </c>
       <c r="AR127" s="4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AU127" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV127" s="5" t="s">
         <v>33</v>
@@ -25723,13 +25721,13 @@
     </row>
     <row r="128" spans="2:64" ht="21" customHeight="1">
       <c r="B128" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G128" s="20" t="s">
         <v>308</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="G128" s="20" t="s">
-        <v>310</v>
       </c>
       <c r="H128" s="1">
         <v>1100</v>
@@ -25768,7 +25766,7 @@
         <v>1800</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="W128" s="1">
         <f t="shared" si="61"/>
@@ -25855,13 +25853,13 @@
         <v/>
       </c>
       <c r="AR128" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AS128" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU128" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV128" s="5" t="s">
         <v>32</v>
@@ -25925,13 +25923,13 @@
     </row>
     <row r="129" spans="2:64" ht="21" customHeight="1">
       <c r="B129" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="61"/>
@@ -26018,10 +26016,10 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AU129" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV129" s="5" t="s">
         <v>33</v>
@@ -26086,18 +26084,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL129" s="27" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130" spans="2:64" ht="21" customHeight="1">
       <c r="B130" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W130" s="1" t="str">
         <f t="shared" si="61"/>
@@ -26184,13 +26182,13 @@
         <v/>
       </c>
       <c r="AR130" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AS130" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU130" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV130" s="5" t="s">
         <v>33</v>
@@ -26258,13 +26256,13 @@
     </row>
     <row r="131" spans="2:64" ht="21" customHeight="1">
       <c r="B131" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H131" s="1">
         <v>1700</v>
@@ -26393,10 +26391,10 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR131" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="AU131" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV131" s="5" t="s">
         <v>33</v>
@@ -26460,13 +26458,13 @@
     </row>
     <row r="132" spans="2:64" ht="21" customHeight="1">
       <c r="B132" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W132" s="1" t="str">
         <f t="shared" si="105"/>
@@ -26553,13 +26551,13 @@
         <v/>
       </c>
       <c r="AR132" s="4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AT132" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU132" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV132" s="5" t="s">
         <v>33</v>
@@ -26623,13 +26621,13 @@
     </row>
     <row r="133" spans="2:64" ht="21" customHeight="1">
       <c r="B133" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="W133" s="1" t="str">
         <f t="shared" si="105"/>
@@ -26716,10 +26714,10 @@
         <v/>
       </c>
       <c r="AR133" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AU133" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV133" s="5" t="s">
         <v>33</v>
@@ -26783,13 +26781,13 @@
     </row>
     <row r="134" spans="2:64" ht="21" customHeight="1">
       <c r="B134" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="W134" s="1" t="str">
         <f t="shared" si="105"/>
@@ -26876,10 +26874,10 @@
         <v/>
       </c>
       <c r="AR134" s="4" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AU134" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV134" s="5" t="s">
         <v>33</v>
@@ -26943,13 +26941,13 @@
     </row>
     <row r="135" spans="2:64" ht="21" customHeight="1">
       <c r="B135" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J135" s="1">
         <v>1100</v>
@@ -26982,7 +26980,7 @@
         <v>1800</v>
       </c>
       <c r="V135" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W135" s="1" t="str">
         <f t="shared" si="105"/>
@@ -27069,10 +27067,10 @@
         <v/>
       </c>
       <c r="AR135" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AU135" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV135" s="5" t="s">
         <v>32</v>
@@ -27136,13 +27134,13 @@
     </row>
     <row r="136" spans="2:64" ht="21" customHeight="1">
       <c r="B136" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="W136" s="1" t="str">
         <f t="shared" si="105"/>
@@ -27229,13 +27227,13 @@
         <v/>
       </c>
       <c r="AR136" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AT136" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU136" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV136" s="5" t="s">
         <v>33</v>
@@ -27302,10 +27300,10 @@
         <v>99</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H137" s="1">
         <v>1730</v>
@@ -27350,7 +27348,7 @@
         <v>1830</v>
       </c>
       <c r="V137" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W137" s="1">
         <f t="shared" si="105"/>
@@ -27437,13 +27435,13 @@
         <v>5.3pm-6.3pm</v>
       </c>
       <c r="AR137" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AS137" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AU137" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV137" s="5" t="s">
         <v>32</v>
@@ -27507,13 +27505,13 @@
     </row>
     <row r="138" spans="2:64" ht="21" customHeight="1">
       <c r="B138" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H138" s="1">
         <v>1500</v>
@@ -27558,7 +27556,7 @@
         <v>1830</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="W138" s="1">
         <f t="shared" si="105"/>
@@ -27645,10 +27643,10 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR138" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AU138" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV138" s="5" t="s">
         <v>32</v>
@@ -27712,13 +27710,13 @@
     </row>
     <row r="139" spans="2:64" ht="21" customHeight="1">
       <c r="B139" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="W139" s="1" t="str">
         <f t="shared" si="105"/>
@@ -27805,10 +27803,10 @@
         <v/>
       </c>
       <c r="AR139" s="4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AU139" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV139" s="5" t="s">
         <v>33</v>
@@ -27872,13 +27870,13 @@
     </row>
     <row r="140" spans="2:64" ht="21" customHeight="1">
       <c r="B140" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="W140" s="1" t="str">
         <f t="shared" si="105"/>
@@ -27966,7 +27964,7 @@
       </c>
       <c r="AR140" s="4"/>
       <c r="AU140" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV140" s="5" t="s">
         <v>33</v>
@@ -28030,13 +28028,13 @@
     </row>
     <row r="141" spans="2:64" ht="21" customHeight="1">
       <c r="B141" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G141" s="29" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="W141" s="1" t="str">
         <f t="shared" si="105"/>
@@ -28123,13 +28121,13 @@
         <v/>
       </c>
       <c r="AR141" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AT141" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU141" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV141" s="5" t="s">
         <v>33</v>
@@ -28193,13 +28191,13 @@
     </row>
     <row r="142" spans="2:64" ht="21" customHeight="1">
       <c r="B142" s="21" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="W142" s="1" t="str">
         <f t="shared" si="105"/>
@@ -28286,10 +28284,10 @@
         <v/>
       </c>
       <c r="AR142" s="14" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="AU142" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV142" s="5" t="s">
         <v>33</v>
@@ -28356,10 +28354,10 @@
         <v>100</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J143" s="1">
         <v>1500</v>
@@ -28398,7 +28396,7 @@
         <v>2400</v>
       </c>
       <c r="V143" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W143" s="1" t="str">
         <f t="shared" si="105"/>
@@ -28485,13 +28483,13 @@
         <v>9pm-12am</v>
       </c>
       <c r="AR143" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AS143" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU143" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV143" s="5" t="s">
         <v>32</v>
@@ -28558,10 +28556,10 @@
         <v>101</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J144" s="1">
         <v>1500</v>
@@ -28594,7 +28592,7 @@
         <v>1800</v>
       </c>
       <c r="V144" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="W144" s="1" t="str">
         <f t="shared" si="105"/>
@@ -28681,13 +28679,13 @@
         <v/>
       </c>
       <c r="AR144" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AS144" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU144" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV144" s="5" t="s">
         <v>32</v>
@@ -28754,10 +28752,10 @@
         <v>102</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H145" s="1">
         <v>1500</v>
@@ -28802,7 +28800,7 @@
         <v>1700</v>
       </c>
       <c r="V145" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W145" s="1">
         <f t="shared" si="105"/>
@@ -28889,16 +28887,16 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR145" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AS145" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT145" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AU145" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV145" s="5" t="s">
         <v>32</v>
@@ -28962,13 +28960,13 @@
     </row>
     <row r="146" spans="2:63" ht="21" customHeight="1">
       <c r="B146" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="W146" s="1" t="str">
         <f t="shared" si="105"/>
@@ -29055,10 +29053,10 @@
         <v/>
       </c>
       <c r="AR146" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AU146" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV146" s="5" t="s">
         <v>33</v>
@@ -29122,13 +29120,13 @@
     </row>
     <row r="147" spans="2:63" ht="21" customHeight="1">
       <c r="B147" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="W147" s="1" t="str">
         <f t="shared" si="105"/>
@@ -29215,10 +29213,10 @@
         <v/>
       </c>
       <c r="AR147" s="14" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="AU147" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV147" s="5" t="s">
         <v>33</v>
@@ -29282,13 +29280,13 @@
     </row>
     <row r="148" spans="2:63" ht="21" customHeight="1">
       <c r="B148" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="W148" s="1" t="str">
         <f t="shared" si="105"/>
@@ -29375,10 +29373,10 @@
         <v/>
       </c>
       <c r="AR148" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="AU148" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV148" s="5" t="s">
         <v>33</v>
@@ -29442,13 +29440,13 @@
     </row>
     <row r="149" spans="2:63" ht="21" customHeight="1">
       <c r="B149" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="W149" s="1" t="str">
         <f t="shared" si="105"/>
@@ -29535,13 +29533,13 @@
         <v/>
       </c>
       <c r="AR149" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AS149" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU149" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV149" s="5" t="s">
         <v>33</v>
@@ -29605,13 +29603,13 @@
     </row>
     <row r="150" spans="2:63" ht="21" customHeight="1">
       <c r="B150" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J150" s="1">
         <v>1500</v>
@@ -29650,7 +29648,7 @@
         <v>1800</v>
       </c>
       <c r="V150" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="W150" s="1" t="str">
         <f t="shared" si="105"/>
@@ -29737,13 +29735,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR150" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AS150" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU150" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AV150" s="5" t="s">
         <v>32</v>
@@ -29848,25 +29846,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" t="s">
         <v>495</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="H1" t="s">
         <v>496</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="F1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="2" spans="2:8">
@@ -29877,16 +29875,16 @@
         <v>-105.26014499999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -29897,16 +29895,16 @@
         <v>-105.25942000000001</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -29917,16 +29915,16 @@
         <v>-105.25924000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -29937,16 +29935,16 @@
         <v>-105.20641999999999</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="2:8">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -366,9 +366,6 @@
     <t>Daily 3 - 6 pm &lt;br&gt; Select appetizers under $7 &lt;br&gt; $7 specialty cocktails, Select wines under $6, $4 draft beers,  $5 well drinks</t>
   </si>
   <si>
-    <t>"Hoppy" Hour Daily 2 - 6pm &amp; 9pm - Close &lt;br&gt; Food: Appetizer Specials &lt;br&gt; Drinks: $1 off permanent Beers, $2 off local Spirits</t>
-  </si>
-  <si>
     <t>Monday - Friday 3 - 6pm &amp; Sunday 5pm - Close &lt;br&gt; Food: Appetizers $6 and under &lt;br&gt; Drinks: Coors Light cans $3, Draft Beer $3.50-6, Well Cocktails $4, Import &amp; Micro bottles $3.50, House Wines $5</t>
   </si>
   <si>
@@ -1748,6 +1745,9 @@
   </si>
   <si>
     <t>Alfalfas</t>
+  </si>
+  <si>
+    <t>Hoppy Hour Daily 2 - 6pm &amp; 9pm - Close &lt;br&gt; Food: Appetizer Specials &lt;br&gt; Drinks: $1 off permanent Beers, $2 off local Spirits</t>
   </si>
 </sst>
 </file>
@@ -2751,10 +2751,10 @@
   <dimension ref="B1:BL149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="AV3" sqref="AV3"/>
+      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2956,13 +2956,13 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W2" s="1" t="str">
         <f t="shared" ref="W2:W5" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -3049,13 +3049,13 @@
         <v/>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>33</v>
@@ -3124,13 +3124,13 @@
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1">
       <c r="B3" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3217,10 +3217,10 @@
         <v/>
       </c>
       <c r="AR3" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>33</v>
@@ -3284,13 +3284,13 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3377,10 +3377,10 @@
         <v/>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV4" s="5" t="s">
         <v>33</v>
@@ -3444,13 +3444,13 @@
     </row>
     <row r="5" spans="2:64" ht="21" customHeight="1">
       <c r="B5" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3537,13 +3537,13 @@
         <v/>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV5" s="5" t="s">
         <v>33</v>
@@ -3607,13 +3607,13 @@
     </row>
     <row r="6" spans="2:64" ht="21" customHeight="1">
       <c r="B6" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J6" s="1">
         <v>1500</v>
@@ -3730,10 +3730,10 @@
         <v/>
       </c>
       <c r="AR6" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>32</v>
@@ -3800,10 +3800,10 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="H7" s="1">
         <v>1500</v>
@@ -3848,7 +3848,7 @@
         <v>1800</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="32"/>
@@ -3935,13 +3935,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV7" s="5" t="s">
         <v>32</v>
@@ -4007,13 +4007,13 @@
     </row>
     <row r="8" spans="2:64" ht="21" customHeight="1">
       <c r="B8" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4100,13 +4100,13 @@
         <v/>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV8" s="5" t="s">
         <v>33</v>
@@ -4173,10 +4173,10 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9" s="1">
         <v>1600</v>
@@ -4308,13 +4308,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV9" s="5" t="s">
         <v>32</v>
@@ -4378,13 +4378,13 @@
     </row>
     <row r="10" spans="2:64" ht="21" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W10" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4471,16 +4471,16 @@
         <v/>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>33</v>
@@ -4544,13 +4544,13 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1">
       <c r="B11" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>441</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>442</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4637,10 +4637,10 @@
         <v/>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV11" s="5" t="s">
         <v>33</v>
@@ -4704,13 +4704,13 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
       <c r="B12" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H12" s="1">
         <v>1400</v>
@@ -4755,7 +4755,7 @@
         <v>1700</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="32"/>
@@ -4842,10 +4842,10 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV12" s="5" t="s">
         <v>32</v>
@@ -4909,13 +4909,13 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1">
       <c r="B13" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W13" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5002,10 +5002,10 @@
         <v/>
       </c>
       <c r="AR13" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV13" s="5" t="s">
         <v>33</v>
@@ -5069,13 +5069,13 @@
     </row>
     <row r="14" spans="2:64" ht="21" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H14" s="1">
         <v>1600</v>
@@ -5120,7 +5120,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="32"/>
@@ -5207,13 +5207,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>32</v>
@@ -5281,10 +5281,10 @@
         <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J15" s="1">
         <v>1500</v>
@@ -5404,13 +5404,13 @@
         <v/>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV15" s="5" t="s">
         <v>32</v>
@@ -5474,13 +5474,13 @@
     </row>
     <row r="16" spans="2:64" ht="21" customHeight="1">
       <c r="B16" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5567,10 +5567,10 @@
         <v/>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV16" s="5" t="s">
         <v>33</v>
@@ -5634,13 +5634,13 @@
     </row>
     <row r="17" spans="2:64" ht="21" customHeight="1">
       <c r="B17" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J17" s="1">
         <v>1500</v>
@@ -5679,7 +5679,7 @@
         <v>1830</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5767,10 +5767,10 @@
       </c>
       <c r="AR17" s="4"/>
       <c r="AT17" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV17" s="5" t="s">
         <v>32</v>
@@ -5835,7 +5835,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="2:64" ht="21" customHeight="1">
@@ -5843,10 +5843,10 @@
         <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H18" s="1">
         <v>1600</v>
@@ -5978,13 +5978,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>32</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="19" spans="2:64" ht="21" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W19" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6141,13 +6141,13 @@
         <v/>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AS19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV19" s="5" t="s">
         <v>33</v>
@@ -6211,13 +6211,13 @@
     </row>
     <row r="20" spans="2:64" ht="21" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1" t="str">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="AR20" s="4"/>
       <c r="AU20" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV20" s="5" t="s">
         <v>33</v>
@@ -6373,10 +6373,10 @@
         <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H21" s="1">
         <v>1500</v>
@@ -6508,16 +6508,16 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>32</v>
@@ -6581,13 +6581,13 @@
     </row>
     <row r="22" spans="2:64" ht="21" customHeight="1">
       <c r="B22" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W22" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6674,13 +6674,13 @@
         <v/>
       </c>
       <c r="AR22" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AS22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV22" s="5" t="s">
         <v>33</v>
@@ -6744,13 +6744,13 @@
     </row>
     <row r="23" spans="2:64" ht="21" customHeight="1">
       <c r="B23" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6837,13 +6837,13 @@
         <v/>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>33</v>
@@ -6907,13 +6907,13 @@
     </row>
     <row r="24" spans="2:64" ht="21" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7000,13 +7000,13 @@
         <v/>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AS24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>33</v>
@@ -7070,13 +7070,13 @@
     </row>
     <row r="25" spans="2:64" ht="21" customHeight="1">
       <c r="B25" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H25" s="1">
         <v>1500</v>
@@ -7205,10 +7205,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>32</v>
@@ -7272,13 +7272,13 @@
     </row>
     <row r="26" spans="2:64" ht="21" customHeight="1">
       <c r="B26" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H26" s="1">
         <v>1600</v>
@@ -7408,10 +7408,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV26" s="5" t="s">
         <v>32</v>
@@ -7478,10 +7478,10 @@
         <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H27" s="1">
         <v>1400</v>
@@ -7613,13 +7613,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR27" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>32</v>
@@ -7684,7 +7684,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="2:64" ht="21" customHeight="1">
@@ -7692,10 +7692,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="W28" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7782,10 +7782,10 @@
         <v/>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV28" s="5" t="s">
         <v>33</v>
@@ -7849,13 +7849,13 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W29" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7942,13 +7942,13 @@
         <v/>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV29" s="5" t="s">
         <v>33</v>
@@ -8012,13 +8012,13 @@
     </row>
     <row r="30" spans="2:64" ht="21" customHeight="1">
       <c r="B30" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>432</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>433</v>
       </c>
       <c r="W30" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8105,10 +8105,10 @@
         <v/>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>33</v>
@@ -8172,13 +8172,13 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1">
       <c r="B31" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G31" s="25" t="s">
         <v>445</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>446</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8265,10 +8265,10 @@
         <v/>
       </c>
       <c r="AR31" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>33</v>
@@ -8332,13 +8332,13 @@
     </row>
     <row r="32" spans="2:64" ht="21" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8425,13 +8425,13 @@
         <v/>
       </c>
       <c r="AR32" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AS32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV32" s="5" t="s">
         <v>33</v>
@@ -8495,13 +8495,13 @@
     </row>
     <row r="33" spans="2:64" ht="21" customHeight="1">
       <c r="B33" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8588,13 +8588,13 @@
         <v/>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV33" s="5" t="s">
         <v>33</v>
@@ -8662,13 +8662,13 @@
     </row>
     <row r="34" spans="2:64" ht="21" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H34" s="1">
         <v>1500</v>
@@ -8713,7 +8713,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" si="32"/>
@@ -8800,13 +8800,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR34" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AS34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV34" s="5" t="s">
         <v>32</v>
@@ -8869,10 +8869,10 @@
         <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H35" s="1">
         <v>1400</v>
@@ -8917,7 +8917,7 @@
         <v>1800</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>111</v>
+        <v>571</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="32"/>
@@ -9004,13 +9004,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR35" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV35" s="5" t="s">
         <v>32</v>
@@ -9023,7 +9023,7 @@
         <v>{
     'name': "Eureka!",
     'area': "pearl",'hours': {
-      'sunday-start':"1400", 'sunday-end':"1800", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': ""Hoppy" Hour Daily 2 - 6pm &amp; 9pm - Close &lt;br&gt; Food: Appetizer Specials &lt;br&gt; Drinks: $1 off permanent Beers, $2 off local Spirits", 'link':"http://www.eurekarestaurantgroup.com/", 'pricing':"",   'phone-number': "", 'address': "1048 Pearl StSuite 105Boulder, CO 80302", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1400", 'sunday-end':"1800", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "Hoppy Hour Daily 2 - 6pm &amp; 9pm - Close &lt;br&gt; Food: Appetizer Specials &lt;br&gt; Drinks: $1 off permanent Beers, $2 off local Spirits", 'link':"http://www.eurekarestaurantgroup.com/", 'pricing':"",   'phone-number': "", 'address': "1048 Pearl StSuite 105Boulder, CO 80302", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY35" s="1" t="str">
         <f t="shared" si="54"/>
@@ -9074,13 +9074,13 @@
     </row>
     <row r="36" spans="2:64" ht="21" customHeight="1">
       <c r="B36" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W36" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9167,13 +9167,13 @@
         <v/>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>33</v>
@@ -9237,13 +9237,13 @@
     </row>
     <row r="37" spans="2:64" ht="21" customHeight="1">
       <c r="B37" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W37" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9330,10 +9330,10 @@
         <v/>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>33</v>
@@ -9397,13 +9397,13 @@
     </row>
     <row r="38" spans="2:64" ht="21" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J38" s="1">
         <v>1500</v>
@@ -9436,7 +9436,7 @@
         <v>1800</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9523,13 +9523,13 @@
         <v/>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AS38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV38" s="5" t="s">
         <v>32</v>
@@ -9594,18 +9594,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="21" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9692,13 +9692,13 @@
         <v/>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AS39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV39" s="5" t="s">
         <v>33</v>
@@ -9762,13 +9762,13 @@
     </row>
     <row r="40" spans="2:64" ht="21" customHeight="1">
       <c r="B40" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V40" s="6"/>
       <c r="W40" s="1" t="str">
@@ -9856,10 +9856,10 @@
         <v/>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>33</v>
@@ -9923,13 +9923,13 @@
     </row>
     <row r="41" spans="2:64" ht="21" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W41" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10016,10 +10016,10 @@
         <v/>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV41" s="5" t="s">
         <v>33</v>
@@ -10086,10 +10086,10 @@
         <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H42" s="1">
         <v>1700</v>
@@ -10128,7 +10128,7 @@
         <v>1800</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W42" s="1">
         <f t="shared" si="32"/>
@@ -10215,13 +10215,13 @@
         <v/>
       </c>
       <c r="AR42" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV42" s="5" t="s">
         <v>32</v>
@@ -10285,13 +10285,13 @@
     </row>
     <row r="43" spans="2:64" ht="21" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10378,13 +10378,13 @@
         <v/>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV43" s="5" t="s">
         <v>33</v>
@@ -10448,13 +10448,13 @@
     </row>
     <row r="44" spans="2:64" ht="21" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10541,10 +10541,10 @@
         <v/>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>33</v>
@@ -10608,13 +10608,13 @@
     </row>
     <row r="45" spans="2:64" ht="21" customHeight="1">
       <c r="B45" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W45" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10701,13 +10701,13 @@
         <v/>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AS45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV45" s="5" t="s">
         <v>33</v>
@@ -10771,13 +10771,13 @@
     </row>
     <row r="46" spans="2:64" ht="21" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10864,10 +10864,10 @@
         <v/>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV46" s="5" t="s">
         <v>33</v>
@@ -10931,13 +10931,13 @@
     </row>
     <row r="47" spans="2:64" ht="21" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H47" s="1">
         <v>1500</v>
@@ -10982,7 +10982,7 @@
         <v>1900</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" si="32"/>
@@ -11069,13 +11069,13 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR47" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>32</v>
@@ -11142,10 +11142,10 @@
         <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J48" s="1">
         <v>1430</v>
@@ -11184,7 +11184,7 @@
         <v>1730</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W48" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11271,13 +11271,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR48" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV48" s="5" t="s">
         <v>32</v>
@@ -11344,10 +11344,10 @@
         <v>26</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H49" s="1">
         <v>1500</v>
@@ -11392,7 +11392,7 @@
         <v>2000</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W49" s="1">
         <f t="shared" si="32"/>
@@ -11479,13 +11479,13 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR49" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV49" s="5" t="s">
         <v>32</v>
@@ -11552,10 +11552,10 @@
         <v>26</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H50" s="1">
         <v>1500</v>
@@ -11600,7 +11600,7 @@
         <v>2000</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="W50" s="1">
         <f t="shared" si="32"/>
@@ -11688,7 +11688,7 @@
       </c>
       <c r="AR50" s="4"/>
       <c r="AU50" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>32</v>
@@ -11752,13 +11752,13 @@
     </row>
     <row r="51" spans="2:64" ht="21" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11845,10 +11845,10 @@
         <v/>
       </c>
       <c r="AR51" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV51" s="5" t="s">
         <v>33</v>
@@ -11912,13 +11912,13 @@
     </row>
     <row r="52" spans="2:64" ht="21" customHeight="1">
       <c r="B52" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W52" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12005,10 +12005,10 @@
         <v/>
       </c>
       <c r="AR52" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV52" s="5" t="s">
         <v>33</v>
@@ -12072,13 +12072,13 @@
     </row>
     <row r="53" spans="2:64" ht="21" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V53" s="6"/>
       <c r="W53" s="1" t="str">
@@ -12166,13 +12166,13 @@
         <v/>
       </c>
       <c r="AR53" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AS53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV53" s="5" t="s">
         <v>33</v>
@@ -12239,10 +12239,10 @@
         <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H54" s="1">
         <v>1500</v>
@@ -12287,7 +12287,7 @@
         <v>1800</v>
       </c>
       <c r="V54" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" si="32"/>
@@ -12374,16 +12374,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR54" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV54" s="5" t="s">
         <v>32</v>
@@ -12450,10 +12450,10 @@
         <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H55" s="1">
         <v>1600</v>
@@ -12498,7 +12498,7 @@
         <v>1800</v>
       </c>
       <c r="V55" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="32"/>
@@ -12585,13 +12585,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR55" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS55" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV55" s="5" t="s">
         <v>32</v>
@@ -12655,13 +12655,13 @@
     </row>
     <row r="56" spans="2:64" ht="21" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H56" s="1">
         <v>1600</v>
@@ -12706,7 +12706,7 @@
         <v>1800</v>
       </c>
       <c r="V56" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W56" s="1">
         <f t="shared" si="32"/>
@@ -12793,13 +12793,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR56" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AS56" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV56" s="5" t="s">
         <v>32</v>
@@ -12864,18 +12864,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="2:64" ht="21" customHeight="1">
       <c r="B57" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12962,10 +12962,10 @@
         <v/>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV57" s="5" t="s">
         <v>33</v>
@@ -13029,13 +13029,13 @@
     </row>
     <row r="58" spans="2:64" ht="21" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13122,16 +13122,16 @@
         <v/>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV58" s="5" t="s">
         <v>33</v>
@@ -13195,13 +13195,13 @@
     </row>
     <row r="59" spans="2:64" ht="21" customHeight="1">
       <c r="B59" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G59" s="25" t="s">
         <v>434</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>435</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13288,10 +13288,10 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV59" s="5" t="s">
         <v>33</v>
@@ -13355,13 +13355,13 @@
     </row>
     <row r="60" spans="2:64" ht="21" customHeight="1">
       <c r="B60" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="W60" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13448,10 +13448,10 @@
         <v/>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV60" s="5" t="s">
         <v>33</v>
@@ -13516,18 +13516,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL60" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="2:64" ht="21" customHeight="1">
       <c r="B61" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W61" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13614,13 +13614,13 @@
         <v/>
       </c>
       <c r="AR61" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AS61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV61" s="5" t="s">
         <v>33</v>
@@ -13687,10 +13687,10 @@
         <v>77</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J62" s="1">
         <v>1500</v>
@@ -13723,7 +13723,7 @@
         <v>1800</v>
       </c>
       <c r="V62" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W62" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13810,13 +13810,13 @@
         <v/>
       </c>
       <c r="AR62" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AS62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV62" s="5" t="s">
         <v>32</v>
@@ -13880,13 +13880,13 @@
     </row>
     <row r="63" spans="2:64" ht="21" customHeight="1">
       <c r="B63" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W63" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13973,10 +13973,10 @@
         <v/>
       </c>
       <c r="AR63" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV63" s="5" t="s">
         <v>33</v>
@@ -14040,13 +14040,13 @@
     </row>
     <row r="64" spans="2:64" ht="21" customHeight="1">
       <c r="B64" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W64" s="1" t="str">
         <f t="shared" si="32"/>
@@ -14133,10 +14133,10 @@
         <v/>
       </c>
       <c r="AR64" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV64" s="5" t="s">
         <v>33</v>
@@ -14203,10 +14203,10 @@
         <v>78</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H65" s="1">
         <v>1500</v>
@@ -14251,7 +14251,7 @@
         <v>1800</v>
       </c>
       <c r="V65" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W65" s="1">
         <f t="shared" si="32"/>
@@ -14338,13 +14338,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR65" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS65" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV65" s="5" t="s">
         <v>32</v>
@@ -14415,10 +14415,10 @@
         <v>79</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H66" s="1">
         <v>1700</v>
@@ -14463,7 +14463,7 @@
         <v>1900</v>
       </c>
       <c r="V66" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W66" s="1">
         <f t="shared" ref="W66:W129" si="74">IF(H66&gt;0,H66/100,"")</f>
@@ -14550,13 +14550,13 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR66" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS66" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV66" s="5" t="s">
         <v>32</v>
@@ -14620,13 +14620,13 @@
     </row>
     <row r="67" spans="2:63" ht="21" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" si="74"/>
@@ -14713,13 +14713,13 @@
         <v/>
       </c>
       <c r="AR67" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AS67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV67" s="5" t="s">
         <v>33</v>
@@ -14783,13 +14783,13 @@
     </row>
     <row r="68" spans="2:63" ht="21" customHeight="1">
       <c r="B68" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="74"/>
@@ -14876,10 +14876,10 @@
         <v/>
       </c>
       <c r="AR68" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AU68" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV68" s="5" t="s">
         <v>33</v>
@@ -14943,13 +14943,13 @@
     </row>
     <row r="69" spans="2:63" ht="21" customHeight="1">
       <c r="B69" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W69" s="1" t="str">
         <f t="shared" si="74"/>
@@ -15036,10 +15036,10 @@
         <v/>
       </c>
       <c r="AR69" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV69" s="5" t="s">
         <v>33</v>
@@ -15103,13 +15103,13 @@
     </row>
     <row r="70" spans="2:63" ht="21" customHeight="1">
       <c r="B70" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G70" s="24" t="s">
         <v>438</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>439</v>
       </c>
       <c r="V70" s="6"/>
       <c r="W70" s="1" t="str">
@@ -15197,10 +15197,10 @@
         <v/>
       </c>
       <c r="AR70" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV70" s="5" t="s">
         <v>33</v>
@@ -15267,10 +15267,10 @@
         <v>80</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J71" s="1">
         <v>1500</v>
@@ -15303,7 +15303,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W71" s="1" t="str">
         <f t="shared" si="74"/>
@@ -15390,13 +15390,13 @@
         <v/>
       </c>
       <c r="AR71" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS71" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV71" s="5" t="s">
         <v>32</v>
@@ -15463,10 +15463,10 @@
         <v>82</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J72" s="1">
         <v>1600</v>
@@ -15499,7 +15499,7 @@
         <v>1800</v>
       </c>
       <c r="V72" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W72" s="1" t="str">
         <f t="shared" si="74"/>
@@ -15586,13 +15586,13 @@
         <v/>
       </c>
       <c r="AR72" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU72" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV72" s="5" t="s">
         <v>32</v>
@@ -15656,13 +15656,13 @@
     </row>
     <row r="73" spans="2:63" ht="21" customHeight="1">
       <c r="B73" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G73" s="16" t="s">
         <v>473</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>474</v>
       </c>
       <c r="H73" s="1">
         <v>1500</v>
@@ -15707,7 +15707,7 @@
         <v>1800</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W73" s="1">
         <f t="shared" si="74"/>
@@ -15794,10 +15794,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR73" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AU73" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV73" s="5" t="s">
         <v>32</v>
@@ -15857,13 +15857,13 @@
     </row>
     <row r="74" spans="2:63" ht="21" customHeight="1">
       <c r="B74" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W74" s="1" t="str">
         <f t="shared" si="74"/>
@@ -15950,13 +15950,13 @@
         <v/>
       </c>
       <c r="AR74" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU74" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV74" s="5" t="s">
         <v>33</v>
@@ -16020,13 +16020,13 @@
     </row>
     <row r="75" spans="2:63" ht="21" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W75" s="1" t="str">
         <f t="shared" si="74"/>
@@ -16113,13 +16113,13 @@
         <v/>
       </c>
       <c r="AR75" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AS75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV75" s="5" t="s">
         <v>33</v>
@@ -16186,10 +16186,10 @@
         <v>83</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H76" s="1">
         <v>1500</v>
@@ -16234,7 +16234,7 @@
         <v>1800</v>
       </c>
       <c r="V76" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W76" s="1">
         <f t="shared" si="74"/>
@@ -16321,13 +16321,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR76" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS76" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV76" s="5" t="s">
         <v>32</v>
@@ -16394,10 +16394,10 @@
         <v>84</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J77" s="1">
         <v>1630</v>
@@ -16424,7 +16424,7 @@
         <v>1830</v>
       </c>
       <c r="V77" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W77" s="1" t="str">
         <f t="shared" si="74"/>
@@ -16511,16 +16511,16 @@
         <v/>
       </c>
       <c r="AR77" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AS77" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT77" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV77" s="5" t="s">
         <v>32</v>
@@ -16587,10 +16587,10 @@
         <v>85</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J78" s="1">
         <v>1430</v>
@@ -16629,7 +16629,7 @@
         <v>1730</v>
       </c>
       <c r="V78" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W78" s="1" t="str">
         <f t="shared" si="74"/>
@@ -16716,13 +16716,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR78" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS78" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU78" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV78" s="5" t="s">
         <v>32</v>
@@ -16786,13 +16786,13 @@
     </row>
     <row r="79" spans="2:63" ht="21" customHeight="1">
       <c r="B79" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>479</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>480</v>
       </c>
       <c r="W79" s="1" t="str">
         <f t="shared" si="74"/>
@@ -16879,10 +16879,10 @@
         <v/>
       </c>
       <c r="AR79" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV79" s="5" t="s">
         <v>33</v>
@@ -16945,10 +16945,10 @@
         <v>86</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H80" s="1">
         <v>1500</v>
@@ -16993,7 +16993,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W80" s="1">
         <f t="shared" si="74"/>
@@ -17080,13 +17080,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR80" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS80" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV80" s="5" t="s">
         <v>32</v>
@@ -17150,13 +17150,13 @@
     </row>
     <row r="81" spans="2:63" ht="21" customHeight="1">
       <c r="B81" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W81" s="1" t="str">
         <f t="shared" si="74"/>
@@ -17247,7 +17247,7 @@
         <v>28</v>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV81" s="5" t="s">
         <v>33</v>
@@ -17311,13 +17311,13 @@
     </row>
     <row r="82" spans="2:63" ht="21" customHeight="1">
       <c r="B82" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W82" s="1" t="str">
         <f t="shared" si="74"/>
@@ -17404,10 +17404,10 @@
         <v/>
       </c>
       <c r="AR82" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV82" s="5" t="s">
         <v>33</v>
@@ -17471,13 +17471,13 @@
     </row>
     <row r="83" spans="2:63" ht="21" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W83" s="1" t="str">
         <f t="shared" si="74"/>
@@ -17564,13 +17564,13 @@
         <v/>
       </c>
       <c r="AR83" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AS83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV83" s="5" t="s">
         <v>33</v>
@@ -17634,13 +17634,13 @@
     </row>
     <row r="84" spans="2:63" ht="21" customHeight="1">
       <c r="B84" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="W84" s="1" t="str">
         <f t="shared" si="74"/>
@@ -17727,13 +17727,13 @@
         <v/>
       </c>
       <c r="AR84" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AS84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV84" s="5" t="s">
         <v>33</v>
@@ -17800,10 +17800,10 @@
         <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H85" s="1">
         <v>1530</v>
@@ -17848,7 +17848,7 @@
         <v>1730</v>
       </c>
       <c r="V85" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W85" s="1">
         <f t="shared" si="74"/>
@@ -17935,13 +17935,13 @@
         <v>3.3pm-5.3pm</v>
       </c>
       <c r="AR85" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS85" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU85" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV85" s="5" t="s">
         <v>32</v>
@@ -18008,10 +18008,10 @@
         <v>88</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H86" s="1">
         <v>1700</v>
@@ -18056,7 +18056,7 @@
         <v>1830</v>
       </c>
       <c r="V86" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W86" s="1">
         <f t="shared" si="74"/>
@@ -18143,13 +18143,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR86" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS86" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU86" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV86" s="5" t="s">
         <v>32</v>
@@ -18216,10 +18216,10 @@
         <v>89</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H87" s="1">
         <v>1600</v>
@@ -18264,7 +18264,7 @@
         <v>1900</v>
       </c>
       <c r="V87" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W87" s="1">
         <f t="shared" si="74"/>
@@ -18351,13 +18351,13 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR87" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS87" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AU87" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV87" s="5" t="s">
         <v>32</v>
@@ -18421,13 +18421,13 @@
     </row>
     <row r="88" spans="2:63" ht="21" customHeight="1">
       <c r="B88" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W88" s="1" t="str">
         <f t="shared" si="74"/>
@@ -18514,10 +18514,10 @@
         <v/>
       </c>
       <c r="AR88" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AU88" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV88" s="5" t="s">
         <v>33</v>
@@ -18581,13 +18581,13 @@
     </row>
     <row r="89" spans="2:63" ht="21" customHeight="1">
       <c r="B89" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G89" s="25" t="s">
         <v>443</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G89" s="25" t="s">
-        <v>444</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="74"/>
@@ -18674,10 +18674,10 @@
         <v/>
       </c>
       <c r="AR89" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AU89" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV89" s="5" t="s">
         <v>33</v>
@@ -18741,13 +18741,13 @@
     </row>
     <row r="90" spans="2:63" ht="21" customHeight="1">
       <c r="B90" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G90" s="25" t="s">
         <v>436</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>437</v>
       </c>
       <c r="W90" s="1" t="str">
         <f t="shared" si="74"/>
@@ -18834,7 +18834,7 @@
         <v/>
       </c>
       <c r="AU90" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV90" s="5" t="s">
         <v>33</v>
@@ -18898,13 +18898,13 @@
     </row>
     <row r="91" spans="2:63" ht="21" customHeight="1">
       <c r="B91" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W91" s="1" t="str">
         <f t="shared" si="74"/>
@@ -18991,10 +18991,10 @@
         <v/>
       </c>
       <c r="AR91" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AU91" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV91" s="5" t="s">
         <v>33</v>
@@ -19057,10 +19057,10 @@
         <v>90</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J92" s="1">
         <v>1500</v>
@@ -19093,7 +19093,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="W92" s="1" t="str">
         <f t="shared" si="74"/>
@@ -19180,13 +19180,13 @@
         <v/>
       </c>
       <c r="AR92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS92" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU92" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV92" s="5" t="s">
         <v>32</v>
@@ -19250,13 +19250,13 @@
     </row>
     <row r="93" spans="2:63" ht="21" customHeight="1">
       <c r="B93" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="W93" s="1" t="str">
         <f t="shared" si="74"/>
@@ -19343,16 +19343,16 @@
         <v/>
       </c>
       <c r="AR93" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AS93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT93" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU93" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV93" s="5" t="s">
         <v>33</v>
@@ -19416,13 +19416,13 @@
     </row>
     <row r="94" spans="2:63" ht="21" customHeight="1">
       <c r="B94" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H94" s="1">
         <v>1400</v>
@@ -19467,7 +19467,7 @@
         <v>1800</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="W94" s="1">
         <f t="shared" si="74"/>
@@ -19554,10 +19554,10 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR94" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AU94" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV94" s="5" t="s">
         <v>32</v>
@@ -19624,10 +19624,10 @@
         <v>24</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J95" s="1">
         <v>1500</v>
@@ -19660,7 +19660,7 @@
         <v>1800</v>
       </c>
       <c r="V95" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W95" s="1" t="str">
         <f t="shared" si="74"/>
@@ -19747,13 +19747,13 @@
         <v/>
       </c>
       <c r="AR95" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS95" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU95" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV95" s="5" t="s">
         <v>32</v>
@@ -19817,13 +19817,13 @@
     </row>
     <row r="96" spans="2:63" ht="21" customHeight="1">
       <c r="B96" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="74"/>
@@ -19910,13 +19910,13 @@
         <v/>
       </c>
       <c r="AR96" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AS96" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU96" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV96" s="5" t="s">
         <v>33</v>
@@ -19980,13 +19980,13 @@
     </row>
     <row r="97" spans="2:63" ht="21" customHeight="1">
       <c r="B97" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H97" s="1">
         <v>1500</v>
@@ -20031,7 +20031,7 @@
         <v>1800</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W97" s="1">
         <f t="shared" si="74"/>
@@ -20118,16 +20118,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR97" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AS97" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT97" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU97" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV97" s="5" t="s">
         <v>32</v>
@@ -20195,13 +20195,13 @@
     </row>
     <row r="98" spans="2:63" ht="21" customHeight="1">
       <c r="B98" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W98" s="1" t="str">
         <f t="shared" si="74"/>
@@ -20288,10 +20288,10 @@
         <v/>
       </c>
       <c r="AR98" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AU98" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV98" s="5" t="s">
         <v>33</v>
@@ -20358,10 +20358,10 @@
         <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H99" s="1">
         <v>1500</v>
@@ -20406,7 +20406,7 @@
         <v>1800</v>
       </c>
       <c r="V99" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" si="74"/>
@@ -20493,13 +20493,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR99" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS99" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU99" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV99" s="5" t="s">
         <v>32</v>
@@ -20563,13 +20563,13 @@
     </row>
     <row r="100" spans="2:63" ht="21" customHeight="1">
       <c r="B100" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W100" s="1" t="str">
         <f t="shared" si="74"/>
@@ -20656,10 +20656,10 @@
         <v/>
       </c>
       <c r="AR100" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AU100" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV100" s="5" t="s">
         <v>33</v>
@@ -20726,10 +20726,10 @@
         <v>92</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H101" s="1">
         <v>1500</v>
@@ -20774,7 +20774,7 @@
         <v>1700</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" si="74"/>
@@ -20861,13 +20861,13 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR101" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS101" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU101" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV101" s="5" t="s">
         <v>32</v>
@@ -20931,13 +20931,13 @@
     </row>
     <row r="102" spans="2:63" ht="21" customHeight="1">
       <c r="B102" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W102" s="1" t="str">
         <f t="shared" si="74"/>
@@ -21024,10 +21024,10 @@
         <v/>
       </c>
       <c r="AR102" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AU102" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV102" s="5" t="s">
         <v>33</v>
@@ -21094,10 +21094,10 @@
         <v>93</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H103" s="1">
         <v>1500</v>
@@ -21142,7 +21142,7 @@
         <v>1800</v>
       </c>
       <c r="V103" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W103" s="1">
         <f t="shared" si="74"/>
@@ -21229,13 +21229,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR103" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU103" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV103" s="5" t="s">
         <v>32</v>
@@ -21302,10 +21302,10 @@
         <v>94</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H104" s="1">
         <v>1500</v>
@@ -21350,7 +21350,7 @@
         <v>1900</v>
       </c>
       <c r="V104" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W104" s="1">
         <f t="shared" si="74"/>
@@ -21437,13 +21437,13 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR104" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS104" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU104" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV104" s="5" t="s">
         <v>32</v>
@@ -21507,13 +21507,13 @@
     </row>
     <row r="105" spans="2:63" ht="21" customHeight="1">
       <c r="B105" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W105" s="1" t="str">
         <f t="shared" si="74"/>
@@ -21600,10 +21600,10 @@
         <v/>
       </c>
       <c r="AR105" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV105" s="5" t="s">
         <v>33</v>
@@ -21667,13 +21667,13 @@
     </row>
     <row r="106" spans="2:63" ht="21" customHeight="1">
       <c r="B106" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W106" s="1" t="str">
         <f t="shared" si="74"/>
@@ -21760,10 +21760,10 @@
         <v/>
       </c>
       <c r="AR106" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AU106" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV106" s="5" t="s">
         <v>33</v>
@@ -21827,13 +21827,13 @@
     </row>
     <row r="107" spans="2:63" ht="21" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W107" s="1" t="str">
         <f t="shared" si="74"/>
@@ -21920,10 +21920,10 @@
         <v/>
       </c>
       <c r="AR107" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AU107" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV107" s="5" t="s">
         <v>33</v>
@@ -21987,13 +21987,13 @@
     </row>
     <row r="108" spans="2:63" ht="21" customHeight="1">
       <c r="B108" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W108" s="1" t="str">
         <f t="shared" si="74"/>
@@ -22080,13 +22080,13 @@
         <v/>
       </c>
       <c r="AR108" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AS108" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU108" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV108" s="5" t="s">
         <v>33</v>
@@ -22150,13 +22150,13 @@
     </row>
     <row r="109" spans="2:63" ht="21" customHeight="1">
       <c r="B109" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H109" s="1">
         <v>1600</v>
@@ -22201,7 +22201,7 @@
         <v>1800</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W109" s="1">
         <f t="shared" si="74"/>
@@ -22288,13 +22288,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR109" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AS109" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU109" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV109" s="5" t="s">
         <v>32</v>
@@ -22358,13 +22358,13 @@
     </row>
     <row r="110" spans="2:63" ht="21" customHeight="1">
       <c r="B110" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H110" s="1">
         <v>1600</v>
@@ -22409,7 +22409,7 @@
         <v>1730</v>
       </c>
       <c r="V110" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W110" s="1">
         <f t="shared" si="74"/>
@@ -22496,10 +22496,10 @@
         <v>11am-5.3pm</v>
       </c>
       <c r="AR110" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AU110" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV110" s="5" t="s">
         <v>32</v>
@@ -22566,10 +22566,10 @@
         <v>95</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J111" s="1">
         <v>1700</v>
@@ -22608,7 +22608,7 @@
         <v>1830</v>
       </c>
       <c r="V111" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W111" s="1" t="str">
         <f t="shared" si="74"/>
@@ -22695,13 +22695,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR111" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AS111" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AU111" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV111" s="5" t="s">
         <v>32</v>
@@ -22765,13 +22765,13 @@
     </row>
     <row r="112" spans="2:63" ht="21" customHeight="1">
       <c r="B112" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V112" s="6"/>
       <c r="W112" s="1" t="str">
@@ -22859,10 +22859,10 @@
         <v/>
       </c>
       <c r="AR112" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AU112" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV112" s="5" t="s">
         <v>33</v>
@@ -22929,10 +22929,10 @@
         <v>96</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H113" s="1">
         <v>1400</v>
@@ -22977,7 +22977,7 @@
         <v>1800</v>
       </c>
       <c r="V113" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W113" s="1">
         <f t="shared" si="74"/>
@@ -23064,13 +23064,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR113" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AS113" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU113" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV113" s="5" t="s">
         <v>32</v>
@@ -23137,10 +23137,10 @@
         <v>97</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J114" s="1">
         <v>1600</v>
@@ -23179,7 +23179,7 @@
         <v>1800</v>
       </c>
       <c r="V114" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W114" s="1" t="str">
         <f t="shared" si="74"/>
@@ -23266,13 +23266,13 @@
         <v>11.3am-6pm</v>
       </c>
       <c r="AR114" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS114" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU114" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV114" s="5" t="s">
         <v>32</v>
@@ -23339,10 +23339,10 @@
         <v>98</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H115" s="1">
         <v>1500</v>
@@ -23387,7 +23387,7 @@
         <v>1800</v>
       </c>
       <c r="V115" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W115" s="1">
         <f t="shared" si="74"/>
@@ -23474,16 +23474,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR115" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AS115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT115" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU115" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV115" s="5" t="s">
         <v>32</v>
@@ -23547,13 +23547,13 @@
     </row>
     <row r="116" spans="2:64" ht="21" customHeight="1">
       <c r="B116" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W116" s="1" t="str">
         <f t="shared" si="74"/>
@@ -23640,10 +23640,10 @@
         <v/>
       </c>
       <c r="AR116" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AU116" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV116" s="5" t="s">
         <v>33</v>
@@ -23710,10 +23710,10 @@
         <v>65</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H117" s="1">
         <v>2100</v>
@@ -23845,13 +23845,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR117" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AS117" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AU117" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV117" s="5" t="s">
         <v>32</v>
@@ -23916,18 +23916,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL117" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="2:64" ht="21" customHeight="1">
       <c r="B118" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W118" s="1" t="str">
         <f t="shared" si="74"/>
@@ -24014,13 +24014,13 @@
         <v/>
       </c>
       <c r="AR118" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AS118" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU118" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV118" s="5" t="s">
         <v>33</v>
@@ -24087,10 +24087,10 @@
         <v>70</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J119" s="1">
         <v>1600</v>
@@ -24210,13 +24210,13 @@
         <v/>
       </c>
       <c r="AR119" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AS119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU119" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV119" s="5" t="s">
         <v>32</v>
@@ -24280,13 +24280,13 @@
     </row>
     <row r="120" spans="2:64" ht="21" customHeight="1">
       <c r="B120" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H120" s="1">
         <v>1500</v>
@@ -24331,7 +24331,7 @@
         <v>1800</v>
       </c>
       <c r="V120" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="W120" s="1">
         <f t="shared" si="74"/>
@@ -24418,10 +24418,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR120" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AU120" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV120" s="5" t="s">
         <v>32</v>
@@ -24488,10 +24488,10 @@
         <v>71</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H121" s="1">
         <v>1500</v>
@@ -24623,13 +24623,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR121" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS121" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU121" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV121" s="5" t="s">
         <v>32</v>
@@ -24693,13 +24693,13 @@
     </row>
     <row r="122" spans="2:64" ht="21" customHeight="1">
       <c r="B122" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W122" s="1" t="str">
         <f t="shared" si="74"/>
@@ -24786,13 +24786,13 @@
         <v/>
       </c>
       <c r="AR122" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AS122" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU122" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV122" s="5" t="s">
         <v>33</v>
@@ -24859,10 +24859,10 @@
         <v>27</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H123" s="1">
         <v>1400</v>
@@ -24907,7 +24907,7 @@
         <v>1700</v>
       </c>
       <c r="V123" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W123" s="1">
         <f t="shared" si="74"/>
@@ -24994,16 +24994,16 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR123" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AS123" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT123" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU123" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV123" s="5" t="s">
         <v>32</v>
@@ -25070,10 +25070,10 @@
         <v>81</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V124" s="10"/>
       <c r="W124" s="1" t="str">
@@ -25161,13 +25161,13 @@
         <v/>
       </c>
       <c r="AR124" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AS124" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU124" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV124" s="5" t="s">
         <v>32</v>
@@ -25231,13 +25231,13 @@
     </row>
     <row r="125" spans="2:64" ht="21" customHeight="1">
       <c r="B125" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="W125" s="1" t="str">
         <f t="shared" si="74"/>
@@ -25325,10 +25325,10 @@
       </c>
       <c r="AR125" s="4"/>
       <c r="AT125" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU125" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV125" s="5" t="s">
         <v>33</v>
@@ -25392,13 +25392,13 @@
     </row>
     <row r="126" spans="2:64" ht="21" customHeight="1">
       <c r="B126" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="W126" s="1" t="str">
         <f t="shared" si="74"/>
@@ -25485,10 +25485,10 @@
         <v/>
       </c>
       <c r="AR126" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AU126" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV126" s="5" t="s">
         <v>33</v>
@@ -25552,13 +25552,13 @@
     </row>
     <row r="127" spans="2:64" ht="21" customHeight="1">
       <c r="B127" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="G127" s="20" t="s">
         <v>306</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>307</v>
       </c>
       <c r="H127" s="1">
         <v>1100</v>
@@ -25597,7 +25597,7 @@
         <v>1800</v>
       </c>
       <c r="V127" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W127" s="1">
         <f t="shared" si="74"/>
@@ -25684,13 +25684,13 @@
         <v/>
       </c>
       <c r="AR127" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AS127" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU127" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV127" s="5" t="s">
         <v>32</v>
@@ -25754,13 +25754,13 @@
     </row>
     <row r="128" spans="2:64" ht="21" customHeight="1">
       <c r="B128" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="W128" s="1" t="str">
         <f t="shared" si="74"/>
@@ -25847,10 +25847,10 @@
         <v/>
       </c>
       <c r="AR128" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AU128" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="AU128" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="AV128" s="5" t="s">
         <v>33</v>
@@ -25915,18 +25915,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL128" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129" spans="2:63" ht="21" customHeight="1">
       <c r="B129" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="74"/>
@@ -26013,13 +26013,13 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AS129" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU129" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV129" s="5" t="s">
         <v>33</v>
@@ -26087,13 +26087,13 @@
     </row>
     <row r="130" spans="2:63" ht="21" customHeight="1">
       <c r="B130" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H130" s="1">
         <v>1700</v>
@@ -26222,10 +26222,10 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR130" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AU130" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV130" s="5" t="s">
         <v>33</v>
@@ -26289,13 +26289,13 @@
     </row>
     <row r="131" spans="2:63" ht="21" customHeight="1">
       <c r="B131" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W131" s="1" t="str">
         <f t="shared" si="118"/>
@@ -26382,13 +26382,13 @@
         <v/>
       </c>
       <c r="AR131" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AT131" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU131" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV131" s="5" t="s">
         <v>33</v>
@@ -26452,13 +26452,13 @@
     </row>
     <row r="132" spans="2:63" ht="21" customHeight="1">
       <c r="B132" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W132" s="1" t="str">
         <f t="shared" si="118"/>
@@ -26545,10 +26545,10 @@
         <v/>
       </c>
       <c r="AR132" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AU132" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV132" s="5" t="s">
         <v>33</v>
@@ -26612,13 +26612,13 @@
     </row>
     <row r="133" spans="2:63" ht="21" customHeight="1">
       <c r="B133" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="W133" s="1" t="str">
         <f t="shared" si="118"/>
@@ -26705,10 +26705,10 @@
         <v/>
       </c>
       <c r="AR133" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU133" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV133" s="5" t="s">
         <v>33</v>
@@ -26772,13 +26772,13 @@
     </row>
     <row r="134" spans="2:63" ht="21" customHeight="1">
       <c r="B134" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J134" s="1">
         <v>1100</v>
@@ -26811,7 +26811,7 @@
         <v>1800</v>
       </c>
       <c r="V134" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W134" s="1" t="str">
         <f t="shared" si="118"/>
@@ -26898,10 +26898,10 @@
         <v/>
       </c>
       <c r="AR134" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AU134" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV134" s="5" t="s">
         <v>32</v>
@@ -26965,13 +26965,13 @@
     </row>
     <row r="135" spans="2:63" ht="21" customHeight="1">
       <c r="B135" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="W135" s="1" t="str">
         <f t="shared" si="118"/>
@@ -27058,13 +27058,13 @@
         <v/>
       </c>
       <c r="AR135" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AT135" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU135" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV135" s="5" t="s">
         <v>33</v>
@@ -27131,10 +27131,10 @@
         <v>99</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H136" s="1">
         <v>1730</v>
@@ -27179,7 +27179,7 @@
         <v>1830</v>
       </c>
       <c r="V136" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W136" s="1">
         <f t="shared" si="118"/>
@@ -27266,13 +27266,13 @@
         <v>5.3pm-6.3pm</v>
       </c>
       <c r="AR136" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AS136" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AU136" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV136" s="5" t="s">
         <v>32</v>
@@ -27336,13 +27336,13 @@
     </row>
     <row r="137" spans="2:63" ht="21" customHeight="1">
       <c r="B137" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H137" s="1">
         <v>1500</v>
@@ -27387,7 +27387,7 @@
         <v>1830</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W137" s="1">
         <f t="shared" si="118"/>
@@ -27474,10 +27474,10 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR137" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AU137" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV137" s="5" t="s">
         <v>32</v>
@@ -27541,13 +27541,13 @@
     </row>
     <row r="138" spans="2:63" ht="21" customHeight="1">
       <c r="B138" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W138" s="1" t="str">
         <f t="shared" si="118"/>
@@ -27634,10 +27634,10 @@
         <v/>
       </c>
       <c r="AR138" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AU138" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV138" s="5" t="s">
         <v>33</v>
@@ -27701,13 +27701,13 @@
     </row>
     <row r="139" spans="2:63" ht="21" customHeight="1">
       <c r="B139" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W139" s="1" t="str">
         <f t="shared" si="118"/>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="AR139" s="4"/>
       <c r="AU139" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV139" s="5" t="s">
         <v>33</v>
@@ -27859,13 +27859,13 @@
     </row>
     <row r="140" spans="2:63" ht="21" customHeight="1">
       <c r="B140" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G140" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W140" s="1" t="str">
         <f t="shared" si="118"/>
@@ -27952,13 +27952,13 @@
         <v/>
       </c>
       <c r="AR140" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AT140" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU140" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV140" s="5" t="s">
         <v>33</v>
@@ -28022,13 +28022,13 @@
     </row>
     <row r="141" spans="2:63" ht="21" customHeight="1">
       <c r="B141" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G141" s="25" t="s">
         <v>447</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G141" s="25" t="s">
-        <v>448</v>
       </c>
       <c r="W141" s="1" t="str">
         <f t="shared" si="118"/>
@@ -28115,10 +28115,10 @@
         <v/>
       </c>
       <c r="AR141" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AU141" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV141" s="5" t="s">
         <v>33</v>
@@ -28185,10 +28185,10 @@
         <v>100</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J142" s="1">
         <v>1500</v>
@@ -28227,7 +28227,7 @@
         <v>2400</v>
       </c>
       <c r="V142" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W142" s="1" t="str">
         <f t="shared" si="118"/>
@@ -28314,13 +28314,13 @@
         <v>9pm-12am</v>
       </c>
       <c r="AR142" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AS142" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU142" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV142" s="5" t="s">
         <v>32</v>
@@ -28387,10 +28387,10 @@
         <v>101</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J143" s="1">
         <v>1500</v>
@@ -28423,7 +28423,7 @@
         <v>1800</v>
       </c>
       <c r="V143" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W143" s="1" t="str">
         <f t="shared" si="118"/>
@@ -28510,13 +28510,13 @@
         <v/>
       </c>
       <c r="AR143" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AS143" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU143" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV143" s="5" t="s">
         <v>32</v>
@@ -28583,10 +28583,10 @@
         <v>102</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H144" s="1">
         <v>1500</v>
@@ -28631,7 +28631,7 @@
         <v>1700</v>
       </c>
       <c r="V144" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W144" s="1">
         <f t="shared" si="118"/>
@@ -28718,16 +28718,16 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR144" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AS144" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT144" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AU144" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV144" s="5" t="s">
         <v>32</v>
@@ -28791,13 +28791,13 @@
     </row>
     <row r="145" spans="2:63" ht="21" customHeight="1">
       <c r="B145" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="W145" s="1" t="str">
         <f t="shared" si="118"/>
@@ -28884,10 +28884,10 @@
         <v/>
       </c>
       <c r="AR145" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AU145" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV145" s="5" t="s">
         <v>33</v>
@@ -28951,13 +28951,13 @@
     </row>
     <row r="146" spans="2:63" ht="21" customHeight="1">
       <c r="B146" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W146" s="1" t="str">
         <f t="shared" si="118"/>
@@ -29044,10 +29044,10 @@
         <v/>
       </c>
       <c r="AR146" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AU146" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV146" s="5" t="s">
         <v>33</v>
@@ -29111,13 +29111,13 @@
     </row>
     <row r="147" spans="2:63" ht="21" customHeight="1">
       <c r="B147" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="W147" s="1" t="str">
         <f t="shared" si="118"/>
@@ -29204,10 +29204,10 @@
         <v/>
       </c>
       <c r="AR147" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AU147" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV147" s="5" t="s">
         <v>33</v>
@@ -29271,13 +29271,13 @@
     </row>
     <row r="148" spans="2:63" ht="21" customHeight="1">
       <c r="B148" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W148" s="1" t="str">
         <f t="shared" si="118"/>
@@ -29364,13 +29364,13 @@
         <v/>
       </c>
       <c r="AR148" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS148" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU148" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV148" s="5" t="s">
         <v>33</v>
@@ -29434,13 +29434,13 @@
     </row>
     <row r="149" spans="2:63" ht="21" customHeight="1">
       <c r="B149" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J149" s="1">
         <v>1500</v>
@@ -29479,7 +29479,7 @@
         <v>1800</v>
       </c>
       <c r="V149" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W149" s="1" t="str">
         <f t="shared" si="118"/>
@@ -29566,13 +29566,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR149" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AS149" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU149" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV149" s="5" t="s">
         <v>32</v>
@@ -29677,25 +29677,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" t="s">
         <v>490</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>491</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>492</v>
-      </c>
-      <c r="H1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="2" spans="2:8">
@@ -29706,16 +29706,16 @@
         <v>-105.26014499999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H2" t="s">
         <v>470</v>
-      </c>
-      <c r="H2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -29726,16 +29726,16 @@
         <v>-105.25942000000001</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H3" t="s">
         <v>470</v>
-      </c>
-      <c r="H3" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -29746,16 +29746,16 @@
         <v>-105.25924000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H4" t="s">
         <v>470</v>
-      </c>
-      <c r="H4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -29766,16 +29766,16 @@
         <v>-105.20641999999999</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G5" t="s">
+        <v>469</v>
+      </c>
+      <c r="H5" t="s">
         <v>470</v>
-      </c>
-      <c r="H5" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="6" spans="2:8">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -390,9 +390,6 @@
     <t>Monday - Friday 3 - 6pm &lt;br&gt; Food: $5 select appetizers, .50 cent Wings &lt;br&gt; Drinks: $3 Drafts, $3 Wells, $4 House Wines</t>
   </si>
   <si>
-    <t>Daily 3 - 6pm &lt;br&gt; Food: $3-7 small plates and salads &lt;br&gt; Drinks: $5 House Wine, $4 Beers, $4.5 Well Cocktails</t>
-  </si>
-  <si>
     <t>Daily 5 - 7pm &lt;br&gt; Food: $3-7 small plates &lt;br&gt; Drinks: $3 Draft Beers, $6 Select Cocktails, 5$ House Wines</t>
   </si>
   <si>
@@ -649,9 +646,6 @@
   </si>
   <si>
     <t>1346 Pearl StBoulder, CO 80302</t>
-  </si>
-  <si>
-    <t>2010 16th StBoulder, CO 80302</t>
   </si>
   <si>
     <t>1837 Pearl StBoulder, CO 80302</t>
@@ -1733,6 +1727,12 @@
   </si>
   <si>
     <t xml:space="preserve">$3 sangria&lt;br&gt;$3 draft beer&lt;br&gt;$5 wine&lt;br&gt;$5 cocktails&lt;br&gt; $2-$5 snacks </t>
+  </si>
+  <si>
+    <t>1710 Pearl Street, Boulder 80302</t>
+  </si>
+  <si>
+    <t>Small Plates&lt;br&gt;Soup of the day $4 / $6&lt;br&gt;Calamari Oyster Mushrooms $9 &lt;br&gt;Sweet Potato Gnocchi $6&lt;br&gt;Buffalo Cauliflower Taco $3.25 &lt;br&gt;Grilled Flatbread $8.5 &lt;br&gt;Crab Cake Slider $3.50 &lt;br&gt;Mushroom Burger Slider $3.50 &lt;br&gt;Bowl of Fries $3&lt;br&gt;Creamy Polenta $5.50 &lt;br&gt;Crispy Harissa Tofu $4 &lt;br&gt;Massaged Kale Salad $5.50 &lt;br&gt;Tofu Fries $3&lt;br&gt;&lt;br&gt; House Red, House White, Bubbles 5&lt;br&gt;Well Cocktails 5&lt;br&gt;Draft Beer 5&lt;br&gt;Hand Crafted Cocktails $6.50-8</t>
   </si>
 </sst>
 </file>
@@ -2733,10 +2733,10 @@
   <dimension ref="B1:BL147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="AS26" sqref="AS26"/>
+      <selection pane="bottomRight" activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2938,13 +2938,13 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="W2" s="1" t="str">
         <f t="shared" ref="W2:W5" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -3031,13 +3031,13 @@
         <v/>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>33</v>
@@ -3106,13 +3106,13 @@
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1">
       <c r="B3" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3199,10 +3199,10 @@
         <v/>
       </c>
       <c r="AR3" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>33</v>
@@ -3266,13 +3266,13 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3359,10 +3359,10 @@
         <v/>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV4" s="5" t="s">
         <v>33</v>
@@ -3426,13 +3426,13 @@
     </row>
     <row r="5" spans="2:64" ht="21" customHeight="1">
       <c r="B5" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="W5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3519,13 +3519,13 @@
         <v/>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV5" s="5" t="s">
         <v>33</v>
@@ -3589,13 +3589,13 @@
     </row>
     <row r="6" spans="2:64" ht="21" customHeight="1">
       <c r="B6" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J6" s="1">
         <v>1500</v>
@@ -3712,10 +3712,10 @@
         <v/>
       </c>
       <c r="AR6" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>32</v>
@@ -3782,10 +3782,10 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="H7" s="1">
         <v>1500</v>
@@ -3830,7 +3830,7 @@
         <v>1800</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="32"/>
@@ -3917,13 +3917,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV7" s="5" t="s">
         <v>32</v>
@@ -3989,13 +3989,13 @@
     </row>
     <row r="8" spans="2:64" ht="21" customHeight="1">
       <c r="B8" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4082,13 +4082,13 @@
         <v/>
       </c>
       <c r="AR8" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV8" s="5" t="s">
         <v>33</v>
@@ -4155,10 +4155,10 @@
         <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="1">
         <v>1600</v>
@@ -4290,13 +4290,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV9" s="5" t="s">
         <v>32</v>
@@ -4360,13 +4360,13 @@
     </row>
     <row r="10" spans="2:64" ht="21" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="W10" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4453,16 +4453,16 @@
         <v/>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>33</v>
@@ -4526,13 +4526,13 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1">
       <c r="B11" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4619,10 +4619,10 @@
         <v/>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV11" s="5" t="s">
         <v>33</v>
@@ -4686,13 +4686,13 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
       <c r="B12" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H12" s="1">
         <v>1400</v>
@@ -4737,7 +4737,7 @@
         <v>1700</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="32"/>
@@ -4824,10 +4824,10 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR12" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV12" s="5" t="s">
         <v>32</v>
@@ -4891,13 +4891,13 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1">
       <c r="B13" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="W13" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4984,10 +4984,10 @@
         <v/>
       </c>
       <c r="AR13" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV13" s="5" t="s">
         <v>33</v>
@@ -5051,13 +5051,13 @@
     </row>
     <row r="14" spans="2:64" ht="21" customHeight="1">
       <c r="B14" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H14" s="1">
         <v>1600</v>
@@ -5102,7 +5102,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="32"/>
@@ -5189,13 +5189,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>32</v>
@@ -5263,10 +5263,10 @@
         <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J15" s="1">
         <v>1500</v>
@@ -5386,13 +5386,13 @@
         <v/>
       </c>
       <c r="AR15" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AS15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV15" s="5" t="s">
         <v>32</v>
@@ -5456,13 +5456,13 @@
     </row>
     <row r="16" spans="2:64" ht="21" customHeight="1">
       <c r="B16" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5549,10 +5549,10 @@
         <v/>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV16" s="5" t="s">
         <v>33</v>
@@ -5616,13 +5616,13 @@
     </row>
     <row r="17" spans="2:64" ht="21" customHeight="1">
       <c r="B17" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J17" s="1">
         <v>1500</v>
@@ -5661,7 +5661,7 @@
         <v>1830</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5749,10 +5749,10 @@
       </c>
       <c r="AR17" s="4"/>
       <c r="AT17" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV17" s="5" t="s">
         <v>32</v>
@@ -5817,7 +5817,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="2:64" ht="21" customHeight="1">
@@ -5825,10 +5825,10 @@
         <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" s="1">
         <v>1600</v>
@@ -5960,13 +5960,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>32</v>
@@ -6030,13 +6030,13 @@
     </row>
     <row r="19" spans="2:64" ht="21" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="W19" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6123,13 +6123,13 @@
         <v/>
       </c>
       <c r="AR19" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AS19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV19" s="5" t="s">
         <v>33</v>
@@ -6193,13 +6193,13 @@
     </row>
     <row r="20" spans="2:64" ht="21" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1" t="str">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="AR20" s="4"/>
       <c r="AU20" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV20" s="5" t="s">
         <v>33</v>
@@ -6355,10 +6355,10 @@
         <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H21" s="1">
         <v>1500</v>
@@ -6490,16 +6490,16 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>32</v>
@@ -6563,13 +6563,13 @@
     </row>
     <row r="22" spans="2:64" ht="21" customHeight="1">
       <c r="B22" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="W22" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6656,13 +6656,13 @@
         <v/>
       </c>
       <c r="AR22" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AS22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV22" s="5" t="s">
         <v>33</v>
@@ -6726,13 +6726,13 @@
     </row>
     <row r="23" spans="2:64" ht="21" customHeight="1">
       <c r="B23" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6819,13 +6819,13 @@
         <v/>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>33</v>
@@ -6889,13 +6889,13 @@
     </row>
     <row r="24" spans="2:64" ht="21" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6982,13 +6982,13 @@
         <v/>
       </c>
       <c r="AR24" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AS24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>33</v>
@@ -7052,13 +7052,13 @@
     </row>
     <row r="25" spans="2:64" ht="21" customHeight="1">
       <c r="B25" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L25" s="1">
         <v>1500</v>
@@ -7091,7 +7091,7 @@
         <v>1800</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="W25" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7178,16 +7178,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AS25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>32</v>
@@ -7251,13 +7251,13 @@
     </row>
     <row r="26" spans="2:64" ht="21" customHeight="1">
       <c r="B26" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H26" s="1">
         <v>1600</v>
@@ -7387,10 +7387,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV26" s="5" t="s">
         <v>32</v>
@@ -7457,10 +7457,10 @@
         <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H27" s="1">
         <v>1400</v>
@@ -7592,13 +7592,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR27" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AS27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>32</v>
@@ -7663,7 +7663,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="2:64" ht="21" customHeight="1">
@@ -7671,10 +7671,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="W28" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7761,10 +7761,10 @@
         <v/>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV28" s="5" t="s">
         <v>33</v>
@@ -7828,13 +7828,13 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W29" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7921,13 +7921,13 @@
         <v/>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV29" s="5" t="s">
         <v>33</v>
@@ -7991,13 +7991,13 @@
     </row>
     <row r="30" spans="2:64" ht="21" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="W30" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8084,10 +8084,10 @@
         <v/>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>33</v>
@@ -8151,13 +8151,13 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1">
       <c r="B31" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8244,10 +8244,10 @@
         <v/>
       </c>
       <c r="AR31" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>33</v>
@@ -8311,13 +8311,13 @@
     </row>
     <row r="32" spans="2:64" ht="21" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8404,13 +8404,13 @@
         <v/>
       </c>
       <c r="AR32" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AS32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV32" s="5" t="s">
         <v>33</v>
@@ -8474,13 +8474,13 @@
     </row>
     <row r="33" spans="2:64" ht="21" customHeight="1">
       <c r="B33" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8567,13 +8567,13 @@
         <v/>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV33" s="5" t="s">
         <v>33</v>
@@ -8641,13 +8641,13 @@
     </row>
     <row r="34" spans="2:64" ht="21" customHeight="1">
       <c r="B34" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>479</v>
       </c>
       <c r="H34" s="1">
         <v>1500</v>
@@ -8692,7 +8692,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" si="32"/>
@@ -8779,13 +8779,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR34" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AS34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV34" s="5" t="s">
         <v>32</v>
@@ -8848,10 +8848,10 @@
         <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H35" s="1">
         <v>1400</v>
@@ -8896,7 +8896,7 @@
         <v>1800</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="32"/>
@@ -8983,13 +8983,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR35" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV35" s="5" t="s">
         <v>32</v>
@@ -9053,13 +9053,13 @@
     </row>
     <row r="36" spans="2:64" ht="21" customHeight="1">
       <c r="B36" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W36" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9146,13 +9146,13 @@
         <v/>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>33</v>
@@ -9216,13 +9216,13 @@
     </row>
     <row r="37" spans="2:64" ht="21" customHeight="1">
       <c r="B37" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="W37" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9309,10 +9309,10 @@
         <v/>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>33</v>
@@ -9376,13 +9376,13 @@
     </row>
     <row r="38" spans="2:64" ht="21" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J38" s="1">
         <v>1500</v>
@@ -9415,7 +9415,7 @@
         <v>1800</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9502,13 +9502,13 @@
         <v/>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AS38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV38" s="5" t="s">
         <v>32</v>
@@ -9573,18 +9573,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="21" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9671,13 +9671,13 @@
         <v/>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AS39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV39" s="5" t="s">
         <v>33</v>
@@ -9741,13 +9741,13 @@
     </row>
     <row r="40" spans="2:64" ht="21" customHeight="1">
       <c r="B40" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="V40" s="6"/>
       <c r="W40" s="1" t="str">
@@ -9835,10 +9835,10 @@
         <v/>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>33</v>
@@ -9902,13 +9902,13 @@
     </row>
     <row r="41" spans="2:64" ht="21" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="W41" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9995,10 +9995,10 @@
         <v/>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV41" s="5" t="s">
         <v>33</v>
@@ -10065,10 +10065,10 @@
         <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H42" s="1">
         <v>1700</v>
@@ -10194,13 +10194,13 @@
         <v/>
       </c>
       <c r="AR42" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV42" s="5" t="s">
         <v>32</v>
@@ -10264,13 +10264,13 @@
     </row>
     <row r="43" spans="2:64" ht="21" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10357,13 +10357,13 @@
         <v/>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV43" s="5" t="s">
         <v>33</v>
@@ -10427,13 +10427,13 @@
     </row>
     <row r="44" spans="2:64" ht="21" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10520,10 +10520,10 @@
         <v/>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>33</v>
@@ -10587,13 +10587,13 @@
     </row>
     <row r="45" spans="2:64" ht="21" customHeight="1">
       <c r="B45" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="W45" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10680,13 +10680,13 @@
         <v/>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AS45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV45" s="5" t="s">
         <v>33</v>
@@ -10750,13 +10750,13 @@
     </row>
     <row r="46" spans="2:64" ht="21" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10843,10 +10843,10 @@
         <v/>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV46" s="5" t="s">
         <v>33</v>
@@ -10910,13 +10910,13 @@
     </row>
     <row r="47" spans="2:64" ht="21" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H47" s="1">
         <v>1500</v>
@@ -10961,7 +10961,7 @@
         <v>1900</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" si="32"/>
@@ -11048,13 +11048,13 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR47" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>32</v>
@@ -11121,10 +11121,10 @@
         <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J48" s="1">
         <v>1430</v>
@@ -11250,13 +11250,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR48" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV48" s="5" t="s">
         <v>32</v>
@@ -11323,10 +11323,10 @@
         <v>26</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H49" s="1">
         <v>1500</v>
@@ -11458,13 +11458,13 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR49" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV49" s="5" t="s">
         <v>32</v>
@@ -11531,10 +11531,10 @@
         <v>26</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H50" s="1">
         <v>1500</v>
@@ -11579,7 +11579,7 @@
         <v>2000</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="W50" s="1">
         <f t="shared" si="32"/>
@@ -11667,7 +11667,7 @@
       </c>
       <c r="AR50" s="4"/>
       <c r="AU50" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>32</v>
@@ -11731,13 +11731,13 @@
     </row>
     <row r="51" spans="2:64" ht="21" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11824,10 +11824,10 @@
         <v/>
       </c>
       <c r="AR51" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV51" s="5" t="s">
         <v>33</v>
@@ -11891,13 +11891,13 @@
     </row>
     <row r="52" spans="2:64" ht="21" customHeight="1">
       <c r="B52" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="W52" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11984,10 +11984,10 @@
         <v/>
       </c>
       <c r="AR52" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV52" s="5" t="s">
         <v>33</v>
@@ -12051,13 +12051,13 @@
     </row>
     <row r="53" spans="2:64" ht="21" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V53" s="6"/>
       <c r="W53" s="1" t="str">
@@ -12145,13 +12145,13 @@
         <v/>
       </c>
       <c r="AR53" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AS53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV53" s="5" t="s">
         <v>33</v>
@@ -12218,10 +12218,10 @@
         <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H54" s="1">
         <v>1500</v>
@@ -12353,16 +12353,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR54" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV54" s="5" t="s">
         <v>32</v>
@@ -12429,10 +12429,10 @@
         <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H55" s="1">
         <v>1600</v>
@@ -12564,13 +12564,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR55" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS55" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV55" s="5" t="s">
         <v>32</v>
@@ -12634,13 +12634,13 @@
     </row>
     <row r="56" spans="2:64" ht="21" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H56" s="1">
         <v>1600</v>
@@ -12772,13 +12772,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR56" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AS56" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV56" s="5" t="s">
         <v>32</v>
@@ -12843,18 +12843,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="2:64" ht="21" customHeight="1">
       <c r="B57" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12941,10 +12941,10 @@
         <v/>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV57" s="5" t="s">
         <v>33</v>
@@ -13008,13 +13008,13 @@
     </row>
     <row r="58" spans="2:64" ht="21" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13101,16 +13101,16 @@
         <v/>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AS58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV58" s="5" t="s">
         <v>33</v>
@@ -13174,13 +13174,13 @@
     </row>
     <row r="59" spans="2:64" ht="21" customHeight="1">
       <c r="B59" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13267,10 +13267,10 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV59" s="5" t="s">
         <v>33</v>
@@ -13334,13 +13334,13 @@
     </row>
     <row r="60" spans="2:64" ht="21" customHeight="1">
       <c r="B60" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="W60" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13427,10 +13427,10 @@
         <v/>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV60" s="5" t="s">
         <v>33</v>
@@ -13495,18 +13495,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL60" s="26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="2:64" ht="21" customHeight="1">
       <c r="B61" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="W61" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13593,13 +13593,13 @@
         <v/>
       </c>
       <c r="AR61" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AS61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV61" s="5" t="s">
         <v>33</v>
@@ -13666,10 +13666,10 @@
         <v>77</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J62" s="1">
         <v>1500</v>
@@ -13789,13 +13789,13 @@
         <v/>
       </c>
       <c r="AR62" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AS62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV62" s="5" t="s">
         <v>32</v>
@@ -13859,13 +13859,13 @@
     </row>
     <row r="63" spans="2:64" ht="21" customHeight="1">
       <c r="B63" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="W63" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13952,10 +13952,10 @@
         <v/>
       </c>
       <c r="AR63" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV63" s="5" t="s">
         <v>33</v>
@@ -14019,13 +14019,13 @@
     </row>
     <row r="64" spans="2:64" ht="21" customHeight="1">
       <c r="B64" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W64" s="1" t="str">
         <f t="shared" si="32"/>
@@ -14112,10 +14112,10 @@
         <v/>
       </c>
       <c r="AR64" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV64" s="5" t="s">
         <v>33</v>
@@ -14182,10 +14182,10 @@
         <v>78</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>206</v>
+        <v>565</v>
       </c>
       <c r="H65" s="1">
         <v>1500</v>
@@ -14230,7 +14230,7 @@
         <v>1800</v>
       </c>
       <c r="V65" s="10" t="s">
-        <v>119</v>
+        <v>566</v>
       </c>
       <c r="W65" s="1">
         <f t="shared" si="32"/>
@@ -14317,13 +14317,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR65" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AS65" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV65" s="5" t="s">
         <v>32</v>
@@ -14340,7 +14340,7 @@
         <v>{
     'name': "Leaf Vegetarian Restaurant",
     'area': "pearl",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Daily 3 - 6pm &lt;br&gt; Food: $3-7 small plates and salads &lt;br&gt; Drinks: $5 House Wine, $4 Beers, $4.5 Well Cocktails", 'link':"http://www.leafvegetarianrestaurant.com/", 'pricing':"",   'phone-number': "", 'address': "2010 16th StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Small Plates&lt;br&gt;Soup of the day $4 / $6&lt;br&gt;Calamari Oyster Mushrooms $9 &lt;br&gt;Sweet Potato Gnocchi $6&lt;br&gt;Buffalo Cauliflower Taco $3.25 &lt;br&gt;Grilled Flatbread $8.5 &lt;br&gt;Crab Cake Slider $3.50 &lt;br&gt;Mushroom Burger Slider $3.50 &lt;br&gt;Bowl of Fries $3&lt;br&gt;Creamy Polenta $5.50 &lt;br&gt;Crispy Harissa Tofu $4 &lt;br&gt;Massaged Kale Salad $5.50 &lt;br&gt;Tofu Fries $3&lt;br&gt;&lt;br&gt; House Red, House White, Bubbles 5&lt;br&gt;Well Cocktails 5&lt;br&gt;Draft Beer 5&lt;br&gt;Hand Crafted Cocktails $6.50-8", 'link':"http://www.leafvegetarianrestaurant.com/", 'pricing':"",   'phone-number': "", 'address': "1710 Pearl Street, Boulder 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY65" s="1" t="str">
         <f t="shared" ref="AY65:AY94" si="65">IF(AS65&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -14394,10 +14394,10 @@
         <v>79</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H66" s="1">
         <v>1700</v>
@@ -14442,7 +14442,7 @@
         <v>1900</v>
       </c>
       <c r="V66" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W66" s="1">
         <f t="shared" ref="W66:W127" si="74">IF(H66&gt;0,H66/100,"")</f>
@@ -14529,13 +14529,13 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR66" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS66" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV66" s="5" t="s">
         <v>32</v>
@@ -14599,13 +14599,13 @@
     </row>
     <row r="67" spans="2:63" ht="21" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" si="74"/>
@@ -14692,13 +14692,13 @@
         <v/>
       </c>
       <c r="AR67" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AS67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV67" s="5" t="s">
         <v>33</v>
@@ -14762,13 +14762,13 @@
     </row>
     <row r="68" spans="2:63" ht="21" customHeight="1">
       <c r="B68" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="74"/>
@@ -14855,10 +14855,10 @@
         <v/>
       </c>
       <c r="AR68" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AU68" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV68" s="5" t="s">
         <v>33</v>
@@ -14922,13 +14922,13 @@
     </row>
     <row r="69" spans="2:63" ht="21" customHeight="1">
       <c r="B69" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="W69" s="1" t="str">
         <f t="shared" si="74"/>
@@ -15015,10 +15015,10 @@
         <v/>
       </c>
       <c r="AR69" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV69" s="5" t="s">
         <v>33</v>
@@ -15085,10 +15085,10 @@
         <v>80</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J70" s="1">
         <v>1500</v>
@@ -15121,7 +15121,7 @@
         <v>1800</v>
       </c>
       <c r="V70" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W70" s="1" t="str">
         <f t="shared" si="74"/>
@@ -15208,13 +15208,13 @@
         <v/>
       </c>
       <c r="AR70" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS70" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV70" s="5" t="s">
         <v>32</v>
@@ -15281,10 +15281,10 @@
         <v>82</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J71" s="1">
         <v>1600</v>
@@ -15317,7 +15317,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W71" s="1" t="str">
         <f t="shared" si="74"/>
@@ -15404,13 +15404,13 @@
         <v/>
       </c>
       <c r="AR71" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS71" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV71" s="5" t="s">
         <v>32</v>
@@ -15474,13 +15474,13 @@
     </row>
     <row r="72" spans="2:63" ht="21" customHeight="1">
       <c r="B72" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H72" s="1">
         <v>1500</v>
@@ -15525,7 +15525,7 @@
         <v>1800</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="W72" s="1">
         <f t="shared" si="74"/>
@@ -15612,10 +15612,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR72" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AU72" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV72" s="5" t="s">
         <v>32</v>
@@ -15675,13 +15675,13 @@
     </row>
     <row r="73" spans="2:63" ht="21" customHeight="1">
       <c r="B73" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W73" s="1" t="str">
         <f t="shared" si="74"/>
@@ -15768,13 +15768,13 @@
         <v/>
       </c>
       <c r="AR73" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AS73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU73" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV73" s="5" t="s">
         <v>33</v>
@@ -15838,13 +15838,13 @@
     </row>
     <row r="74" spans="2:63" ht="21" customHeight="1">
       <c r="B74" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="W74" s="1" t="str">
         <f t="shared" si="74"/>
@@ -15931,13 +15931,13 @@
         <v/>
       </c>
       <c r="AR74" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AS74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU74" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV74" s="5" t="s">
         <v>33</v>
@@ -16004,10 +16004,10 @@
         <v>83</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H75" s="1">
         <v>1500</v>
@@ -16052,7 +16052,7 @@
         <v>1800</v>
       </c>
       <c r="V75" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="W75" s="1">
         <f t="shared" si="74"/>
@@ -16139,13 +16139,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR75" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AS75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV75" s="5" t="s">
         <v>32</v>
@@ -16212,10 +16212,10 @@
         <v>84</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J76" s="1">
         <v>1630</v>
@@ -16242,7 +16242,7 @@
         <v>1830</v>
       </c>
       <c r="V76" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W76" s="1" t="str">
         <f t="shared" si="74"/>
@@ -16329,16 +16329,16 @@
         <v/>
       </c>
       <c r="AR76" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS76" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT76" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV76" s="5" t="s">
         <v>32</v>
@@ -16405,10 +16405,10 @@
         <v>85</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J77" s="1">
         <v>1430</v>
@@ -16447,7 +16447,7 @@
         <v>1730</v>
       </c>
       <c r="V77" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W77" s="1" t="str">
         <f t="shared" si="74"/>
@@ -16534,13 +16534,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR77" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AS77" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV77" s="5" t="s">
         <v>32</v>
@@ -16604,13 +16604,13 @@
     </row>
     <row r="78" spans="2:63" ht="21" customHeight="1">
       <c r="B78" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="W78" s="1" t="str">
         <f t="shared" si="74"/>
@@ -16697,10 +16697,10 @@
         <v/>
       </c>
       <c r="AR78" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AU78" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV78" s="5" t="s">
         <v>33</v>
@@ -16763,10 +16763,10 @@
         <v>86</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H79" s="1">
         <v>1500</v>
@@ -16811,7 +16811,7 @@
         <v>1800</v>
       </c>
       <c r="V79" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" si="74"/>
@@ -16898,13 +16898,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR79" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS79" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV79" s="5" t="s">
         <v>32</v>
@@ -16968,13 +16968,13 @@
     </row>
     <row r="80" spans="2:63" ht="21" customHeight="1">
       <c r="B80" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="W80" s="1" t="str">
         <f t="shared" si="74"/>
@@ -17065,7 +17065,7 @@
         <v>28</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV80" s="5" t="s">
         <v>33</v>
@@ -17129,13 +17129,13 @@
     </row>
     <row r="81" spans="2:63" ht="21" customHeight="1">
       <c r="B81" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W81" s="1" t="str">
         <f t="shared" si="74"/>
@@ -17222,10 +17222,10 @@
         <v/>
       </c>
       <c r="AR81" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV81" s="5" t="s">
         <v>33</v>
@@ -17289,13 +17289,13 @@
     </row>
     <row r="82" spans="2:63" ht="21" customHeight="1">
       <c r="B82" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W82" s="1" t="str">
         <f t="shared" si="74"/>
@@ -17382,13 +17382,13 @@
         <v/>
       </c>
       <c r="AR82" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AS82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV82" s="5" t="s">
         <v>33</v>
@@ -17452,13 +17452,13 @@
     </row>
     <row r="83" spans="2:63" ht="21" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="W83" s="1" t="str">
         <f t="shared" si="74"/>
@@ -17545,13 +17545,13 @@
         <v/>
       </c>
       <c r="AR83" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AS83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV83" s="5" t="s">
         <v>33</v>
@@ -17618,10 +17618,10 @@
         <v>87</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H84" s="1">
         <v>1530</v>
@@ -17666,7 +17666,7 @@
         <v>1730</v>
       </c>
       <c r="V84" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" si="74"/>
@@ -17753,13 +17753,13 @@
         <v>3.3pm-5.3pm</v>
       </c>
       <c r="AR84" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV84" s="5" t="s">
         <v>32</v>
@@ -17826,10 +17826,10 @@
         <v>88</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H85" s="1">
         <v>1700</v>
@@ -17874,7 +17874,7 @@
         <v>1830</v>
       </c>
       <c r="V85" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W85" s="1">
         <f t="shared" si="74"/>
@@ -17961,13 +17961,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR85" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS85" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU85" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV85" s="5" t="s">
         <v>32</v>
@@ -18034,10 +18034,10 @@
         <v>89</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H86" s="1">
         <v>1600</v>
@@ -18082,7 +18082,7 @@
         <v>1900</v>
       </c>
       <c r="V86" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W86" s="1">
         <f t="shared" si="74"/>
@@ -18169,13 +18169,13 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR86" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS86" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AU86" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV86" s="5" t="s">
         <v>32</v>
@@ -18239,13 +18239,13 @@
     </row>
     <row r="87" spans="2:63" ht="21" customHeight="1">
       <c r="B87" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="W87" s="1" t="str">
         <f t="shared" si="74"/>
@@ -18332,10 +18332,10 @@
         <v/>
       </c>
       <c r="AR87" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AU87" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV87" s="5" t="s">
         <v>33</v>
@@ -18399,13 +18399,13 @@
     </row>
     <row r="88" spans="2:63" ht="21" customHeight="1">
       <c r="B88" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="W88" s="1" t="str">
         <f t="shared" si="74"/>
@@ -18492,7 +18492,7 @@
         <v/>
       </c>
       <c r="AU88" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV88" s="5" t="s">
         <v>33</v>
@@ -18556,13 +18556,13 @@
     </row>
     <row r="89" spans="2:63" ht="21" customHeight="1">
       <c r="B89" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="74"/>
@@ -18649,10 +18649,10 @@
         <v/>
       </c>
       <c r="AR89" s="20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AU89" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV89" s="5" t="s">
         <v>33</v>
@@ -18715,10 +18715,10 @@
         <v>90</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J90" s="1">
         <v>1500</v>
@@ -18751,7 +18751,7 @@
         <v>1800</v>
       </c>
       <c r="V90" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="W90" s="1" t="str">
         <f t="shared" si="74"/>
@@ -18838,13 +18838,13 @@
         <v/>
       </c>
       <c r="AR90" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS90" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU90" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV90" s="5" t="s">
         <v>32</v>
@@ -18908,13 +18908,13 @@
     </row>
     <row r="91" spans="2:63" ht="21" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W91" s="1" t="str">
         <f t="shared" si="74"/>
@@ -19001,16 +19001,16 @@
         <v/>
       </c>
       <c r="AR91" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AS91" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT91" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU91" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV91" s="5" t="s">
         <v>33</v>
@@ -19074,13 +19074,13 @@
     </row>
     <row r="92" spans="2:63" ht="21" customHeight="1">
       <c r="B92" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H92" s="1">
         <v>1400</v>
@@ -19125,7 +19125,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="W92" s="1">
         <f t="shared" si="74"/>
@@ -19212,10 +19212,10 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR92" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AU92" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV92" s="5" t="s">
         <v>32</v>
@@ -19282,10 +19282,10 @@
         <v>24</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J93" s="1">
         <v>1500</v>
@@ -19318,7 +19318,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W93" s="1" t="str">
         <f t="shared" si="74"/>
@@ -19405,13 +19405,13 @@
         <v/>
       </c>
       <c r="AR93" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU93" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV93" s="5" t="s">
         <v>32</v>
@@ -19475,13 +19475,13 @@
     </row>
     <row r="94" spans="2:63" ht="21" customHeight="1">
       <c r="B94" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="W94" s="1" t="str">
         <f t="shared" si="74"/>
@@ -19568,13 +19568,13 @@
         <v/>
       </c>
       <c r="AR94" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AS94" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU94" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV94" s="5" t="s">
         <v>33</v>
@@ -19638,13 +19638,13 @@
     </row>
     <row r="95" spans="2:63" ht="21" customHeight="1">
       <c r="B95" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="G95" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H95" s="1">
         <v>1500</v>
@@ -19689,7 +19689,7 @@
         <v>1800</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" si="74"/>
@@ -19776,16 +19776,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR95" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AS95" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT95" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU95" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV95" s="5" t="s">
         <v>32</v>
@@ -19853,13 +19853,13 @@
     </row>
     <row r="96" spans="2:63" ht="21" customHeight="1">
       <c r="B96" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="74"/>
@@ -19946,10 +19946,10 @@
         <v/>
       </c>
       <c r="AR96" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AU96" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV96" s="5" t="s">
         <v>33</v>
@@ -20016,10 +20016,10 @@
         <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H97" s="1">
         <v>1500</v>
@@ -20064,7 +20064,7 @@
         <v>1800</v>
       </c>
       <c r="V97" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W97" s="1">
         <f t="shared" si="74"/>
@@ -20151,13 +20151,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR97" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS97" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU97" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV97" s="5" t="s">
         <v>32</v>
@@ -20221,13 +20221,13 @@
     </row>
     <row r="98" spans="2:63" ht="21" customHeight="1">
       <c r="B98" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="W98" s="1" t="str">
         <f t="shared" si="74"/>
@@ -20314,10 +20314,10 @@
         <v/>
       </c>
       <c r="AR98" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AU98" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV98" s="5" t="s">
         <v>33</v>
@@ -20384,10 +20384,10 @@
         <v>92</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H99" s="1">
         <v>1500</v>
@@ -20432,7 +20432,7 @@
         <v>1700</v>
       </c>
       <c r="V99" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" si="74"/>
@@ -20519,13 +20519,13 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR99" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS99" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU99" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV99" s="5" t="s">
         <v>32</v>
@@ -20589,13 +20589,13 @@
     </row>
     <row r="100" spans="2:63" ht="21" customHeight="1">
       <c r="B100" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="W100" s="1" t="str">
         <f t="shared" si="74"/>
@@ -20682,10 +20682,10 @@
         <v/>
       </c>
       <c r="AR100" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AU100" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV100" s="5" t="s">
         <v>33</v>
@@ -20752,10 +20752,10 @@
         <v>93</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H101" s="1">
         <v>1500</v>
@@ -20800,7 +20800,7 @@
         <v>1800</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" si="74"/>
@@ -20887,13 +20887,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR101" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS101" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU101" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV101" s="5" t="s">
         <v>32</v>
@@ -20960,10 +20960,10 @@
         <v>94</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H102" s="1">
         <v>1500</v>
@@ -21008,7 +21008,7 @@
         <v>1900</v>
       </c>
       <c r="V102" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W102" s="1">
         <f t="shared" si="74"/>
@@ -21095,13 +21095,13 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR102" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS102" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU102" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV102" s="5" t="s">
         <v>32</v>
@@ -21165,13 +21165,13 @@
     </row>
     <row r="103" spans="2:63" ht="21" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="W103" s="1" t="str">
         <f t="shared" si="74"/>
@@ -21258,10 +21258,10 @@
         <v/>
       </c>
       <c r="AR103" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AU103" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV103" s="5" t="s">
         <v>33</v>
@@ -21325,13 +21325,13 @@
     </row>
     <row r="104" spans="2:63" ht="21" customHeight="1">
       <c r="B104" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W104" s="1" t="str">
         <f t="shared" si="74"/>
@@ -21418,10 +21418,10 @@
         <v/>
       </c>
       <c r="AR104" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AU104" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV104" s="5" t="s">
         <v>33</v>
@@ -21485,13 +21485,13 @@
     </row>
     <row r="105" spans="2:63" ht="21" customHeight="1">
       <c r="B105" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="W105" s="1" t="str">
         <f t="shared" si="74"/>
@@ -21578,10 +21578,10 @@
         <v/>
       </c>
       <c r="AR105" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV105" s="5" t="s">
         <v>33</v>
@@ -21645,13 +21645,13 @@
     </row>
     <row r="106" spans="2:63" ht="21" customHeight="1">
       <c r="B106" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W106" s="1" t="str">
         <f t="shared" si="74"/>
@@ -21738,13 +21738,13 @@
         <v/>
       </c>
       <c r="AR106" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AS106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU106" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV106" s="5" t="s">
         <v>33</v>
@@ -21808,13 +21808,13 @@
     </row>
     <row r="107" spans="2:63" ht="21" customHeight="1">
       <c r="B107" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H107" s="1">
         <v>1600</v>
@@ -21859,7 +21859,7 @@
         <v>1800</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" si="74"/>
@@ -21946,13 +21946,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR107" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AS107" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU107" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV107" s="5" t="s">
         <v>32</v>
@@ -22016,13 +22016,13 @@
     </row>
     <row r="108" spans="2:63" ht="21" customHeight="1">
       <c r="B108" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H108" s="1">
         <v>1600</v>
@@ -22067,7 +22067,7 @@
         <v>1730</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="W108" s="1">
         <f t="shared" si="74"/>
@@ -22154,10 +22154,10 @@
         <v>11am-5.3pm</v>
       </c>
       <c r="AR108" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AU108" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV108" s="5" t="s">
         <v>32</v>
@@ -22224,10 +22224,10 @@
         <v>95</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J109" s="1">
         <v>1700</v>
@@ -22266,7 +22266,7 @@
         <v>1830</v>
       </c>
       <c r="V109" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W109" s="1" t="str">
         <f t="shared" si="74"/>
@@ -22353,13 +22353,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR109" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS109" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AU109" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV109" s="5" t="s">
         <v>32</v>
@@ -22423,13 +22423,13 @@
     </row>
     <row r="110" spans="2:63" ht="21" customHeight="1">
       <c r="B110" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V110" s="6"/>
       <c r="W110" s="1" t="str">
@@ -22517,10 +22517,10 @@
         <v/>
       </c>
       <c r="AR110" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AU110" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV110" s="5" t="s">
         <v>33</v>
@@ -22587,10 +22587,10 @@
         <v>96</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H111" s="1">
         <v>1400</v>
@@ -22635,7 +22635,7 @@
         <v>1800</v>
       </c>
       <c r="V111" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W111" s="1">
         <f t="shared" si="74"/>
@@ -22722,13 +22722,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR111" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AS111" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU111" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV111" s="5" t="s">
         <v>32</v>
@@ -22795,10 +22795,10 @@
         <v>97</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J112" s="1">
         <v>1600</v>
@@ -22837,7 +22837,7 @@
         <v>1800</v>
       </c>
       <c r="V112" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W112" s="1" t="str">
         <f t="shared" si="74"/>
@@ -22924,13 +22924,13 @@
         <v>11.3am-6pm</v>
       </c>
       <c r="AR112" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AS112" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU112" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV112" s="5" t="s">
         <v>32</v>
@@ -22997,10 +22997,10 @@
         <v>98</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H113" s="1">
         <v>1500</v>
@@ -23045,7 +23045,7 @@
         <v>1800</v>
       </c>
       <c r="V113" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W113" s="1">
         <f t="shared" si="74"/>
@@ -23132,16 +23132,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR113" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS113" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT113" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU113" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV113" s="5" t="s">
         <v>32</v>
@@ -23205,13 +23205,13 @@
     </row>
     <row r="114" spans="2:64" ht="21" customHeight="1">
       <c r="B114" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="W114" s="1" t="str">
         <f t="shared" si="74"/>
@@ -23298,10 +23298,10 @@
         <v/>
       </c>
       <c r="AR114" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AU114" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV114" s="5" t="s">
         <v>33</v>
@@ -23368,10 +23368,10 @@
         <v>65</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H115" s="1">
         <v>2100</v>
@@ -23503,13 +23503,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR115" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS115" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AU115" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV115" s="5" t="s">
         <v>32</v>
@@ -23574,18 +23574,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL115" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" spans="2:64" ht="21" customHeight="1">
       <c r="B116" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W116" s="1" t="str">
         <f t="shared" si="74"/>
@@ -23672,13 +23672,13 @@
         <v/>
       </c>
       <c r="AR116" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AS116" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU116" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV116" s="5" t="s">
         <v>33</v>
@@ -23745,10 +23745,10 @@
         <v>70</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J117" s="1">
         <v>1600</v>
@@ -23868,13 +23868,13 @@
         <v/>
       </c>
       <c r="AR117" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS117" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU117" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV117" s="5" t="s">
         <v>32</v>
@@ -23938,13 +23938,13 @@
     </row>
     <row r="118" spans="2:64" ht="21" customHeight="1">
       <c r="B118" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H118" s="1">
         <v>1500</v>
@@ -23989,7 +23989,7 @@
         <v>1800</v>
       </c>
       <c r="V118" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="W118" s="1">
         <f t="shared" si="74"/>
@@ -24076,10 +24076,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR118" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AU118" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV118" s="5" t="s">
         <v>32</v>
@@ -24146,10 +24146,10 @@
         <v>71</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H119" s="1">
         <v>1500</v>
@@ -24281,13 +24281,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR119" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AS119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU119" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV119" s="5" t="s">
         <v>32</v>
@@ -24351,13 +24351,13 @@
     </row>
     <row r="120" spans="2:64" ht="21" customHeight="1">
       <c r="B120" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="W120" s="1" t="str">
         <f t="shared" si="74"/>
@@ -24444,13 +24444,13 @@
         <v/>
       </c>
       <c r="AR120" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AS120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU120" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV120" s="5" t="s">
         <v>33</v>
@@ -24517,10 +24517,10 @@
         <v>27</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H121" s="1">
         <v>1400</v>
@@ -24652,16 +24652,16 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR121" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AS121" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT121" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU121" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV121" s="5" t="s">
         <v>32</v>
@@ -24728,10 +24728,10 @@
         <v>81</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="V122" s="10"/>
       <c r="W122" s="1" t="str">
@@ -24819,13 +24819,13 @@
         <v/>
       </c>
       <c r="AR122" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS122" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU122" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV122" s="5" t="s">
         <v>32</v>
@@ -24889,13 +24889,13 @@
     </row>
     <row r="123" spans="2:64" ht="21" customHeight="1">
       <c r="B123" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G123" s="24" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="W123" s="1" t="str">
         <f t="shared" si="74"/>
@@ -24983,10 +24983,10 @@
       </c>
       <c r="AR123" s="4"/>
       <c r="AT123" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU123" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV123" s="5" t="s">
         <v>33</v>
@@ -25050,13 +25050,13 @@
     </row>
     <row r="124" spans="2:64" ht="21" customHeight="1">
       <c r="B124" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W124" s="1" t="str">
         <f t="shared" si="74"/>
@@ -25143,10 +25143,10 @@
         <v/>
       </c>
       <c r="AR124" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AU124" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV124" s="5" t="s">
         <v>33</v>
@@ -25210,13 +25210,13 @@
     </row>
     <row r="125" spans="2:64" ht="21" customHeight="1">
       <c r="B125" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G125" s="19" t="s">
         <v>304</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G125" s="19" t="s">
-        <v>306</v>
       </c>
       <c r="H125" s="1">
         <v>1100</v>
@@ -25255,7 +25255,7 @@
         <v>1800</v>
       </c>
       <c r="V125" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="W125" s="1">
         <f t="shared" si="74"/>
@@ -25342,13 +25342,13 @@
         <v/>
       </c>
       <c r="AR125" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AS125" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU125" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV125" s="5" t="s">
         <v>32</v>
@@ -25412,13 +25412,13 @@
     </row>
     <row r="126" spans="2:64" ht="21" customHeight="1">
       <c r="B126" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="W126" s="1" t="str">
         <f t="shared" si="74"/>
@@ -25505,10 +25505,10 @@
         <v/>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AU126" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV126" s="5" t="s">
         <v>33</v>
@@ -25573,18 +25573,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL126" s="26" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="127" spans="2:64" ht="21" customHeight="1">
       <c r="B127" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W127" s="1" t="str">
         <f t="shared" si="74"/>
@@ -25671,13 +25671,13 @@
         <v/>
       </c>
       <c r="AR127" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AS127" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU127" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV127" s="5" t="s">
         <v>33</v>
@@ -25745,13 +25745,13 @@
     </row>
     <row r="128" spans="2:64" ht="21" customHeight="1">
       <c r="B128" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H128" s="1">
         <v>1700</v>
@@ -25880,10 +25880,10 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR128" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AU128" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV128" s="5" t="s">
         <v>33</v>
@@ -25947,13 +25947,13 @@
     </row>
     <row r="129" spans="2:63" ht="21" customHeight="1">
       <c r="B129" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="118"/>
@@ -26040,13 +26040,13 @@
         <v/>
       </c>
       <c r="AR129" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AT129" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU129" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV129" s="5" t="s">
         <v>33</v>
@@ -26110,13 +26110,13 @@
     </row>
     <row r="130" spans="2:63" ht="21" customHeight="1">
       <c r="B130" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W130" s="1" t="str">
         <f t="shared" si="118"/>
@@ -26203,10 +26203,10 @@
         <v/>
       </c>
       <c r="AR130" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AU130" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV130" s="5" t="s">
         <v>33</v>
@@ -26270,13 +26270,13 @@
     </row>
     <row r="131" spans="2:63" ht="21" customHeight="1">
       <c r="B131" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="W131" s="1" t="str">
         <f t="shared" si="118"/>
@@ -26363,10 +26363,10 @@
         <v/>
       </c>
       <c r="AR131" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AU131" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV131" s="5" t="s">
         <v>33</v>
@@ -26430,13 +26430,13 @@
     </row>
     <row r="132" spans="2:63" ht="21" customHeight="1">
       <c r="B132" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J132" s="1">
         <v>1100</v>
@@ -26469,7 +26469,7 @@
         <v>1800</v>
       </c>
       <c r="V132" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W132" s="1" t="str">
         <f t="shared" si="118"/>
@@ -26556,10 +26556,10 @@
         <v/>
       </c>
       <c r="AR132" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AU132" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV132" s="5" t="s">
         <v>32</v>
@@ -26623,13 +26623,13 @@
     </row>
     <row r="133" spans="2:63" ht="21" customHeight="1">
       <c r="B133" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="W133" s="1" t="str">
         <f t="shared" si="118"/>
@@ -26716,13 +26716,13 @@
         <v/>
       </c>
       <c r="AR133" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AT133" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AU133" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="AT133" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="AU133" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="AV133" s="5" t="s">
         <v>33</v>
@@ -26789,10 +26789,10 @@
         <v>99</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H134" s="1">
         <v>1730</v>
@@ -26837,7 +26837,7 @@
         <v>1830</v>
       </c>
       <c r="V134" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W134" s="1">
         <f t="shared" si="118"/>
@@ -26924,13 +26924,13 @@
         <v>5.3pm-6.3pm</v>
       </c>
       <c r="AR134" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AS134" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AU134" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV134" s="5" t="s">
         <v>32</v>
@@ -26994,13 +26994,13 @@
     </row>
     <row r="135" spans="2:63" ht="21" customHeight="1">
       <c r="B135" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H135" s="1">
         <v>1500</v>
@@ -27045,7 +27045,7 @@
         <v>1830</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="W135" s="1">
         <f t="shared" si="118"/>
@@ -27132,10 +27132,10 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR135" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AU135" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV135" s="5" t="s">
         <v>32</v>
@@ -27199,13 +27199,13 @@
     </row>
     <row r="136" spans="2:63" ht="21" customHeight="1">
       <c r="B136" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="W136" s="1" t="str">
         <f t="shared" si="118"/>
@@ -27292,10 +27292,10 @@
         <v/>
       </c>
       <c r="AR136" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AU136" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV136" s="5" t="s">
         <v>33</v>
@@ -27359,13 +27359,13 @@
     </row>
     <row r="137" spans="2:63" ht="21" customHeight="1">
       <c r="B137" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="W137" s="1" t="str">
         <f t="shared" si="118"/>
@@ -27453,7 +27453,7 @@
       </c>
       <c r="AR137" s="4"/>
       <c r="AU137" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV137" s="5" t="s">
         <v>33</v>
@@ -27517,13 +27517,13 @@
     </row>
     <row r="138" spans="2:63" ht="21" customHeight="1">
       <c r="B138" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G138" s="28" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W138" s="1" t="str">
         <f t="shared" si="118"/>
@@ -27610,13 +27610,13 @@
         <v/>
       </c>
       <c r="AR138" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AT138" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU138" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV138" s="5" t="s">
         <v>33</v>
@@ -27680,13 +27680,13 @@
     </row>
     <row r="139" spans="2:63" ht="21" customHeight="1">
       <c r="B139" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G139" s="24" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="W139" s="1" t="str">
         <f t="shared" si="118"/>
@@ -27773,10 +27773,10 @@
         <v/>
       </c>
       <c r="AR139" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AU139" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV139" s="5" t="s">
         <v>33</v>
@@ -27843,10 +27843,10 @@
         <v>100</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J140" s="1">
         <v>1500</v>
@@ -27885,7 +27885,7 @@
         <v>2400</v>
       </c>
       <c r="V140" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W140" s="1" t="str">
         <f t="shared" si="118"/>
@@ -27972,13 +27972,13 @@
         <v>9pm-12am</v>
       </c>
       <c r="AR140" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AS140" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU140" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV140" s="5" t="s">
         <v>32</v>
@@ -28045,10 +28045,10 @@
         <v>101</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J141" s="1">
         <v>1500</v>
@@ -28081,7 +28081,7 @@
         <v>1800</v>
       </c>
       <c r="V141" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W141" s="1" t="str">
         <f t="shared" si="118"/>
@@ -28168,13 +28168,13 @@
         <v/>
       </c>
       <c r="AR141" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AS141" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU141" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV141" s="5" t="s">
         <v>32</v>
@@ -28241,10 +28241,10 @@
         <v>102</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H142" s="1">
         <v>1500</v>
@@ -28289,7 +28289,7 @@
         <v>1700</v>
       </c>
       <c r="V142" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W142" s="1">
         <f t="shared" si="118"/>
@@ -28376,16 +28376,16 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR142" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AS142" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT142" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AU142" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV142" s="5" t="s">
         <v>32</v>
@@ -28449,13 +28449,13 @@
     </row>
     <row r="143" spans="2:63" ht="21" customHeight="1">
       <c r="B143" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W143" s="1" t="str">
         <f t="shared" si="118"/>
@@ -28542,10 +28542,10 @@
         <v/>
       </c>
       <c r="AR143" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AU143" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV143" s="5" t="s">
         <v>33</v>
@@ -28609,13 +28609,13 @@
     </row>
     <row r="144" spans="2:63" ht="21" customHeight="1">
       <c r="B144" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="W144" s="1" t="str">
         <f t="shared" si="118"/>
@@ -28702,10 +28702,10 @@
         <v/>
       </c>
       <c r="AR144" s="14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AU144" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV144" s="5" t="s">
         <v>33</v>
@@ -28769,13 +28769,13 @@
     </row>
     <row r="145" spans="2:63" ht="21" customHeight="1">
       <c r="B145" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="W145" s="1" t="str">
         <f t="shared" si="118"/>
@@ -28862,10 +28862,10 @@
         <v/>
       </c>
       <c r="AR145" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AU145" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV145" s="5" t="s">
         <v>33</v>
@@ -28929,13 +28929,13 @@
     </row>
     <row r="146" spans="2:63" ht="21" customHeight="1">
       <c r="B146" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="W146" s="1" t="str">
         <f t="shared" si="118"/>
@@ -29022,13 +29022,13 @@
         <v/>
       </c>
       <c r="AR146" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AS146" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU146" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV146" s="5" t="s">
         <v>33</v>
@@ -29092,13 +29092,13 @@
     </row>
     <row r="147" spans="2:63" ht="21" customHeight="1">
       <c r="B147" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J147" s="1">
         <v>1500</v>
@@ -29137,7 +29137,7 @@
         <v>1800</v>
       </c>
       <c r="V147" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="W147" s="1" t="str">
         <f t="shared" si="118"/>
@@ -29224,13 +29224,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR147" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AS147" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU147" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AV147" s="5" t="s">
         <v>32</v>
@@ -29334,25 +29334,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" t="s">
         <v>484</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" t="s">
         <v>485</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>486</v>
-      </c>
-      <c r="G1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="2" spans="2:8">
@@ -29363,16 +29363,16 @@
         <v>-105.26014499999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -29383,16 +29383,16 @@
         <v>-105.25942000000001</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -29403,16 +29403,16 @@
         <v>-105.25924000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -29423,16 +29423,16 @@
         <v>-105.20641999999999</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="2:8">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clorange\Dropbox\CLD\Orange House\Happy Hour\Boulder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\Boulder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C200BFD3-7E88-42CD-B818-8B99C1780771}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="3495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="3500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$147</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="568">
   <si>
     <t>Name</t>
   </si>
@@ -1733,12 +1735,15 @@
   </si>
   <si>
     <t>Small Plates&lt;br&gt;Soup of the day $4 / $6&lt;br&gt;Calamari Oyster Mushrooms $9 &lt;br&gt;Sweet Potato Gnocchi $6&lt;br&gt;Buffalo Cauliflower Taco $3.25 &lt;br&gt;Grilled Flatbread $8.5 &lt;br&gt;Crab Cake Slider $3.50 &lt;br&gt;Mushroom Burger Slider $3.50 &lt;br&gt;Bowl of Fries $3&lt;br&gt;Creamy Polenta $5.50 &lt;br&gt;Crispy Harissa Tofu $4 &lt;br&gt;Massaged Kale Salad $5.50 &lt;br&gt;Tofu Fries $3&lt;br&gt;&lt;br&gt; House Red, House White, Bubbles 5&lt;br&gt;Well Cocktails 5&lt;br&gt;Draft Beer 5&lt;br&gt;Hand Crafted Cocktails $6.50-8</t>
+  </si>
+  <si>
+    <t>$5 Med Salad&lt;br&gt;$2 Seasonal Deviled Eggs&lt;br&gt;$2.50 Oysters Hickenlooper&lt;br&gt;$6 Poutine&lt;br&gt;$6 Duck Wings&lt;br&gt;$5 Heirloom Blue Corndog&lt;br&gt;$4 Sweet Potato Nuggets&lt;br&gt;&lt;br&gt;$6 Tap Wines&lt;br&gt;$6 Tap Beers&lt;br&gt;$5-6 Select Cocktails&lt;br&gt;&lt;br&gt;$18 Chefs Forage and Sip Board: A unique chefs selection of tasty morsels from the kitchen plus two glasses of house wine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="31">
     <font>
       <sz val="11"/>
@@ -2360,12 +2365,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="37"/>
-    <cellStyle name="60% - Accent2" xfId="38"/>
-    <cellStyle name="60% - Accent3" xfId="39"/>
-    <cellStyle name="60% - Accent4" xfId="40"/>
-    <cellStyle name="60% - Accent5" xfId="41"/>
-    <cellStyle name="60% - Accent6" xfId="42"/>
+    <cellStyle name="60% - Accent1" xfId="37" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4" xfId="40" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5" xfId="41" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -2384,11 +2389,11 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36"/>
+    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="35"/>
+    <cellStyle name="Title" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -2417,7 +2422,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2729,43 +2734,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="V86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="V66" sqref="V66"/>
+      <selection pane="bottomRight" activeCell="V95" sqref="V95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="29.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
     <col min="8" max="21" width="6" style="1" customWidth="1"/>
-    <col min="22" max="22" width="34.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="34.81640625" style="1" customWidth="1"/>
     <col min="23" max="36" width="6" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.81640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="13.54296875" style="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="42" width="10.28515625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" style="1" customWidth="1"/>
-    <col min="44" max="49" width="9.140625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="90.5703125" style="1" customWidth="1"/>
-    <col min="51" max="51" width="5.5703125" style="1" customWidth="1"/>
-    <col min="52" max="52" width="9.140625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="10.140625" style="1" customWidth="1"/>
-    <col min="54" max="55" width="9.140625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="48.140625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="53.5703125" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.42578125" style="1" customWidth="1"/>
-    <col min="59" max="60" width="9.140625" style="1" customWidth="1"/>
-    <col min="61" max="61" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="9.140625" style="1"/>
+    <col min="40" max="42" width="10.26953125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.81640625" style="1" customWidth="1"/>
+    <col min="44" max="49" width="9.1796875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="90.54296875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="5.54296875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="9.1796875" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.1796875" style="1" customWidth="1"/>
+    <col min="54" max="55" width="9.1796875" style="1" customWidth="1"/>
+    <col min="56" max="56" width="48.1796875" style="1" customWidth="1"/>
+    <col min="57" max="57" width="53.54296875" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.453125" style="1" customWidth="1"/>
+    <col min="59" max="60" width="9.1796875" style="1" customWidth="1"/>
+    <col min="61" max="61" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:64" ht="21" customHeight="1">
@@ -19483,6 +19488,39 @@
       <c r="G94" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="J94" s="1">
+        <v>1600</v>
+      </c>
+      <c r="K94" s="1">
+        <v>1800</v>
+      </c>
+      <c r="L94" s="1">
+        <v>1600</v>
+      </c>
+      <c r="M94" s="1">
+        <v>1800</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1600</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1800</v>
+      </c>
+      <c r="P94" s="1">
+        <v>1600</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>1800</v>
+      </c>
+      <c r="R94" s="1">
+        <v>1600</v>
+      </c>
+      <c r="S94" s="1">
+        <v>1800</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>567</v>
+      </c>
       <c r="W94" s="1" t="str">
         <f t="shared" si="74"/>
         <v/>
@@ -19491,45 +19529,45 @@
         <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="Y94" s="1" t="str">
+      <c r="Y94" s="1">
         <f t="shared" si="76"/>
-        <v/>
-      </c>
-      <c r="Z94" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="Z94" s="1">
         <f t="shared" si="77"/>
-        <v/>
-      </c>
-      <c r="AA94" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="AA94" s="1">
         <f t="shared" si="78"/>
-        <v/>
-      </c>
-      <c r="AB94" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="AB94" s="1">
         <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="AC94" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="AC94" s="1">
         <f t="shared" si="80"/>
-        <v/>
-      </c>
-      <c r="AD94" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="AD94" s="1">
         <f t="shared" si="81"/>
-        <v/>
-      </c>
-      <c r="AE94" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="AE94" s="1">
         <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="AF94" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="AF94" s="1">
         <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="AG94" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="AG94" s="1">
         <f t="shared" si="84"/>
-        <v/>
-      </c>
-      <c r="AH94" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="AH94" s="1">
         <f t="shared" si="85"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AI94" s="1" t="str">
         <f t="shared" si="86"/>
@@ -19545,23 +19583,23 @@
       </c>
       <c r="AL94" s="1" t="str">
         <f t="shared" si="89"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AM94" s="1" t="str">
         <f t="shared" si="90"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AN94" s="1" t="str">
         <f t="shared" si="91"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AO94" s="1" t="str">
         <f t="shared" si="92"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AP94" s="1" t="str">
         <f t="shared" si="93"/>
-        <v/>
+        <v>4pm-6pm</v>
       </c>
       <c r="AQ94" s="1" t="str">
         <f t="shared" si="94"/>
@@ -19577,17 +19615,17 @@
         <v>555</v>
       </c>
       <c r="AV94" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AW94" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AX94" s="6" t="str">
         <f t="shared" si="64"/>
         <v>{
     'name': "River and Woods",
     'area': "pearl",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.riverandwoodsboulder.com/", 'pricing':"",   'phone-number': "", 'address': "2328 Pearl St Boulder CO", 'other-amenities': ['outdoor','','med'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Med Salad&lt;br&gt;$2 Seasonal Deviled Eggs&lt;br&gt;$2.50 Oysters Hickenlooper&lt;br&gt;$6 Poutine&lt;br&gt;$6 Duck Wings&lt;br&gt;$5 Heirloom Blue Corndog&lt;br&gt;$4 Sweet Potato Nuggets&lt;br&gt;&lt;br&gt;$6 Tap Wines&lt;br&gt;$6 Tap Beers&lt;br&gt;$5-6 Select Cocktails&lt;br&gt;&lt;br&gt;$18 Chefs Forage and Sip Board: A unique chefs selection of tasty morsels from the kitchen plus two glasses of house wine", 'link':"http://www.riverandwoodsboulder.com/", 'pricing':"",   'phone-number': "", 'address': "2328 Pearl St Boulder CO", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY94" s="1" t="str">
         <f t="shared" si="65"/>
@@ -19603,19 +19641,19 @@
       </c>
       <c r="BB94" s="1" t="str">
         <f t="shared" si="68"/>
-        <v/>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BC94" s="1" t="str">
         <f t="shared" si="69"/>
-        <v/>
+        <v>&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BD94" s="1" t="str">
         <f t="shared" si="70"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE94" s="1" t="str">
         <f t="shared" si="71"/>
-        <v>outdoor med  pearl</v>
+        <v>outdoor drink food med  pearl</v>
       </c>
       <c r="BF94" s="1" t="str">
         <f t="shared" si="72"/>
@@ -29293,26 +29331,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C147"/>
-  <sortState ref="B2:BL181">
+  <autoFilter ref="C1:C147" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:BL181">
     <sortCondition ref="B2:B181"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="AR56" r:id="rId1"/>
-    <hyperlink ref="AR65" r:id="rId2"/>
-    <hyperlink ref="AR140" r:id="rId3"/>
-    <hyperlink ref="AR125" r:id="rId4" display="http://www.thesink.com/?utm_source=Local&amp;utm_medium=Organic&amp;utm_campaign=GMB"/>
-    <hyperlink ref="AR132" r:id="rId5" display="http://twistedpinebrewing.com/"/>
-    <hyperlink ref="B88" r:id="rId6" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d833330-Reviews-Pupusas_Sabor_Hispano-Boulder_Colorado.html"/>
-    <hyperlink ref="B123" r:id="rId7" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d823095-Reviews-Restaurant_4580-Boulder_Colorado.html"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d2345632-Reviews-Bacco_Trattoria-Boulder_Colorado.html"/>
-    <hyperlink ref="B87" r:id="rId9" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d381528-Reviews-Proto_s_Pizza-Boulder_Colorado.html"/>
-    <hyperlink ref="B31" r:id="rId10" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d12686304-Reviews-Decadent_Saint_Wild_Cider_Tasting_room-Boulder_Colorado.html"/>
-    <hyperlink ref="B139" r:id="rId11" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d3959417-Reviews-Wapos-Boulder_Colorado.html"/>
-    <hyperlink ref="G138" r:id="rId12" display="https://www.google.com/search?safe=off&amp;rlz=1C1GCEA_enUS808US811&amp;q=squared+pizza+%2B+beer+address&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NEyJLzcrKchO15LNTrbSz8lPTizJzM-DM6wSU1KKUouLAd41FiIwAAAA&amp;ludocid=8503797532294621101&amp;sa=X&amp;ved=2ahUKEwiGwLf8loffAhWG6FQKHfbyAbAQ6BMwE3oECAoQBw"/>
-    <hyperlink ref="AR89" r:id="rId13" display="https://www.yelp.com/biz_redir?url=https%3A%2F%2Ftherayback.com&amp;website_link_type=website&amp;src_bizid=HqOLGrWt4g4Bu5aHorS_kQ&amp;cachebuster=1547658974&amp;s=2af9c4125d11969953ce6e95df553abfcb80783897e27d3aa311365add123040"/>
-    <hyperlink ref="AR78" r:id="rId14" display="https://www.yelp.com/biz_redir?url=http%3A%2F%2Fwww.outbacksaloon.net%2F&amp;website_link_type=website&amp;src_bizid=zM_Sfwj8AQelv3VaUeN6rA&amp;cachebuster=1547658982&amp;s=c8c1c2a2afaf2327fa0a07bf274eb9951779d3e7ccfed7a645d333d8a716b67d"/>
-    <hyperlink ref="AR34" r:id="rId15" display="https://www.yelp.com/biz_redir?url=http%3A%2F%2Fwww.elementbistroboulder.com&amp;website_link_type=website&amp;src_bizid=805i_MO4Eyhdx6ho9eXIRA&amp;cachebuster=1547658988&amp;s=88f54a8018791f9b60718d86ea1dc1175d72c8c5a2fe218e9527eac1b6586f39"/>
+    <hyperlink ref="AR56" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AR65" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AR140" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AR125" r:id="rId4" display="http://www.thesink.com/?utm_source=Local&amp;utm_medium=Organic&amp;utm_campaign=GMB" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AR132" r:id="rId5" display="http://twistedpinebrewing.com/" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B88" r:id="rId6" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d833330-Reviews-Pupusas_Sabor_Hispano-Boulder_Colorado.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B123" r:id="rId7" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d823095-Reviews-Restaurant_4580-Boulder_Colorado.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d2345632-Reviews-Bacco_Trattoria-Boulder_Colorado.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B87" r:id="rId9" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d381528-Reviews-Proto_s_Pizza-Boulder_Colorado.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B31" r:id="rId10" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d12686304-Reviews-Decadent_Saint_Wild_Cider_Tasting_room-Boulder_Colorado.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B139" r:id="rId11" display="https://www.tripadvisor.com/Restaurant_Review-g33324-d3959417-Reviews-Wapos-Boulder_Colorado.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G138" r:id="rId12" display="https://www.google.com/search?safe=off&amp;rlz=1C1GCEA_enUS808US811&amp;q=squared+pizza+%2B+beer+address&amp;stick=H4sIAAAAAAAAAOPgE-LVT9c3NEyJLzcrKchO15LNTrbSz8lPTizJzM-DM6wSU1KKUouLAd41FiIwAAAA&amp;ludocid=8503797532294621101&amp;sa=X&amp;ved=2ahUKEwiGwLf8loffAhWG6FQKHfbyAbAQ6BMwE3oECAoQBw" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AR89" r:id="rId13" display="https://www.yelp.com/biz_redir?url=https%3A%2F%2Ftherayback.com&amp;website_link_type=website&amp;src_bizid=HqOLGrWt4g4Bu5aHorS_kQ&amp;cachebuster=1547658974&amp;s=2af9c4125d11969953ce6e95df553abfcb80783897e27d3aa311365add123040" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AR78" r:id="rId14" display="https://www.yelp.com/biz_redir?url=http%3A%2F%2Fwww.outbacksaloon.net%2F&amp;website_link_type=website&amp;src_bizid=zM_Sfwj8AQelv3VaUeN6rA&amp;cachebuster=1547658982&amp;s=c8c1c2a2afaf2327fa0a07bf274eb9951779d3e7ccfed7a645d333d8a716b67d" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AR34" r:id="rId15" display="https://www.yelp.com/biz_redir?url=http%3A%2F%2Fwww.elementbistroboulder.com&amp;website_link_type=website&amp;src_bizid=805i_MO4Eyhdx6ho9eXIRA&amp;cachebuster=1547658988&amp;s=88f54a8018791f9b60718d86ea1dc1175d72c8c5a2fe218e9527eac1b6586f39" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
@@ -29320,14 +29358,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
@@ -29474,7 +29512,7 @@
     <row r="15" spans="2:8">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8" ht="15.75">
+    <row r="16" spans="2:8" ht="15.5">
       <c r="B16" s="18"/>
     </row>
     <row r="17" spans="2:2">
@@ -29486,16 +29524,16 @@
     <row r="19" spans="2:2">
       <c r="B19" s="17"/>
     </row>
-    <row r="20" spans="2:2" ht="15.75">
+    <row r="20" spans="2:2" ht="15.5">
       <c r="B20" s="18"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:2" ht="15.75">
+    <row r="22" spans="2:2" ht="15.5">
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="2:2" ht="15.75">
+    <row r="23" spans="2:2" ht="15.5">
       <c r="B23" s="18"/>
     </row>
     <row r="24" spans="2:2">
@@ -29519,28 +29557,28 @@
     <row r="30" spans="2:2">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="2:2" ht="15.75">
+    <row r="31" spans="2:2" ht="15.5">
       <c r="B31" s="18"/>
     </row>
-    <row r="32" spans="2:2" ht="15.75">
+    <row r="32" spans="2:2" ht="15.5">
       <c r="B32" s="18"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="17"/>
     </row>
-    <row r="34" spans="2:2" ht="15.75">
+    <row r="34" spans="2:2" ht="15.5">
       <c r="B34" s="18"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75">
+    <row r="36" spans="2:2" ht="15.5">
       <c r="B36" s="18"/>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75">
+    <row r="38" spans="2:2" ht="15.5">
       <c r="B38" s="18"/>
     </row>
     <row r="39" spans="2:2">
@@ -29570,14 +29608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="578">
   <si>
     <t>Name</t>
   </si>
@@ -1764,9 +1764,6 @@
   </si>
   <si>
     <t>https://www.shineboulder.com/</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>$3.25 Well Drinks&lt;br&gt;$3 Microbrews&lt;br&gt;$2.50 Bud and Bud Light&lt;br&gt;$2.75 Sliders</t>
@@ -2771,10 +2768,10 @@
   <dimension ref="B1:BL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AT128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="AU30" sqref="AU30"/>
+      <selection pane="bottomRight" activeCell="AU102" sqref="AU102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -17044,7 +17041,7 @@
         <v>1900</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" si="132"/>
@@ -21330,7 +21327,7 @@
         <v>576</v>
       </c>
       <c r="AU101" s="1" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="AV101" s="5" t="s">
         <v>32</v>
@@ -21347,7 +21344,7 @@
         <v>{
     'name': "Shine Restaurant and Portion Bar",
     'area': "east",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3-$9 Small Plates&lt;br&gt;$4 Shine Potions&lt;br&gt;$6 Spirited Potion&lt;br&gt;$5 Local Craft Beers&lt;br&gt;$4.50 House Wines&lt;br&gt;$15 Half Liter of Spirited Potion&lt;br&gt;$10 Half Liter of House Wine", 'link':"https://www.shineboulder.com/", 'pricing':"",   'phone-number': "", 'address': "2480 Canyon Blvd m1, Boulder, CO 80302", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3-$9 Small Plates&lt;br&gt;$4 Shine Potions&lt;br&gt;$6 Spirited Potion&lt;br&gt;$5 Local Craft Beers&lt;br&gt;$4.50 House Wines&lt;br&gt;$15 Half Liter of Spirited Potion&lt;br&gt;$10 Half Liter of House Wine", 'link':"https://www.shineboulder.com/", 'pricing':"",   'phone-number': "", 'address': "2480 Canyon Blvd m1, Boulder, CO 80302", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY101" s="1" t="str">
         <f t="shared" ref="AY101" si="187">IF(AS101&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -21359,7 +21356,7 @@
       </c>
       <c r="BA101" s="1" t="str">
         <f t="shared" ref="BA101" si="189">IF(AU101="hard","&lt;img src=@img/hard.png@&gt;",IF(AU101="medium","&lt;img src=@img/medium.png@&gt;",IF(AU101="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB101" s="1" t="str">
         <f t="shared" ref="BB101" si="190">IF(AV101="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
@@ -21371,11 +21368,11 @@
       </c>
       <c r="BD101" s="1" t="str">
         <f t="shared" ref="BD101" si="192">CONCATENATE(AY101,AZ101,BA101,BB101,BC101,BK101)</f>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE101" s="1" t="str">
         <f t="shared" ref="BE101" si="193">CONCATENATE(IF(AS101&gt;0,"outdoor ",""),IF(AT101&gt;0,"pet ",""),IF(AV101="true","drink ",""),IF(AW101="true","food ",""),AU101," ",E101," ",C101,IF(BJ101=TRUE," kid",""))</f>
-        <v>drink food easy  east</v>
+        <v>drink food med  east</v>
       </c>
       <c r="BF101" s="1" t="str">
         <f t="shared" ref="BF101" si="194">IF(C101="pearl","Pearl Street",IF(C101="campus","Near Campus",IF(C101="downtown","Downtown",IF(C101="north","North Boulder",IF(C101="chautauqua","Chautauqua",IF(C101="east","East Boulder",IF(C101="efoco","East FoCo",IF(C101="hill","The Hill",""))))))))</f>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1742,9 +1742,6 @@
     <t>https://www.corridaboulder.com/</t>
   </si>
   <si>
-    <t>1023 WALNUT STREET #400 BOULDER, CO 80302</t>
-  </si>
-  <si>
     <t>Corrida</t>
   </si>
   <si>
@@ -1767,6 +1764,9 @@
   </si>
   <si>
     <t>$3.25 Well Drinks&lt;br&gt;$3 Microbrews&lt;br&gt;$2.50 Bud and Bud Light&lt;br&gt;$2.75 Sliders</t>
+  </si>
+  <si>
+    <t>1023 WALNUT STREET BOULDER, CO 80302</t>
   </si>
 </sst>
 </file>
@@ -2768,10 +2768,10 @@
   <dimension ref="B1:BL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AT128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="AU102" sqref="AU102"/>
+      <selection pane="bottomRight" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -3467,7 +3467,7 @@
         <v>315</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>352</v>
@@ -3602,7 +3602,7 @@
         <f t="shared" si="21"/>
         <v>{
     'name': "Aloy Thai",
-    'area': "east",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1700", 'tuesday-start':"1500", 'tuesday-end':"1700", 'wednesday-start':"1500", 'wednesday-end':"1700", 'thursday-start':"1500", 'thursday-end':"1700", 'friday-start':"1500", 'friday-end':"1700", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://aloythai.com", 'pricing':"",   'phone-number': "", 'address': "2720 Canyon Blvd Boulder CO", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY5" s="1" t="str">
@@ -3631,11 +3631,11 @@
       </c>
       <c r="BE5" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>drink food med  east</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF5" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>East Boulder</v>
+        <v>Downtown</v>
       </c>
       <c r="BG5" s="10">
         <v>40.016956</v>
@@ -3867,7 +3867,7 @@
         <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>265</v>
@@ -3975,7 +3975,7 @@
         <f t="shared" si="21"/>
         <v>{
     'name': "Arabesque",
-    'area': "pearl",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.arabesqueboulder.com/", 'pricing':"",   'phone-number': "", 'address': "1634 Walnut St Boulder CO", 'other-amenities': ['outdoor','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY7" s="1" t="str">
@@ -4004,11 +4004,11 @@
       </c>
       <c r="BE7" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>outdoor med  pearl</v>
+        <v>outdoor med  downtown</v>
       </c>
       <c r="BF7" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>Pearl Street</v>
+        <v>Downtown</v>
       </c>
       <c r="BG7" s="10">
         <v>40.017850000000003</v>
@@ -4609,7 +4609,7 @@
         <v>321</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>346</v>
@@ -4759,7 +4759,7 @@
         <f t="shared" si="21"/>
         <v>{
     'name': "Backcountry Pizza &amp; Tap House",
-    'area': "campus",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "$1 off draft beer, wells, wine&lt;br&gt;Half price appetizers", 'link':"http://backcountrypizzaandtaphouse.info", 'pricing':"",   'phone-number': "", 'address': "2319 Arapahoe Avenue Boulder CO", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY11" s="1" t="str">
@@ -4788,11 +4788,11 @@
       </c>
       <c r="BE11" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>drink food med  campus</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF11" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>Near Campus</v>
+        <v>Downtown</v>
       </c>
       <c r="BG11" s="10">
         <v>40.014954000000003</v>
@@ -5793,7 +5793,7 @@
         <v>1800</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="32"/>
@@ -7911,13 +7911,13 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="H29" s="1">
         <v>1600</v>
@@ -7962,7 +7962,7 @@
         <v>1730</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" ref="W29" si="53">IF(H29&gt;0,H29/100,"")</f>
@@ -8072,7 +8072,7 @@
         <v>{
     'name': "Corrida",
     'area': "downtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1730", 'monday-start':"1600", 'monday-end':"1730", 'tuesday-start':"1600", 'tuesday-end':"1730", 'wednesday-start':"1600", 'wednesday-end':"1730", 'thursday-start':"1600", 'thursday-end':"1730", 'friday-start':"1600", 'friday-end':"1730", 'saturday-start':"1600", 'saturday-end':"1730"},  'description': "Wide range of food and drink specials", 'link':"https://www.corridaboulder.com/", 'pricing':"",   'phone-number': "", 'address': "1023 WALNUT STREET #400 BOULDER, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1730", 'monday-start':"1600", 'monday-end':"1730", 'tuesday-start':"1600", 'tuesday-end':"1730", 'wednesday-start':"1600", 'wednesday-end':"1730", 'thursday-start':"1600", 'thursday-end':"1730", 'friday-start':"1600", 'friday-end':"1730", 'saturday-start':"1600", 'saturday-end':"1730"},  'description': "Wide range of food and drink specials", 'link':"https://www.corridaboulder.com/", 'pricing':"",   'phone-number': "", 'address': "1023 WALNUT STREET BOULDER, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY29" s="1" t="str">
         <f t="shared" ref="AY29" si="75">IF(AS29&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -8680,7 +8680,7 @@
         <v>331</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>336</v>
@@ -8792,7 +8792,7 @@
       'sunday-start':","""",H33,"""",", 'sunday-end':","""",I33,"""",", 'monday-start':","""",J33,"""",", 'monday-end':","""",K33,"""",", 'tuesday-start':","""",L33,"""",", 'tuesday-end':","""",M33,""", 'wednesday-start':","""",N33,""", 'wednesday-end':","""",O33,""", 'thursday-start':","""",P33,""", 'thursday-end':","""",Q33,""", 'friday-start':","""",R33,""", 'friday-end':","""",S33,""", 'saturday-start':","""",T33,""", 'saturday-end':","""",U33,"""","},","  'description': ","""",V33,"""",", 'link':","""",AR33,"""",", 'pricing':","""",E33,"""",",   'phone-number': ","""",F33,"""",", 'address': ","""",G33,"""",", 'other-amenities': [","'",AS33,"','",AT33,"','",AU33,"'","]",", 'has-drink':",AV33,", 'has-food':",AW33,"},")</f>
         <v>{
     'name': "Dougs Day Diner",
-    'area': "east",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://boulder.dougsdaydiner.com/", 'pricing':"",   'phone-number': "", 'address': "2400 Arapahoe Ave Arapahoe and Folsom Ave Boulder CO", 'other-amenities': ['','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY33" s="1" t="str">
@@ -8821,11 +8821,11 @@
       </c>
       <c r="BE33" s="1" t="str">
         <f t="shared" ref="BE33:BE63" si="118">CONCATENATE(IF(AS33&gt;0,"outdoor ",""),IF(AT33&gt;0,"pet ",""),IF(AV33="true","drink ",""),IF(AW33="true","food ",""),AU33," ",E33," ",C33,IF(BJ33=TRUE," kid",""))</f>
-        <v>pet med  east</v>
+        <v>pet med  downtown</v>
       </c>
       <c r="BF33" s="1" t="str">
         <f t="shared" ref="BF33:BF63" si="119">IF(C33="pearl","Pearl Street",IF(C33="campus","Near Campus",IF(C33="downtown","Downtown",IF(C33="north","North Boulder",IF(C33="chautauqua","Chautauqua",IF(C33="east","East Boulder",IF(C33="efoco","East FoCo",IF(C33="hill","The Hill",""))))))))</f>
-        <v>East Boulder</v>
+        <v>Downtown</v>
       </c>
       <c r="BG33" s="10">
         <v>40.014316000000001</v>
@@ -12257,7 +12257,7 @@
         <v>246</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>269</v>
@@ -12366,7 +12366,7 @@
         <f t="shared" si="111"/>
         <v>{
     'name': "Jaipur Indian Restaurant",
-    'area': "pearl",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://www.jaipurindianrestaurant.com/", 'pricing':"",   'phone-number': "", 'address': "1214 Walnut St Boulder CO", 'other-amenities': ['outdoor','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY53" s="1" t="str">
@@ -12395,11 +12395,11 @@
       </c>
       <c r="BE53" s="1" t="str">
         <f t="shared" si="118"/>
-        <v>outdoor med  pearl</v>
+        <v>outdoor med  downtown</v>
       </c>
       <c r="BF53" s="1" t="str">
         <f t="shared" si="119"/>
-        <v>Pearl Street</v>
+        <v>Downtown</v>
       </c>
       <c r="BG53" s="10">
         <v>40.016995999999999</v>
@@ -13054,7 +13054,7 @@
         <v>327</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>340</v>
@@ -13159,7 +13159,7 @@
         <f t="shared" si="111"/>
         <v>{
     'name': "Kalita Grill Greek Cafe",
-    'area': "campus",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://kalitagrill.com", 'pricing':"",   'phone-number': "", 'address': "2426 Arapahoe Ave 2426 Arapahoe Ave, Boulder, 80302, Boulder, Colorado Boulder CO", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY57" s="1" t="str">
@@ -13188,11 +13188,11 @@
       </c>
       <c r="BE57" s="1" t="str">
         <f t="shared" si="118"/>
-        <v>med  campus</v>
+        <v>med  downtown</v>
       </c>
       <c r="BF57" s="1" t="str">
         <f t="shared" si="119"/>
-        <v>Near Campus</v>
+        <v>Downtown</v>
       </c>
       <c r="BG57" s="10">
         <v>40.013807</v>
@@ -13540,7 +13540,7 @@
         <v>329</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>338</v>
@@ -13645,7 +13645,7 @@
         <f t="shared" si="111"/>
         <v>{
     'name': "Larkburger",
-    'area': "campus",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://larkburger.com", 'pricing':"",   'phone-number': "", 'address': "2525 Arapahoe Road Boulder CO", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY60" s="1" t="str">
@@ -13674,11 +13674,11 @@
       </c>
       <c r="BE60" s="1" t="str">
         <f t="shared" si="118"/>
-        <v>med  campus kid</v>
+        <v>med  downtown kid</v>
       </c>
       <c r="BF60" s="1" t="str">
         <f t="shared" si="119"/>
-        <v>Near Campus</v>
+        <v>Downtown</v>
       </c>
       <c r="BG60" s="10">
         <v>40.014994000000002</v>
@@ -17041,7 +17041,7 @@
         <v>1900</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" si="132"/>
@@ -19065,7 +19065,7 @@
         <v>326</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>341</v>
@@ -19215,7 +19215,7 @@
         <f t="shared" si="122"/>
         <v>{
     'name': "Rincon Del Sol",
-    'area': "campus",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"1400", 'sunday-end':"1800", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "House Margaritas 2-for-1:$6.50&lt;br&gt;Long Island Margarita:$6.50&lt;br&gt;Cadillac Margarita:$6.95&lt;br&gt;Pina Colada:$4.95&lt;br&gt;Sunrise Margarita:$5.95&lt;br&gt;All Draft Beers:$2.95&lt;br&gt;Rum &amp; Coke/Well Drinks:$3.50&lt;br&gt;&lt;br&gt;Tacos:$1.95&lt;br&gt;Cheese Quesadillas:$5&lt;br&gt;Nachos:$5&lt;br&gt;Tamales:$2.95&lt;br&gt;Enchiladas:$2.95", 'link':"http://rinconboulder.com", 'pricing':"",   'phone-number': "", 'address': "2350 Arapahoe Ave Boulder CO", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY90" s="1" t="str">
@@ -19244,11 +19244,11 @@
       </c>
       <c r="BE90" s="1" t="str">
         <f t="shared" si="129"/>
-        <v>drink food med  campus</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF90" s="1" t="str">
         <f t="shared" si="130"/>
-        <v>Near Campus</v>
+        <v>Downtown</v>
       </c>
       <c r="BG90" s="10">
         <v>40.014384999999997</v>
@@ -20037,7 +20037,7 @@
         <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="G95" s="17" t="s">
         <v>215</v>
@@ -20190,7 +20190,7 @@
         <f t="shared" si="155"/>
         <v>{
     'name': "Rueben's Burger Bistro",
-    'area': "pearl",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Daily 3 - 6pm, Sunday ALL DAY &lt;br&gt; Food: 1/2 off signature starters&lt;br&gt; Drinks: 1/2 off Draft beers, Wine &amp; Signature Cocktails", 'link':"http://ruebensburgerbistro.com/", 'pricing':"",   'phone-number': "", 'address': "1800 BroadwaySuite 150Boulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY95" s="1" t="str">
@@ -20219,11 +20219,11 @@
       </c>
       <c r="BE95" s="1" t="str">
         <f t="shared" si="162"/>
-        <v>outdoor drink food med  pearl</v>
+        <v>outdoor drink food med  downtown</v>
       </c>
       <c r="BF95" s="1" t="str">
         <f t="shared" si="163"/>
-        <v>Pearl Street</v>
+        <v>Downtown</v>
       </c>
       <c r="BG95" s="10">
         <v>40.016433999999997</v>
@@ -21186,13 +21186,13 @@
     </row>
     <row r="101" spans="2:63" ht="21" customHeight="1">
       <c r="B101" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G101" s="29" t="s">
         <v>573</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="G101" s="29" t="s">
-        <v>574</v>
       </c>
       <c r="H101" s="1">
         <v>1500</v>
@@ -21237,7 +21237,7 @@
         <v>1800</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" ref="W101" si="165">IF(H101&gt;0,H101/100,"")</f>
@@ -21324,7 +21324,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR101" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AU101" s="1" t="s">
         <v>545</v>
@@ -21343,7 +21343,7 @@
       'sunday-start':","""",H101,"""",", 'sunday-end':","""",I101,"""",", 'monday-start':","""",J101,"""",", 'monday-end':","""",K101,"""",", 'tuesday-start':","""",L101,"""",", 'tuesday-end':","""",M101,""", 'wednesday-start':","""",N101,""", 'wednesday-end':","""",O101,""", 'thursday-start':","""",P101,""", 'thursday-end':","""",Q101,""", 'friday-start':","""",R101,""", 'friday-end':","""",S101,""", 'saturday-start':","""",T101,""", 'saturday-end':","""",U101,"""","},","  'description': ","""",V101,"""",", 'link':","""",AR101,"""",", 'pricing':","""",E101,"""",",   'phone-number': ","""",F101,"""",", 'address': ","""",G101,"""",", 'other-amenities': [","'",AS101,"','",AT101,"','",AU101,"'","]",", 'has-drink':",AV101,", 'has-food':",AW101,"},")</f>
         <v>{
     'name': "Shine Restaurant and Portion Bar",
-    'area': "east",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3-$9 Small Plates&lt;br&gt;$4 Shine Potions&lt;br&gt;$6 Spirited Potion&lt;br&gt;$5 Local Craft Beers&lt;br&gt;$4.50 House Wines&lt;br&gt;$15 Half Liter of Spirited Potion&lt;br&gt;$10 Half Liter of House Wine", 'link':"https://www.shineboulder.com/", 'pricing':"",   'phone-number': "", 'address': "2480 Canyon Blvd m1, Boulder, CO 80302", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY101" s="1" t="str">
@@ -21372,11 +21372,11 @@
       </c>
       <c r="BE101" s="1" t="str">
         <f t="shared" ref="BE101" si="193">CONCATENATE(IF(AS101&gt;0,"outdoor ",""),IF(AT101&gt;0,"pet ",""),IF(AV101="true","drink ",""),IF(AW101="true","food ",""),AU101," ",E101," ",C101,IF(BJ101=TRUE," kid",""))</f>
-        <v>drink food med  east</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF101" s="1" t="str">
         <f t="shared" ref="BF101" si="194">IF(C101="pearl","Pearl Street",IF(C101="campus","Near Campus",IF(C101="downtown","Downtown",IF(C101="north","North Boulder",IF(C101="chautauqua","Chautauqua",IF(C101="east","East Boulder",IF(C101="efoco","East FoCo",IF(C101="hill","The Hill",""))))))))</f>
-        <v>East Boulder</v>
+        <v>Downtown</v>
       </c>
       <c r="BG101" s="10">
         <v>40.016960699999998</v>
@@ -21714,7 +21714,7 @@
         <v>323</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>344</v>
@@ -21819,7 +21819,7 @@
         <f t="shared" si="155"/>
         <v>{
     'name': "Snarfburger",
-    'area': "campus",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://snarfburger.com", 'pricing':"",   'phone-number': "", 'address': "2000 Arapahoe Ave Boulder CO", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY104" s="1" t="str">
@@ -21848,11 +21848,11 @@
       </c>
       <c r="BE104" s="1" t="str">
         <f t="shared" si="162"/>
-        <v>med  campus</v>
+        <v>med  downtown</v>
       </c>
       <c r="BF104" s="1" t="str">
         <f t="shared" si="163"/>
-        <v>Near Campus</v>
+        <v>Downtown</v>
       </c>
       <c r="BG104" s="10">
         <v>40.014482999999998</v>
@@ -26253,7 +26253,7 @@
         <v>314</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>353</v>
@@ -26361,7 +26361,7 @@
         <f t="shared" si="196"/>
         <v>{
     'name': "Tibet Kitchen",
-    'area': "campus",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://tibetkitchen.com", 'pricing':"",   'phone-number': "", 'address': "2359 Arapahoe Ave Boulder CO", 'other-amenities': ['','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY128" s="1" t="str">
@@ -26390,11 +26390,11 @@
       </c>
       <c r="BE128" s="1" t="str">
         <f t="shared" si="203"/>
-        <v>pet med  campus</v>
+        <v>pet med  downtown</v>
       </c>
       <c r="BF128" s="1" t="str">
         <f t="shared" si="204"/>
-        <v>Near Campus</v>
+        <v>Downtown</v>
       </c>
       <c r="BG128" s="10">
         <v>40.014879999999998</v>
@@ -26416,7 +26416,7 @@
         <v>324</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>343</v>
@@ -26521,7 +26521,7 @@
         <f t="shared" si="196"/>
         <v>{
     'name': "Tiffins India Cafe",
-    'area': "campus",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://tiffinsindiacafe.com", 'pricing':"",   'phone-number': "", 'address': "2416 Arapahoe Ave Boulder CO", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY129" s="1" t="str">
@@ -26550,11 +26550,11 @@
       </c>
       <c r="BE129" s="1" t="str">
         <f t="shared" si="203"/>
-        <v>med  campus</v>
+        <v>med  downtown</v>
       </c>
       <c r="BF129" s="1" t="str">
         <f t="shared" si="204"/>
-        <v>Near Campus</v>
+        <v>Downtown</v>
       </c>
       <c r="BG129" s="10">
         <v>40.014054000000002</v>
@@ -27505,7 +27505,7 @@
         <v>330</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>337</v>
@@ -27610,7 +27610,7 @@
         <f t="shared" si="196"/>
         <v>{
     'name': "Village Coffee Shop",
-    'area': "east",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://villagecoffeeshopboulder.com", 'pricing':"",   'phone-number': "", 'address': "1605 Folsom St Boulder CO", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY135" s="1" t="str">
@@ -27639,11 +27639,11 @@
       </c>
       <c r="BE135" s="1" t="str">
         <f t="shared" si="203"/>
-        <v>med  east</v>
+        <v>med  downtown</v>
       </c>
       <c r="BF135" s="1" t="str">
         <f t="shared" si="204"/>
-        <v>East Boulder</v>
+        <v>Downtown</v>
       </c>
       <c r="BG135" s="10">
         <v>40.015588000000001</v>
@@ -28755,7 +28755,7 @@
         <v>317</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>350</v>
@@ -28860,7 +28860,7 @@
         <f t="shared" si="196"/>
         <v>{
     'name': "Woodgrain Bagels",
-    'area': "campus",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://woodgrainbagels.com", 'pricing':"",   'phone-number': "", 'address': "2525A Arapahoe Ave Boulder CO", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY142" s="1" t="str">
@@ -28889,11 +28889,11 @@
       </c>
       <c r="BE142" s="1" t="str">
         <f t="shared" si="203"/>
-        <v>med  campus</v>
+        <v>med  downtown</v>
       </c>
       <c r="BF142" s="1" t="str">
         <f t="shared" si="204"/>
-        <v>Near Campus</v>
+        <v>Downtown</v>
       </c>
       <c r="BG142" s="10">
         <v>40.014812999999997</v>
@@ -29398,7 +29398,7 @@
         <v>308</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="G146" s="19" t="s">
         <v>311</v>
@@ -29545,7 +29545,7 @@
         <f t="shared" si="196"/>
         <v>{
     'name': "Zolo Southwestern Grill",
-    'area': "campus",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$5 Zolorita and Coin Margaritas&lt;br&gt; $3 The Post Brewing Co Howdy Beer Cans&lt;br&gt; $8 Shot and a Beer&lt;br&gt; $4 The Post Brewing Co. Drafts&lt;br&gt; $4 House Wines&lt;br&gt; $5 Sangria (red or white).&lt;br&gt;$5 Pork Belly Confit Sliders&lt;br&gt; $5 Guacamole&lt;br&gt; $2 Jalapeno Relleno and other select food specials.", 'link':"http://www.boulderhappyhours.com/zolo-grill/", 'pricing':"",   'phone-number': "", 'address': "2525 Arapahoe Ave, Boulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY146" s="1" t="str">
@@ -29574,11 +29574,11 @@
       </c>
       <c r="BE146" s="1" t="str">
         <f t="shared" si="203"/>
-        <v>outdoor drink food med  campus</v>
+        <v>outdoor drink food med  downtown</v>
       </c>
       <c r="BF146" s="1" t="str">
         <f t="shared" si="204"/>
-        <v>Near Campus</v>
+        <v>Downtown</v>
       </c>
       <c r="BG146" s="10">
         <v>40.015734000000002</v>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1036,9 +1036,6 @@
     <t>Rincon Argentino</t>
   </si>
   <si>
-    <t>2525 Arapahoe Ave The Village - A05 Boulder CO</t>
-  </si>
-  <si>
     <t>2600 Canyon Blvd Boulder CO</t>
   </si>
   <si>
@@ -1767,6 +1764,9 @@
   </si>
   <si>
     <t>1023 WALNUT STREET BOULDER, CO 80302</t>
+  </si>
+  <si>
+    <t>2525 Arapahoe Ave The Village Boulder CO</t>
   </si>
 </sst>
 </file>
@@ -2768,10 +2768,10 @@
   <dimension ref="B1:BL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomRight" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2973,13 +2973,13 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="W2" s="1" t="str">
         <f t="shared" ref="W2:W4" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -3066,13 +3066,13 @@
         <v/>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>33</v>
@@ -3147,7 +3147,7 @@
         <v>298</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3234,10 +3234,10 @@
         <v/>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>33</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>272</v>
@@ -3400,7 +3400,7 @@
         <v>28</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV4" s="5" t="s">
         <v>33</v>
@@ -3470,7 +3470,7 @@
         <v>272</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J5" s="1">
         <v>1500</v>
@@ -3587,10 +3587,10 @@
         <v/>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV5" s="5" t="s">
         <v>32</v>
@@ -3705,7 +3705,7 @@
         <v>1800</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="32"/>
@@ -3798,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>32</v>
@@ -3963,7 +3963,7 @@
         <v>28</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV7" s="5" t="s">
         <v>33</v>
@@ -4171,7 +4171,7 @@
         <v>28</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV8" s="5" t="s">
         <v>32</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="9" spans="2:64" ht="21" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4328,16 +4328,16 @@
         <v/>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV9" s="5" t="s">
         <v>33</v>
@@ -4401,13 +4401,13 @@
     </row>
     <row r="10" spans="2:64" ht="21" customHeight="1">
       <c r="B10" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>427</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>428</v>
       </c>
       <c r="H10" s="1">
         <v>1600</v>
@@ -4452,7 +4452,7 @@
         <v>1800</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="32"/>
@@ -4539,10 +4539,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>32</v>
@@ -4612,7 +4612,7 @@
         <v>272</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H11" s="1">
         <v>1400</v>
@@ -4657,7 +4657,7 @@
         <v>1700</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="32"/>
@@ -4744,10 +4744,10 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV11" s="5" t="s">
         <v>32</v>
@@ -4811,13 +4811,13 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
       <c r="B12" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4904,10 +4904,10 @@
         <v/>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV12" s="5" t="s">
         <v>33</v>
@@ -4971,13 +4971,13 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H13" s="1">
         <v>1600</v>
@@ -5022,7 +5022,7 @@
         <v>1800</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="32"/>
@@ -5109,13 +5109,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV13" s="5" t="s">
         <v>32</v>
@@ -5312,7 +5312,7 @@
         <v>28</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>32</v>
@@ -5376,13 +5376,13 @@
     </row>
     <row r="15" spans="2:64" ht="21" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5469,10 +5469,10 @@
         <v/>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV15" s="5" t="s">
         <v>33</v>
@@ -5539,7 +5539,7 @@
         <v>306</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>400</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>307</v>
@@ -5581,7 +5581,7 @@
         <v>1830</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5669,10 +5669,10 @@
       </c>
       <c r="AR16" s="4"/>
       <c r="AT16" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV16" s="5" t="s">
         <v>32</v>
@@ -5684,7 +5684,7 @@
         <f t="shared" si="21"/>
         <v>{
     'name': "Boulder Beer Company",
-    'area': "campus",'hours': {
+    'area': "north",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1830", 'tuesday-start':"1500", 'tuesday-end':"1830", 'wednesday-start':"1500", 'wednesday-end':"1830", 'thursday-start':"1500", 'thursday-end':"1830", 'friday-start':"1500", 'friday-end':"1830", 'saturday-start':"1500", 'saturday-end':"1830"},  'description': "$4 Pints and $15 Pitchers.&lt;br&gt;Daily Specials:&lt;br&gt;Mon:&lt;br&gt;Kids eat free from kids' menu after 5pm.&lt;br&gt;Industry night: $3 pints after 6pm. Open Mic night from 6-9pm.&lt;br&gt;First pint of beer only $1.25 with lunch purchase from 11am - 2pm.&lt;br&gt;Tue:Wing Night: 25 cent wings 6pm-Close.&lt;br&gt;First pint of beer only $1.25 with lunch purchase from 11am - 2pm.&lt;br&gt;Wed:&lt;br&gt;Bags Tournament starting at 6 for various prizes. Registration starts at 5.&lt;br&gt;Thur:&lt;br&gt;Live Music 5-9pm.&lt;br&gt;Fri:&lt;br&gt;Reverse Happy Hour $4 Pints and $15 Pitchers from 8-10pm.&lt;br&gt;Sat:&lt;br&gt;Go Buffs! $15 pitchers of Buffalo Gold all day.&lt;br&gt;Live Music 5-9pm.", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5401, 2880 Wilderness Pl, Boulder, CO 80301", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY16" s="1" t="str">
@@ -5713,11 +5713,11 @@
       </c>
       <c r="BE16" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>pet drink food med  campus kid</v>
+        <v>pet drink food med  north kid</v>
       </c>
       <c r="BF16" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>Near Campus</v>
+        <v>North Boulder</v>
       </c>
       <c r="BG16" s="10">
         <v>40.026584</v>
@@ -5737,7 +5737,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="2:64" ht="21" customHeight="1">
@@ -5793,7 +5793,7 @@
         <v>1800</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="32"/>
@@ -5886,7 +5886,7 @@
         <v>28</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV17" s="5" t="s">
         <v>32</v>
@@ -6049,7 +6049,7 @@
         <v>28</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>33</v>
@@ -6113,13 +6113,13 @@
     </row>
     <row r="19" spans="2:64" ht="21" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1" t="str">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="AR19" s="4"/>
       <c r="AU19" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV19" s="5" t="s">
         <v>33</v>
@@ -6416,10 +6416,10 @@
         <v>28</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV20" s="5" t="s">
         <v>32</v>
@@ -6582,7 +6582,7 @@
         <v>28</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>33</v>
@@ -6646,13 +6646,13 @@
     </row>
     <row r="22" spans="2:64" ht="21" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="W22" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6739,13 +6739,13 @@
         <v/>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV22" s="5" t="s">
         <v>33</v>
@@ -6812,10 +6812,10 @@
         <v>332</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6902,13 +6902,13 @@
         <v/>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AS23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>33</v>
@@ -6920,7 +6920,7 @@
         <f t="shared" si="21"/>
         <v>{
     'name': "Buff Restaurant",
-    'area': "east",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.buffrestaurant.com/", 'pricing':"",   'phone-number': "", 'address': "2600 Canyon Blvd Boulder CO", 'other-amenities': ['outdoor','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY23" s="1" t="str">
@@ -6949,11 +6949,11 @@
       </c>
       <c r="BE23" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>outdoor med  east</v>
+        <v>outdoor med  downtown</v>
       </c>
       <c r="BF23" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>East Boulder</v>
+        <v>Downtown</v>
       </c>
       <c r="BG23" s="10">
         <v>40.017128</v>
@@ -6972,13 +6972,13 @@
     </row>
     <row r="24" spans="2:64" ht="21" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L24" s="1">
         <v>1500</v>
@@ -7011,7 +7011,7 @@
         <v>1800</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7098,16 +7098,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AS24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>32</v>
@@ -7177,7 +7177,7 @@
         <v>34</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H25" s="1">
         <v>1600</v>
@@ -7307,10 +7307,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>32</v>
@@ -7518,7 +7518,7 @@
         <v>28</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV26" s="5" t="s">
         <v>32</v>
@@ -7583,7 +7583,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="2:64" ht="21" customHeight="1">
@@ -7594,7 +7594,7 @@
         <v>298</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7681,10 +7681,10 @@
         <v/>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>33</v>
@@ -7847,7 +7847,7 @@
         <v>28</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV28" s="5" t="s">
         <v>33</v>
@@ -7911,13 +7911,13 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H29" s="1">
         <v>1600</v>
@@ -7962,7 +7962,7 @@
         <v>1730</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" ref="W29" si="53">IF(H29&gt;0,H29/100,"")</f>
@@ -8049,13 +8049,13 @@
         <v>4pm-5.3pm</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV29" s="5" t="s">
         <v>32</v>
@@ -8119,13 +8119,13 @@
     </row>
     <row r="30" spans="2:64" ht="21" customHeight="1">
       <c r="B30" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>422</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>423</v>
       </c>
       <c r="H30" s="1">
         <v>1700</v>
@@ -8170,7 +8170,7 @@
         <v>1830</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W30" s="1">
         <f t="shared" si="32"/>
@@ -8257,10 +8257,10 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>32</v>
@@ -8324,13 +8324,13 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J31" s="1">
         <v>1600</v>
@@ -8363,7 +8363,7 @@
         <v>2000</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" ref="W31" si="81">IF(H31&gt;0,H31/100,"")</f>
@@ -8450,7 +8450,7 @@
         <v/>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>32</v>
@@ -8613,7 +8613,7 @@
         <v>28</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV32" s="5" t="s">
         <v>33</v>
@@ -8683,7 +8683,7 @@
         <v>272</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8770,13 +8770,13 @@
         <v/>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV33" s="5" t="s">
         <v>33</v>
@@ -8844,13 +8844,13 @@
     </row>
     <row r="34" spans="2:64" ht="21" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H34" s="1">
         <v>1500</v>
@@ -8895,7 +8895,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" si="32"/>
@@ -8982,13 +8982,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR34" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AS34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV34" s="5" t="s">
         <v>32</v>
@@ -9099,7 +9099,7 @@
         <v>1800</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="32"/>
@@ -9192,7 +9192,7 @@
         <v>225</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV35" s="5" t="s">
         <v>32</v>
@@ -9355,7 +9355,7 @@
         <v>28</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>33</v>
@@ -9419,13 +9419,13 @@
     </row>
     <row r="37" spans="2:64" ht="21" customHeight="1">
       <c r="B37" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="W37" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9512,10 +9512,10 @@
         <v/>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>33</v>
@@ -9579,13 +9579,13 @@
     </row>
     <row r="38" spans="2:64" ht="21" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>402</v>
+        <v>34</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J38" s="1">
         <v>1500</v>
@@ -9618,7 +9618,7 @@
         <v>1800</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9705,13 +9705,13 @@
         <v/>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AS38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV38" s="5" t="s">
         <v>32</v>
@@ -9723,7 +9723,7 @@
         <f t="shared" si="111"/>
         <v>{
     'name': "FATE Brewing Company",
-    'area': "east",'hours': {
+    'area': "campus",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Drinks and small plate specials", 'link':"http://fatebrewingcompany.com", 'pricing':"",   'phone-number': "", 'address': "1600 38th St, Boulder, CO 80301", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY38" s="1" t="str">
@@ -9752,11 +9752,11 @@
       </c>
       <c r="BE38" s="1" t="str">
         <f t="shared" si="118"/>
-        <v>outdoor drink food med  east kid</v>
+        <v>outdoor drink food med  campus kid</v>
       </c>
       <c r="BF38" s="1" t="str">
         <f t="shared" si="119"/>
-        <v>East Boulder</v>
+        <v>Near Campus</v>
       </c>
       <c r="BG38" s="10">
         <v>40.014986</v>
@@ -9776,7 +9776,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="21" customHeight="1">
@@ -9880,7 +9880,7 @@
         <v>28</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV39" s="5" t="s">
         <v>33</v>
@@ -9944,13 +9944,13 @@
     </row>
     <row r="40" spans="2:64" ht="21" customHeight="1">
       <c r="B40" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V40" s="6"/>
       <c r="W40" s="1" t="str">
@@ -10038,10 +10038,10 @@
         <v/>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>33</v>
@@ -10108,10 +10108,10 @@
         <v>312</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W41" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10198,10 +10198,10 @@
         <v/>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV41" s="5" t="s">
         <v>33</v>
@@ -10403,7 +10403,7 @@
         <v>28</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV42" s="5" t="s">
         <v>32</v>
@@ -10566,7 +10566,7 @@
         <v>28</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV43" s="5" t="s">
         <v>33</v>
@@ -10633,7 +10633,7 @@
         <v>238</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>261</v>
@@ -10723,10 +10723,10 @@
         <v/>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>33</v>
@@ -10738,7 +10738,7 @@
         <f t="shared" si="111"/>
         <v>{
     'name': "Frasca Food &amp; Wine",
-    'area': "campus",'hours': {
+    'area': "pearl",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://frascafoodandwine.com", 'pricing':"",   'phone-number': "", 'address': "1738 Pearl St Boulder CO", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY44" s="1" t="str">
@@ -10767,11 +10767,11 @@
       </c>
       <c r="BE44" s="1" t="str">
         <f t="shared" si="118"/>
-        <v>med  campus</v>
+        <v>med  pearl</v>
       </c>
       <c r="BF44" s="1" t="str">
         <f t="shared" si="119"/>
-        <v>Near Campus</v>
+        <v>Pearl Street</v>
       </c>
       <c r="BG44" s="10">
         <v>40.019004000000002</v>
@@ -10889,7 +10889,7 @@
         <v>28</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV45" s="5" t="s">
         <v>33</v>
@@ -10953,13 +10953,13 @@
     </row>
     <row r="46" spans="2:64" ht="21" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11046,10 +11046,10 @@
         <v/>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV46" s="5" t="s">
         <v>33</v>
@@ -11116,10 +11116,10 @@
         <v>328</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H47" s="1">
         <v>1500</v>
@@ -11164,7 +11164,7 @@
         <v>1900</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" si="32"/>
@@ -11251,13 +11251,13 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR47" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>32</v>
@@ -11269,7 +11269,7 @@
         <f t="shared" si="111"/>
         <v>{
     'name': "Half Fast Subs",
-    'area': "campus",'hours': {
+    'area': "downtown",'hours': {
       'sunday-start':"1500", 'sunday-end':"1900", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1500", 'saturday-end':"1900"},  'description': "ALL 7 inch SUBS ONLY $5.39 &amp; GREAT BEER SPECIALS", 'link':"http://halffastsubs.com", 'pricing':"",   'phone-number': "", 'address': "1215 13th St Ste A Boulder CO", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY47" s="1" t="str">
@@ -11298,11 +11298,11 @@
       </c>
       <c r="BE47" s="1" t="str">
         <f t="shared" si="118"/>
-        <v>pet drink food med  campus</v>
+        <v>pet drink food med  downtown</v>
       </c>
       <c r="BF47" s="1" t="str">
         <f t="shared" si="119"/>
-        <v>Near Campus</v>
+        <v>Downtown</v>
       </c>
       <c r="BG47" s="10">
         <v>40.009036000000002</v>
@@ -11459,7 +11459,7 @@
         <v>28</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV48" s="5" t="s">
         <v>32</v>
@@ -11667,7 +11667,7 @@
         <v>28</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV49" s="5" t="s">
         <v>32</v>
@@ -11737,7 +11737,7 @@
         <v>298</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H50" s="1">
         <v>1500</v>
@@ -11782,7 +11782,7 @@
         <v>2000</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W50" s="1">
         <f t="shared" si="32"/>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="AR50" s="4"/>
       <c r="AU50" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>32</v>
@@ -11934,13 +11934,13 @@
     </row>
     <row r="51" spans="2:64" ht="21" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12027,10 +12027,10 @@
         <v/>
       </c>
       <c r="AR51" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV51" s="5" t="s">
         <v>33</v>
@@ -12094,13 +12094,13 @@
     </row>
     <row r="52" spans="2:64" ht="21" customHeight="1">
       <c r="B52" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W52" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12187,10 +12187,10 @@
         <v/>
       </c>
       <c r="AR52" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV52" s="5" t="s">
         <v>33</v>
@@ -12354,7 +12354,7 @@
         <v>28</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV53" s="5" t="s">
         <v>33</v>
@@ -12562,10 +12562,10 @@
         <v>28</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV54" s="5" t="s">
         <v>32</v>
@@ -12773,7 +12773,7 @@
         <v>28</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV55" s="5" t="s">
         <v>32</v>
@@ -12981,7 +12981,7 @@
         <v>225</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV56" s="5" t="s">
         <v>32</v>
@@ -13046,7 +13046,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="57" spans="2:64" ht="21" customHeight="1">
@@ -13057,7 +13057,7 @@
         <v>272</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13144,10 +13144,10 @@
         <v/>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV57" s="5" t="s">
         <v>33</v>
@@ -13310,10 +13310,10 @@
         <v>28</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV58" s="5" t="s">
         <v>33</v>
@@ -13377,13 +13377,13 @@
     </row>
     <row r="59" spans="2:64" ht="21" customHeight="1">
       <c r="B59" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G59" s="24" t="s">
         <v>424</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>425</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13470,10 +13470,10 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV59" s="5" t="s">
         <v>33</v>
@@ -13543,7 +13543,7 @@
         <v>272</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W60" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13630,10 +13630,10 @@
         <v/>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV60" s="5" t="s">
         <v>33</v>
@@ -13698,7 +13698,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL60" s="26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="2:64" ht="21" customHeight="1">
@@ -13835,7 +13835,7 @@
         <v>28</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV61" s="5" t="s">
         <v>32</v>
@@ -13899,13 +13899,13 @@
     </row>
     <row r="62" spans="2:64" ht="21" customHeight="1">
       <c r="B62" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W62" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13992,10 +13992,10 @@
         <v/>
       </c>
       <c r="AR62" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV62" s="5" t="s">
         <v>33</v>
@@ -14062,10 +14062,10 @@
         <v>319</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W63" s="1" t="str">
         <f t="shared" si="32"/>
@@ -14152,10 +14152,10 @@
         <v/>
       </c>
       <c r="AR63" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV63" s="5" t="s">
         <v>33</v>
@@ -14167,7 +14167,7 @@
         <f t="shared" si="111"/>
         <v>{
     'name': "Le Peep",
-    'area': "campus",'hours': {
+    'area': "east",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"http://lepeep.com", 'pricing':"",   'phone-number': "", 'address': "2525 Arapahoe Ave Unit E50 Boulder CO", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY63" s="1" t="str">
@@ -14196,11 +14196,11 @@
       </c>
       <c r="BE63" s="1" t="str">
         <f t="shared" si="118"/>
-        <v>med  campus</v>
+        <v>med  east</v>
       </c>
       <c r="BF63" s="1" t="str">
         <f t="shared" si="119"/>
-        <v>Near Campus</v>
+        <v>East Boulder</v>
       </c>
       <c r="BG63" s="10">
         <v>40.015734000000002</v>
@@ -14225,7 +14225,7 @@
         <v>184</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H64" s="1">
         <v>1500</v>
@@ -14270,7 +14270,7 @@
         <v>1800</v>
       </c>
       <c r="V64" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" si="32"/>
@@ -14363,7 +14363,7 @@
         <v>28</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV64" s="5" t="s">
         <v>32</v>
@@ -14575,7 +14575,7 @@
         <v>225</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV65" s="5" t="s">
         <v>32</v>
@@ -14738,7 +14738,7 @@
         <v>28</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV66" s="5" t="s">
         <v>33</v>
@@ -14802,13 +14802,13 @@
     </row>
     <row r="67" spans="2:63" ht="21" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" si="132"/>
@@ -14895,10 +14895,10 @@
         <v/>
       </c>
       <c r="AR67" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV67" s="5" t="s">
         <v>33</v>
@@ -14962,13 +14962,13 @@
     </row>
     <row r="68" spans="2:63" ht="21" customHeight="1">
       <c r="B68" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15055,10 +15055,10 @@
         <v/>
       </c>
       <c r="AR68" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AU68" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV68" s="5" t="s">
         <v>33</v>
@@ -15254,7 +15254,7 @@
         <v>28</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV69" s="5" t="s">
         <v>32</v>
@@ -15450,7 +15450,7 @@
         <v>28</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV70" s="5" t="s">
         <v>32</v>
@@ -15514,13 +15514,13 @@
     </row>
     <row r="71" spans="2:63" ht="21" customHeight="1">
       <c r="B71" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G71" s="15" t="s">
         <v>457</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>458</v>
       </c>
       <c r="H71" s="1">
         <v>1500</v>
@@ -15565,7 +15565,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" si="132"/>
@@ -15652,10 +15652,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR71" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV71" s="5" t="s">
         <v>32</v>
@@ -15814,7 +15814,7 @@
         <v>28</v>
       </c>
       <c r="AU72" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV72" s="5" t="s">
         <v>33</v>
@@ -15881,10 +15881,10 @@
         <v>322</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W73" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15971,13 +15971,13 @@
         <v/>
       </c>
       <c r="AR73" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AS73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU73" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV73" s="5" t="s">
         <v>33</v>
@@ -16092,7 +16092,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="W74" s="1">
         <f t="shared" si="132"/>
@@ -16185,7 +16185,7 @@
         <v>28</v>
       </c>
       <c r="AU74" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV74" s="5" t="s">
         <v>32</v>
@@ -16375,10 +16375,10 @@
         <v>28</v>
       </c>
       <c r="AT75" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV75" s="5" t="s">
         <v>32</v>
@@ -16580,7 +16580,7 @@
         <v>28</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV76" s="5" t="s">
         <v>32</v>
@@ -16644,13 +16644,13 @@
     </row>
     <row r="77" spans="2:63" ht="21" customHeight="1">
       <c r="B77" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>463</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>464</v>
       </c>
       <c r="W77" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16737,10 +16737,10 @@
         <v/>
       </c>
       <c r="AR77" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV77" s="5" t="s">
         <v>33</v>
@@ -16833,7 +16833,7 @@
         <v>1800</v>
       </c>
       <c r="V78" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="W78" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16926,7 +16926,7 @@
         <v>28</v>
       </c>
       <c r="AU78" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV78" s="5" t="s">
         <v>32</v>
@@ -17041,7 +17041,7 @@
         <v>1900</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" si="132"/>
@@ -17132,7 +17132,7 @@
         <v>28</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV79" s="5" t="s">
         <v>32</v>
@@ -17196,13 +17196,13 @@
     </row>
     <row r="80" spans="2:63" ht="21" customHeight="1">
       <c r="B80" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H80" s="1">
         <v>1530</v>
@@ -17247,7 +17247,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="W80" s="1">
         <f t="shared" si="132"/>
@@ -17334,10 +17334,10 @@
         <v>3.3pm-6pm</v>
       </c>
       <c r="AR80" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV80" s="5" t="s">
         <v>32</v>
@@ -17500,7 +17500,7 @@
         <v>28</v>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV81" s="5" t="s">
         <v>33</v>
@@ -17663,7 +17663,7 @@
         <v>28</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV82" s="5" t="s">
         <v>33</v>
@@ -17871,7 +17871,7 @@
         <v>28</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV83" s="5" t="s">
         <v>32</v>
@@ -18079,7 +18079,7 @@
         <v>28</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV84" s="5" t="s">
         <v>32</v>
@@ -18287,7 +18287,7 @@
         <v>225</v>
       </c>
       <c r="AU85" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV85" s="5" t="s">
         <v>32</v>
@@ -18351,13 +18351,13 @@
     </row>
     <row r="86" spans="2:63" ht="21" customHeight="1">
       <c r="B86" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G86" s="24" t="s">
         <v>429</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G86" s="24" t="s">
-        <v>430</v>
       </c>
       <c r="J86" s="1">
         <v>1600</v>
@@ -18390,7 +18390,7 @@
         <v>1800</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W86" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18477,10 +18477,10 @@
         <v/>
       </c>
       <c r="AR86" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AU86" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV86" s="5" t="s">
         <v>32</v>
@@ -18544,13 +18544,13 @@
     </row>
     <row r="87" spans="2:63" ht="21" customHeight="1">
       <c r="B87" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W87" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18637,10 +18637,10 @@
         <v/>
       </c>
       <c r="AR87" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AU87" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV87" s="5" t="s">
         <v>33</v>
@@ -18739,7 +18739,7 @@
         <v>1800</v>
       </c>
       <c r="V88" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W88" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18832,7 +18832,7 @@
         <v>28</v>
       </c>
       <c r="AU88" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV88" s="5" t="s">
         <v>32</v>
@@ -18899,10 +18899,10 @@
         <v>333</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>334</v>
+        <v>577</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18989,16 +18989,16 @@
         <v/>
       </c>
       <c r="AR89" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AS89" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT89" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU89" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV89" s="5" t="s">
         <v>33</v>
@@ -19011,7 +19011,7 @@
         <v>{
     'name': "Rincon Argentino",
     'area': "east",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.rinconargentinoboulder.com/", 'pricing':"",   'phone-number': "", 'address': "2525 Arapahoe Ave The Village - A05 Boulder CO", 'other-amenities': ['outdoor','pet','med'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"https://www.rinconargentinoboulder.com/", 'pricing':"",   'phone-number': "", 'address': "2525 Arapahoe Ave The Village Boulder CO", 'other-amenities': ['outdoor','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY89" s="1" t="str">
         <f t="shared" si="123"/>
@@ -19068,7 +19068,7 @@
         <v>272</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H90" s="1">
         <v>1400</v>
@@ -19113,7 +19113,7 @@
         <v>1800</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" si="132"/>
@@ -19200,10 +19200,10 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR90" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AU90" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV90" s="5" t="s">
         <v>32</v>
@@ -19399,7 +19399,7 @@
         <v>28</v>
       </c>
       <c r="AU91" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV91" s="5" t="s">
         <v>32</v>
@@ -19502,7 +19502,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W92" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19595,7 +19595,7 @@
         <v>28</v>
       </c>
       <c r="AU92" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV92" s="5" t="s">
         <v>32</v>
@@ -19659,13 +19659,13 @@
     </row>
     <row r="93" spans="2:63" ht="21" customHeight="1">
       <c r="B93" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H93" s="1">
         <v>1500</v>
@@ -19710,7 +19710,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" si="132"/>
@@ -19797,16 +19797,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR93" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AS93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT93" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU93" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV93" s="5" t="s">
         <v>32</v>
@@ -19874,13 +19874,13 @@
     </row>
     <row r="94" spans="2:63" ht="21" customHeight="1">
       <c r="B94" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W94" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19967,10 +19967,10 @@
         <v/>
       </c>
       <c r="AR94" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AU94" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV94" s="5" t="s">
         <v>33</v>
@@ -20178,7 +20178,7 @@
         <v>28</v>
       </c>
       <c r="AU95" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV95" s="5" t="s">
         <v>32</v>
@@ -20242,13 +20242,13 @@
     </row>
     <row r="96" spans="2:63" ht="21" customHeight="1">
       <c r="B96" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="132"/>
@@ -20335,10 +20335,10 @@
         <v/>
       </c>
       <c r="AR96" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AU96" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV96" s="5" t="s">
         <v>33</v>
@@ -20546,7 +20546,7 @@
         <v>28</v>
       </c>
       <c r="AU97" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV97" s="5" t="s">
         <v>32</v>
@@ -20610,13 +20610,13 @@
     </row>
     <row r="98" spans="2:63" ht="21" customHeight="1">
       <c r="B98" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="W98" s="1" t="str">
         <f t="shared" si="132"/>
@@ -20703,10 +20703,10 @@
         <v/>
       </c>
       <c r="AR98" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AU98" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV98" s="5" t="s">
         <v>33</v>
@@ -20914,7 +20914,7 @@
         <v>28</v>
       </c>
       <c r="AU99" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV99" s="5" t="s">
         <v>32</v>
@@ -21122,7 +21122,7 @@
         <v>28</v>
       </c>
       <c r="AU100" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV100" s="5" t="s">
         <v>32</v>
@@ -21186,13 +21186,13 @@
     </row>
     <row r="101" spans="2:63" ht="21" customHeight="1">
       <c r="B101" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>272</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H101" s="1">
         <v>1500</v>
@@ -21237,7 +21237,7 @@
         <v>1800</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" ref="W101" si="165">IF(H101&gt;0,H101/100,"")</f>
@@ -21324,10 +21324,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR101" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AU101" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV101" s="5" t="s">
         <v>32</v>
@@ -21397,7 +21397,7 @@
         <v>34</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W102" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21484,10 +21484,10 @@
         <v/>
       </c>
       <c r="AR102" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AU102" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV102" s="5" t="s">
         <v>33</v>
@@ -21557,7 +21557,7 @@
         <v>34</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W103" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21644,10 +21644,10 @@
         <v/>
       </c>
       <c r="AR103" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AU103" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV103" s="5" t="s">
         <v>33</v>
@@ -21717,7 +21717,7 @@
         <v>272</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W104" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21804,10 +21804,10 @@
         <v/>
       </c>
       <c r="AR104" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AU104" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV104" s="5" t="s">
         <v>33</v>
@@ -21970,7 +21970,7 @@
         <v>28</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV105" s="5" t="s">
         <v>33</v>
@@ -22034,13 +22034,13 @@
     </row>
     <row r="106" spans="2:63" ht="21" customHeight="1">
       <c r="B106" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H106" s="1">
         <v>1600</v>
@@ -22085,7 +22085,7 @@
         <v>1800</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="W106" s="1">
         <f t="shared" si="132"/>
@@ -22172,13 +22172,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR106" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AS106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU106" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV106" s="5" t="s">
         <v>32</v>
@@ -22242,13 +22242,13 @@
     </row>
     <row r="107" spans="2:63" ht="21" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H107" s="1">
         <v>1600</v>
@@ -22293,7 +22293,7 @@
         <v>1730</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" si="132"/>
@@ -22380,10 +22380,10 @@
         <v>11am-5.3pm</v>
       </c>
       <c r="AR107" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AU107" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV107" s="5" t="s">
         <v>32</v>
@@ -22585,7 +22585,7 @@
         <v>225</v>
       </c>
       <c r="AU108" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV108" s="5" t="s">
         <v>32</v>
@@ -22746,7 +22746,7 @@
         <v>296</v>
       </c>
       <c r="AU109" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV109" s="5" t="s">
         <v>33</v>
@@ -22954,7 +22954,7 @@
         <v>28</v>
       </c>
       <c r="AU110" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV110" s="5" t="s">
         <v>32</v>
@@ -23156,7 +23156,7 @@
         <v>28</v>
       </c>
       <c r="AU111" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV111" s="5" t="s">
         <v>32</v>
@@ -23364,10 +23364,10 @@
         <v>28</v>
       </c>
       <c r="AT112" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU112" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV112" s="5" t="s">
         <v>32</v>
@@ -23431,13 +23431,13 @@
     </row>
     <row r="113" spans="2:64" ht="21" customHeight="1">
       <c r="B113" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W113" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23524,10 +23524,10 @@
         <v/>
       </c>
       <c r="AR113" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AU113" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV113" s="5" t="s">
         <v>33</v>
@@ -23735,7 +23735,7 @@
         <v>225</v>
       </c>
       <c r="AU114" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV114" s="5" t="s">
         <v>32</v>
@@ -23800,7 +23800,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL114" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="115" spans="2:64" ht="21" customHeight="1">
@@ -23844,7 +23844,7 @@
         <v>2000</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23937,7 +23937,7 @@
         <v>28</v>
       </c>
       <c r="AU115" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV115" s="5" t="s">
         <v>32</v>
@@ -24133,7 +24133,7 @@
         <v>28</v>
       </c>
       <c r="AU116" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV116" s="5" t="s">
         <v>32</v>
@@ -24197,13 +24197,13 @@
     </row>
     <row r="117" spans="2:64" ht="21" customHeight="1">
       <c r="B117" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H117" s="1">
         <v>1500</v>
@@ -24248,7 +24248,7 @@
         <v>1800</v>
       </c>
       <c r="V117" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="W117" s="1">
         <f t="shared" si="132"/>
@@ -24335,10 +24335,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR117" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AU117" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV117" s="5" t="s">
         <v>32</v>
@@ -24546,7 +24546,7 @@
         <v>28</v>
       </c>
       <c r="AU118" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV118" s="5" t="s">
         <v>32</v>
@@ -24709,7 +24709,7 @@
         <v>28</v>
       </c>
       <c r="AU119" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV119" s="5" t="s">
         <v>33</v>
@@ -24917,10 +24917,10 @@
         <v>28</v>
       </c>
       <c r="AT120" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU120" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV120" s="5" t="s">
         <v>32</v>
@@ -25035,7 +25035,7 @@
         <v>1830</v>
       </c>
       <c r="V121" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W121" s="1">
         <f t="shared" si="132"/>
@@ -25128,7 +25128,7 @@
         <v>28</v>
       </c>
       <c r="AU121" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV121" s="5" t="s">
         <v>32</v>
@@ -25192,13 +25192,13 @@
     </row>
     <row r="122" spans="2:64" ht="21" customHeight="1">
       <c r="B122" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W122" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25286,10 +25286,10 @@
       </c>
       <c r="AR122" s="4"/>
       <c r="AT122" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU122" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV122" s="5" t="s">
         <v>33</v>
@@ -25353,13 +25353,13 @@
     </row>
     <row r="123" spans="2:64" ht="21" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W123" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25446,10 +25446,10 @@
         <v/>
       </c>
       <c r="AR123" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AU123" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV123" s="5" t="s">
         <v>33</v>
@@ -25651,7 +25651,7 @@
         <v>28</v>
       </c>
       <c r="AU124" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV124" s="5" t="s">
         <v>32</v>
@@ -25715,13 +25715,13 @@
     </row>
     <row r="125" spans="2:64" ht="21" customHeight="1">
       <c r="B125" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W125" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25808,10 +25808,10 @@
         <v/>
       </c>
       <c r="AR125" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AU125" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="AU125" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="AV125" s="5" t="s">
         <v>33</v>
@@ -25876,7 +25876,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL125" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="2:64" ht="21" customHeight="1">
@@ -25980,7 +25980,7 @@
         <v>28</v>
       </c>
       <c r="AU126" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV126" s="5" t="s">
         <v>33</v>
@@ -26054,7 +26054,7 @@
         <v>34</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H127" s="1">
         <v>1700</v>
@@ -26183,10 +26183,10 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR127" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AU127" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV127" s="5" t="s">
         <v>33</v>
@@ -26256,7 +26256,7 @@
         <v>272</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W128" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26343,13 +26343,13 @@
         <v/>
       </c>
       <c r="AR128" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AT128" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU128" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV128" s="5" t="s">
         <v>33</v>
@@ -26419,7 +26419,7 @@
         <v>272</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26506,10 +26506,10 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AU129" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV129" s="5" t="s">
         <v>33</v>
@@ -26573,13 +26573,13 @@
     </row>
     <row r="130" spans="2:63" ht="21" customHeight="1">
       <c r="B130" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="W130" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26666,10 +26666,10 @@
         <v/>
       </c>
       <c r="AR130" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AU130" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV130" s="5" t="s">
         <v>33</v>
@@ -26736,7 +26736,7 @@
         <v>302</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="G131" s="19" t="s">
         <v>305</v>
@@ -26862,7 +26862,7 @@
         <v>304</v>
       </c>
       <c r="AU131" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV131" s="5" t="s">
         <v>32</v>
@@ -26874,7 +26874,7 @@
         <f t="shared" si="196"/>
         <v>{
     'name': "Twisted Pine Brewing Co",
-    'area': "campus",'hours': {
+    'area': "east",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"1100", 'monday-end':"2200", 'tuesday-start':"1100", 'tuesday-end':"2200", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 Off all full pour beers and $3 Off all pitchers.&lt;br&gt;$7 one-topping pizzas and other happy hour eats starting at $2.50.", 'link':"twistedpinebrewing.com", 'pricing':"",   'phone-number': "", 'address': "3201 Walnut St Ste A, Boulder, CO 80301", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY131" s="1" t="str">
@@ -26903,11 +26903,11 @@
       </c>
       <c r="BE131" s="1" t="str">
         <f t="shared" si="203"/>
-        <v>drink food med  campus</v>
+        <v>drink food med  east</v>
       </c>
       <c r="BF131" s="1" t="str">
         <f t="shared" si="204"/>
-        <v>Near Campus</v>
+        <v>East Boulder</v>
       </c>
       <c r="BG131" s="10">
         <v>40.020826</v>
@@ -26926,13 +26926,13 @@
     </row>
     <row r="132" spans="2:63" ht="21" customHeight="1">
       <c r="B132" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="W132" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27019,13 +27019,13 @@
         <v/>
       </c>
       <c r="AR132" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AT132" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU132" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV132" s="5" t="s">
         <v>33</v>
@@ -27233,7 +27233,7 @@
         <v>225</v>
       </c>
       <c r="AU133" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV133" s="5" t="s">
         <v>32</v>
@@ -27297,13 +27297,13 @@
     </row>
     <row r="134" spans="2:63" ht="21" customHeight="1">
       <c r="B134" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>184</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H134" s="1">
         <v>1500</v>
@@ -27348,7 +27348,7 @@
         <v>1830</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="W134" s="1">
         <f t="shared" si="206"/>
@@ -27435,10 +27435,10 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR134" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AU134" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV134" s="5" t="s">
         <v>32</v>
@@ -27508,7 +27508,7 @@
         <v>272</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W135" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27595,10 +27595,10 @@
         <v/>
       </c>
       <c r="AR135" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AU135" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV135" s="5" t="s">
         <v>33</v>
@@ -27662,13 +27662,13 @@
     </row>
     <row r="136" spans="2:63" ht="21" customHeight="1">
       <c r="B136" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="W136" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27756,7 +27756,7 @@
       </c>
       <c r="AR136" s="4"/>
       <c r="AU136" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV136" s="5" t="s">
         <v>33</v>
@@ -27820,13 +27820,13 @@
     </row>
     <row r="137" spans="2:63" ht="21" customHeight="1">
       <c r="B137" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>272</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="W137" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27913,13 +27913,13 @@
         <v/>
       </c>
       <c r="AR137" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AT137" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU137" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV137" s="5" t="s">
         <v>33</v>
@@ -27983,13 +27983,13 @@
     </row>
     <row r="138" spans="2:63" ht="21" customHeight="1">
       <c r="B138" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G138" s="24" t="s">
         <v>431</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G138" s="24" t="s">
-        <v>432</v>
       </c>
       <c r="W138" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28076,10 +28076,10 @@
         <v/>
       </c>
       <c r="AR138" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AU138" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV138" s="5" t="s">
         <v>33</v>
@@ -28281,7 +28281,7 @@
         <v>28</v>
       </c>
       <c r="AU139" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV139" s="5" t="s">
         <v>32</v>
@@ -28477,7 +28477,7 @@
         <v>28</v>
       </c>
       <c r="AU140" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV140" s="5" t="s">
         <v>32</v>
@@ -28685,10 +28685,10 @@
         <v>28</v>
       </c>
       <c r="AT141" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU141" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV141" s="5" t="s">
         <v>32</v>
@@ -28758,7 +28758,7 @@
         <v>272</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W142" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28845,10 +28845,10 @@
         <v/>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AU142" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV142" s="5" t="s">
         <v>33</v>
@@ -28912,13 +28912,13 @@
     </row>
     <row r="143" spans="2:63" ht="21" customHeight="1">
       <c r="B143" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W143" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29005,10 +29005,10 @@
         <v/>
       </c>
       <c r="AR143" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AU143" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV143" s="5" t="s">
         <v>33</v>
@@ -29072,13 +29072,13 @@
     </row>
     <row r="144" spans="2:63" ht="21" customHeight="1">
       <c r="B144" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>298</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W144" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29165,10 +29165,10 @@
         <v/>
       </c>
       <c r="AR144" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AU144" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV144" s="5" t="s">
         <v>33</v>
@@ -29331,7 +29331,7 @@
         <v>28</v>
       </c>
       <c r="AU145" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV145" s="5" t="s">
         <v>33</v>
@@ -29533,7 +29533,7 @@
         <v>28</v>
       </c>
       <c r="AU146" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV146" s="5" t="s">
         <v>32</v>
@@ -29635,25 +29635,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" t="s">
         <v>474</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>475</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>476</v>
-      </c>
-      <c r="H1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="2:8">
@@ -29664,16 +29664,16 @@
         <v>-105.26014499999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H2" t="s">
         <v>454</v>
-      </c>
-      <c r="H2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -29684,16 +29684,16 @@
         <v>-105.25942000000001</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H3" t="s">
         <v>454</v>
-      </c>
-      <c r="H3" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -29704,16 +29704,16 @@
         <v>-105.25924000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H4" t="s">
         <v>454</v>
-      </c>
-      <c r="H4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -29724,16 +29724,16 @@
         <v>-105.20641999999999</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G5" t="s">
+        <v>453</v>
+      </c>
+      <c r="H5" t="s">
         <v>454</v>
-      </c>
-      <c r="H5" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="6" spans="2:8">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -415,16 +415,10 @@
     <t>Monday - Friday 3 - 6pm. Thursday Late Night Happy Hour 9pm - 12am &lt;br&gt; Food: $1 off small plate menu, $3 Tacos &lt;br&gt; Drinks: $1 off Classic Rio Margs &amp; Big Tex Margs, $3 draft beers, Tecate cans &amp; shots of Cinge</t>
   </si>
   <si>
-    <t>Daily 3 - 6pm, Sunday ALL DAY &lt;br&gt; Food: 1/2 off signature starters&lt;br&gt; Drinks: 1/2 off Draft beers, Wine &amp; Signature Cocktails</t>
-  </si>
-  <si>
     <t>Daily at the bar 3 - 5pm, Drinks until 6 pm &lt;br&gt; Food: $1-15 assorted appetizers, $12-15 entrees &lt;br&gt; Drinks: $4 Drafts, $3 Selected Bottled Beer, $4 Wine, $5 Cocktails, $6 Featured Cocktails</t>
   </si>
   <si>
     <t>Daily 3 - 6pm, Mondays 3pm - close  &lt;br&gt; Food: $6 Salumeria, $5 Bruschette and Verdura, $9-11 Pizza, $7-9 Pesce, Discounted house specialties.  Drinks: $1 off Beers, $5 House Wine, $8 Speciality Cocktails</t>
-  </si>
-  <si>
-    <t>Daily 5 - 7pm &lt;br&gt; Drinks: $2 Select Draft Beers</t>
   </si>
   <si>
     <t>Monday - Friday 11:30am - 2pm &lt;br&gt; Monday - Saturday 5 - 6:30pm &lt;br&gt; Saturday Super Happy Hour 10 - 11pm &lt;br&gt; Sunday 5 - 10pm &lt;br&gt; Food: Reduced price on select sushi and various menu items &lt;br&gt; Drinks: Discounted Saki, Select Beers &amp; Cocktails.</t>
@@ -1767,6 +1761,12 @@
   </si>
   <si>
     <t>2525 Arapahoe Ave The Village Boulder CO</t>
+  </si>
+  <si>
+    <t>Sunday and Saturday Open Until 6pm  &lt;br&gt; Food: 1/2 off signature starters&lt;br&gt; Drinks: 1/2 off Draft beers, Wine &amp; Signature Cocktails</t>
+  </si>
+  <si>
+    <t>Daily 5 - 7pm &lt;br&gt; Drinks: $3 Select Draft Beers</t>
   </si>
 </sst>
 </file>
@@ -2768,10 +2768,10 @@
   <dimension ref="B1:BL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="G89" sqref="G89"/>
+      <selection pane="bottomRight" activeCell="V101" sqref="V101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2973,13 +2973,13 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="W2" s="1" t="str">
         <f t="shared" ref="W2:W4" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -3066,13 +3066,13 @@
         <v/>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>33</v>
@@ -3141,13 +3141,13 @@
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1">
       <c r="B3" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3234,10 +3234,10 @@
         <v/>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>33</v>
@@ -3301,13 +3301,13 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3394,13 +3394,13 @@
         <v/>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV4" s="5" t="s">
         <v>33</v>
@@ -3464,13 +3464,13 @@
     </row>
     <row r="5" spans="2:64" ht="21" customHeight="1">
       <c r="B5" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J5" s="1">
         <v>1500</v>
@@ -3587,10 +3587,10 @@
         <v/>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV5" s="5" t="s">
         <v>32</v>
@@ -3657,10 +3657,10 @@
         <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <v>1500</v>
@@ -3705,7 +3705,7 @@
         <v>1800</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="32"/>
@@ -3792,13 +3792,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>32</v>
@@ -3864,13 +3864,13 @@
     </row>
     <row r="7" spans="2:64" ht="21" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" si="32"/>
@@ -3957,13 +3957,13 @@
         <v/>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV7" s="5" t="s">
         <v>33</v>
@@ -4030,10 +4030,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>186</v>
       </c>
       <c r="H8" s="1">
         <v>1600</v>
@@ -4165,13 +4165,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR8" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV8" s="5" t="s">
         <v>32</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="9" spans="2:64" ht="21" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4328,16 +4328,16 @@
         <v/>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV9" s="5" t="s">
         <v>33</v>
@@ -4401,13 +4401,13 @@
     </row>
     <row r="10" spans="2:64" ht="21" customHeight="1">
       <c r="B10" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H10" s="1">
         <v>1600</v>
@@ -4452,7 +4452,7 @@
         <v>1800</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="32"/>
@@ -4539,10 +4539,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>32</v>
@@ -4606,13 +4606,13 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H11" s="1">
         <v>1400</v>
@@ -4657,7 +4657,7 @@
         <v>1700</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="32"/>
@@ -4744,10 +4744,10 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV11" s="5" t="s">
         <v>32</v>
@@ -4811,13 +4811,13 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
       <c r="B12" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4904,10 +4904,10 @@
         <v/>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV12" s="5" t="s">
         <v>33</v>
@@ -4971,13 +4971,13 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H13" s="1">
         <v>1600</v>
@@ -5022,7 +5022,7 @@
         <v>1800</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="32"/>
@@ -5109,13 +5109,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV13" s="5" t="s">
         <v>32</v>
@@ -5183,10 +5183,10 @@
         <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J14" s="1">
         <v>1500</v>
@@ -5306,13 +5306,13 @@
         <v/>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>32</v>
@@ -5376,13 +5376,13 @@
     </row>
     <row r="15" spans="2:64" ht="21" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5469,10 +5469,10 @@
         <v/>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV15" s="5" t="s">
         <v>33</v>
@@ -5536,13 +5536,13 @@
     </row>
     <row r="16" spans="2:64" ht="21" customHeight="1">
       <c r="B16" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J16" s="1">
         <v>1500</v>
@@ -5581,7 +5581,7 @@
         <v>1830</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5669,10 +5669,10 @@
       </c>
       <c r="AR16" s="4"/>
       <c r="AT16" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV16" s="5" t="s">
         <v>32</v>
@@ -5737,7 +5737,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="2:64" ht="21" customHeight="1">
@@ -5745,10 +5745,10 @@
         <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H17" s="1">
         <v>1600</v>
@@ -5793,7 +5793,7 @@
         <v>1800</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="32"/>
@@ -5880,13 +5880,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV17" s="5" t="s">
         <v>32</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="18" spans="2:64" ht="21" customHeight="1">
       <c r="B18" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="W18" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6043,13 +6043,13 @@
         <v/>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AS18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>33</v>
@@ -6113,13 +6113,13 @@
     </row>
     <row r="19" spans="2:64" ht="21" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1" t="str">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="AR19" s="4"/>
       <c r="AU19" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV19" s="5" t="s">
         <v>33</v>
@@ -6275,10 +6275,10 @@
         <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H20" s="1">
         <v>1500</v>
@@ -6410,16 +6410,16 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV20" s="5" t="s">
         <v>32</v>
@@ -6483,13 +6483,13 @@
     </row>
     <row r="21" spans="2:64" ht="21" customHeight="1">
       <c r="B21" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="W21" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6576,13 +6576,13 @@
         <v/>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>33</v>
@@ -6646,13 +6646,13 @@
     </row>
     <row r="22" spans="2:64" ht="21" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="W22" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6739,13 +6739,13 @@
         <v/>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV22" s="5" t="s">
         <v>33</v>
@@ -6809,13 +6809,13 @@
     </row>
     <row r="23" spans="2:64" ht="21" customHeight="1">
       <c r="B23" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6902,13 +6902,13 @@
         <v/>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AS23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>33</v>
@@ -6972,13 +6972,13 @@
     </row>
     <row r="24" spans="2:64" ht="21" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L24" s="1">
         <v>1500</v>
@@ -7011,7 +7011,7 @@
         <v>1800</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7098,16 +7098,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AS24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>32</v>
@@ -7171,13 +7171,13 @@
     </row>
     <row r="25" spans="2:64" ht="21" customHeight="1">
       <c r="B25" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H25" s="1">
         <v>1600</v>
@@ -7307,10 +7307,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>32</v>
@@ -7377,10 +7377,10 @@
         <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H26" s="1">
         <v>1400</v>
@@ -7512,13 +7512,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AS26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV26" s="5" t="s">
         <v>32</v>
@@ -7583,7 +7583,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="2:64" ht="21" customHeight="1">
@@ -7591,10 +7591,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7681,10 +7681,10 @@
         <v/>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>33</v>
@@ -7748,13 +7748,13 @@
     </row>
     <row r="28" spans="2:64" ht="21" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W28" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7841,13 +7841,13 @@
         <v/>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AS28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV28" s="5" t="s">
         <v>33</v>
@@ -7911,13 +7911,13 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H29" s="1">
         <v>1600</v>
@@ -7962,7 +7962,7 @@
         <v>1730</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" ref="W29" si="53">IF(H29&gt;0,H29/100,"")</f>
@@ -8049,13 +8049,13 @@
         <v>4pm-5.3pm</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV29" s="5" t="s">
         <v>32</v>
@@ -8119,13 +8119,13 @@
     </row>
     <row r="30" spans="2:64" ht="21" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H30" s="1">
         <v>1700</v>
@@ -8170,7 +8170,7 @@
         <v>1830</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="W30" s="1">
         <f t="shared" si="32"/>
@@ -8257,10 +8257,10 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>32</v>
@@ -8324,13 +8324,13 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J31" s="1">
         <v>1600</v>
@@ -8363,7 +8363,7 @@
         <v>2000</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" ref="W31" si="81">IF(H31&gt;0,H31/100,"")</f>
@@ -8450,7 +8450,7 @@
         <v/>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>32</v>
@@ -8514,13 +8514,13 @@
     </row>
     <row r="32" spans="2:64" ht="21" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8607,13 +8607,13 @@
         <v/>
       </c>
       <c r="AR32" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AS32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV32" s="5" t="s">
         <v>33</v>
@@ -8677,13 +8677,13 @@
     </row>
     <row r="33" spans="2:64" ht="21" customHeight="1">
       <c r="B33" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8770,13 +8770,13 @@
         <v/>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV33" s="5" t="s">
         <v>33</v>
@@ -8844,13 +8844,13 @@
     </row>
     <row r="34" spans="2:64" ht="21" customHeight="1">
       <c r="B34" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>467</v>
       </c>
       <c r="H34" s="1">
         <v>1500</v>
@@ -8895,7 +8895,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" si="32"/>
@@ -8982,13 +8982,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR34" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AS34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV34" s="5" t="s">
         <v>32</v>
@@ -9051,10 +9051,10 @@
         <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H35" s="1">
         <v>1400</v>
@@ -9099,7 +9099,7 @@
         <v>1800</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="32"/>
@@ -9186,13 +9186,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR35" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV35" s="5" t="s">
         <v>32</v>
@@ -9256,13 +9256,13 @@
     </row>
     <row r="36" spans="2:64" ht="21" customHeight="1">
       <c r="B36" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W36" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9349,13 +9349,13 @@
         <v/>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>33</v>
@@ -9419,13 +9419,13 @@
     </row>
     <row r="37" spans="2:64" ht="21" customHeight="1">
       <c r="B37" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="W37" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9512,10 +9512,10 @@
         <v/>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>33</v>
@@ -9579,13 +9579,13 @@
     </row>
     <row r="38" spans="2:64" ht="21" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J38" s="1">
         <v>1500</v>
@@ -9618,7 +9618,7 @@
         <v>1800</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9705,13 +9705,13 @@
         <v/>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AS38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV38" s="5" t="s">
         <v>32</v>
@@ -9776,18 +9776,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="21" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9874,13 +9874,13 @@
         <v/>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AS39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV39" s="5" t="s">
         <v>33</v>
@@ -9944,13 +9944,13 @@
     </row>
     <row r="40" spans="2:64" ht="21" customHeight="1">
       <c r="B40" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="V40" s="6"/>
       <c r="W40" s="1" t="str">
@@ -10038,10 +10038,10 @@
         <v/>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>33</v>
@@ -10105,13 +10105,13 @@
     </row>
     <row r="41" spans="2:64" ht="21" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="W41" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10198,10 +10198,10 @@
         <v/>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV41" s="5" t="s">
         <v>33</v>
@@ -10268,10 +10268,10 @@
         <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H42" s="1">
         <v>1700</v>
@@ -10397,13 +10397,13 @@
         <v/>
       </c>
       <c r="AR42" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV42" s="5" t="s">
         <v>32</v>
@@ -10467,13 +10467,13 @@
     </row>
     <row r="43" spans="2:64" ht="21" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10560,13 +10560,13 @@
         <v/>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV43" s="5" t="s">
         <v>33</v>
@@ -10630,13 +10630,13 @@
     </row>
     <row r="44" spans="2:64" ht="21" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10723,10 +10723,10 @@
         <v/>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>33</v>
@@ -10790,13 +10790,13 @@
     </row>
     <row r="45" spans="2:64" ht="21" customHeight="1">
       <c r="B45" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W45" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10883,13 +10883,13 @@
         <v/>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AS45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV45" s="5" t="s">
         <v>33</v>
@@ -10953,13 +10953,13 @@
     </row>
     <row r="46" spans="2:64" ht="21" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11046,10 +11046,10 @@
         <v/>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV46" s="5" t="s">
         <v>33</v>
@@ -11113,13 +11113,13 @@
     </row>
     <row r="47" spans="2:64" ht="21" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H47" s="1">
         <v>1500</v>
@@ -11164,7 +11164,7 @@
         <v>1900</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" si="32"/>
@@ -11251,13 +11251,13 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR47" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>32</v>
@@ -11324,10 +11324,10 @@
         <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J48" s="1">
         <v>1430</v>
@@ -11453,13 +11453,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR48" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AS48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV48" s="5" t="s">
         <v>32</v>
@@ -11526,10 +11526,10 @@
         <v>26</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H49" s="1">
         <v>1500</v>
@@ -11661,13 +11661,13 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR49" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AS49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV49" s="5" t="s">
         <v>32</v>
@@ -11734,10 +11734,10 @@
         <v>26</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H50" s="1">
         <v>1500</v>
@@ -11782,7 +11782,7 @@
         <v>2000</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="W50" s="1">
         <f t="shared" si="32"/>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="AR50" s="4"/>
       <c r="AU50" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>32</v>
@@ -11934,13 +11934,13 @@
     </row>
     <row r="51" spans="2:64" ht="21" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12027,10 +12027,10 @@
         <v/>
       </c>
       <c r="AR51" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV51" s="5" t="s">
         <v>33</v>
@@ -12094,13 +12094,13 @@
     </row>
     <row r="52" spans="2:64" ht="21" customHeight="1">
       <c r="B52" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W52" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12187,10 +12187,10 @@
         <v/>
       </c>
       <c r="AR52" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV52" s="5" t="s">
         <v>33</v>
@@ -12254,13 +12254,13 @@
     </row>
     <row r="53" spans="2:64" ht="21" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="V53" s="6"/>
       <c r="W53" s="1" t="str">
@@ -12348,13 +12348,13 @@
         <v/>
       </c>
       <c r="AR53" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AS53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV53" s="5" t="s">
         <v>33</v>
@@ -12421,10 +12421,10 @@
         <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H54" s="1">
         <v>1500</v>
@@ -12556,16 +12556,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR54" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AS54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV54" s="5" t="s">
         <v>32</v>
@@ -12632,10 +12632,10 @@
         <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H55" s="1">
         <v>1600</v>
@@ -12767,13 +12767,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR55" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AS55" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV55" s="5" t="s">
         <v>32</v>
@@ -12837,13 +12837,13 @@
     </row>
     <row r="56" spans="2:64" ht="21" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H56" s="1">
         <v>1600</v>
@@ -12975,13 +12975,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR56" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AS56" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV56" s="5" t="s">
         <v>32</v>
@@ -13046,18 +13046,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="2:64" ht="21" customHeight="1">
       <c r="B57" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13144,10 +13144,10 @@
         <v/>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV57" s="5" t="s">
         <v>33</v>
@@ -13211,13 +13211,13 @@
     </row>
     <row r="58" spans="2:64" ht="21" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13304,16 +13304,16 @@
         <v/>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AS58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV58" s="5" t="s">
         <v>33</v>
@@ -13377,13 +13377,13 @@
     </row>
     <row r="59" spans="2:64" ht="21" customHeight="1">
       <c r="B59" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13470,10 +13470,10 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV59" s="5" t="s">
         <v>33</v>
@@ -13537,13 +13537,13 @@
     </row>
     <row r="60" spans="2:64" ht="21" customHeight="1">
       <c r="B60" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="W60" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13630,10 +13630,10 @@
         <v/>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV60" s="5" t="s">
         <v>33</v>
@@ -13698,7 +13698,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL60" s="26" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="2:64" ht="21" customHeight="1">
@@ -13706,10 +13706,10 @@
         <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J61" s="1">
         <v>1500</v>
@@ -13829,13 +13829,13 @@
         <v/>
       </c>
       <c r="AR61" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV61" s="5" t="s">
         <v>32</v>
@@ -13899,13 +13899,13 @@
     </row>
     <row r="62" spans="2:64" ht="21" customHeight="1">
       <c r="B62" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="W62" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13992,10 +13992,10 @@
         <v/>
       </c>
       <c r="AR62" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV62" s="5" t="s">
         <v>33</v>
@@ -14059,13 +14059,13 @@
     </row>
     <row r="63" spans="2:64" ht="21" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W63" s="1" t="str">
         <f t="shared" si="32"/>
@@ -14152,10 +14152,10 @@
         <v/>
       </c>
       <c r="AR63" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV63" s="5" t="s">
         <v>33</v>
@@ -14222,10 +14222,10 @@
         <v>78</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H64" s="1">
         <v>1500</v>
@@ -14270,7 +14270,7 @@
         <v>1800</v>
       </c>
       <c r="V64" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" si="32"/>
@@ -14357,13 +14357,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR64" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AS64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV64" s="5" t="s">
         <v>32</v>
@@ -14434,10 +14434,10 @@
         <v>79</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H65" s="1">
         <v>1700</v>
@@ -14569,13 +14569,13 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR65" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AS65" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV65" s="5" t="s">
         <v>32</v>
@@ -14639,13 +14639,13 @@
     </row>
     <row r="66" spans="2:63" ht="21" customHeight="1">
       <c r="B66" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="W66" s="1" t="str">
         <f t="shared" si="132"/>
@@ -14732,13 +14732,13 @@
         <v/>
       </c>
       <c r="AR66" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AS66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV66" s="5" t="s">
         <v>33</v>
@@ -14802,13 +14802,13 @@
     </row>
     <row r="67" spans="2:63" ht="21" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" si="132"/>
@@ -14895,10 +14895,10 @@
         <v/>
       </c>
       <c r="AR67" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV67" s="5" t="s">
         <v>33</v>
@@ -14962,13 +14962,13 @@
     </row>
     <row r="68" spans="2:63" ht="21" customHeight="1">
       <c r="B68" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15055,10 +15055,10 @@
         <v/>
       </c>
       <c r="AR68" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AU68" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV68" s="5" t="s">
         <v>33</v>
@@ -15125,10 +15125,10 @@
         <v>80</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J69" s="1">
         <v>1500</v>
@@ -15248,13 +15248,13 @@
         <v/>
       </c>
       <c r="AR69" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AS69" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV69" s="5" t="s">
         <v>32</v>
@@ -15321,10 +15321,10 @@
         <v>82</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J70" s="1">
         <v>1600</v>
@@ -15444,13 +15444,13 @@
         <v/>
       </c>
       <c r="AR70" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AS70" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV70" s="5" t="s">
         <v>32</v>
@@ -15514,13 +15514,13 @@
     </row>
     <row r="71" spans="2:63" ht="21" customHeight="1">
       <c r="B71" s="27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H71" s="1">
         <v>1500</v>
@@ -15565,7 +15565,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" si="132"/>
@@ -15652,10 +15652,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR71" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV71" s="5" t="s">
         <v>32</v>
@@ -15715,13 +15715,13 @@
     </row>
     <row r="72" spans="2:63" ht="21" customHeight="1">
       <c r="B72" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="W72" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15808,13 +15808,13 @@
         <v/>
       </c>
       <c r="AR72" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AS72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU72" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV72" s="5" t="s">
         <v>33</v>
@@ -15878,13 +15878,13 @@
     </row>
     <row r="73" spans="2:63" ht="21" customHeight="1">
       <c r="B73" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="W73" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15971,13 +15971,13 @@
         <v/>
       </c>
       <c r="AR73" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AS73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU73" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV73" s="5" t="s">
         <v>33</v>
@@ -16044,10 +16044,10 @@
         <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H74" s="1">
         <v>1500</v>
@@ -16092,7 +16092,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="W74" s="1">
         <f t="shared" si="132"/>
@@ -16179,13 +16179,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR74" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AS74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU74" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV74" s="5" t="s">
         <v>32</v>
@@ -16252,10 +16252,10 @@
         <v>84</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J75" s="1">
         <v>1630</v>
@@ -16369,16 +16369,16 @@
         <v/>
       </c>
       <c r="AR75" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AS75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT75" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV75" s="5" t="s">
         <v>32</v>
@@ -16445,10 +16445,10 @@
         <v>85</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J76" s="1">
         <v>1430</v>
@@ -16574,13 +16574,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR76" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AS76" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV76" s="5" t="s">
         <v>32</v>
@@ -16644,13 +16644,13 @@
     </row>
     <row r="77" spans="2:63" ht="21" customHeight="1">
       <c r="B77" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="W77" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16737,10 +16737,10 @@
         <v/>
       </c>
       <c r="AR77" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV77" s="5" t="s">
         <v>33</v>
@@ -16803,10 +16803,10 @@
         <v>86</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J78" s="1">
         <v>1100</v>
@@ -16833,7 +16833,7 @@
         <v>1800</v>
       </c>
       <c r="V78" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="W78" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16920,13 +16920,13 @@
         <v/>
       </c>
       <c r="AR78" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AS78" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU78" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV78" s="5" t="s">
         <v>32</v>
@@ -16990,13 +16990,13 @@
     </row>
     <row r="79" spans="2:63" ht="21" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H79" s="1">
         <v>1600</v>
@@ -17041,7 +17041,7 @@
         <v>1900</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" si="132"/>
@@ -17132,7 +17132,7 @@
         <v>28</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV79" s="5" t="s">
         <v>32</v>
@@ -17196,13 +17196,13 @@
     </row>
     <row r="80" spans="2:63" ht="21" customHeight="1">
       <c r="B80" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H80" s="1">
         <v>1530</v>
@@ -17247,7 +17247,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="W80" s="1">
         <f t="shared" si="132"/>
@@ -17334,10 +17334,10 @@
         <v>3.3pm-6pm</v>
       </c>
       <c r="AR80" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV80" s="5" t="s">
         <v>32</v>
@@ -17401,13 +17401,13 @@
     </row>
     <row r="81" spans="2:63" ht="21" customHeight="1">
       <c r="B81" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W81" s="1" t="str">
         <f t="shared" si="132"/>
@@ -17494,13 +17494,13 @@
         <v/>
       </c>
       <c r="AR81" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AS81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV81" s="5" t="s">
         <v>33</v>
@@ -17564,13 +17564,13 @@
     </row>
     <row r="82" spans="2:63" ht="21" customHeight="1">
       <c r="B82" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="W82" s="1" t="str">
         <f t="shared" si="132"/>
@@ -17657,13 +17657,13 @@
         <v/>
       </c>
       <c r="AR82" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AS82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV82" s="5" t="s">
         <v>33</v>
@@ -17730,10 +17730,10 @@
         <v>87</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H83" s="1">
         <v>1530</v>
@@ -17865,13 +17865,13 @@
         <v>3.3pm-5.3pm</v>
       </c>
       <c r="AR83" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AS83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV83" s="5" t="s">
         <v>32</v>
@@ -17938,10 +17938,10 @@
         <v>88</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H84" s="1">
         <v>1700</v>
@@ -18073,13 +18073,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR84" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AS84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV84" s="5" t="s">
         <v>32</v>
@@ -18146,10 +18146,10 @@
         <v>89</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H85" s="1">
         <v>1600</v>
@@ -18281,13 +18281,13 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR85" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AS85" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AU85" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV85" s="5" t="s">
         <v>32</v>
@@ -18351,13 +18351,13 @@
     </row>
     <row r="86" spans="2:63" ht="21" customHeight="1">
       <c r="B86" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J86" s="1">
         <v>1600</v>
@@ -18390,7 +18390,7 @@
         <v>1800</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="W86" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18477,10 +18477,10 @@
         <v/>
       </c>
       <c r="AR86" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AU86" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV86" s="5" t="s">
         <v>32</v>
@@ -18544,13 +18544,13 @@
     </row>
     <row r="87" spans="2:63" ht="21" customHeight="1">
       <c r="B87" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>461</v>
       </c>
       <c r="W87" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18637,10 +18637,10 @@
         <v/>
       </c>
       <c r="AR87" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AU87" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV87" s="5" t="s">
         <v>33</v>
@@ -18703,10 +18703,10 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J88" s="1">
         <v>1500</v>
@@ -18739,7 +18739,7 @@
         <v>1800</v>
       </c>
       <c r="V88" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W88" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18826,13 +18826,13 @@
         <v/>
       </c>
       <c r="AR88" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AS88" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU88" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV88" s="5" t="s">
         <v>32</v>
@@ -18896,13 +18896,13 @@
     </row>
     <row r="89" spans="2:63" ht="21" customHeight="1">
       <c r="B89" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18989,16 +18989,16 @@
         <v/>
       </c>
       <c r="AR89" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AS89" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT89" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU89" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV89" s="5" t="s">
         <v>33</v>
@@ -19062,13 +19062,13 @@
     </row>
     <row r="90" spans="2:63" ht="21" customHeight="1">
       <c r="B90" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H90" s="1">
         <v>1400</v>
@@ -19113,7 +19113,7 @@
         <v>1800</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" si="132"/>
@@ -19200,10 +19200,10 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR90" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AU90" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV90" s="5" t="s">
         <v>32</v>
@@ -19270,10 +19270,10 @@
         <v>24</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J91" s="1">
         <v>1500</v>
@@ -19393,13 +19393,13 @@
         <v/>
       </c>
       <c r="AR91" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AS91" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU91" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV91" s="5" t="s">
         <v>32</v>
@@ -19463,13 +19463,13 @@
     </row>
     <row r="92" spans="2:63" ht="21" customHeight="1">
       <c r="B92" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J92" s="1">
         <v>1600</v>
@@ -19502,7 +19502,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W92" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19589,13 +19589,13 @@
         <v/>
       </c>
       <c r="AR92" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AS92" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU92" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV92" s="5" t="s">
         <v>32</v>
@@ -19659,13 +19659,13 @@
     </row>
     <row r="93" spans="2:63" ht="21" customHeight="1">
       <c r="B93" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="G93" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H93" s="1">
         <v>1500</v>
@@ -19710,7 +19710,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" si="132"/>
@@ -19797,16 +19797,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR93" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AS93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT93" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU93" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV93" s="5" t="s">
         <v>32</v>
@@ -19874,13 +19874,13 @@
     </row>
     <row r="94" spans="2:63" ht="21" customHeight="1">
       <c r="B94" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="W94" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19967,10 +19967,10 @@
         <v/>
       </c>
       <c r="AR94" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AU94" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV94" s="5" t="s">
         <v>33</v>
@@ -20037,13 +20037,13 @@
         <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H95" s="1">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="I95" s="1">
         <v>1800</v>
@@ -20079,17 +20079,17 @@
         <v>1800</v>
       </c>
       <c r="T95" s="1">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="U95" s="1">
         <v>1800</v>
       </c>
       <c r="V95" s="10" t="s">
-        <v>127</v>
+        <v>576</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" si="132"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X95" s="1">
         <f t="shared" si="133"/>
@@ -20137,7 +20137,7 @@
       </c>
       <c r="AI95" s="1">
         <f t="shared" si="144"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ95" s="1">
         <f t="shared" si="145"/>
@@ -20145,7 +20145,7 @@
       </c>
       <c r="AK95" s="1" t="str">
         <f t="shared" si="146"/>
-        <v>3pm-6pm</v>
+        <v>11am-6pm</v>
       </c>
       <c r="AL95" s="1" t="str">
         <f t="shared" si="147"/>
@@ -20169,16 +20169,16 @@
       </c>
       <c r="AQ95" s="1" t="str">
         <f t="shared" si="152"/>
-        <v>3pm-6pm</v>
+        <v>11am-6pm</v>
       </c>
       <c r="AR95" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AS95" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU95" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV95" s="5" t="s">
         <v>32</v>
@@ -20191,7 +20191,7 @@
         <v>{
     'name': "Rueben's Burger Bistro",
     'area': "downtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Daily 3 - 6pm, Sunday ALL DAY &lt;br&gt; Food: 1/2 off signature starters&lt;br&gt; Drinks: 1/2 off Draft beers, Wine &amp; Signature Cocktails", 'link':"http://ruebensburgerbistro.com/", 'pricing':"",   'phone-number': "", 'address': "1800 BroadwaySuite 150Boulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1100", 'saturday-end':"1800"},  'description': "Sunday and Saturday Open Until 6pm  &lt;br&gt; Food: 1/2 off signature starters&lt;br&gt; Drinks: 1/2 off Draft beers, Wine &amp; Signature Cocktails", 'link':"http://ruebensburgerbistro.com/", 'pricing':"",   'phone-number': "", 'address': "1800 BroadwaySuite 150Boulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY95" s="1" t="str">
         <f t="shared" si="156"/>
@@ -20242,13 +20242,13 @@
     </row>
     <row r="96" spans="2:63" ht="21" customHeight="1">
       <c r="B96" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="132"/>
@@ -20335,10 +20335,10 @@
         <v/>
       </c>
       <c r="AR96" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AU96" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV96" s="5" t="s">
         <v>33</v>
@@ -20405,10 +20405,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H97" s="1">
         <v>1500</v>
@@ -20453,7 +20453,7 @@
         <v>1700</v>
       </c>
       <c r="V97" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W97" s="1">
         <f t="shared" si="132"/>
@@ -20540,13 +20540,13 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR97" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AS97" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU97" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV97" s="5" t="s">
         <v>32</v>
@@ -20610,13 +20610,13 @@
     </row>
     <row r="98" spans="2:63" ht="21" customHeight="1">
       <c r="B98" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="W98" s="1" t="str">
         <f t="shared" si="132"/>
@@ -20703,10 +20703,10 @@
         <v/>
       </c>
       <c r="AR98" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AU98" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV98" s="5" t="s">
         <v>33</v>
@@ -20773,10 +20773,10 @@
         <v>93</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H99" s="1">
         <v>1500</v>
@@ -20821,7 +20821,7 @@
         <v>1800</v>
       </c>
       <c r="V99" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" si="132"/>
@@ -20908,13 +20908,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR99" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AS99" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU99" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV99" s="5" t="s">
         <v>32</v>
@@ -20981,59 +20981,59 @@
         <v>94</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H100" s="1">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="I100" s="1">
         <v>1900</v>
       </c>
       <c r="J100" s="1">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K100" s="1">
         <v>1900</v>
       </c>
       <c r="L100" s="1">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M100" s="1">
         <v>1900</v>
       </c>
       <c r="N100" s="1">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="O100" s="1">
         <v>1900</v>
       </c>
       <c r="P100" s="1">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q100" s="1">
         <v>1900</v>
       </c>
       <c r="R100" s="1">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="S100" s="1">
         <v>1900</v>
       </c>
       <c r="T100" s="1">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="U100" s="1">
         <v>1900</v>
       </c>
       <c r="V100" s="10" t="s">
-        <v>130</v>
+        <v>577</v>
       </c>
       <c r="W100" s="1">
         <f t="shared" si="132"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X100" s="1">
         <f t="shared" si="133"/>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="Y100" s="1">
         <f t="shared" si="134"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z100" s="1">
         <f t="shared" si="135"/>
@@ -21049,7 +21049,7 @@
       </c>
       <c r="AA100" s="1">
         <f t="shared" si="136"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB100" s="1">
         <f t="shared" si="137"/>
@@ -21057,7 +21057,7 @@
       </c>
       <c r="AC100" s="1">
         <f t="shared" si="138"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD100" s="1">
         <f t="shared" si="139"/>
@@ -21065,7 +21065,7 @@
       </c>
       <c r="AE100" s="1">
         <f t="shared" si="140"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF100" s="1">
         <f t="shared" si="141"/>
@@ -21073,7 +21073,7 @@
       </c>
       <c r="AG100" s="1">
         <f t="shared" si="142"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH100" s="1">
         <f t="shared" si="143"/>
@@ -21081,7 +21081,7 @@
       </c>
       <c r="AI100" s="1">
         <f t="shared" si="144"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ100" s="1">
         <f t="shared" si="145"/>
@@ -21089,40 +21089,40 @@
       </c>
       <c r="AK100" s="1" t="str">
         <f t="shared" si="146"/>
-        <v>3pm-7pm</v>
+        <v>5pm-7pm</v>
       </c>
       <c r="AL100" s="1" t="str">
         <f t="shared" si="147"/>
-        <v>3pm-7pm</v>
+        <v>5pm-7pm</v>
       </c>
       <c r="AM100" s="1" t="str">
         <f t="shared" si="148"/>
-        <v>3pm-7pm</v>
+        <v>5pm-7pm</v>
       </c>
       <c r="AN100" s="1" t="str">
         <f t="shared" si="149"/>
-        <v>3pm-7pm</v>
+        <v>5pm-7pm</v>
       </c>
       <c r="AO100" s="1" t="str">
         <f t="shared" si="150"/>
-        <v>3pm-7pm</v>
+        <v>5pm-7pm</v>
       </c>
       <c r="AP100" s="1" t="str">
         <f t="shared" si="151"/>
-        <v>3pm-7pm</v>
+        <v>5pm-7pm</v>
       </c>
       <c r="AQ100" s="1" t="str">
         <f t="shared" si="152"/>
-        <v>3pm-7pm</v>
+        <v>5pm-7pm</v>
       </c>
       <c r="AR100" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AS100" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU100" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV100" s="5" t="s">
         <v>32</v>
@@ -21135,7 +21135,7 @@
         <v>{
     'name': "Sherpa's Adventurers Restaurant &amp; Bar",
     'area': "pearl",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1900", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1500", 'saturday-end':"1900"},  'description': "Daily 5 - 7pm &lt;br&gt; Drinks: $2 Select Draft Beers", 'link':"http://www.sherpasrestaurant.com/", 'pricing':"",   'phone-number': "", 'address': "825 Walnut StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1700", 'sunday-end':"1900", 'monday-start':"1700", 'monday-end':"1900", 'tuesday-start':"1700", 'tuesday-end':"1900", 'wednesday-start':"1700", 'wednesday-end':"1900", 'thursday-start':"1700", 'thursday-end':"1900", 'friday-start':"1700", 'friday-end':"1900", 'saturday-start':"1700", 'saturday-end':"1900"},  'description': "Daily 5 - 7pm &lt;br&gt; Drinks: $3 Select Draft Beers", 'link':"http://www.sherpasrestaurant.com/", 'pricing':"",   'phone-number': "", 'address': "825 Walnut StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY100" s="1" t="str">
         <f t="shared" si="156"/>
@@ -21186,13 +21186,13 @@
     </row>
     <row r="101" spans="2:63" ht="21" customHeight="1">
       <c r="B101" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H101" s="1">
         <v>1500</v>
@@ -21237,7 +21237,7 @@
         <v>1800</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" ref="W101" si="165">IF(H101&gt;0,H101/100,"")</f>
@@ -21324,10 +21324,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR101" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AU101" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV101" s="5" t="s">
         <v>32</v>
@@ -21391,13 +21391,13 @@
     </row>
     <row r="102" spans="2:63" ht="21" customHeight="1">
       <c r="B102" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W102" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21484,10 +21484,10 @@
         <v/>
       </c>
       <c r="AR102" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AU102" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV102" s="5" t="s">
         <v>33</v>
@@ -21551,13 +21551,13 @@
     </row>
     <row r="103" spans="2:63" ht="21" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W103" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21644,10 +21644,10 @@
         <v/>
       </c>
       <c r="AR103" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AU103" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV103" s="5" t="s">
         <v>33</v>
@@ -21711,13 +21711,13 @@
     </row>
     <row r="104" spans="2:63" ht="21" customHeight="1">
       <c r="B104" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W104" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21804,10 +21804,10 @@
         <v/>
       </c>
       <c r="AR104" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AU104" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV104" s="5" t="s">
         <v>33</v>
@@ -21871,13 +21871,13 @@
     </row>
     <row r="105" spans="2:63" ht="21" customHeight="1">
       <c r="B105" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W105" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21964,13 +21964,13 @@
         <v/>
       </c>
       <c r="AR105" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AS105" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV105" s="5" t="s">
         <v>33</v>
@@ -22034,13 +22034,13 @@
     </row>
     <row r="106" spans="2:63" ht="21" customHeight="1">
       <c r="B106" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H106" s="1">
         <v>1600</v>
@@ -22085,7 +22085,7 @@
         <v>1800</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W106" s="1">
         <f t="shared" si="132"/>
@@ -22172,13 +22172,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR106" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AS106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU106" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV106" s="5" t="s">
         <v>32</v>
@@ -22242,13 +22242,13 @@
     </row>
     <row r="107" spans="2:63" ht="21" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H107" s="1">
         <v>1600</v>
@@ -22293,7 +22293,7 @@
         <v>1730</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" si="132"/>
@@ -22380,10 +22380,10 @@
         <v>11am-5.3pm</v>
       </c>
       <c r="AR107" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AU107" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV107" s="5" t="s">
         <v>32</v>
@@ -22450,10 +22450,10 @@
         <v>95</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J108" s="1">
         <v>1700</v>
@@ -22492,7 +22492,7 @@
         <v>1830</v>
       </c>
       <c r="V108" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="W108" s="1" t="str">
         <f t="shared" si="132"/>
@@ -22579,13 +22579,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR108" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AS108" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AU108" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV108" s="5" t="s">
         <v>32</v>
@@ -22649,13 +22649,13 @@
     </row>
     <row r="109" spans="2:63" ht="21" customHeight="1">
       <c r="B109" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="V109" s="6"/>
       <c r="W109" s="1" t="str">
@@ -22743,10 +22743,10 @@
         <v/>
       </c>
       <c r="AR109" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AU109" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV109" s="5" t="s">
         <v>33</v>
@@ -22813,10 +22813,10 @@
         <v>96</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H110" s="1">
         <v>1400</v>
@@ -22861,7 +22861,7 @@
         <v>1800</v>
       </c>
       <c r="V110" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W110" s="1">
         <f t="shared" si="132"/>
@@ -22948,13 +22948,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR110" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AS110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU110" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV110" s="5" t="s">
         <v>32</v>
@@ -23021,10 +23021,10 @@
         <v>97</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J111" s="1">
         <v>1600</v>
@@ -23063,7 +23063,7 @@
         <v>1800</v>
       </c>
       <c r="V111" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W111" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23150,13 +23150,13 @@
         <v>11.3am-6pm</v>
       </c>
       <c r="AR111" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS111" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU111" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV111" s="5" t="s">
         <v>32</v>
@@ -23223,10 +23223,10 @@
         <v>98</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H112" s="1">
         <v>1500</v>
@@ -23271,7 +23271,7 @@
         <v>1800</v>
       </c>
       <c r="V112" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W112" s="1">
         <f t="shared" si="132"/>
@@ -23358,16 +23358,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR112" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AS112" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT112" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU112" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV112" s="5" t="s">
         <v>32</v>
@@ -23431,13 +23431,13 @@
     </row>
     <row r="113" spans="2:64" ht="21" customHeight="1">
       <c r="B113" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="W113" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23524,10 +23524,10 @@
         <v/>
       </c>
       <c r="AR113" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AU113" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV113" s="5" t="s">
         <v>33</v>
@@ -23594,10 +23594,10 @@
         <v>65</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H114" s="1">
         <v>2100</v>
@@ -23729,13 +23729,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR114" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AS114" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AU114" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV114" s="5" t="s">
         <v>32</v>
@@ -23800,18 +23800,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL114" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="2:64" ht="21" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J115" s="1">
         <v>1700</v>
@@ -23844,7 +23844,7 @@
         <v>2000</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23931,13 +23931,13 @@
         <v/>
       </c>
       <c r="AR115" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AS115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU115" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV115" s="5" t="s">
         <v>32</v>
@@ -24004,10 +24004,10 @@
         <v>70</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J116" s="1">
         <v>1600</v>
@@ -24127,13 +24127,13 @@
         <v/>
       </c>
       <c r="AR116" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AS116" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU116" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV116" s="5" t="s">
         <v>32</v>
@@ -24197,13 +24197,13 @@
     </row>
     <row r="117" spans="2:64" ht="21" customHeight="1">
       <c r="B117" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H117" s="1">
         <v>1500</v>
@@ -24248,7 +24248,7 @@
         <v>1800</v>
       </c>
       <c r="V117" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="W117" s="1">
         <f t="shared" si="132"/>
@@ -24335,10 +24335,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR117" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AU117" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV117" s="5" t="s">
         <v>32</v>
@@ -24405,10 +24405,10 @@
         <v>71</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H118" s="1">
         <v>1500</v>
@@ -24540,13 +24540,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR118" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AS118" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU118" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV118" s="5" t="s">
         <v>32</v>
@@ -24610,13 +24610,13 @@
     </row>
     <row r="119" spans="2:64" ht="21" customHeight="1">
       <c r="B119" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="W119" s="1" t="str">
         <f t="shared" si="132"/>
@@ -24703,13 +24703,13 @@
         <v/>
       </c>
       <c r="AR119" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AS119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU119" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV119" s="5" t="s">
         <v>33</v>
@@ -24776,10 +24776,10 @@
         <v>27</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H120" s="1">
         <v>1400</v>
@@ -24911,16 +24911,16 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR120" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AS120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT120" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU120" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV120" s="5" t="s">
         <v>32</v>
@@ -24987,10 +24987,10 @@
         <v>81</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H121" s="1">
         <v>1500</v>
@@ -25035,7 +25035,7 @@
         <v>1830</v>
       </c>
       <c r="V121" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="W121" s="1">
         <f t="shared" si="132"/>
@@ -25122,13 +25122,13 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR121" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AS121" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU121" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV121" s="5" t="s">
         <v>32</v>
@@ -25192,13 +25192,13 @@
     </row>
     <row r="122" spans="2:64" ht="21" customHeight="1">
       <c r="B122" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W122" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25286,10 +25286,10 @@
       </c>
       <c r="AR122" s="4"/>
       <c r="AT122" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU122" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV122" s="5" t="s">
         <v>33</v>
@@ -25353,13 +25353,13 @@
     </row>
     <row r="123" spans="2:64" ht="21" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="W123" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25446,10 +25446,10 @@
         <v/>
       </c>
       <c r="AR123" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AU123" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV123" s="5" t="s">
         <v>33</v>
@@ -25513,13 +25513,13 @@
     </row>
     <row r="124" spans="2:64" ht="21" customHeight="1">
       <c r="B124" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G124" s="19" t="s">
         <v>297</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G124" s="19" t="s">
-        <v>299</v>
       </c>
       <c r="H124" s="1">
         <v>1100</v>
@@ -25558,7 +25558,7 @@
         <v>1800</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="W124" s="1">
         <f t="shared" si="132"/>
@@ -25645,13 +25645,13 @@
         <v/>
       </c>
       <c r="AR124" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AS124" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU124" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV124" s="5" t="s">
         <v>32</v>
@@ -25715,13 +25715,13 @@
     </row>
     <row r="125" spans="2:64" ht="21" customHeight="1">
       <c r="B125" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="W125" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25808,10 +25808,10 @@
         <v/>
       </c>
       <c r="AR125" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AU125" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV125" s="5" t="s">
         <v>33</v>
@@ -25876,18 +25876,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL125" s="26" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="2:64" ht="21" customHeight="1">
       <c r="B126" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W126" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25974,13 +25974,13 @@
         <v/>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AS126" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU126" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV126" s="5" t="s">
         <v>33</v>
@@ -26048,13 +26048,13 @@
     </row>
     <row r="127" spans="2:64" ht="21" customHeight="1">
       <c r="B127" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H127" s="1">
         <v>1700</v>
@@ -26183,10 +26183,10 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR127" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AU127" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV127" s="5" t="s">
         <v>33</v>
@@ -26250,13 +26250,13 @@
     </row>
     <row r="128" spans="2:64" ht="21" customHeight="1">
       <c r="B128" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="W128" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26343,13 +26343,13 @@
         <v/>
       </c>
       <c r="AR128" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AT128" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU128" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV128" s="5" t="s">
         <v>33</v>
@@ -26413,13 +26413,13 @@
     </row>
     <row r="129" spans="2:63" ht="21" customHeight="1">
       <c r="B129" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26506,10 +26506,10 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AU129" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV129" s="5" t="s">
         <v>33</v>
@@ -26573,13 +26573,13 @@
     </row>
     <row r="130" spans="2:63" ht="21" customHeight="1">
       <c r="B130" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="W130" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26666,10 +26666,10 @@
         <v/>
       </c>
       <c r="AR130" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AU130" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV130" s="5" t="s">
         <v>33</v>
@@ -26733,13 +26733,13 @@
     </row>
     <row r="131" spans="2:63" ht="21" customHeight="1">
       <c r="B131" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J131" s="1">
         <v>1100</v>
@@ -26772,7 +26772,7 @@
         <v>1800</v>
       </c>
       <c r="V131" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="W131" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26859,10 +26859,10 @@
         <v/>
       </c>
       <c r="AR131" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AU131" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV131" s="5" t="s">
         <v>32</v>
@@ -26926,13 +26926,13 @@
     </row>
     <row r="132" spans="2:63" ht="21" customHeight="1">
       <c r="B132" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="W132" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27019,13 +27019,13 @@
         <v/>
       </c>
       <c r="AR132" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AT132" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU132" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="AT132" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AU132" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="AV132" s="5" t="s">
         <v>33</v>
@@ -27092,10 +27092,10 @@
         <v>99</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H133" s="1">
         <v>1730</v>
@@ -27140,7 +27140,7 @@
         <v>1830</v>
       </c>
       <c r="V133" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W133" s="1">
         <f t="shared" si="206"/>
@@ -27227,13 +27227,13 @@
         <v>5.3pm-6.3pm</v>
       </c>
       <c r="AR133" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AS133" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AU133" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV133" s="5" t="s">
         <v>32</v>
@@ -27297,13 +27297,13 @@
     </row>
     <row r="134" spans="2:63" ht="21" customHeight="1">
       <c r="B134" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H134" s="1">
         <v>1500</v>
@@ -27348,7 +27348,7 @@
         <v>1830</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="W134" s="1">
         <f t="shared" si="206"/>
@@ -27435,10 +27435,10 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR134" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AU134" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV134" s="5" t="s">
         <v>32</v>
@@ -27502,13 +27502,13 @@
     </row>
     <row r="135" spans="2:63" ht="21" customHeight="1">
       <c r="B135" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="W135" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27595,10 +27595,10 @@
         <v/>
       </c>
       <c r="AR135" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AU135" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV135" s="5" t="s">
         <v>33</v>
@@ -27662,13 +27662,13 @@
     </row>
     <row r="136" spans="2:63" ht="21" customHeight="1">
       <c r="B136" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="W136" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27756,7 +27756,7 @@
       </c>
       <c r="AR136" s="4"/>
       <c r="AU136" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV136" s="5" t="s">
         <v>33</v>
@@ -27820,13 +27820,13 @@
     </row>
     <row r="137" spans="2:63" ht="21" customHeight="1">
       <c r="B137" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="W137" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27913,13 +27913,13 @@
         <v/>
       </c>
       <c r="AR137" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AT137" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU137" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV137" s="5" t="s">
         <v>33</v>
@@ -27983,13 +27983,13 @@
     </row>
     <row r="138" spans="2:63" ht="21" customHeight="1">
       <c r="B138" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G138" s="24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="W138" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28076,10 +28076,10 @@
         <v/>
       </c>
       <c r="AR138" s="14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU138" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV138" s="5" t="s">
         <v>33</v>
@@ -28146,10 +28146,10 @@
         <v>100</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J139" s="1">
         <v>1500</v>
@@ -28188,7 +28188,7 @@
         <v>2400</v>
       </c>
       <c r="V139" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="W139" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28275,13 +28275,13 @@
         <v>9pm-12am</v>
       </c>
       <c r="AR139" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AS139" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU139" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV139" s="5" t="s">
         <v>32</v>
@@ -28348,10 +28348,10 @@
         <v>101</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J140" s="1">
         <v>1500</v>
@@ -28384,7 +28384,7 @@
         <v>1800</v>
       </c>
       <c r="V140" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="W140" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28471,13 +28471,13 @@
         <v/>
       </c>
       <c r="AR140" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AS140" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU140" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV140" s="5" t="s">
         <v>32</v>
@@ -28544,10 +28544,10 @@
         <v>102</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H141" s="1">
         <v>1500</v>
@@ -28592,7 +28592,7 @@
         <v>1700</v>
       </c>
       <c r="V141" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W141" s="1">
         <f t="shared" si="206"/>
@@ -28679,16 +28679,16 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR141" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AS141" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT141" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AU141" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV141" s="5" t="s">
         <v>32</v>
@@ -28752,13 +28752,13 @@
     </row>
     <row r="142" spans="2:63" ht="21" customHeight="1">
       <c r="B142" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="W142" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28845,10 +28845,10 @@
         <v/>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AU142" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV142" s="5" t="s">
         <v>33</v>
@@ -28912,13 +28912,13 @@
     </row>
     <row r="143" spans="2:63" ht="21" customHeight="1">
       <c r="B143" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W143" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29005,10 +29005,10 @@
         <v/>
       </c>
       <c r="AR143" s="14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AU143" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV143" s="5" t="s">
         <v>33</v>
@@ -29072,13 +29072,13 @@
     </row>
     <row r="144" spans="2:63" ht="21" customHeight="1">
       <c r="B144" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W144" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29165,10 +29165,10 @@
         <v/>
       </c>
       <c r="AR144" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AU144" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV144" s="5" t="s">
         <v>33</v>
@@ -29232,13 +29232,13 @@
     </row>
     <row r="145" spans="2:63" ht="21" customHeight="1">
       <c r="B145" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W145" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29325,13 +29325,13 @@
         <v/>
       </c>
       <c r="AR145" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AS145" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU145" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV145" s="5" t="s">
         <v>33</v>
@@ -29395,13 +29395,13 @@
     </row>
     <row r="146" spans="2:63" ht="21" customHeight="1">
       <c r="B146" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J146" s="1">
         <v>1500</v>
@@ -29440,7 +29440,7 @@
         <v>1800</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W146" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29527,13 +29527,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR146" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AS146" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU146" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AV146" s="5" t="s">
         <v>32</v>
@@ -29635,25 +29635,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" t="s">
         <v>472</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" t="s">
         <v>473</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>474</v>
-      </c>
-      <c r="G1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="2" spans="2:8">
@@ -29664,16 +29664,16 @@
         <v>-105.26014499999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -29684,16 +29684,16 @@
         <v>-105.25942000000001</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -29704,16 +29704,16 @@
         <v>-105.25924000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -29724,16 +29724,16 @@
         <v>-105.20641999999999</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="2:8">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -355,9 +355,6 @@
     <t>Daily 3 - 6:30pm &lt;br&gt; Food: Discounted hors d'oeuvres &lt;br&gt; Drinks: $3.75 Beer, $5 House Wine, $5-6 Cocktails</t>
   </si>
   <si>
-    <t>All night Monday, Tuesday-Sunday 2-6pm / Brunch Happy Hour Sat &amp; Sun 9:30-10 am &lt;br&gt; Food:  $3-$7 Appetizers &lt;br&gt; Drink: $3-4 Can and Draft Beer, $3 Wells, $5 House Wine, $5 Coin Margs.</t>
-  </si>
-  <si>
     <t>Monday - Friday 4 - 6pm &lt;br&gt; Food: $5.95 Small Plates and Appetizers &lt;br&gt; Drinks: $5.95 Specialty Cocktails, $4.95 Wells and Wine, $3.25 Beers</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
   </si>
   <si>
     <t>Monday - Friday 11:30am - 2pm &lt;br&gt; Monday - Saturday 5 - 6:30pm &lt;br&gt; Saturday Super Happy Hour 10 - 11pm &lt;br&gt; Sunday 5 - 10pm &lt;br&gt; Food: Reduced price on select sushi and various menu items &lt;br&gt; Drinks: Discounted Saki, Select Beers &amp; Cocktails.</t>
-  </si>
-  <si>
-    <t>2 -6 pm Daily, All day and night Sunday &lt;br&gt; Food: $2 Street Tacos &lt;br&gt; Drinks: $3.50 Draft Beer, $4.50  House Marg, $5 Silver Shot, $6 Juicy Marg</t>
   </si>
   <si>
     <t>Monday ALL NIGHT &lt;br&gt; Tuesday - Thursday 4 - 6pm &lt;br&gt; Friday- Sunday 11:30am - 6pm &lt;br&gt; Food: $3.50 Daily Tamale, $2 Chips &amp; Salsa, $5 Chips &amp; Tres Salsas, $2.75 Tacos, $4.5-6.5 Small Plates &lt;br&gt; Drink: $4.50 Well Margs &amp; House Wine, $4 Tequila shooters; $4 Wells &amp; Draft Beer, $4 Tequila Infusion Shooters</t>
@@ -1736,9 +1730,6 @@
     <t>Corrida</t>
   </si>
   <si>
-    <t>Wide range of food and drink specials</t>
-  </si>
-  <si>
     <t>Daily 4 - 6pm &lt;br&gt; Food:  $4-12 starters, $8-13 entrees  &lt;br&gt; Drinks: $3.0 Draft Beer, $4.0 Wine and Well Drinks, $5.0 Specialty Cocktails</t>
   </si>
   <si>
@@ -1767,6 +1758,15 @@
   </si>
   <si>
     <t>Daily 5 - 7pm &lt;br&gt; Drinks: $3 Select Draft Beers</t>
+  </si>
+  <si>
+    <t>2 -6 pm Daily, All day and night Sunday &lt;br&gt; Food: $2.50 Street Tacos &lt;br&gt; Drinks: $3.50 Draft Beer, $4.50  House Marg, $5.50 Silver Shot, $6.50 Juicy Marg</t>
+  </si>
+  <si>
+    <t>All night Monday, Tuesday-Sunday 2-6pm / Brunch Happy Hour Sat &amp; Sun 9:30-10 am &lt;br&gt; Food&lt;br&gt;Queso Fundido $6&lt;br&gt;Nachos $8&lt;br&gt;Lamb Taquitos $5&lt;br&gt;Chicken Enchilada $5&lt;br&gt;Chile Relleno $6&lt;br&gt;Street Tacos $3&lt;br&gt;Drinks&lt;br&gt;Post Can $3&lt;br&gt;Draft Beer $4&lt;br&gt;House Wine $5&lt;br&gt;Coin Marg $5.50-7.50&lt;br&gt;Daiquiri $7&lt;br&gt;Dark and Stormy $6&lt;br&gt;Sangria $6</t>
+  </si>
+  <si>
+    <t>FOOD&lt;Br&gt;BOQUERONES - ANCHOVIES - $4&lt;Br&gt;CROQUETTAS DE JAMON - HAM REDUCTION - $5&lt;Br&gt;PAN CON TOMATE - CONFIT GARLIC AIOLI, OLIVE OIL - $4&lt;Br&gt;PAN CON BRANDADE - SALT COD BRANDADE, OLIVE OIL - $4&lt;Br&gt;GILDAS - ANCHOVY, OLIVES, GUANDILLA PEPPERS - $4&lt;Br&gt;ACEITUNAS MARINADAS - OLIVES, GARLIC, LEMON, PARSLEY - $5&lt;Br&gt;ACEITUNAS FRITAS - FRIED OLIVES, ALMOND ROMESCO, IDIAZABAL CHEESE - $9&lt;Br&gt;ESPINACA &amp; GARBANZOS - SPINACH, CRISPY CHICKPEAS, TOMATO, CUMIN PANISSE CAKE - $11&lt;Br&gt;PATATAS BRAVAS - SALSA BRAVA, GARLIC CONFIT AIOLI - $8&lt;Br&gt;TARTAR DE WAGYU - 7X WAGYU TARTARE TOAST, OLIVE OIL, LEMON, EGG YOLK, BLACK TRUFFLES - $20&lt;Br&gt;TOSTADA DE GAMBAS - ROYAL RED SHRIMP, TOAST, PIQUILLO PEPPERS, PICKLED ONIONS, AIOLI - 2 - $6&lt;Br&gt;ALBONDIGAS - MEATBALLS, TOMATO, PIQUILLO PEPPERS, CAMPO DE MONTABLON CHEESE - $11&lt;Br&gt;OSTRA - WIANNO OYSTER, GAZPACHO GELEE, CUCUMBER &amp; RED PEPPER MIGNONETTE - $4 EA&lt;Br&gt;DRINKS&lt;br&gt;ESTRELLA - LAGER, ON TAP (10 OZ. VIERTE) - $4&lt;br&gt;GIN TONIC DEL DIA - DEATHS DOOR GIN AND FEVER TREE CITRUS TONIC, GRAPEFRUIT AND LIME - $9&lt;br&gt;WHITE NEGRONI - DE MULLER BLANCO VERMOUTH, BOUGIE TIKI, ALLSPICE DRAM, LIME - $9&lt;br&gt;WINTER DAIQUIRI - STREET PUMAS RUM, PEAR, LIME - $9</t>
   </si>
 </sst>
 </file>
@@ -2768,10 +2768,10 @@
   <dimension ref="B1:BL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="V101" sqref="V101"/>
+      <selection pane="bottomRight" activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2973,13 +2973,13 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="W2" s="1" t="str">
         <f t="shared" ref="W2:W4" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -3066,13 +3066,13 @@
         <v/>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>33</v>
@@ -3141,13 +3141,13 @@
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1">
       <c r="B3" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3234,10 +3234,10 @@
         <v/>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>33</v>
@@ -3301,13 +3301,13 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3394,13 +3394,13 @@
         <v/>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV4" s="5" t="s">
         <v>33</v>
@@ -3464,13 +3464,13 @@
     </row>
     <row r="5" spans="2:64" ht="21" customHeight="1">
       <c r="B5" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J5" s="1">
         <v>1500</v>
@@ -3587,10 +3587,10 @@
         <v/>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV5" s="5" t="s">
         <v>32</v>
@@ -3657,10 +3657,10 @@
         <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H6" s="1">
         <v>1500</v>
@@ -3705,7 +3705,7 @@
         <v>1800</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="32"/>
@@ -3792,13 +3792,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>32</v>
@@ -3864,13 +3864,13 @@
     </row>
     <row r="7" spans="2:64" ht="21" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" si="32"/>
@@ -3957,13 +3957,13 @@
         <v/>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV7" s="5" t="s">
         <v>33</v>
@@ -4030,10 +4030,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>184</v>
       </c>
       <c r="H8" s="1">
         <v>1600</v>
@@ -4165,13 +4165,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV8" s="5" t="s">
         <v>32</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="9" spans="2:64" ht="21" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4328,16 +4328,16 @@
         <v/>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV9" s="5" t="s">
         <v>33</v>
@@ -4401,13 +4401,13 @@
     </row>
     <row r="10" spans="2:64" ht="21" customHeight="1">
       <c r="B10" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H10" s="1">
         <v>1600</v>
@@ -4452,7 +4452,7 @@
         <v>1800</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="32"/>
@@ -4539,10 +4539,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>32</v>
@@ -4606,13 +4606,13 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H11" s="1">
         <v>1400</v>
@@ -4657,7 +4657,7 @@
         <v>1700</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="32"/>
@@ -4744,10 +4744,10 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV11" s="5" t="s">
         <v>32</v>
@@ -4811,13 +4811,13 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
       <c r="B12" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4904,10 +4904,10 @@
         <v/>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV12" s="5" t="s">
         <v>33</v>
@@ -4971,13 +4971,13 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H13" s="1">
         <v>1600</v>
@@ -5022,7 +5022,7 @@
         <v>1800</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="32"/>
@@ -5109,13 +5109,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV13" s="5" t="s">
         <v>32</v>
@@ -5183,10 +5183,10 @@
         <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J14" s="1">
         <v>1500</v>
@@ -5306,13 +5306,13 @@
         <v/>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>32</v>
@@ -5376,13 +5376,13 @@
     </row>
     <row r="15" spans="2:64" ht="21" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5469,10 +5469,10 @@
         <v/>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV15" s="5" t="s">
         <v>33</v>
@@ -5536,13 +5536,13 @@
     </row>
     <row r="16" spans="2:64" ht="21" customHeight="1">
       <c r="B16" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J16" s="1">
         <v>1500</v>
@@ -5581,7 +5581,7 @@
         <v>1830</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5669,10 +5669,10 @@
       </c>
       <c r="AR16" s="4"/>
       <c r="AT16" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV16" s="5" t="s">
         <v>32</v>
@@ -5737,7 +5737,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="2:64" ht="21" customHeight="1">
@@ -5745,10 +5745,10 @@
         <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H17" s="1">
         <v>1600</v>
@@ -5793,7 +5793,7 @@
         <v>1800</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="32"/>
@@ -5880,13 +5880,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV17" s="5" t="s">
         <v>32</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="18" spans="2:64" ht="21" customHeight="1">
       <c r="B18" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W18" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6043,13 +6043,13 @@
         <v/>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AS18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>33</v>
@@ -6113,13 +6113,13 @@
     </row>
     <row r="19" spans="2:64" ht="21" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1" t="str">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="AR19" s="4"/>
       <c r="AU19" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV19" s="5" t="s">
         <v>33</v>
@@ -6275,10 +6275,10 @@
         <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H20" s="1">
         <v>1500</v>
@@ -6410,16 +6410,16 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AS20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV20" s="5" t="s">
         <v>32</v>
@@ -6483,13 +6483,13 @@
     </row>
     <row r="21" spans="2:64" ht="21" customHeight="1">
       <c r="B21" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="W21" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6576,13 +6576,13 @@
         <v/>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>33</v>
@@ -6646,13 +6646,13 @@
     </row>
     <row r="22" spans="2:64" ht="21" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="W22" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6739,13 +6739,13 @@
         <v/>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV22" s="5" t="s">
         <v>33</v>
@@ -6809,13 +6809,13 @@
     </row>
     <row r="23" spans="2:64" ht="21" customHeight="1">
       <c r="B23" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6902,13 +6902,13 @@
         <v/>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AS23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>33</v>
@@ -6972,13 +6972,13 @@
     </row>
     <row r="24" spans="2:64" ht="21" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L24" s="1">
         <v>1500</v>
@@ -7011,7 +7011,7 @@
         <v>1800</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7098,16 +7098,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AS24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>32</v>
@@ -7171,13 +7171,13 @@
     </row>
     <row r="25" spans="2:64" ht="21" customHeight="1">
       <c r="B25" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H25" s="1">
         <v>1600</v>
@@ -7307,10 +7307,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>32</v>
@@ -7377,10 +7377,10 @@
         <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H26" s="1">
         <v>1400</v>
@@ -7425,7 +7425,7 @@
         <v>1800</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>107</v>
+        <v>576</v>
       </c>
       <c r="W26" s="1">
         <f t="shared" si="32"/>
@@ -7512,13 +7512,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AS26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV26" s="5" t="s">
         <v>32</v>
@@ -7531,7 +7531,7 @@
         <v>{
     'name': "Centro Mexican Kitchen",
     'area': "pearl",'hours': {
-      'sunday-start':"1400", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"2200", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "All night Monday, Tuesday-Sunday 2-6pm / Brunch Happy Hour Sat &amp; Sun 9:30-10 am &lt;br&gt; Food:  $3-$7 Appetizers &lt;br&gt; Drink: $3-4 Can and Draft Beer, $3 Wells, $5 House Wine, $5 Coin Margs.", 'link':"http://www.centrolatinkitchen.com/", 'pricing':"",   'phone-number': "", 'address': "950 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1400", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"2200", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "All night Monday, Tuesday-Sunday 2-6pm / Brunch Happy Hour Sat &amp; Sun 9:30-10 am &lt;br&gt; Food&lt;br&gt;Queso Fundido $6&lt;br&gt;Nachos $8&lt;br&gt;Lamb Taquitos $5&lt;br&gt;Chicken Enchilada $5&lt;br&gt;Chile Relleno $6&lt;br&gt;Street Tacos $3&lt;br&gt;Drinks&lt;br&gt;Post Can $3&lt;br&gt;Draft Beer $4&lt;br&gt;House Wine $5&lt;br&gt;Coin Marg $5.50-7.50&lt;br&gt;Daiquiri $7&lt;br&gt;Dark and Stormy $6&lt;br&gt;Sangria $6", 'link':"http://www.centrolatinkitchen.com/", 'pricing':"",   'phone-number': "", 'address': "950 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY26" s="1" t="str">
         <f t="shared" si="22"/>
@@ -7583,7 +7583,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="2:64" ht="21" customHeight="1">
@@ -7591,10 +7591,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7681,10 +7681,10 @@
         <v/>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>33</v>
@@ -7748,13 +7748,13 @@
     </row>
     <row r="28" spans="2:64" ht="21" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W28" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7841,13 +7841,13 @@
         <v/>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AS28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV28" s="5" t="s">
         <v>33</v>
@@ -7911,13 +7911,13 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H29" s="1">
         <v>1600</v>
@@ -7961,8 +7961,8 @@
       <c r="U29" s="1">
         <v>1730</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>567</v>
+      <c r="V29" s="6" t="s">
+        <v>577</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" ref="W29" si="53">IF(H29&gt;0,H29/100,"")</f>
@@ -8049,13 +8049,13 @@
         <v>4pm-5.3pm</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV29" s="5" t="s">
         <v>32</v>
@@ -8072,7 +8072,7 @@
         <v>{
     'name': "Corrida",
     'area': "downtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1730", 'monday-start':"1600", 'monday-end':"1730", 'tuesday-start':"1600", 'tuesday-end':"1730", 'wednesday-start':"1600", 'wednesday-end':"1730", 'thursday-start':"1600", 'thursday-end':"1730", 'friday-start':"1600", 'friday-end':"1730", 'saturday-start':"1600", 'saturday-end':"1730"},  'description': "Wide range of food and drink specials", 'link':"https://www.corridaboulder.com/", 'pricing':"",   'phone-number': "", 'address': "1023 WALNUT STREET BOULDER, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1730", 'monday-start':"1600", 'monday-end':"1730", 'tuesday-start':"1600", 'tuesday-end':"1730", 'wednesday-start':"1600", 'wednesday-end':"1730", 'thursday-start':"1600", 'thursday-end':"1730", 'friday-start':"1600", 'friday-end':"1730", 'saturday-start':"1600", 'saturday-end':"1730"},  'description': "FOOD&lt;Br&gt;BOQUERONES - ANCHOVIES - $4&lt;Br&gt;CROQUETTAS DE JAMON - HAM REDUCTION - $5&lt;Br&gt;PAN CON TOMATE - CONFIT GARLIC AIOLI, OLIVE OIL - $4&lt;Br&gt;PAN CON BRANDADE - SALT COD BRANDADE, OLIVE OIL - $4&lt;Br&gt;GILDAS - ANCHOVY, OLIVES, GUANDILLA PEPPERS - $4&lt;Br&gt;ACEITUNAS MARINADAS - OLIVES, GARLIC, LEMON, PARSLEY - $5&lt;Br&gt;ACEITUNAS FRITAS - FRIED OLIVES, ALMOND ROMESCO, IDIAZABAL CHEESE - $9&lt;Br&gt;ESPINACA &amp; GARBANZOS - SPINACH, CRISPY CHICKPEAS, TOMATO, CUMIN PANISSE CAKE - $11&lt;Br&gt;PATATAS BRAVAS - SALSA BRAVA, GARLIC CONFIT AIOLI - $8&lt;Br&gt;TARTAR DE WAGYU - 7X WAGYU TARTARE TOAST, OLIVE OIL, LEMON, EGG YOLK, BLACK TRUFFLES - $20&lt;Br&gt;TOSTADA DE GAMBAS - ROYAL RED SHRIMP, TOAST, PIQUILLO PEPPERS, PICKLED ONIONS, AIOLI - 2 - $6&lt;Br&gt;ALBONDIGAS - MEATBALLS, TOMATO, PIQUILLO PEPPERS, CAMPO DE MONTABLON CHEESE - $11&lt;Br&gt;OSTRA - WIANNO OYSTER, GAZPACHO GELEE, CUCUMBER &amp; RED PEPPER MIGNONETTE - $4 EA&lt;Br&gt;DRINKS&lt;br&gt;ESTRELLA - LAGER, ON TAP (10 OZ. VIERTE) - $4&lt;br&gt;GIN TONIC DEL DIA - DEATHS DOOR GIN AND FEVER TREE CITRUS TONIC, GRAPEFRUIT AND LIME - $9&lt;br&gt;WHITE NEGRONI - DE MULLER BLANCO VERMOUTH, BOUGIE TIKI, ALLSPICE DRAM, LIME - $9&lt;br&gt;WINTER DAIQUIRI - STREET PUMAS RUM, PEAR, LIME - $9", 'link':"https://www.corridaboulder.com/", 'pricing':"",   'phone-number': "", 'address': "1023 WALNUT STREET BOULDER, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY29" s="1" t="str">
         <f t="shared" ref="AY29" si="75">IF(AS29&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -8119,13 +8119,13 @@
     </row>
     <row r="30" spans="2:64" ht="21" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H30" s="1">
         <v>1700</v>
@@ -8170,7 +8170,7 @@
         <v>1830</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="W30" s="1">
         <f t="shared" si="32"/>
@@ -8257,10 +8257,10 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>32</v>
@@ -8324,13 +8324,13 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J31" s="1">
         <v>1600</v>
@@ -8363,7 +8363,7 @@
         <v>2000</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" ref="W31" si="81">IF(H31&gt;0,H31/100,"")</f>
@@ -8450,7 +8450,7 @@
         <v/>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>32</v>
@@ -8514,13 +8514,13 @@
     </row>
     <row r="32" spans="2:64" ht="21" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8607,13 +8607,13 @@
         <v/>
       </c>
       <c r="AR32" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AS32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV32" s="5" t="s">
         <v>33</v>
@@ -8677,13 +8677,13 @@
     </row>
     <row r="33" spans="2:64" ht="21" customHeight="1">
       <c r="B33" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8770,13 +8770,13 @@
         <v/>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV33" s="5" t="s">
         <v>33</v>
@@ -8844,13 +8844,13 @@
     </row>
     <row r="34" spans="2:64" ht="21" customHeight="1">
       <c r="B34" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>465</v>
       </c>
       <c r="H34" s="1">
         <v>1500</v>
@@ -8895,7 +8895,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" si="32"/>
@@ -8982,13 +8982,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR34" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AS34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV34" s="5" t="s">
         <v>32</v>
@@ -9051,10 +9051,10 @@
         <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H35" s="1">
         <v>1400</v>
@@ -9099,7 +9099,7 @@
         <v>1800</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="32"/>
@@ -9186,13 +9186,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR35" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV35" s="5" t="s">
         <v>32</v>
@@ -9256,13 +9256,13 @@
     </row>
     <row r="36" spans="2:64" ht="21" customHeight="1">
       <c r="B36" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="W36" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9349,13 +9349,13 @@
         <v/>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>33</v>
@@ -9419,13 +9419,13 @@
     </row>
     <row r="37" spans="2:64" ht="21" customHeight="1">
       <c r="B37" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W37" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9512,10 +9512,10 @@
         <v/>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>33</v>
@@ -9579,13 +9579,13 @@
     </row>
     <row r="38" spans="2:64" ht="21" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J38" s="1">
         <v>1500</v>
@@ -9618,7 +9618,7 @@
         <v>1800</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9705,13 +9705,13 @@
         <v/>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AS38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV38" s="5" t="s">
         <v>32</v>
@@ -9776,18 +9776,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="21" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9874,13 +9874,13 @@
         <v/>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AS39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV39" s="5" t="s">
         <v>33</v>
@@ -9944,13 +9944,13 @@
     </row>
     <row r="40" spans="2:64" ht="21" customHeight="1">
       <c r="B40" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="V40" s="6"/>
       <c r="W40" s="1" t="str">
@@ -10038,10 +10038,10 @@
         <v/>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>33</v>
@@ -10105,13 +10105,13 @@
     </row>
     <row r="41" spans="2:64" ht="21" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="W41" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10198,10 +10198,10 @@
         <v/>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV41" s="5" t="s">
         <v>33</v>
@@ -10268,10 +10268,10 @@
         <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H42" s="1">
         <v>1700</v>
@@ -10310,7 +10310,7 @@
         <v>1800</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W42" s="1">
         <f t="shared" si="32"/>
@@ -10397,13 +10397,13 @@
         <v/>
       </c>
       <c r="AR42" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV42" s="5" t="s">
         <v>32</v>
@@ -10467,13 +10467,13 @@
     </row>
     <row r="43" spans="2:64" ht="21" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10560,13 +10560,13 @@
         <v/>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV43" s="5" t="s">
         <v>33</v>
@@ -10630,13 +10630,13 @@
     </row>
     <row r="44" spans="2:64" ht="21" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10723,10 +10723,10 @@
         <v/>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>33</v>
@@ -10790,13 +10790,13 @@
     </row>
     <row r="45" spans="2:64" ht="21" customHeight="1">
       <c r="B45" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="W45" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10883,13 +10883,13 @@
         <v/>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AS45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV45" s="5" t="s">
         <v>33</v>
@@ -10953,13 +10953,13 @@
     </row>
     <row r="46" spans="2:64" ht="21" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11046,10 +11046,10 @@
         <v/>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV46" s="5" t="s">
         <v>33</v>
@@ -11113,13 +11113,13 @@
     </row>
     <row r="47" spans="2:64" ht="21" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H47" s="1">
         <v>1500</v>
@@ -11164,7 +11164,7 @@
         <v>1900</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" si="32"/>
@@ -11251,13 +11251,13 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR47" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>32</v>
@@ -11324,10 +11324,10 @@
         <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J48" s="1">
         <v>1430</v>
@@ -11366,7 +11366,7 @@
         <v>1730</v>
       </c>
       <c r="V48" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W48" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11453,13 +11453,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR48" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AS48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV48" s="5" t="s">
         <v>32</v>
@@ -11526,10 +11526,10 @@
         <v>26</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H49" s="1">
         <v>1500</v>
@@ -11574,7 +11574,7 @@
         <v>2000</v>
       </c>
       <c r="V49" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W49" s="1">
         <f t="shared" si="32"/>
@@ -11661,13 +11661,13 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR49" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AS49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV49" s="5" t="s">
         <v>32</v>
@@ -11734,10 +11734,10 @@
         <v>26</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H50" s="1">
         <v>1500</v>
@@ -11782,7 +11782,7 @@
         <v>2000</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W50" s="1">
         <f t="shared" si="32"/>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="AR50" s="4"/>
       <c r="AU50" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>32</v>
@@ -11934,13 +11934,13 @@
     </row>
     <row r="51" spans="2:64" ht="21" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12027,10 +12027,10 @@
         <v/>
       </c>
       <c r="AR51" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV51" s="5" t="s">
         <v>33</v>
@@ -12094,13 +12094,13 @@
     </row>
     <row r="52" spans="2:64" ht="21" customHeight="1">
       <c r="B52" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W52" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12187,10 +12187,10 @@
         <v/>
       </c>
       <c r="AR52" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV52" s="5" t="s">
         <v>33</v>
@@ -12254,13 +12254,13 @@
     </row>
     <row r="53" spans="2:64" ht="21" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V53" s="6"/>
       <c r="W53" s="1" t="str">
@@ -12348,13 +12348,13 @@
         <v/>
       </c>
       <c r="AR53" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AS53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV53" s="5" t="s">
         <v>33</v>
@@ -12421,10 +12421,10 @@
         <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H54" s="1">
         <v>1500</v>
@@ -12469,7 +12469,7 @@
         <v>1800</v>
       </c>
       <c r="V54" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" si="32"/>
@@ -12556,16 +12556,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR54" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AS54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV54" s="5" t="s">
         <v>32</v>
@@ -12632,10 +12632,10 @@
         <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H55" s="1">
         <v>1600</v>
@@ -12680,7 +12680,7 @@
         <v>1800</v>
       </c>
       <c r="V55" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="32"/>
@@ -12767,13 +12767,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR55" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AS55" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV55" s="5" t="s">
         <v>32</v>
@@ -12837,13 +12837,13 @@
     </row>
     <row r="56" spans="2:64" ht="21" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H56" s="1">
         <v>1600</v>
@@ -12888,7 +12888,7 @@
         <v>1800</v>
       </c>
       <c r="V56" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W56" s="1">
         <f t="shared" si="32"/>
@@ -12975,13 +12975,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR56" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AS56" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV56" s="5" t="s">
         <v>32</v>
@@ -13046,18 +13046,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" spans="2:64" ht="21" customHeight="1">
       <c r="B57" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13144,10 +13144,10 @@
         <v/>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV57" s="5" t="s">
         <v>33</v>
@@ -13211,13 +13211,13 @@
     </row>
     <row r="58" spans="2:64" ht="21" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13304,16 +13304,16 @@
         <v/>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AS58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV58" s="5" t="s">
         <v>33</v>
@@ -13377,13 +13377,13 @@
     </row>
     <row r="59" spans="2:64" ht="21" customHeight="1">
       <c r="B59" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13470,10 +13470,10 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV59" s="5" t="s">
         <v>33</v>
@@ -13537,13 +13537,13 @@
     </row>
     <row r="60" spans="2:64" ht="21" customHeight="1">
       <c r="B60" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="W60" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13630,10 +13630,10 @@
         <v/>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV60" s="5" t="s">
         <v>33</v>
@@ -13698,7 +13698,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL60" s="26" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="2:64" ht="21" customHeight="1">
@@ -13706,10 +13706,10 @@
         <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J61" s="1">
         <v>1500</v>
@@ -13742,7 +13742,7 @@
         <v>1800</v>
       </c>
       <c r="V61" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W61" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13829,13 +13829,13 @@
         <v/>
       </c>
       <c r="AR61" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AS61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV61" s="5" t="s">
         <v>32</v>
@@ -13899,13 +13899,13 @@
     </row>
     <row r="62" spans="2:64" ht="21" customHeight="1">
       <c r="B62" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="W62" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13992,10 +13992,10 @@
         <v/>
       </c>
       <c r="AR62" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV62" s="5" t="s">
         <v>33</v>
@@ -14059,13 +14059,13 @@
     </row>
     <row r="63" spans="2:64" ht="21" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="W63" s="1" t="str">
         <f t="shared" si="32"/>
@@ -14152,10 +14152,10 @@
         <v/>
       </c>
       <c r="AR63" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV63" s="5" t="s">
         <v>33</v>
@@ -14222,10 +14222,10 @@
         <v>78</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H64" s="1">
         <v>1500</v>
@@ -14270,7 +14270,7 @@
         <v>1800</v>
       </c>
       <c r="V64" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" si="32"/>
@@ -14357,13 +14357,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR64" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AS64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV64" s="5" t="s">
         <v>32</v>
@@ -14434,10 +14434,10 @@
         <v>79</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H65" s="1">
         <v>1700</v>
@@ -14482,7 +14482,7 @@
         <v>1900</v>
       </c>
       <c r="V65" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W65" s="1">
         <f t="shared" ref="W65:W126" si="132">IF(H65&gt;0,H65/100,"")</f>
@@ -14569,13 +14569,13 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR65" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AS65" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV65" s="5" t="s">
         <v>32</v>
@@ -14639,13 +14639,13 @@
     </row>
     <row r="66" spans="2:63" ht="21" customHeight="1">
       <c r="B66" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="W66" s="1" t="str">
         <f t="shared" si="132"/>
@@ -14732,13 +14732,13 @@
         <v/>
       </c>
       <c r="AR66" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AS66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV66" s="5" t="s">
         <v>33</v>
@@ -14802,13 +14802,13 @@
     </row>
     <row r="67" spans="2:63" ht="21" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" si="132"/>
@@ -14895,10 +14895,10 @@
         <v/>
       </c>
       <c r="AR67" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV67" s="5" t="s">
         <v>33</v>
@@ -14962,13 +14962,13 @@
     </row>
     <row r="68" spans="2:63" ht="21" customHeight="1">
       <c r="B68" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15055,10 +15055,10 @@
         <v/>
       </c>
       <c r="AR68" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AU68" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV68" s="5" t="s">
         <v>33</v>
@@ -15125,10 +15125,10 @@
         <v>80</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J69" s="1">
         <v>1500</v>
@@ -15161,7 +15161,7 @@
         <v>1800</v>
       </c>
       <c r="V69" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W69" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15248,13 +15248,13 @@
         <v/>
       </c>
       <c r="AR69" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AS69" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV69" s="5" t="s">
         <v>32</v>
@@ -15321,10 +15321,10 @@
         <v>82</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J70" s="1">
         <v>1600</v>
@@ -15357,7 +15357,7 @@
         <v>1800</v>
       </c>
       <c r="V70" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W70" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15444,13 +15444,13 @@
         <v/>
       </c>
       <c r="AR70" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AS70" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV70" s="5" t="s">
         <v>32</v>
@@ -15514,13 +15514,13 @@
     </row>
     <row r="71" spans="2:63" ht="21" customHeight="1">
       <c r="B71" s="27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H71" s="1">
         <v>1500</v>
@@ -15565,7 +15565,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" si="132"/>
@@ -15652,10 +15652,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR71" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV71" s="5" t="s">
         <v>32</v>
@@ -15715,13 +15715,13 @@
     </row>
     <row r="72" spans="2:63" ht="21" customHeight="1">
       <c r="B72" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W72" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15808,13 +15808,13 @@
         <v/>
       </c>
       <c r="AR72" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AS72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU72" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV72" s="5" t="s">
         <v>33</v>
@@ -15878,13 +15878,13 @@
     </row>
     <row r="73" spans="2:63" ht="21" customHeight="1">
       <c r="B73" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W73" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15971,13 +15971,13 @@
         <v/>
       </c>
       <c r="AR73" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AS73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU73" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV73" s="5" t="s">
         <v>33</v>
@@ -16044,10 +16044,10 @@
         <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H74" s="1">
         <v>1500</v>
@@ -16092,7 +16092,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="W74" s="1">
         <f t="shared" si="132"/>
@@ -16179,13 +16179,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR74" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AS74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU74" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV74" s="5" t="s">
         <v>32</v>
@@ -16252,10 +16252,10 @@
         <v>84</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J75" s="1">
         <v>1630</v>
@@ -16282,7 +16282,7 @@
         <v>1830</v>
       </c>
       <c r="V75" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W75" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16369,16 +16369,16 @@
         <v/>
       </c>
       <c r="AR75" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AS75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT75" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV75" s="5" t="s">
         <v>32</v>
@@ -16445,10 +16445,10 @@
         <v>85</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J76" s="1">
         <v>1430</v>
@@ -16487,7 +16487,7 @@
         <v>1730</v>
       </c>
       <c r="V76" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W76" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16574,13 +16574,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR76" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AS76" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV76" s="5" t="s">
         <v>32</v>
@@ -16644,13 +16644,13 @@
     </row>
     <row r="77" spans="2:63" ht="21" customHeight="1">
       <c r="B77" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="W77" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16737,10 +16737,10 @@
         <v/>
       </c>
       <c r="AR77" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV77" s="5" t="s">
         <v>33</v>
@@ -16803,10 +16803,10 @@
         <v>86</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J78" s="1">
         <v>1100</v>
@@ -16833,7 +16833,7 @@
         <v>1800</v>
       </c>
       <c r="V78" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="W78" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16920,13 +16920,13 @@
         <v/>
       </c>
       <c r="AR78" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AS78" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU78" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV78" s="5" t="s">
         <v>32</v>
@@ -16990,13 +16990,13 @@
     </row>
     <row r="79" spans="2:63" ht="21" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H79" s="1">
         <v>1600</v>
@@ -17041,7 +17041,7 @@
         <v>1900</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" si="132"/>
@@ -17132,7 +17132,7 @@
         <v>28</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV79" s="5" t="s">
         <v>32</v>
@@ -17196,13 +17196,13 @@
     </row>
     <row r="80" spans="2:63" ht="21" customHeight="1">
       <c r="B80" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H80" s="1">
         <v>1530</v>
@@ -17247,7 +17247,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="W80" s="1">
         <f t="shared" si="132"/>
@@ -17334,10 +17334,10 @@
         <v>3.3pm-6pm</v>
       </c>
       <c r="AR80" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV80" s="5" t="s">
         <v>32</v>
@@ -17401,13 +17401,13 @@
     </row>
     <row r="81" spans="2:63" ht="21" customHeight="1">
       <c r="B81" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W81" s="1" t="str">
         <f t="shared" si="132"/>
@@ -17494,13 +17494,13 @@
         <v/>
       </c>
       <c r="AR81" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AS81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV81" s="5" t="s">
         <v>33</v>
@@ -17564,13 +17564,13 @@
     </row>
     <row r="82" spans="2:63" ht="21" customHeight="1">
       <c r="B82" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W82" s="1" t="str">
         <f t="shared" si="132"/>
@@ -17657,13 +17657,13 @@
         <v/>
       </c>
       <c r="AR82" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AS82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV82" s="5" t="s">
         <v>33</v>
@@ -17730,10 +17730,10 @@
         <v>87</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H83" s="1">
         <v>1530</v>
@@ -17778,7 +17778,7 @@
         <v>1730</v>
       </c>
       <c r="V83" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W83" s="1">
         <f t="shared" si="132"/>
@@ -17865,13 +17865,13 @@
         <v>3.3pm-5.3pm</v>
       </c>
       <c r="AR83" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AS83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV83" s="5" t="s">
         <v>32</v>
@@ -17938,10 +17938,10 @@
         <v>88</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H84" s="1">
         <v>1700</v>
@@ -17986,7 +17986,7 @@
         <v>1830</v>
       </c>
       <c r="V84" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" si="132"/>
@@ -18073,13 +18073,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR84" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AS84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV84" s="5" t="s">
         <v>32</v>
@@ -18146,10 +18146,10 @@
         <v>89</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H85" s="1">
         <v>1600</v>
@@ -18194,7 +18194,7 @@
         <v>1900</v>
       </c>
       <c r="V85" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W85" s="1">
         <f t="shared" si="132"/>
@@ -18281,13 +18281,13 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR85" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AS85" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AU85" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV85" s="5" t="s">
         <v>32</v>
@@ -18351,13 +18351,13 @@
     </row>
     <row r="86" spans="2:63" ht="21" customHeight="1">
       <c r="B86" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J86" s="1">
         <v>1600</v>
@@ -18390,7 +18390,7 @@
         <v>1800</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="W86" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18477,10 +18477,10 @@
         <v/>
       </c>
       <c r="AR86" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AU86" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV86" s="5" t="s">
         <v>32</v>
@@ -18544,13 +18544,13 @@
     </row>
     <row r="87" spans="2:63" ht="21" customHeight="1">
       <c r="B87" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="W87" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18637,10 +18637,10 @@
         <v/>
       </c>
       <c r="AR87" s="20" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AU87" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV87" s="5" t="s">
         <v>33</v>
@@ -18703,10 +18703,10 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J88" s="1">
         <v>1500</v>
@@ -18739,7 +18739,7 @@
         <v>1800</v>
       </c>
       <c r="V88" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="W88" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18826,13 +18826,13 @@
         <v/>
       </c>
       <c r="AR88" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AS88" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU88" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV88" s="5" t="s">
         <v>32</v>
@@ -18896,13 +18896,13 @@
     </row>
     <row r="89" spans="2:63" ht="21" customHeight="1">
       <c r="B89" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18989,16 +18989,16 @@
         <v/>
       </c>
       <c r="AR89" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AS89" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT89" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU89" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV89" s="5" t="s">
         <v>33</v>
@@ -19062,13 +19062,13 @@
     </row>
     <row r="90" spans="2:63" ht="21" customHeight="1">
       <c r="B90" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H90" s="1">
         <v>1400</v>
@@ -19113,7 +19113,7 @@
         <v>1800</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" si="132"/>
@@ -19200,10 +19200,10 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR90" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AU90" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV90" s="5" t="s">
         <v>32</v>
@@ -19270,10 +19270,10 @@
         <v>24</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J91" s="1">
         <v>1500</v>
@@ -19306,7 +19306,7 @@
         <v>1800</v>
       </c>
       <c r="V91" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W91" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19393,13 +19393,13 @@
         <v/>
       </c>
       <c r="AR91" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AS91" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU91" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV91" s="5" t="s">
         <v>32</v>
@@ -19463,13 +19463,13 @@
     </row>
     <row r="92" spans="2:63" ht="21" customHeight="1">
       <c r="B92" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J92" s="1">
         <v>1600</v>
@@ -19502,7 +19502,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="W92" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19589,13 +19589,13 @@
         <v/>
       </c>
       <c r="AR92" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AS92" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU92" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV92" s="5" t="s">
         <v>32</v>
@@ -19659,13 +19659,13 @@
     </row>
     <row r="93" spans="2:63" ht="21" customHeight="1">
       <c r="B93" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="G93" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H93" s="1">
         <v>1500</v>
@@ -19710,7 +19710,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" si="132"/>
@@ -19797,16 +19797,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR93" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AS93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT93" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU93" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV93" s="5" t="s">
         <v>32</v>
@@ -19874,13 +19874,13 @@
     </row>
     <row r="94" spans="2:63" ht="21" customHeight="1">
       <c r="B94" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="W94" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19967,10 +19967,10 @@
         <v/>
       </c>
       <c r="AR94" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AU94" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV94" s="5" t="s">
         <v>33</v>
@@ -20037,10 +20037,10 @@
         <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H95" s="1">
         <v>1100</v>
@@ -20085,7 +20085,7 @@
         <v>1800</v>
       </c>
       <c r="V95" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" si="132"/>
@@ -20172,13 +20172,13 @@
         <v>11am-6pm</v>
       </c>
       <c r="AR95" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AS95" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU95" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV95" s="5" t="s">
         <v>32</v>
@@ -20242,13 +20242,13 @@
     </row>
     <row r="96" spans="2:63" ht="21" customHeight="1">
       <c r="B96" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="132"/>
@@ -20335,10 +20335,10 @@
         <v/>
       </c>
       <c r="AR96" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AU96" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV96" s="5" t="s">
         <v>33</v>
@@ -20405,10 +20405,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H97" s="1">
         <v>1500</v>
@@ -20453,7 +20453,7 @@
         <v>1700</v>
       </c>
       <c r="V97" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W97" s="1">
         <f t="shared" si="132"/>
@@ -20540,13 +20540,13 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR97" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AS97" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU97" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV97" s="5" t="s">
         <v>32</v>
@@ -20610,13 +20610,13 @@
     </row>
     <row r="98" spans="2:63" ht="21" customHeight="1">
       <c r="B98" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W98" s="1" t="str">
         <f t="shared" si="132"/>
@@ -20703,10 +20703,10 @@
         <v/>
       </c>
       <c r="AR98" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AU98" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV98" s="5" t="s">
         <v>33</v>
@@ -20773,10 +20773,10 @@
         <v>93</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H99" s="1">
         <v>1500</v>
@@ -20821,7 +20821,7 @@
         <v>1800</v>
       </c>
       <c r="V99" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" si="132"/>
@@ -20908,13 +20908,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR99" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AS99" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU99" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV99" s="5" t="s">
         <v>32</v>
@@ -20981,10 +20981,10 @@
         <v>94</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H100" s="1">
         <v>1700</v>
@@ -21029,7 +21029,7 @@
         <v>1900</v>
       </c>
       <c r="V100" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="W100" s="1">
         <f t="shared" si="132"/>
@@ -21116,13 +21116,13 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR100" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AS100" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU100" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV100" s="5" t="s">
         <v>32</v>
@@ -21186,13 +21186,13 @@
     </row>
     <row r="101" spans="2:63" ht="21" customHeight="1">
       <c r="B101" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H101" s="1">
         <v>1500</v>
@@ -21237,7 +21237,7 @@
         <v>1800</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" ref="W101" si="165">IF(H101&gt;0,H101/100,"")</f>
@@ -21324,10 +21324,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR101" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AU101" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV101" s="5" t="s">
         <v>32</v>
@@ -21391,13 +21391,13 @@
     </row>
     <row r="102" spans="2:63" ht="21" customHeight="1">
       <c r="B102" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="W102" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21484,10 +21484,10 @@
         <v/>
       </c>
       <c r="AR102" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AU102" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV102" s="5" t="s">
         <v>33</v>
@@ -21551,13 +21551,13 @@
     </row>
     <row r="103" spans="2:63" ht="21" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="W103" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21644,10 +21644,10 @@
         <v/>
       </c>
       <c r="AR103" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AU103" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV103" s="5" t="s">
         <v>33</v>
@@ -21711,13 +21711,13 @@
     </row>
     <row r="104" spans="2:63" ht="21" customHeight="1">
       <c r="B104" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W104" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21804,10 +21804,10 @@
         <v/>
       </c>
       <c r="AR104" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AU104" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV104" s="5" t="s">
         <v>33</v>
@@ -21871,13 +21871,13 @@
     </row>
     <row r="105" spans="2:63" ht="21" customHeight="1">
       <c r="B105" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="W105" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21964,13 +21964,13 @@
         <v/>
       </c>
       <c r="AR105" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AS105" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV105" s="5" t="s">
         <v>33</v>
@@ -22034,13 +22034,13 @@
     </row>
     <row r="106" spans="2:63" ht="21" customHeight="1">
       <c r="B106" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H106" s="1">
         <v>1600</v>
@@ -22085,7 +22085,7 @@
         <v>1800</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="W106" s="1">
         <f t="shared" si="132"/>
@@ -22172,13 +22172,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR106" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AS106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU106" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV106" s="5" t="s">
         <v>32</v>
@@ -22242,13 +22242,13 @@
     </row>
     <row r="107" spans="2:63" ht="21" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H107" s="1">
         <v>1600</v>
@@ -22293,7 +22293,7 @@
         <v>1730</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" si="132"/>
@@ -22380,10 +22380,10 @@
         <v>11am-5.3pm</v>
       </c>
       <c r="AR107" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AU107" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV107" s="5" t="s">
         <v>32</v>
@@ -22450,10 +22450,10 @@
         <v>95</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J108" s="1">
         <v>1700</v>
@@ -22492,7 +22492,7 @@
         <v>1830</v>
       </c>
       <c r="V108" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W108" s="1" t="str">
         <f t="shared" si="132"/>
@@ -22579,13 +22579,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR108" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AS108" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AU108" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV108" s="5" t="s">
         <v>32</v>
@@ -22649,13 +22649,13 @@
     </row>
     <row r="109" spans="2:63" ht="21" customHeight="1">
       <c r="B109" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="V109" s="6"/>
       <c r="W109" s="1" t="str">
@@ -22743,10 +22743,10 @@
         <v/>
       </c>
       <c r="AR109" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AU109" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV109" s="5" t="s">
         <v>33</v>
@@ -22813,16 +22813,16 @@
         <v>96</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H110" s="1">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="I110" s="1">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="J110" s="1">
         <v>1400</v>
@@ -22861,15 +22861,15 @@
         <v>1800</v>
       </c>
       <c r="V110" s="10" t="s">
-        <v>130</v>
+        <v>575</v>
       </c>
       <c r="W110" s="1">
         <f t="shared" si="132"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X110" s="1">
         <f t="shared" si="133"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y110" s="1">
         <f t="shared" si="134"/>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="AK110" s="1" t="str">
         <f t="shared" si="146"/>
-        <v>2pm-6pm</v>
+        <v>11am-10pm</v>
       </c>
       <c r="AL110" s="1" t="str">
         <f t="shared" si="147"/>
@@ -22948,13 +22948,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR110" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AS110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU110" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV110" s="5" t="s">
         <v>32</v>
@@ -22967,7 +22967,7 @@
         <v>{
     'name': "T/ACO",
     'area': "pearl",'hours': {
-      'sunday-start':"1400", 'sunday-end':"1800", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "2 -6 pm Daily, All day and night Sunday &lt;br&gt; Food: $2 Street Tacos &lt;br&gt; Drinks: $3.50 Draft Beer, $4.50  House Marg, $5 Silver Shot, $6 Juicy Marg", 'link':"http://www.tacocolorado.com/", 'pricing':"",   'phone-number': "", 'address': "1175 Walnut StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"2200", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "2 -6 pm Daily, All day and night Sunday &lt;br&gt; Food: $2.50 Street Tacos &lt;br&gt; Drinks: $3.50 Draft Beer, $4.50  House Marg, $5.50 Silver Shot, $6.50 Juicy Marg", 'link':"http://www.tacocolorado.com/", 'pricing':"",   'phone-number': "", 'address': "1175 Walnut StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY110" s="1" t="str">
         <f t="shared" si="156"/>
@@ -23021,10 +23021,10 @@
         <v>97</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J111" s="1">
         <v>1600</v>
@@ -23063,7 +23063,7 @@
         <v>1800</v>
       </c>
       <c r="V111" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="W111" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23150,13 +23150,13 @@
         <v>11.3am-6pm</v>
       </c>
       <c r="AR111" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AS111" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU111" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV111" s="5" t="s">
         <v>32</v>
@@ -23223,10 +23223,10 @@
         <v>98</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H112" s="1">
         <v>1500</v>
@@ -23271,7 +23271,7 @@
         <v>1800</v>
       </c>
       <c r="V112" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W112" s="1">
         <f t="shared" si="132"/>
@@ -23358,16 +23358,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR112" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AS112" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT112" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU112" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV112" s="5" t="s">
         <v>32</v>
@@ -23431,13 +23431,13 @@
     </row>
     <row r="113" spans="2:64" ht="21" customHeight="1">
       <c r="B113" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="W113" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23524,10 +23524,10 @@
         <v/>
       </c>
       <c r="AR113" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AU113" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV113" s="5" t="s">
         <v>33</v>
@@ -23594,10 +23594,10 @@
         <v>65</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H114" s="1">
         <v>2100</v>
@@ -23729,13 +23729,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR114" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AS114" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AU114" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV114" s="5" t="s">
         <v>32</v>
@@ -23800,18 +23800,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL114" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="2:64" ht="21" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J115" s="1">
         <v>1700</v>
@@ -23844,7 +23844,7 @@
         <v>2000</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23931,13 +23931,13 @@
         <v/>
       </c>
       <c r="AR115" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AS115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU115" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV115" s="5" t="s">
         <v>32</v>
@@ -24004,10 +24004,10 @@
         <v>70</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J116" s="1">
         <v>1600</v>
@@ -24040,7 +24040,7 @@
         <v>1800</v>
       </c>
       <c r="V116" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W116" s="1" t="str">
         <f t="shared" si="132"/>
@@ -24127,13 +24127,13 @@
         <v/>
       </c>
       <c r="AR116" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS116" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU116" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV116" s="5" t="s">
         <v>32</v>
@@ -24197,13 +24197,13 @@
     </row>
     <row r="117" spans="2:64" ht="21" customHeight="1">
       <c r="B117" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H117" s="1">
         <v>1500</v>
@@ -24248,7 +24248,7 @@
         <v>1800</v>
       </c>
       <c r="V117" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="W117" s="1">
         <f t="shared" si="132"/>
@@ -24335,10 +24335,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR117" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AU117" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV117" s="5" t="s">
         <v>32</v>
@@ -24405,10 +24405,10 @@
         <v>71</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H118" s="1">
         <v>1500</v>
@@ -24453,7 +24453,7 @@
         <v>1800</v>
       </c>
       <c r="V118" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W118" s="1">
         <f t="shared" si="132"/>
@@ -24540,13 +24540,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR118" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AS118" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU118" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV118" s="5" t="s">
         <v>32</v>
@@ -24610,13 +24610,13 @@
     </row>
     <row r="119" spans="2:64" ht="21" customHeight="1">
       <c r="B119" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="W119" s="1" t="str">
         <f t="shared" si="132"/>
@@ -24703,13 +24703,13 @@
         <v/>
       </c>
       <c r="AR119" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AS119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU119" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV119" s="5" t="s">
         <v>33</v>
@@ -24776,10 +24776,10 @@
         <v>27</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H120" s="1">
         <v>1400</v>
@@ -24824,7 +24824,7 @@
         <v>1700</v>
       </c>
       <c r="V120" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W120" s="1">
         <f t="shared" si="132"/>
@@ -24911,16 +24911,16 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR120" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AS120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT120" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU120" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV120" s="5" t="s">
         <v>32</v>
@@ -24987,10 +24987,10 @@
         <v>81</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H121" s="1">
         <v>1500</v>
@@ -25035,7 +25035,7 @@
         <v>1830</v>
       </c>
       <c r="V121" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="W121" s="1">
         <f t="shared" si="132"/>
@@ -25122,13 +25122,13 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR121" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AS121" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU121" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV121" s="5" t="s">
         <v>32</v>
@@ -25192,13 +25192,13 @@
     </row>
     <row r="122" spans="2:64" ht="21" customHeight="1">
       <c r="B122" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="W122" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25286,10 +25286,10 @@
       </c>
       <c r="AR122" s="4"/>
       <c r="AT122" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU122" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV122" s="5" t="s">
         <v>33</v>
@@ -25353,13 +25353,13 @@
     </row>
     <row r="123" spans="2:64" ht="21" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="W123" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25446,10 +25446,10 @@
         <v/>
       </c>
       <c r="AR123" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AU123" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV123" s="5" t="s">
         <v>33</v>
@@ -25513,13 +25513,13 @@
     </row>
     <row r="124" spans="2:64" ht="21" customHeight="1">
       <c r="B124" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G124" s="19" t="s">
         <v>295</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G124" s="19" t="s">
-        <v>297</v>
       </c>
       <c r="H124" s="1">
         <v>1100</v>
@@ -25558,7 +25558,7 @@
         <v>1800</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="W124" s="1">
         <f t="shared" si="132"/>
@@ -25645,13 +25645,13 @@
         <v/>
       </c>
       <c r="AR124" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AS124" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU124" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV124" s="5" t="s">
         <v>32</v>
@@ -25715,13 +25715,13 @@
     </row>
     <row r="125" spans="2:64" ht="21" customHeight="1">
       <c r="B125" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="W125" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25808,10 +25808,10 @@
         <v/>
       </c>
       <c r="AR125" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AU125" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV125" s="5" t="s">
         <v>33</v>
@@ -25876,18 +25876,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL125" s="26" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="126" spans="2:64" ht="21" customHeight="1">
       <c r="B126" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="W126" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25974,13 +25974,13 @@
         <v/>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AS126" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU126" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV126" s="5" t="s">
         <v>33</v>
@@ -26048,13 +26048,13 @@
     </row>
     <row r="127" spans="2:64" ht="21" customHeight="1">
       <c r="B127" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H127" s="1">
         <v>1700</v>
@@ -26183,10 +26183,10 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR127" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AU127" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV127" s="5" t="s">
         <v>33</v>
@@ -26250,13 +26250,13 @@
     </row>
     <row r="128" spans="2:64" ht="21" customHeight="1">
       <c r="B128" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W128" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26343,13 +26343,13 @@
         <v/>
       </c>
       <c r="AR128" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AT128" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU128" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV128" s="5" t="s">
         <v>33</v>
@@ -26413,13 +26413,13 @@
     </row>
     <row r="129" spans="2:63" ht="21" customHeight="1">
       <c r="B129" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26506,10 +26506,10 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AU129" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV129" s="5" t="s">
         <v>33</v>
@@ -26573,13 +26573,13 @@
     </row>
     <row r="130" spans="2:63" ht="21" customHeight="1">
       <c r="B130" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="W130" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26666,10 +26666,10 @@
         <v/>
       </c>
       <c r="AR130" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AU130" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV130" s="5" t="s">
         <v>33</v>
@@ -26733,13 +26733,13 @@
     </row>
     <row r="131" spans="2:63" ht="21" customHeight="1">
       <c r="B131" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J131" s="1">
         <v>1100</v>
@@ -26772,7 +26772,7 @@
         <v>1800</v>
       </c>
       <c r="V131" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="W131" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26859,10 +26859,10 @@
         <v/>
       </c>
       <c r="AR131" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AU131" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV131" s="5" t="s">
         <v>32</v>
@@ -26926,13 +26926,13 @@
     </row>
     <row r="132" spans="2:63" ht="21" customHeight="1">
       <c r="B132" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="W132" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27019,13 +27019,13 @@
         <v/>
       </c>
       <c r="AR132" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AT132" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AU132" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="AT132" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="AU132" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="AV132" s="5" t="s">
         <v>33</v>
@@ -27092,10 +27092,10 @@
         <v>99</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H133" s="1">
         <v>1730</v>
@@ -27140,7 +27140,7 @@
         <v>1830</v>
       </c>
       <c r="V133" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W133" s="1">
         <f t="shared" si="206"/>
@@ -27227,13 +27227,13 @@
         <v>5.3pm-6.3pm</v>
       </c>
       <c r="AR133" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AS133" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AU133" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV133" s="5" t="s">
         <v>32</v>
@@ -27297,13 +27297,13 @@
     </row>
     <row r="134" spans="2:63" ht="21" customHeight="1">
       <c r="B134" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H134" s="1">
         <v>1500</v>
@@ -27348,7 +27348,7 @@
         <v>1830</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="W134" s="1">
         <f t="shared" si="206"/>
@@ -27435,10 +27435,10 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR134" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AU134" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV134" s="5" t="s">
         <v>32</v>
@@ -27502,13 +27502,13 @@
     </row>
     <row r="135" spans="2:63" ht="21" customHeight="1">
       <c r="B135" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="W135" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27595,10 +27595,10 @@
         <v/>
       </c>
       <c r="AR135" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AU135" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV135" s="5" t="s">
         <v>33</v>
@@ -27662,13 +27662,13 @@
     </row>
     <row r="136" spans="2:63" ht="21" customHeight="1">
       <c r="B136" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="W136" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27756,7 +27756,7 @@
       </c>
       <c r="AR136" s="4"/>
       <c r="AU136" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV136" s="5" t="s">
         <v>33</v>
@@ -27820,13 +27820,13 @@
     </row>
     <row r="137" spans="2:63" ht="21" customHeight="1">
       <c r="B137" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="W137" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27913,13 +27913,13 @@
         <v/>
       </c>
       <c r="AR137" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AT137" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU137" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV137" s="5" t="s">
         <v>33</v>
@@ -27983,13 +27983,13 @@
     </row>
     <row r="138" spans="2:63" ht="21" customHeight="1">
       <c r="B138" s="20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G138" s="24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="W138" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28076,10 +28076,10 @@
         <v/>
       </c>
       <c r="AR138" s="14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AU138" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV138" s="5" t="s">
         <v>33</v>
@@ -28146,10 +28146,10 @@
         <v>100</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J139" s="1">
         <v>1500</v>
@@ -28188,7 +28188,7 @@
         <v>2400</v>
       </c>
       <c r="V139" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W139" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28275,13 +28275,13 @@
         <v>9pm-12am</v>
       </c>
       <c r="AR139" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AS139" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU139" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV139" s="5" t="s">
         <v>32</v>
@@ -28348,10 +28348,10 @@
         <v>101</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J140" s="1">
         <v>1500</v>
@@ -28384,7 +28384,7 @@
         <v>1800</v>
       </c>
       <c r="V140" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W140" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28471,13 +28471,13 @@
         <v/>
       </c>
       <c r="AR140" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AS140" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU140" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV140" s="5" t="s">
         <v>32</v>
@@ -28544,10 +28544,10 @@
         <v>102</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H141" s="1">
         <v>1500</v>
@@ -28592,7 +28592,7 @@
         <v>1700</v>
       </c>
       <c r="V141" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="W141" s="1">
         <f t="shared" si="206"/>
@@ -28679,16 +28679,16 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR141" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AS141" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT141" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AU141" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV141" s="5" t="s">
         <v>32</v>
@@ -28752,13 +28752,13 @@
     </row>
     <row r="142" spans="2:63" ht="21" customHeight="1">
       <c r="B142" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W142" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28845,10 +28845,10 @@
         <v/>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AU142" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV142" s="5" t="s">
         <v>33</v>
@@ -28912,13 +28912,13 @@
     </row>
     <row r="143" spans="2:63" ht="21" customHeight="1">
       <c r="B143" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="W143" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29005,10 +29005,10 @@
         <v/>
       </c>
       <c r="AR143" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AU143" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV143" s="5" t="s">
         <v>33</v>
@@ -29072,13 +29072,13 @@
     </row>
     <row r="144" spans="2:63" ht="21" customHeight="1">
       <c r="B144" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W144" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29165,10 +29165,10 @@
         <v/>
       </c>
       <c r="AR144" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AU144" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV144" s="5" t="s">
         <v>33</v>
@@ -29232,13 +29232,13 @@
     </row>
     <row r="145" spans="2:63" ht="21" customHeight="1">
       <c r="B145" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W145" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29325,13 +29325,13 @@
         <v/>
       </c>
       <c r="AR145" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AS145" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU145" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV145" s="5" t="s">
         <v>33</v>
@@ -29395,13 +29395,13 @@
     </row>
     <row r="146" spans="2:63" ht="21" customHeight="1">
       <c r="B146" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J146" s="1">
         <v>1500</v>
@@ -29440,7 +29440,7 @@
         <v>1800</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="W146" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29527,13 +29527,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR146" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AS146" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU146" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV146" s="5" t="s">
         <v>32</v>
@@ -29635,25 +29635,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" t="s">
         <v>470</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" t="s">
         <v>471</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>472</v>
-      </c>
-      <c r="G1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="2" spans="2:8">
@@ -29664,16 +29664,16 @@
         <v>-105.26014499999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -29684,16 +29684,16 @@
         <v>-105.25942000000001</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -29704,16 +29704,16 @@
         <v>-105.25924000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -29724,16 +29724,16 @@
         <v>-105.20641999999999</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="2:8">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -430,9 +430,6 @@
     <t>Daily 5:30 - 6:30pm &lt;br&gt; Food: $5 Appetizers, $8 Pizza, $14 Mussels &lt;br&gt; Drinks: $4 Select Beers, $5-7 Cocktails, $6 Wines by the glass</t>
   </si>
   <si>
-    <t>Monday - Friday 3 - 6pm &lt;br&gt; Late Night Thursday - Saturday 9pm - 12am &lt;br&gt; Food: $2-6 â€œGood Eatsâ€ &lt;br&gt; Drinks: $1 off Drafts, $3 PBR Tall Boy Can, $3.5 Premium Cans, $2.5 â€œWorkinâ€™ Man Cansâ€, $5 House Wine, Cocktails, Shot &amp; Beer Combo, $3.5 Well Drinks, $3 Mystery Shot</t>
-  </si>
-  <si>
     <t>Monday - Friday 3 - 6 pm &lt;br&gt; Food: $3-8 Small Plates &lt;br&gt; Drinks: $4 House Beer, $4 House Wines, $5 Specialty Cocktails</t>
   </si>
   <si>
@@ -1767,6 +1764,9 @@
   </si>
   <si>
     <t>FOOD&lt;Br&gt;BOQUERONES - ANCHOVIES - $4&lt;Br&gt;CROQUETTAS DE JAMON - HAM REDUCTION - $5&lt;Br&gt;PAN CON TOMATE - CONFIT GARLIC AIOLI, OLIVE OIL - $4&lt;Br&gt;PAN CON BRANDADE - SALT COD BRANDADE, OLIVE OIL - $4&lt;Br&gt;GILDAS - ANCHOVY, OLIVES, GUANDILLA PEPPERS - $4&lt;Br&gt;ACEITUNAS MARINADAS - OLIVES, GARLIC, LEMON, PARSLEY - $5&lt;Br&gt;ACEITUNAS FRITAS - FRIED OLIVES, ALMOND ROMESCO, IDIAZABAL CHEESE - $9&lt;Br&gt;ESPINACA &amp; GARBANZOS - SPINACH, CRISPY CHICKPEAS, TOMATO, CUMIN PANISSE CAKE - $11&lt;Br&gt;PATATAS BRAVAS - SALSA BRAVA, GARLIC CONFIT AIOLI - $8&lt;Br&gt;TARTAR DE WAGYU - 7X WAGYU TARTARE TOAST, OLIVE OIL, LEMON, EGG YOLK, BLACK TRUFFLES - $20&lt;Br&gt;TOSTADA DE GAMBAS - ROYAL RED SHRIMP, TOAST, PIQUILLO PEPPERS, PICKLED ONIONS, AIOLI - 2 - $6&lt;Br&gt;ALBONDIGAS - MEATBALLS, TOMATO, PIQUILLO PEPPERS, CAMPO DE MONTABLON CHEESE - $11&lt;Br&gt;OSTRA - WIANNO OYSTER, GAZPACHO GELEE, CUCUMBER &amp; RED PEPPER MIGNONETTE - $4 EA&lt;Br&gt;DRINKS&lt;br&gt;ESTRELLA - LAGER, ON TAP (10 OZ. VIERTE) - $4&lt;br&gt;GIN TONIC DEL DIA - DEATHS DOOR GIN AND FEVER TREE CITRUS TONIC, GRAPEFRUIT AND LIME - $9&lt;br&gt;WHITE NEGRONI - DE MULLER BLANCO VERMOUTH, BOUGIE TIKI, ALLSPICE DRAM, LIME - $9&lt;br&gt;WINTER DAIQUIRI - STREET PUMAS RUM, PEAR, LIME - $9</t>
+  </si>
+  <si>
+    <t>Monday - Friday 3 - 6pm &lt;br&gt; Late Night Thursday - Saturday 9pm - 12am &lt;br&gt; Food: $2-5 &lt;br&gt; Drinks: $4 Select Drafts&lt;br&gt;$3 Workin Man Cans&lt;br&gt;$4 Premium Cans&lt;br&gt;$6 Shot and a Beer&lt;br&gt;$5 Well Drinks&lt;br&gt;$6 House Wine&lt;br&gt;$6 Cocktails</t>
   </si>
 </sst>
 </file>
@@ -2768,10 +2768,10 @@
   <dimension ref="B1:BL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="V30" sqref="V30"/>
+      <selection pane="bottomRight" activeCell="V140" sqref="V140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2973,13 +2973,13 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W2" s="1" t="str">
         <f t="shared" ref="W2:W4" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -3066,13 +3066,13 @@
         <v/>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>33</v>
@@ -3141,13 +3141,13 @@
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1">
       <c r="B3" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3234,10 +3234,10 @@
         <v/>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>33</v>
@@ -3301,13 +3301,13 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3394,13 +3394,13 @@
         <v/>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV4" s="5" t="s">
         <v>33</v>
@@ -3464,13 +3464,13 @@
     </row>
     <row r="5" spans="2:64" ht="21" customHeight="1">
       <c r="B5" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J5" s="1">
         <v>1500</v>
@@ -3587,10 +3587,10 @@
         <v/>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV5" s="5" t="s">
         <v>32</v>
@@ -3657,10 +3657,10 @@
         <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="H6" s="1">
         <v>1500</v>
@@ -3705,7 +3705,7 @@
         <v>1800</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="32"/>
@@ -3792,13 +3792,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>32</v>
@@ -3864,13 +3864,13 @@
     </row>
     <row r="7" spans="2:64" ht="21" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" si="32"/>
@@ -3957,13 +3957,13 @@
         <v/>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV7" s="5" t="s">
         <v>33</v>
@@ -4030,10 +4030,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H8" s="1">
         <v>1600</v>
@@ -4165,13 +4165,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR8" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV8" s="5" t="s">
         <v>32</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="9" spans="2:64" ht="21" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4328,16 +4328,16 @@
         <v/>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV9" s="5" t="s">
         <v>33</v>
@@ -4401,13 +4401,13 @@
     </row>
     <row r="10" spans="2:64" ht="21" customHeight="1">
       <c r="B10" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>422</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>423</v>
       </c>
       <c r="H10" s="1">
         <v>1600</v>
@@ -4452,7 +4452,7 @@
         <v>1800</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="32"/>
@@ -4539,10 +4539,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>32</v>
@@ -4606,13 +4606,13 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H11" s="1">
         <v>1400</v>
@@ -4657,7 +4657,7 @@
         <v>1700</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="32"/>
@@ -4744,10 +4744,10 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV11" s="5" t="s">
         <v>32</v>
@@ -4811,13 +4811,13 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
       <c r="B12" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4904,10 +4904,10 @@
         <v/>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV12" s="5" t="s">
         <v>33</v>
@@ -4971,13 +4971,13 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H13" s="1">
         <v>1600</v>
@@ -5022,7 +5022,7 @@
         <v>1800</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="32"/>
@@ -5109,13 +5109,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV13" s="5" t="s">
         <v>32</v>
@@ -5183,10 +5183,10 @@
         <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J14" s="1">
         <v>1500</v>
@@ -5306,13 +5306,13 @@
         <v/>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>32</v>
@@ -5376,13 +5376,13 @@
     </row>
     <row r="15" spans="2:64" ht="21" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5469,10 +5469,10 @@
         <v/>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV15" s="5" t="s">
         <v>33</v>
@@ -5536,13 +5536,13 @@
     </row>
     <row r="16" spans="2:64" ht="21" customHeight="1">
       <c r="B16" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>302</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>303</v>
       </c>
       <c r="J16" s="1">
         <v>1500</v>
@@ -5581,7 +5581,7 @@
         <v>1830</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5669,10 +5669,10 @@
       </c>
       <c r="AR16" s="4"/>
       <c r="AT16" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV16" s="5" t="s">
         <v>32</v>
@@ -5737,7 +5737,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="2:64" ht="21" customHeight="1">
@@ -5745,10 +5745,10 @@
         <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H17" s="1">
         <v>1600</v>
@@ -5793,7 +5793,7 @@
         <v>1800</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="32"/>
@@ -5880,13 +5880,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV17" s="5" t="s">
         <v>32</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="18" spans="2:64" ht="21" customHeight="1">
       <c r="B18" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W18" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6043,13 +6043,13 @@
         <v/>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AS18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>33</v>
@@ -6113,13 +6113,13 @@
     </row>
     <row r="19" spans="2:64" ht="21" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1" t="str">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="AR19" s="4"/>
       <c r="AU19" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV19" s="5" t="s">
         <v>33</v>
@@ -6275,10 +6275,10 @@
         <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H20" s="1">
         <v>1500</v>
@@ -6410,16 +6410,16 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV20" s="5" t="s">
         <v>32</v>
@@ -6483,13 +6483,13 @@
     </row>
     <row r="21" spans="2:64" ht="21" customHeight="1">
       <c r="B21" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W21" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6576,13 +6576,13 @@
         <v/>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>33</v>
@@ -6646,13 +6646,13 @@
     </row>
     <row r="22" spans="2:64" ht="21" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W22" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6739,13 +6739,13 @@
         <v/>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV22" s="5" t="s">
         <v>33</v>
@@ -6809,13 +6809,13 @@
     </row>
     <row r="23" spans="2:64" ht="21" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6902,13 +6902,13 @@
         <v/>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AS23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>33</v>
@@ -6972,13 +6972,13 @@
     </row>
     <row r="24" spans="2:64" ht="21" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L24" s="1">
         <v>1500</v>
@@ -7011,7 +7011,7 @@
         <v>1800</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7098,16 +7098,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AS24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>32</v>
@@ -7171,13 +7171,13 @@
     </row>
     <row r="25" spans="2:64" ht="21" customHeight="1">
       <c r="B25" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H25" s="1">
         <v>1600</v>
@@ -7307,10 +7307,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>32</v>
@@ -7377,10 +7377,10 @@
         <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H26" s="1">
         <v>1400</v>
@@ -7425,7 +7425,7 @@
         <v>1800</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="W26" s="1">
         <f t="shared" si="32"/>
@@ -7512,13 +7512,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AS26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV26" s="5" t="s">
         <v>32</v>
@@ -7583,7 +7583,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="2:64" ht="21" customHeight="1">
@@ -7591,10 +7591,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7681,10 +7681,10 @@
         <v/>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>33</v>
@@ -7748,13 +7748,13 @@
     </row>
     <row r="28" spans="2:64" ht="21" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W28" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7841,13 +7841,13 @@
         <v/>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AS28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV28" s="5" t="s">
         <v>33</v>
@@ -7911,13 +7911,13 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H29" s="1">
         <v>1600</v>
@@ -7962,7 +7962,7 @@
         <v>1730</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" ref="W29" si="53">IF(H29&gt;0,H29/100,"")</f>
@@ -8049,13 +8049,13 @@
         <v>4pm-5.3pm</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV29" s="5" t="s">
         <v>32</v>
@@ -8119,13 +8119,13 @@
     </row>
     <row r="30" spans="2:64" ht="21" customHeight="1">
       <c r="B30" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>417</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>418</v>
       </c>
       <c r="H30" s="1">
         <v>1700</v>
@@ -8170,7 +8170,7 @@
         <v>1830</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W30" s="1">
         <f t="shared" si="32"/>
@@ -8257,10 +8257,10 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>32</v>
@@ -8324,13 +8324,13 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J31" s="1">
         <v>1600</v>
@@ -8363,7 +8363,7 @@
         <v>2000</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" ref="W31" si="81">IF(H31&gt;0,H31/100,"")</f>
@@ -8450,7 +8450,7 @@
         <v/>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>32</v>
@@ -8514,13 +8514,13 @@
     </row>
     <row r="32" spans="2:64" ht="21" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8607,13 +8607,13 @@
         <v/>
       </c>
       <c r="AR32" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AS32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV32" s="5" t="s">
         <v>33</v>
@@ -8677,13 +8677,13 @@
     </row>
     <row r="33" spans="2:64" ht="21" customHeight="1">
       <c r="B33" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8770,13 +8770,13 @@
         <v/>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV33" s="5" t="s">
         <v>33</v>
@@ -8844,13 +8844,13 @@
     </row>
     <row r="34" spans="2:64" ht="21" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H34" s="1">
         <v>1500</v>
@@ -8895,7 +8895,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" si="32"/>
@@ -8982,13 +8982,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR34" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AS34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV34" s="5" t="s">
         <v>32</v>
@@ -9051,10 +9051,10 @@
         <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H35" s="1">
         <v>1400</v>
@@ -9099,7 +9099,7 @@
         <v>1800</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="32"/>
@@ -9186,13 +9186,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR35" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV35" s="5" t="s">
         <v>32</v>
@@ -9256,13 +9256,13 @@
     </row>
     <row r="36" spans="2:64" ht="21" customHeight="1">
       <c r="B36" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W36" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9349,13 +9349,13 @@
         <v/>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>33</v>
@@ -9419,13 +9419,13 @@
     </row>
     <row r="37" spans="2:64" ht="21" customHeight="1">
       <c r="B37" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W37" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9512,10 +9512,10 @@
         <v/>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>33</v>
@@ -9579,13 +9579,13 @@
     </row>
     <row r="38" spans="2:64" ht="21" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J38" s="1">
         <v>1500</v>
@@ -9618,7 +9618,7 @@
         <v>1800</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9705,13 +9705,13 @@
         <v/>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AS38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV38" s="5" t="s">
         <v>32</v>
@@ -9776,18 +9776,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="21" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9874,13 +9874,13 @@
         <v/>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AS39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV39" s="5" t="s">
         <v>33</v>
@@ -9944,13 +9944,13 @@
     </row>
     <row r="40" spans="2:64" ht="21" customHeight="1">
       <c r="B40" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="V40" s="6"/>
       <c r="W40" s="1" t="str">
@@ -10038,10 +10038,10 @@
         <v/>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>33</v>
@@ -10105,13 +10105,13 @@
     </row>
     <row r="41" spans="2:64" ht="21" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W41" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10198,10 +10198,10 @@
         <v/>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV41" s="5" t="s">
         <v>33</v>
@@ -10268,10 +10268,10 @@
         <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H42" s="1">
         <v>1700</v>
@@ -10397,13 +10397,13 @@
         <v/>
       </c>
       <c r="AR42" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV42" s="5" t="s">
         <v>32</v>
@@ -10467,13 +10467,13 @@
     </row>
     <row r="43" spans="2:64" ht="21" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10560,13 +10560,13 @@
         <v/>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV43" s="5" t="s">
         <v>33</v>
@@ -10630,13 +10630,13 @@
     </row>
     <row r="44" spans="2:64" ht="21" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10723,10 +10723,10 @@
         <v/>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>33</v>
@@ -10790,13 +10790,13 @@
     </row>
     <row r="45" spans="2:64" ht="21" customHeight="1">
       <c r="B45" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W45" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10883,13 +10883,13 @@
         <v/>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV45" s="5" t="s">
         <v>33</v>
@@ -10953,13 +10953,13 @@
     </row>
     <row r="46" spans="2:64" ht="21" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11046,10 +11046,10 @@
         <v/>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV46" s="5" t="s">
         <v>33</v>
@@ -11113,13 +11113,13 @@
     </row>
     <row r="47" spans="2:64" ht="21" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H47" s="1">
         <v>1500</v>
@@ -11164,7 +11164,7 @@
         <v>1900</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" si="32"/>
@@ -11251,13 +11251,13 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR47" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>32</v>
@@ -11324,10 +11324,10 @@
         <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J48" s="1">
         <v>1430</v>
@@ -11453,13 +11453,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR48" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV48" s="5" t="s">
         <v>32</v>
@@ -11526,10 +11526,10 @@
         <v>26</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H49" s="1">
         <v>1500</v>
@@ -11661,13 +11661,13 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR49" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV49" s="5" t="s">
         <v>32</v>
@@ -11734,10 +11734,10 @@
         <v>26</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H50" s="1">
         <v>1500</v>
@@ -11782,7 +11782,7 @@
         <v>2000</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W50" s="1">
         <f t="shared" si="32"/>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="AR50" s="4"/>
       <c r="AU50" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>32</v>
@@ -11934,13 +11934,13 @@
     </row>
     <row r="51" spans="2:64" ht="21" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12027,10 +12027,10 @@
         <v/>
       </c>
       <c r="AR51" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV51" s="5" t="s">
         <v>33</v>
@@ -12094,13 +12094,13 @@
     </row>
     <row r="52" spans="2:64" ht="21" customHeight="1">
       <c r="B52" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W52" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12187,10 +12187,10 @@
         <v/>
       </c>
       <c r="AR52" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV52" s="5" t="s">
         <v>33</v>
@@ -12254,13 +12254,13 @@
     </row>
     <row r="53" spans="2:64" ht="21" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V53" s="6"/>
       <c r="W53" s="1" t="str">
@@ -12348,13 +12348,13 @@
         <v/>
       </c>
       <c r="AR53" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AS53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV53" s="5" t="s">
         <v>33</v>
@@ -12421,10 +12421,10 @@
         <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H54" s="1">
         <v>1500</v>
@@ -12556,16 +12556,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR54" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AS54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV54" s="5" t="s">
         <v>32</v>
@@ -12632,10 +12632,10 @@
         <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H55" s="1">
         <v>1600</v>
@@ -12767,13 +12767,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR55" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS55" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV55" s="5" t="s">
         <v>32</v>
@@ -12837,13 +12837,13 @@
     </row>
     <row r="56" spans="2:64" ht="21" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H56" s="1">
         <v>1600</v>
@@ -12975,13 +12975,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR56" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS56" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV56" s="5" t="s">
         <v>32</v>
@@ -13046,18 +13046,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="57" spans="2:64" ht="21" customHeight="1">
       <c r="B57" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13144,10 +13144,10 @@
         <v/>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV57" s="5" t="s">
         <v>33</v>
@@ -13211,13 +13211,13 @@
     </row>
     <row r="58" spans="2:64" ht="21" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13304,16 +13304,16 @@
         <v/>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AS58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV58" s="5" t="s">
         <v>33</v>
@@ -13377,13 +13377,13 @@
     </row>
     <row r="59" spans="2:64" ht="21" customHeight="1">
       <c r="B59" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G59" s="24" t="s">
         <v>419</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>420</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13470,10 +13470,10 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV59" s="5" t="s">
         <v>33</v>
@@ -13537,13 +13537,13 @@
     </row>
     <row r="60" spans="2:64" ht="21" customHeight="1">
       <c r="B60" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W60" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13630,10 +13630,10 @@
         <v/>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV60" s="5" t="s">
         <v>33</v>
@@ -13698,7 +13698,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL60" s="26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="2:64" ht="21" customHeight="1">
@@ -13706,10 +13706,10 @@
         <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J61" s="1">
         <v>1500</v>
@@ -13829,13 +13829,13 @@
         <v/>
       </c>
       <c r="AR61" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV61" s="5" t="s">
         <v>32</v>
@@ -13899,13 +13899,13 @@
     </row>
     <row r="62" spans="2:64" ht="21" customHeight="1">
       <c r="B62" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="W62" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13992,10 +13992,10 @@
         <v/>
       </c>
       <c r="AR62" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV62" s="5" t="s">
         <v>33</v>
@@ -14059,13 +14059,13 @@
     </row>
     <row r="63" spans="2:64" ht="21" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W63" s="1" t="str">
         <f t="shared" si="32"/>
@@ -14152,10 +14152,10 @@
         <v/>
       </c>
       <c r="AR63" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV63" s="5" t="s">
         <v>33</v>
@@ -14222,10 +14222,10 @@
         <v>78</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H64" s="1">
         <v>1500</v>
@@ -14270,7 +14270,7 @@
         <v>1800</v>
       </c>
       <c r="V64" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" si="32"/>
@@ -14357,13 +14357,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR64" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV64" s="5" t="s">
         <v>32</v>
@@ -14434,10 +14434,10 @@
         <v>79</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H65" s="1">
         <v>1700</v>
@@ -14569,13 +14569,13 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR65" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS65" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV65" s="5" t="s">
         <v>32</v>
@@ -14639,13 +14639,13 @@
     </row>
     <row r="66" spans="2:63" ht="21" customHeight="1">
       <c r="B66" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W66" s="1" t="str">
         <f t="shared" si="132"/>
@@ -14732,13 +14732,13 @@
         <v/>
       </c>
       <c r="AR66" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AS66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV66" s="5" t="s">
         <v>33</v>
@@ -14802,13 +14802,13 @@
     </row>
     <row r="67" spans="2:63" ht="21" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" si="132"/>
@@ -14895,10 +14895,10 @@
         <v/>
       </c>
       <c r="AR67" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV67" s="5" t="s">
         <v>33</v>
@@ -14962,13 +14962,13 @@
     </row>
     <row r="68" spans="2:63" ht="21" customHeight="1">
       <c r="B68" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15055,10 +15055,10 @@
         <v/>
       </c>
       <c r="AR68" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AU68" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV68" s="5" t="s">
         <v>33</v>
@@ -15125,10 +15125,10 @@
         <v>80</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J69" s="1">
         <v>1500</v>
@@ -15248,13 +15248,13 @@
         <v/>
       </c>
       <c r="AR69" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS69" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV69" s="5" t="s">
         <v>32</v>
@@ -15321,10 +15321,10 @@
         <v>82</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J70" s="1">
         <v>1600</v>
@@ -15444,13 +15444,13 @@
         <v/>
       </c>
       <c r="AR70" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS70" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV70" s="5" t="s">
         <v>32</v>
@@ -15514,13 +15514,13 @@
     </row>
     <row r="71" spans="2:63" ht="21" customHeight="1">
       <c r="B71" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G71" s="15" t="s">
         <v>452</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>453</v>
       </c>
       <c r="H71" s="1">
         <v>1500</v>
@@ -15565,7 +15565,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" si="132"/>
@@ -15652,10 +15652,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR71" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV71" s="5" t="s">
         <v>32</v>
@@ -15715,13 +15715,13 @@
     </row>
     <row r="72" spans="2:63" ht="21" customHeight="1">
       <c r="B72" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W72" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15808,13 +15808,13 @@
         <v/>
       </c>
       <c r="AR72" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AS72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU72" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV72" s="5" t="s">
         <v>33</v>
@@ -15878,13 +15878,13 @@
     </row>
     <row r="73" spans="2:63" ht="21" customHeight="1">
       <c r="B73" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W73" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15971,13 +15971,13 @@
         <v/>
       </c>
       <c r="AR73" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AS73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU73" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV73" s="5" t="s">
         <v>33</v>
@@ -16044,10 +16044,10 @@
         <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H74" s="1">
         <v>1500</v>
@@ -16092,7 +16092,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="W74" s="1">
         <f t="shared" si="132"/>
@@ -16179,13 +16179,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR74" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AS74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU74" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV74" s="5" t="s">
         <v>32</v>
@@ -16252,10 +16252,10 @@
         <v>84</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J75" s="1">
         <v>1630</v>
@@ -16369,16 +16369,16 @@
         <v/>
       </c>
       <c r="AR75" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AS75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT75" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV75" s="5" t="s">
         <v>32</v>
@@ -16445,10 +16445,10 @@
         <v>85</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J76" s="1">
         <v>1430</v>
@@ -16574,13 +16574,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR76" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AS76" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV76" s="5" t="s">
         <v>32</v>
@@ -16644,13 +16644,13 @@
     </row>
     <row r="77" spans="2:63" ht="21" customHeight="1">
       <c r="B77" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>459</v>
       </c>
       <c r="W77" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16737,10 +16737,10 @@
         <v/>
       </c>
       <c r="AR77" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV77" s="5" t="s">
         <v>33</v>
@@ -16803,10 +16803,10 @@
         <v>86</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J78" s="1">
         <v>1100</v>
@@ -16833,7 +16833,7 @@
         <v>1800</v>
       </c>
       <c r="V78" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W78" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16920,13 +16920,13 @@
         <v/>
       </c>
       <c r="AR78" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS78" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU78" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV78" s="5" t="s">
         <v>32</v>
@@ -16990,13 +16990,13 @@
     </row>
     <row r="79" spans="2:63" ht="21" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H79" s="1">
         <v>1600</v>
@@ -17041,7 +17041,7 @@
         <v>1900</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" si="132"/>
@@ -17132,7 +17132,7 @@
         <v>28</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV79" s="5" t="s">
         <v>32</v>
@@ -17196,13 +17196,13 @@
     </row>
     <row r="80" spans="2:63" ht="21" customHeight="1">
       <c r="B80" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H80" s="1">
         <v>1530</v>
@@ -17247,7 +17247,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="W80" s="1">
         <f t="shared" si="132"/>
@@ -17334,10 +17334,10 @@
         <v>3.3pm-6pm</v>
       </c>
       <c r="AR80" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV80" s="5" t="s">
         <v>32</v>
@@ -17401,13 +17401,13 @@
     </row>
     <row r="81" spans="2:63" ht="21" customHeight="1">
       <c r="B81" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W81" s="1" t="str">
         <f t="shared" si="132"/>
@@ -17494,13 +17494,13 @@
         <v/>
       </c>
       <c r="AR81" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AS81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV81" s="5" t="s">
         <v>33</v>
@@ -17564,13 +17564,13 @@
     </row>
     <row r="82" spans="2:63" ht="21" customHeight="1">
       <c r="B82" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W82" s="1" t="str">
         <f t="shared" si="132"/>
@@ -17657,13 +17657,13 @@
         <v/>
       </c>
       <c r="AR82" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AS82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV82" s="5" t="s">
         <v>33</v>
@@ -17730,10 +17730,10 @@
         <v>87</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H83" s="1">
         <v>1530</v>
@@ -17865,13 +17865,13 @@
         <v>3.3pm-5.3pm</v>
       </c>
       <c r="AR83" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV83" s="5" t="s">
         <v>32</v>
@@ -17938,10 +17938,10 @@
         <v>88</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H84" s="1">
         <v>1700</v>
@@ -18073,13 +18073,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR84" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV84" s="5" t="s">
         <v>32</v>
@@ -18146,10 +18146,10 @@
         <v>89</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H85" s="1">
         <v>1600</v>
@@ -18281,13 +18281,13 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR85" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS85" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AU85" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV85" s="5" t="s">
         <v>32</v>
@@ -18351,13 +18351,13 @@
     </row>
     <row r="86" spans="2:63" ht="21" customHeight="1">
       <c r="B86" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G86" s="24" t="s">
         <v>424</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G86" s="24" t="s">
-        <v>425</v>
       </c>
       <c r="J86" s="1">
         <v>1600</v>
@@ -18390,7 +18390,7 @@
         <v>1800</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W86" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18477,10 +18477,10 @@
         <v/>
       </c>
       <c r="AR86" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AU86" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV86" s="5" t="s">
         <v>32</v>
@@ -18544,13 +18544,13 @@
     </row>
     <row r="87" spans="2:63" ht="21" customHeight="1">
       <c r="B87" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W87" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18637,10 +18637,10 @@
         <v/>
       </c>
       <c r="AR87" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AU87" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV87" s="5" t="s">
         <v>33</v>
@@ -18703,10 +18703,10 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J88" s="1">
         <v>1500</v>
@@ -18739,7 +18739,7 @@
         <v>1800</v>
       </c>
       <c r="V88" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W88" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18826,13 +18826,13 @@
         <v/>
       </c>
       <c r="AR88" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AS88" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU88" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV88" s="5" t="s">
         <v>32</v>
@@ -18896,13 +18896,13 @@
     </row>
     <row r="89" spans="2:63" ht="21" customHeight="1">
       <c r="B89" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18989,16 +18989,16 @@
         <v/>
       </c>
       <c r="AR89" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AS89" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT89" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU89" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV89" s="5" t="s">
         <v>33</v>
@@ -19062,13 +19062,13 @@
     </row>
     <row r="90" spans="2:63" ht="21" customHeight="1">
       <c r="B90" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H90" s="1">
         <v>1400</v>
@@ -19113,7 +19113,7 @@
         <v>1800</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" si="132"/>
@@ -19200,10 +19200,10 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR90" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AU90" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV90" s="5" t="s">
         <v>32</v>
@@ -19270,10 +19270,10 @@
         <v>24</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J91" s="1">
         <v>1500</v>
@@ -19393,13 +19393,13 @@
         <v/>
       </c>
       <c r="AR91" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS91" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU91" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV91" s="5" t="s">
         <v>32</v>
@@ -19463,13 +19463,13 @@
     </row>
     <row r="92" spans="2:63" ht="21" customHeight="1">
       <c r="B92" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J92" s="1">
         <v>1600</v>
@@ -19502,7 +19502,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W92" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19589,13 +19589,13 @@
         <v/>
       </c>
       <c r="AR92" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS92" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU92" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV92" s="5" t="s">
         <v>32</v>
@@ -19659,13 +19659,13 @@
     </row>
     <row r="93" spans="2:63" ht="21" customHeight="1">
       <c r="B93" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H93" s="1">
         <v>1500</v>
@@ -19710,7 +19710,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" si="132"/>
@@ -19797,16 +19797,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR93" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AS93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT93" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU93" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV93" s="5" t="s">
         <v>32</v>
@@ -19874,13 +19874,13 @@
     </row>
     <row r="94" spans="2:63" ht="21" customHeight="1">
       <c r="B94" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W94" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19967,10 +19967,10 @@
         <v/>
       </c>
       <c r="AR94" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AU94" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV94" s="5" t="s">
         <v>33</v>
@@ -20037,10 +20037,10 @@
         <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H95" s="1">
         <v>1100</v>
@@ -20085,7 +20085,7 @@
         <v>1800</v>
       </c>
       <c r="V95" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" si="132"/>
@@ -20172,13 +20172,13 @@
         <v>11am-6pm</v>
       </c>
       <c r="AR95" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AS95" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU95" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV95" s="5" t="s">
         <v>32</v>
@@ -20242,13 +20242,13 @@
     </row>
     <row r="96" spans="2:63" ht="21" customHeight="1">
       <c r="B96" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="132"/>
@@ -20335,10 +20335,10 @@
         <v/>
       </c>
       <c r="AR96" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AU96" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV96" s="5" t="s">
         <v>33</v>
@@ -20405,10 +20405,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H97" s="1">
         <v>1500</v>
@@ -20540,13 +20540,13 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR97" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS97" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU97" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV97" s="5" t="s">
         <v>32</v>
@@ -20610,13 +20610,13 @@
     </row>
     <row r="98" spans="2:63" ht="21" customHeight="1">
       <c r="B98" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W98" s="1" t="str">
         <f t="shared" si="132"/>
@@ -20703,10 +20703,10 @@
         <v/>
       </c>
       <c r="AR98" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AU98" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV98" s="5" t="s">
         <v>33</v>
@@ -20773,10 +20773,10 @@
         <v>93</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H99" s="1">
         <v>1500</v>
@@ -20908,13 +20908,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR99" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS99" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU99" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV99" s="5" t="s">
         <v>32</v>
@@ -20981,10 +20981,10 @@
         <v>94</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H100" s="1">
         <v>1700</v>
@@ -21029,7 +21029,7 @@
         <v>1900</v>
       </c>
       <c r="V100" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="W100" s="1">
         <f t="shared" si="132"/>
@@ -21116,13 +21116,13 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR100" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS100" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU100" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV100" s="5" t="s">
         <v>32</v>
@@ -21186,13 +21186,13 @@
     </row>
     <row r="101" spans="2:63" ht="21" customHeight="1">
       <c r="B101" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G101" s="29" t="s">
         <v>566</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G101" s="29" t="s">
-        <v>567</v>
       </c>
       <c r="H101" s="1">
         <v>1500</v>
@@ -21237,7 +21237,7 @@
         <v>1800</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" ref="W101" si="165">IF(H101&gt;0,H101/100,"")</f>
@@ -21324,10 +21324,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR101" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AU101" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV101" s="5" t="s">
         <v>32</v>
@@ -21391,13 +21391,13 @@
     </row>
     <row r="102" spans="2:63" ht="21" customHeight="1">
       <c r="B102" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W102" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21484,10 +21484,10 @@
         <v/>
       </c>
       <c r="AR102" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AU102" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV102" s="5" t="s">
         <v>33</v>
@@ -21551,13 +21551,13 @@
     </row>
     <row r="103" spans="2:63" ht="21" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W103" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21644,10 +21644,10 @@
         <v/>
       </c>
       <c r="AR103" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AU103" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV103" s="5" t="s">
         <v>33</v>
@@ -21711,13 +21711,13 @@
     </row>
     <row r="104" spans="2:63" ht="21" customHeight="1">
       <c r="B104" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W104" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21804,10 +21804,10 @@
         <v/>
       </c>
       <c r="AR104" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AU104" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV104" s="5" t="s">
         <v>33</v>
@@ -21871,13 +21871,13 @@
     </row>
     <row r="105" spans="2:63" ht="21" customHeight="1">
       <c r="B105" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W105" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21964,13 +21964,13 @@
         <v/>
       </c>
       <c r="AR105" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AS105" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV105" s="5" t="s">
         <v>33</v>
@@ -22034,13 +22034,13 @@
     </row>
     <row r="106" spans="2:63" ht="21" customHeight="1">
       <c r="B106" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H106" s="1">
         <v>1600</v>
@@ -22085,7 +22085,7 @@
         <v>1800</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W106" s="1">
         <f t="shared" si="132"/>
@@ -22172,13 +22172,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR106" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AS106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU106" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV106" s="5" t="s">
         <v>32</v>
@@ -22242,13 +22242,13 @@
     </row>
     <row r="107" spans="2:63" ht="21" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H107" s="1">
         <v>1600</v>
@@ -22293,7 +22293,7 @@
         <v>1730</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" si="132"/>
@@ -22380,10 +22380,10 @@
         <v>11am-5.3pm</v>
       </c>
       <c r="AR107" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AU107" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV107" s="5" t="s">
         <v>32</v>
@@ -22450,10 +22450,10 @@
         <v>95</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J108" s="1">
         <v>1700</v>
@@ -22579,13 +22579,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR108" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS108" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AU108" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV108" s="5" t="s">
         <v>32</v>
@@ -22649,13 +22649,13 @@
     </row>
     <row r="109" spans="2:63" ht="21" customHeight="1">
       <c r="B109" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V109" s="6"/>
       <c r="W109" s="1" t="str">
@@ -22743,10 +22743,10 @@
         <v/>
       </c>
       <c r="AR109" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AU109" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV109" s="5" t="s">
         <v>33</v>
@@ -22813,10 +22813,10 @@
         <v>96</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H110" s="1">
         <v>1100</v>
@@ -22861,7 +22861,7 @@
         <v>1800</v>
       </c>
       <c r="V110" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W110" s="1">
         <f t="shared" si="132"/>
@@ -22948,13 +22948,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR110" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU110" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV110" s="5" t="s">
         <v>32</v>
@@ -23021,10 +23021,10 @@
         <v>97</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J111" s="1">
         <v>1600</v>
@@ -23150,13 +23150,13 @@
         <v>11.3am-6pm</v>
       </c>
       <c r="AR111" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS111" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU111" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV111" s="5" t="s">
         <v>32</v>
@@ -23223,10 +23223,10 @@
         <v>98</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H112" s="1">
         <v>1500</v>
@@ -23358,16 +23358,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR112" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS112" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT112" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU112" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV112" s="5" t="s">
         <v>32</v>
@@ -23431,13 +23431,13 @@
     </row>
     <row r="113" spans="2:64" ht="21" customHeight="1">
       <c r="B113" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W113" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23524,10 +23524,10 @@
         <v/>
       </c>
       <c r="AR113" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AU113" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV113" s="5" t="s">
         <v>33</v>
@@ -23594,10 +23594,10 @@
         <v>65</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H114" s="1">
         <v>2100</v>
@@ -23729,13 +23729,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR114" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AS114" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AU114" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV114" s="5" t="s">
         <v>32</v>
@@ -23800,18 +23800,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL114" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="2:64" ht="21" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J115" s="1">
         <v>1700</v>
@@ -23844,7 +23844,7 @@
         <v>2000</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23931,13 +23931,13 @@
         <v/>
       </c>
       <c r="AR115" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AS115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU115" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV115" s="5" t="s">
         <v>32</v>
@@ -24004,10 +24004,10 @@
         <v>70</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J116" s="1">
         <v>1600</v>
@@ -24127,13 +24127,13 @@
         <v/>
       </c>
       <c r="AR116" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AS116" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU116" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV116" s="5" t="s">
         <v>32</v>
@@ -24197,13 +24197,13 @@
     </row>
     <row r="117" spans="2:64" ht="21" customHeight="1">
       <c r="B117" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H117" s="1">
         <v>1500</v>
@@ -24248,7 +24248,7 @@
         <v>1800</v>
       </c>
       <c r="V117" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="W117" s="1">
         <f t="shared" si="132"/>
@@ -24335,10 +24335,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR117" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AU117" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV117" s="5" t="s">
         <v>32</v>
@@ -24405,10 +24405,10 @@
         <v>71</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H118" s="1">
         <v>1500</v>
@@ -24540,13 +24540,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR118" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS118" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU118" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV118" s="5" t="s">
         <v>32</v>
@@ -24610,13 +24610,13 @@
     </row>
     <row r="119" spans="2:64" ht="21" customHeight="1">
       <c r="B119" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W119" s="1" t="str">
         <f t="shared" si="132"/>
@@ -24703,13 +24703,13 @@
         <v/>
       </c>
       <c r="AR119" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AS119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU119" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV119" s="5" t="s">
         <v>33</v>
@@ -24776,10 +24776,10 @@
         <v>27</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H120" s="1">
         <v>1400</v>
@@ -24911,16 +24911,16 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR120" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT120" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU120" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV120" s="5" t="s">
         <v>32</v>
@@ -24987,10 +24987,10 @@
         <v>81</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H121" s="1">
         <v>1500</v>
@@ -25035,7 +25035,7 @@
         <v>1830</v>
       </c>
       <c r="V121" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="W121" s="1">
         <f t="shared" si="132"/>
@@ -25122,13 +25122,13 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR121" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AS121" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU121" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV121" s="5" t="s">
         <v>32</v>
@@ -25192,13 +25192,13 @@
     </row>
     <row r="122" spans="2:64" ht="21" customHeight="1">
       <c r="B122" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W122" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25286,10 +25286,10 @@
       </c>
       <c r="AR122" s="4"/>
       <c r="AT122" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU122" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV122" s="5" t="s">
         <v>33</v>
@@ -25353,13 +25353,13 @@
     </row>
     <row r="123" spans="2:64" ht="21" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W123" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25446,10 +25446,10 @@
         <v/>
       </c>
       <c r="AR123" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AU123" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV123" s="5" t="s">
         <v>33</v>
@@ -25513,13 +25513,13 @@
     </row>
     <row r="124" spans="2:64" ht="21" customHeight="1">
       <c r="B124" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="G124" s="19" t="s">
         <v>294</v>
-      </c>
-      <c r="G124" s="19" t="s">
-        <v>295</v>
       </c>
       <c r="H124" s="1">
         <v>1100</v>
@@ -25558,7 +25558,7 @@
         <v>1800</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W124" s="1">
         <f t="shared" si="132"/>
@@ -25645,13 +25645,13 @@
         <v/>
       </c>
       <c r="AR124" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AS124" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU124" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV124" s="5" t="s">
         <v>32</v>
@@ -25715,13 +25715,13 @@
     </row>
     <row r="125" spans="2:64" ht="21" customHeight="1">
       <c r="B125" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W125" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25808,10 +25808,10 @@
         <v/>
       </c>
       <c r="AR125" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AU125" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="AU125" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="AV125" s="5" t="s">
         <v>33</v>
@@ -25876,18 +25876,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL125" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="126" spans="2:64" ht="21" customHeight="1">
       <c r="B126" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W126" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25974,13 +25974,13 @@
         <v/>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AS126" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU126" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV126" s="5" t="s">
         <v>33</v>
@@ -26048,13 +26048,13 @@
     </row>
     <row r="127" spans="2:64" ht="21" customHeight="1">
       <c r="B127" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H127" s="1">
         <v>1700</v>
@@ -26183,10 +26183,10 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR127" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AU127" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV127" s="5" t="s">
         <v>33</v>
@@ -26250,13 +26250,13 @@
     </row>
     <row r="128" spans="2:64" ht="21" customHeight="1">
       <c r="B128" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W128" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26343,13 +26343,13 @@
         <v/>
       </c>
       <c r="AR128" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AT128" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU128" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV128" s="5" t="s">
         <v>33</v>
@@ -26413,13 +26413,13 @@
     </row>
     <row r="129" spans="2:63" ht="21" customHeight="1">
       <c r="B129" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26506,10 +26506,10 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AU129" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV129" s="5" t="s">
         <v>33</v>
@@ -26573,13 +26573,13 @@
     </row>
     <row r="130" spans="2:63" ht="21" customHeight="1">
       <c r="B130" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W130" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26666,10 +26666,10 @@
         <v/>
       </c>
       <c r="AR130" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AU130" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV130" s="5" t="s">
         <v>33</v>
@@ -26733,13 +26733,13 @@
     </row>
     <row r="131" spans="2:63" ht="21" customHeight="1">
       <c r="B131" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J131" s="1">
         <v>1100</v>
@@ -26772,7 +26772,7 @@
         <v>1800</v>
       </c>
       <c r="V131" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W131" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26859,10 +26859,10 @@
         <v/>
       </c>
       <c r="AR131" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AU131" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV131" s="5" t="s">
         <v>32</v>
@@ -26926,13 +26926,13 @@
     </row>
     <row r="132" spans="2:63" ht="21" customHeight="1">
       <c r="B132" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W132" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27019,13 +27019,13 @@
         <v/>
       </c>
       <c r="AR132" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AT132" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU132" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV132" s="5" t="s">
         <v>33</v>
@@ -27092,10 +27092,10 @@
         <v>99</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H133" s="1">
         <v>1730</v>
@@ -27227,13 +27227,13 @@
         <v>5.3pm-6.3pm</v>
       </c>
       <c r="AR133" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS133" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AU133" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV133" s="5" t="s">
         <v>32</v>
@@ -27297,13 +27297,13 @@
     </row>
     <row r="134" spans="2:63" ht="21" customHeight="1">
       <c r="B134" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H134" s="1">
         <v>1500</v>
@@ -27348,7 +27348,7 @@
         <v>1830</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W134" s="1">
         <f t="shared" si="206"/>
@@ -27435,10 +27435,10 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR134" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AU134" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV134" s="5" t="s">
         <v>32</v>
@@ -27502,13 +27502,13 @@
     </row>
     <row r="135" spans="2:63" ht="21" customHeight="1">
       <c r="B135" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W135" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27595,10 +27595,10 @@
         <v/>
       </c>
       <c r="AR135" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AU135" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV135" s="5" t="s">
         <v>33</v>
@@ -27662,13 +27662,13 @@
     </row>
     <row r="136" spans="2:63" ht="21" customHeight="1">
       <c r="B136" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W136" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27756,7 +27756,7 @@
       </c>
       <c r="AR136" s="4"/>
       <c r="AU136" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV136" s="5" t="s">
         <v>33</v>
@@ -27820,13 +27820,13 @@
     </row>
     <row r="137" spans="2:63" ht="21" customHeight="1">
       <c r="B137" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W137" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27913,13 +27913,13 @@
         <v/>
       </c>
       <c r="AR137" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AT137" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU137" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV137" s="5" t="s">
         <v>33</v>
@@ -27983,13 +27983,13 @@
     </row>
     <row r="138" spans="2:63" ht="21" customHeight="1">
       <c r="B138" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G138" s="24" t="s">
         <v>426</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G138" s="24" t="s">
-        <v>427</v>
       </c>
       <c r="W138" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28076,10 +28076,10 @@
         <v/>
       </c>
       <c r="AR138" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AU138" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV138" s="5" t="s">
         <v>33</v>
@@ -28146,10 +28146,10 @@
         <v>100</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J139" s="1">
         <v>1500</v>
@@ -28188,7 +28188,7 @@
         <v>2400</v>
       </c>
       <c r="V139" s="10" t="s">
-        <v>132</v>
+        <v>577</v>
       </c>
       <c r="W139" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28275,13 +28275,13 @@
         <v>9pm-12am</v>
       </c>
       <c r="AR139" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS139" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU139" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV139" s="5" t="s">
         <v>32</v>
@@ -28294,7 +28294,7 @@
         <v>{
     'name': "West End Tavern",
     'area': "pearl",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"2100", 'saturday-end':"2400"},  'description': "Monday - Friday 3 - 6pm &lt;br&gt; Late Night Thursday - Saturday 9pm - 12am &lt;br&gt; Food: $2-6 â€œGood Eatsâ€ &lt;br&gt; Drinks: $1 off Drafts, $3 PBR Tall Boy Can, $3.5 Premium Cans, $2.5 â€œWorkinâ€™ Man Cansâ€, $5 House Wine, Cocktails, Shot &amp; Beer Combo, $3.5 Well Drinks, $3 Mystery Shot", 'link':"http://www.thewestendtavern.com/", 'pricing':"",   'phone-number': "", 'address': "926 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"2100", 'saturday-end':"2400"},  'description': "Monday - Friday 3 - 6pm &lt;br&gt; Late Night Thursday - Saturday 9pm - 12am &lt;br&gt; Food: $2-5 &lt;br&gt; Drinks: $4 Select Drafts&lt;br&gt;$3 Workin Man Cans&lt;br&gt;$4 Premium Cans&lt;br&gt;$6 Shot and a Beer&lt;br&gt;$5 Well Drinks&lt;br&gt;$6 House Wine&lt;br&gt;$6 Cocktails", 'link':"http://www.thewestendtavern.com/", 'pricing':"",   'phone-number': "", 'address': "926 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY139" s="1" t="str">
         <f t="shared" si="197"/>
@@ -28348,10 +28348,10 @@
         <v>101</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J140" s="1">
         <v>1500</v>
@@ -28384,7 +28384,7 @@
         <v>1800</v>
       </c>
       <c r="V140" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W140" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28471,13 +28471,13 @@
         <v/>
       </c>
       <c r="AR140" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS140" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU140" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV140" s="5" t="s">
         <v>32</v>
@@ -28544,10 +28544,10 @@
         <v>102</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H141" s="1">
         <v>1500</v>
@@ -28592,7 +28592,7 @@
         <v>1700</v>
       </c>
       <c r="V141" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W141" s="1">
         <f t="shared" si="206"/>
@@ -28679,16 +28679,16 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR141" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS141" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT141" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU141" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV141" s="5" t="s">
         <v>32</v>
@@ -28752,13 +28752,13 @@
     </row>
     <row r="142" spans="2:63" ht="21" customHeight="1">
       <c r="B142" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W142" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28845,10 +28845,10 @@
         <v/>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AU142" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV142" s="5" t="s">
         <v>33</v>
@@ -28912,13 +28912,13 @@
     </row>
     <row r="143" spans="2:63" ht="21" customHeight="1">
       <c r="B143" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W143" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29005,10 +29005,10 @@
         <v/>
       </c>
       <c r="AR143" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AU143" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV143" s="5" t="s">
         <v>33</v>
@@ -29072,13 +29072,13 @@
     </row>
     <row r="144" spans="2:63" ht="21" customHeight="1">
       <c r="B144" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W144" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29165,10 +29165,10 @@
         <v/>
       </c>
       <c r="AR144" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AU144" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV144" s="5" t="s">
         <v>33</v>
@@ -29232,13 +29232,13 @@
     </row>
     <row r="145" spans="2:63" ht="21" customHeight="1">
       <c r="B145" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W145" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29325,13 +29325,13 @@
         <v/>
       </c>
       <c r="AR145" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AS145" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU145" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV145" s="5" t="s">
         <v>33</v>
@@ -29395,13 +29395,13 @@
     </row>
     <row r="146" spans="2:63" ht="21" customHeight="1">
       <c r="B146" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J146" s="1">
         <v>1500</v>
@@ -29440,7 +29440,7 @@
         <v>1800</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W146" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29527,13 +29527,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR146" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AS146" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU146" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV146" s="5" t="s">
         <v>32</v>
@@ -29635,25 +29635,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" t="s">
         <v>469</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>470</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>471</v>
-      </c>
-      <c r="H1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="2:8">
@@ -29664,16 +29664,16 @@
         <v>-105.26014499999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H2" t="s">
         <v>449</v>
-      </c>
-      <c r="H2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -29684,16 +29684,16 @@
         <v>-105.25942000000001</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H3" t="s">
         <v>449</v>
-      </c>
-      <c r="H3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -29704,16 +29704,16 @@
         <v>-105.25924000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H4" t="s">
         <v>449</v>
-      </c>
-      <c r="H4" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -29724,16 +29724,16 @@
         <v>-105.20641999999999</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G5" t="s">
+        <v>448</v>
+      </c>
+      <c r="H5" t="s">
         <v>449</v>
-      </c>
-      <c r="H5" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="6" spans="2:8">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -379,9 +379,6 @@
     <t>Daily 4 - 6pm &lt;br&gt; Food: $4.95-9.95 small plates &amp; snacks &lt;br&gt; Drinks: $4 Draft Beers, $5 House Wines, $7 Bellinis and Cocktails</t>
   </si>
   <si>
-    <t>Daily 2-5 pm &lt;br&gt; Food: $4-8 appetizers, $12  charcuterie and cheese boards, $8-14 meals, $5 desserts &lt;br&gt; Drinks: $6 Wine and Cocktails, $4 Beer</t>
-  </si>
-  <si>
     <t>Monday - Friday 3 - 6pm &lt;br&gt; Food: $5 select appetizers, .50 cent Wings &lt;br&gt; Drinks: $3 Drafts, $3 Wells, $4 House Wines</t>
   </si>
   <si>
@@ -1767,6 +1764,9 @@
   </si>
   <si>
     <t>Monday - Friday 3 - 6pm &lt;br&gt; Late Night Thursday - Saturday 9pm - 12am &lt;br&gt; Food: $2-5 &lt;br&gt; Drinks: $4 Select Drafts&lt;br&gt;$3 Workin Man Cans&lt;br&gt;$4 Premium Cans&lt;br&gt;$6 Shot and a Beer&lt;br&gt;$5 Well Drinks&lt;br&gt;$6 House Wine&lt;br&gt;$6 Cocktails</t>
+  </si>
+  <si>
+    <t>Daily 2-5 pm &lt;br&gt; Food: $15 double cheeseburger and beer&lt;br&gt;$16 oysters on the half shell (6x) and a happy hour beer or wine&lt;br&gt;Selection of $5 beers&lt;br&gt;Selection of $6 cocktails&lt;br&gt;Selection of $7 wine</t>
   </si>
 </sst>
 </file>
@@ -2768,10 +2768,10 @@
   <dimension ref="B1:BL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="V140" sqref="V140"/>
+      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2973,13 +2973,13 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W2" s="1" t="str">
         <f t="shared" ref="W2:W4" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -3066,13 +3066,13 @@
         <v/>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>33</v>
@@ -3141,13 +3141,13 @@
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1">
       <c r="B3" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3234,10 +3234,10 @@
         <v/>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>33</v>
@@ -3301,13 +3301,13 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1">
       <c r="B4" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3394,13 +3394,13 @@
         <v/>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV4" s="5" t="s">
         <v>33</v>
@@ -3464,13 +3464,13 @@
     </row>
     <row r="5" spans="2:64" ht="21" customHeight="1">
       <c r="B5" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J5" s="1">
         <v>1500</v>
@@ -3587,10 +3587,10 @@
         <v/>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV5" s="5" t="s">
         <v>32</v>
@@ -3657,10 +3657,10 @@
         <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="H6" s="1">
         <v>1500</v>
@@ -3705,7 +3705,7 @@
         <v>1800</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="32"/>
@@ -3792,13 +3792,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>32</v>
@@ -3864,13 +3864,13 @@
     </row>
     <row r="7" spans="2:64" ht="21" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" si="32"/>
@@ -3957,13 +3957,13 @@
         <v/>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV7" s="5" t="s">
         <v>33</v>
@@ -4030,10 +4030,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="1">
         <v>1600</v>
@@ -4165,13 +4165,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV8" s="5" t="s">
         <v>32</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="9" spans="2:64" ht="21" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4328,16 +4328,16 @@
         <v/>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV9" s="5" t="s">
         <v>33</v>
@@ -4401,13 +4401,13 @@
     </row>
     <row r="10" spans="2:64" ht="21" customHeight="1">
       <c r="B10" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>421</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>422</v>
       </c>
       <c r="H10" s="1">
         <v>1600</v>
@@ -4452,7 +4452,7 @@
         <v>1800</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="32"/>
@@ -4539,10 +4539,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR10" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>32</v>
@@ -4606,13 +4606,13 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H11" s="1">
         <v>1400</v>
@@ -4657,7 +4657,7 @@
         <v>1700</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="32"/>
@@ -4744,10 +4744,10 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR11" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV11" s="5" t="s">
         <v>32</v>
@@ -4811,13 +4811,13 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
       <c r="B12" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="32"/>
@@ -4904,10 +4904,10 @@
         <v/>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV12" s="5" t="s">
         <v>33</v>
@@ -4971,13 +4971,13 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H13" s="1">
         <v>1600</v>
@@ -5022,7 +5022,7 @@
         <v>1800</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="32"/>
@@ -5109,13 +5109,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV13" s="5" t="s">
         <v>32</v>
@@ -5183,10 +5183,10 @@
         <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J14" s="1">
         <v>1500</v>
@@ -5306,13 +5306,13 @@
         <v/>
       </c>
       <c r="AR14" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>32</v>
@@ -5376,13 +5376,13 @@
     </row>
     <row r="15" spans="2:64" ht="21" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5469,10 +5469,10 @@
         <v/>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV15" s="5" t="s">
         <v>33</v>
@@ -5536,13 +5536,13 @@
     </row>
     <row r="16" spans="2:64" ht="21" customHeight="1">
       <c r="B16" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>301</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>302</v>
       </c>
       <c r="J16" s="1">
         <v>1500</v>
@@ -5581,7 +5581,7 @@
         <v>1830</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="32"/>
@@ -5669,10 +5669,10 @@
       </c>
       <c r="AR16" s="4"/>
       <c r="AT16" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV16" s="5" t="s">
         <v>32</v>
@@ -5737,7 +5737,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="2:64" ht="21" customHeight="1">
@@ -5745,10 +5745,10 @@
         <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H17" s="1">
         <v>1600</v>
@@ -5793,7 +5793,7 @@
         <v>1800</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="32"/>
@@ -5880,13 +5880,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR17" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV17" s="5" t="s">
         <v>32</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="18" spans="2:64" ht="21" customHeight="1">
       <c r="B18" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W18" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6043,13 +6043,13 @@
         <v/>
       </c>
       <c r="AR18" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AS18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>33</v>
@@ -6113,13 +6113,13 @@
     </row>
     <row r="19" spans="2:64" ht="21" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1" t="str">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="AR19" s="4"/>
       <c r="AU19" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV19" s="5" t="s">
         <v>33</v>
@@ -6275,10 +6275,10 @@
         <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H20" s="1">
         <v>1500</v>
@@ -6410,16 +6410,16 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AS20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV20" s="5" t="s">
         <v>32</v>
@@ -6483,13 +6483,13 @@
     </row>
     <row r="21" spans="2:64" ht="21" customHeight="1">
       <c r="B21" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W21" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6576,13 +6576,13 @@
         <v/>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>33</v>
@@ -6646,13 +6646,13 @@
     </row>
     <row r="22" spans="2:64" ht="21" customHeight="1">
       <c r="B22" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W22" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6739,13 +6739,13 @@
         <v/>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV22" s="5" t="s">
         <v>33</v>
@@ -6809,13 +6809,13 @@
     </row>
     <row r="23" spans="2:64" ht="21" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="32"/>
@@ -6902,13 +6902,13 @@
         <v/>
       </c>
       <c r="AR23" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AS23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>33</v>
@@ -6972,13 +6972,13 @@
     </row>
     <row r="24" spans="2:64" ht="21" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L24" s="1">
         <v>1500</v>
@@ -7011,7 +7011,7 @@
         <v>1800</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7098,16 +7098,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AS24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>32</v>
@@ -7171,13 +7171,13 @@
     </row>
     <row r="25" spans="2:64" ht="21" customHeight="1">
       <c r="B25" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H25" s="1">
         <v>1600</v>
@@ -7307,10 +7307,10 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR25" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>32</v>
@@ -7377,10 +7377,10 @@
         <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H26" s="1">
         <v>1400</v>
@@ -7425,7 +7425,7 @@
         <v>1800</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W26" s="1">
         <f t="shared" si="32"/>
@@ -7512,13 +7512,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR26" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV26" s="5" t="s">
         <v>32</v>
@@ -7583,7 +7583,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="2:64" ht="21" customHeight="1">
@@ -7591,10 +7591,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7681,10 +7681,10 @@
         <v/>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>33</v>
@@ -7748,13 +7748,13 @@
     </row>
     <row r="28" spans="2:64" ht="21" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W28" s="1" t="str">
         <f t="shared" si="32"/>
@@ -7841,13 +7841,13 @@
         <v/>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AS28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV28" s="5" t="s">
         <v>33</v>
@@ -7911,13 +7911,13 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H29" s="1">
         <v>1600</v>
@@ -7962,7 +7962,7 @@
         <v>1730</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" ref="W29" si="53">IF(H29&gt;0,H29/100,"")</f>
@@ -8049,13 +8049,13 @@
         <v>4pm-5.3pm</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV29" s="5" t="s">
         <v>32</v>
@@ -8119,13 +8119,13 @@
     </row>
     <row r="30" spans="2:64" ht="21" customHeight="1">
       <c r="B30" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>416</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>417</v>
       </c>
       <c r="H30" s="1">
         <v>1700</v>
@@ -8170,7 +8170,7 @@
         <v>1830</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="W30" s="1">
         <f t="shared" si="32"/>
@@ -8257,10 +8257,10 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>32</v>
@@ -8324,13 +8324,13 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J31" s="1">
         <v>1600</v>
@@ -8363,7 +8363,7 @@
         <v>2000</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" ref="W31" si="81">IF(H31&gt;0,H31/100,"")</f>
@@ -8450,7 +8450,7 @@
         <v/>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>32</v>
@@ -8514,13 +8514,13 @@
     </row>
     <row r="32" spans="2:64" ht="21" customHeight="1">
       <c r="B32" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W32" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8607,13 +8607,13 @@
         <v/>
       </c>
       <c r="AR32" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AS32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV32" s="5" t="s">
         <v>33</v>
@@ -8677,13 +8677,13 @@
     </row>
     <row r="33" spans="2:64" ht="21" customHeight="1">
       <c r="B33" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W33" s="1" t="str">
         <f t="shared" si="32"/>
@@ -8770,13 +8770,13 @@
         <v/>
       </c>
       <c r="AR33" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV33" s="5" t="s">
         <v>33</v>
@@ -8844,13 +8844,13 @@
     </row>
     <row r="34" spans="2:64" ht="21" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H34" s="1">
         <v>1500</v>
@@ -8895,7 +8895,7 @@
         <v>1800</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" si="32"/>
@@ -8982,13 +8982,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR34" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AS34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV34" s="5" t="s">
         <v>32</v>
@@ -9051,10 +9051,10 @@
         <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H35" s="1">
         <v>1400</v>
@@ -9099,7 +9099,7 @@
         <v>1800</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="32"/>
@@ -9186,13 +9186,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR35" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV35" s="5" t="s">
         <v>32</v>
@@ -9256,13 +9256,13 @@
     </row>
     <row r="36" spans="2:64" ht="21" customHeight="1">
       <c r="B36" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W36" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9349,13 +9349,13 @@
         <v/>
       </c>
       <c r="AR36" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AS36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>33</v>
@@ -9419,13 +9419,13 @@
     </row>
     <row r="37" spans="2:64" ht="21" customHeight="1">
       <c r="B37" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="W37" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9512,10 +9512,10 @@
         <v/>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>33</v>
@@ -9579,13 +9579,13 @@
     </row>
     <row r="38" spans="2:64" ht="21" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J38" s="1">
         <v>1500</v>
@@ -9618,7 +9618,7 @@
         <v>1800</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9705,13 +9705,13 @@
         <v/>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AS38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV38" s="5" t="s">
         <v>32</v>
@@ -9776,18 +9776,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="21" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="32"/>
@@ -9874,13 +9874,13 @@
         <v/>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AS39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV39" s="5" t="s">
         <v>33</v>
@@ -9944,13 +9944,13 @@
     </row>
     <row r="40" spans="2:64" ht="21" customHeight="1">
       <c r="B40" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V40" s="6"/>
       <c r="W40" s="1" t="str">
@@ -10038,10 +10038,10 @@
         <v/>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>33</v>
@@ -10105,13 +10105,13 @@
     </row>
     <row r="41" spans="2:64" ht="21" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W41" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10198,10 +10198,10 @@
         <v/>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV41" s="5" t="s">
         <v>33</v>
@@ -10268,10 +10268,10 @@
         <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H42" s="1">
         <v>1700</v>
@@ -10397,13 +10397,13 @@
         <v/>
       </c>
       <c r="AR42" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV42" s="5" t="s">
         <v>32</v>
@@ -10467,13 +10467,13 @@
     </row>
     <row r="43" spans="2:64" ht="21" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W43" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10560,13 +10560,13 @@
         <v/>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AS43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV43" s="5" t="s">
         <v>33</v>
@@ -10630,13 +10630,13 @@
     </row>
     <row r="44" spans="2:64" ht="21" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10723,10 +10723,10 @@
         <v/>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>33</v>
@@ -10790,13 +10790,13 @@
     </row>
     <row r="45" spans="2:64" ht="21" customHeight="1">
       <c r="B45" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W45" s="1" t="str">
         <f t="shared" si="32"/>
@@ -10883,13 +10883,13 @@
         <v/>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AS45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV45" s="5" t="s">
         <v>33</v>
@@ -10953,13 +10953,13 @@
     </row>
     <row r="46" spans="2:64" ht="21" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="W46" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11046,10 +11046,10 @@
         <v/>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV46" s="5" t="s">
         <v>33</v>
@@ -11113,13 +11113,13 @@
     </row>
     <row r="47" spans="2:64" ht="21" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H47" s="1">
         <v>1500</v>
@@ -11164,7 +11164,7 @@
         <v>1900</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" si="32"/>
@@ -11251,13 +11251,13 @@
         <v>3pm-7pm</v>
       </c>
       <c r="AR47" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>32</v>
@@ -11324,10 +11324,10 @@
         <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J48" s="1">
         <v>1430</v>
@@ -11453,13 +11453,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR48" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AS48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV48" s="5" t="s">
         <v>32</v>
@@ -11526,10 +11526,10 @@
         <v>26</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H49" s="1">
         <v>1500</v>
@@ -11661,13 +11661,13 @@
         <v>3pm-8pm</v>
       </c>
       <c r="AR49" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV49" s="5" t="s">
         <v>32</v>
@@ -11734,10 +11734,10 @@
         <v>26</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H50" s="1">
         <v>1500</v>
@@ -11782,7 +11782,7 @@
         <v>2000</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W50" s="1">
         <f t="shared" si="32"/>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="AR50" s="4"/>
       <c r="AU50" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>32</v>
@@ -11934,13 +11934,13 @@
     </row>
     <row r="51" spans="2:64" ht="21" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12027,10 +12027,10 @@
         <v/>
       </c>
       <c r="AR51" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV51" s="5" t="s">
         <v>33</v>
@@ -12094,13 +12094,13 @@
     </row>
     <row r="52" spans="2:64" ht="21" customHeight="1">
       <c r="B52" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W52" s="1" t="str">
         <f t="shared" si="32"/>
@@ -12187,10 +12187,10 @@
         <v/>
       </c>
       <c r="AR52" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV52" s="5" t="s">
         <v>33</v>
@@ -12254,13 +12254,13 @@
     </row>
     <row r="53" spans="2:64" ht="21" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V53" s="6"/>
       <c r="W53" s="1" t="str">
@@ -12348,13 +12348,13 @@
         <v/>
       </c>
       <c r="AR53" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV53" s="5" t="s">
         <v>33</v>
@@ -12421,10 +12421,10 @@
         <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H54" s="1">
         <v>1500</v>
@@ -12556,16 +12556,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR54" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV54" s="5" t="s">
         <v>32</v>
@@ -12632,10 +12632,10 @@
         <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H55" s="1">
         <v>1600</v>
@@ -12767,13 +12767,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR55" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AS55" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV55" s="5" t="s">
         <v>32</v>
@@ -12837,13 +12837,13 @@
     </row>
     <row r="56" spans="2:64" ht="21" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H56" s="1">
         <v>1600</v>
@@ -12975,13 +12975,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR56" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AS56" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV56" s="5" t="s">
         <v>32</v>
@@ -13046,18 +13046,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="2:64" ht="21" customHeight="1">
       <c r="B57" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W57" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13144,10 +13144,10 @@
         <v/>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV57" s="5" t="s">
         <v>33</v>
@@ -13211,13 +13211,13 @@
     </row>
     <row r="58" spans="2:64" ht="21" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13304,16 +13304,16 @@
         <v/>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AS58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV58" s="5" t="s">
         <v>33</v>
@@ -13377,13 +13377,13 @@
     </row>
     <row r="59" spans="2:64" ht="21" customHeight="1">
       <c r="B59" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G59" s="24" t="s">
         <v>418</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>419</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13470,10 +13470,10 @@
         <v/>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV59" s="5" t="s">
         <v>33</v>
@@ -13537,13 +13537,13 @@
     </row>
     <row r="60" spans="2:64" ht="21" customHeight="1">
       <c r="B60" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W60" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13630,10 +13630,10 @@
         <v/>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV60" s="5" t="s">
         <v>33</v>
@@ -13698,7 +13698,7 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL60" s="26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="2:64" ht="21" customHeight="1">
@@ -13706,10 +13706,10 @@
         <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J61" s="1">
         <v>1500</v>
@@ -13742,7 +13742,7 @@
         <v>1800</v>
       </c>
       <c r="V61" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W61" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13829,13 +13829,13 @@
         <v/>
       </c>
       <c r="AR61" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV61" s="5" t="s">
         <v>32</v>
@@ -13899,13 +13899,13 @@
     </row>
     <row r="62" spans="2:64" ht="21" customHeight="1">
       <c r="B62" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W62" s="1" t="str">
         <f t="shared" si="32"/>
@@ -13992,10 +13992,10 @@
         <v/>
       </c>
       <c r="AR62" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV62" s="5" t="s">
         <v>33</v>
@@ -14059,13 +14059,13 @@
     </row>
     <row r="63" spans="2:64" ht="21" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W63" s="1" t="str">
         <f t="shared" si="32"/>
@@ -14152,10 +14152,10 @@
         <v/>
       </c>
       <c r="AR63" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV63" s="5" t="s">
         <v>33</v>
@@ -14222,10 +14222,10 @@
         <v>78</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H64" s="1">
         <v>1500</v>
@@ -14270,7 +14270,7 @@
         <v>1800</v>
       </c>
       <c r="V64" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" si="32"/>
@@ -14357,13 +14357,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR64" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV64" s="5" t="s">
         <v>32</v>
@@ -14434,10 +14434,10 @@
         <v>79</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H65" s="1">
         <v>1700</v>
@@ -14482,7 +14482,7 @@
         <v>1900</v>
       </c>
       <c r="V65" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W65" s="1">
         <f t="shared" ref="W65:W126" si="132">IF(H65&gt;0,H65/100,"")</f>
@@ -14569,13 +14569,13 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR65" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS65" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV65" s="5" t="s">
         <v>32</v>
@@ -14639,13 +14639,13 @@
     </row>
     <row r="66" spans="2:63" ht="21" customHeight="1">
       <c r="B66" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W66" s="1" t="str">
         <f t="shared" si="132"/>
@@ -14732,13 +14732,13 @@
         <v/>
       </c>
       <c r="AR66" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AS66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV66" s="5" t="s">
         <v>33</v>
@@ -14802,13 +14802,13 @@
     </row>
     <row r="67" spans="2:63" ht="21" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W67" s="1" t="str">
         <f t="shared" si="132"/>
@@ -14895,10 +14895,10 @@
         <v/>
       </c>
       <c r="AR67" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AU67" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV67" s="5" t="s">
         <v>33</v>
@@ -14962,13 +14962,13 @@
     </row>
     <row r="68" spans="2:63" ht="21" customHeight="1">
       <c r="B68" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="W68" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15055,10 +15055,10 @@
         <v/>
       </c>
       <c r="AR68" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AU68" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV68" s="5" t="s">
         <v>33</v>
@@ -15125,10 +15125,10 @@
         <v>80</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J69" s="1">
         <v>1500</v>
@@ -15161,7 +15161,7 @@
         <v>1800</v>
       </c>
       <c r="V69" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W69" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15248,13 +15248,13 @@
         <v/>
       </c>
       <c r="AR69" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS69" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV69" s="5" t="s">
         <v>32</v>
@@ -15321,10 +15321,10 @@
         <v>82</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J70" s="1">
         <v>1600</v>
@@ -15357,7 +15357,7 @@
         <v>1800</v>
       </c>
       <c r="V70" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W70" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15444,13 +15444,13 @@
         <v/>
       </c>
       <c r="AR70" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS70" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV70" s="5" t="s">
         <v>32</v>
@@ -15514,13 +15514,13 @@
     </row>
     <row r="71" spans="2:63" ht="21" customHeight="1">
       <c r="B71" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G71" s="15" t="s">
         <v>451</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>452</v>
       </c>
       <c r="H71" s="1">
         <v>1500</v>
@@ -15565,7 +15565,7 @@
         <v>1800</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" si="132"/>
@@ -15652,10 +15652,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR71" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV71" s="5" t="s">
         <v>32</v>
@@ -15715,13 +15715,13 @@
     </row>
     <row r="72" spans="2:63" ht="21" customHeight="1">
       <c r="B72" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W72" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15808,13 +15808,13 @@
         <v/>
       </c>
       <c r="AR72" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AS72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU72" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV72" s="5" t="s">
         <v>33</v>
@@ -15878,13 +15878,13 @@
     </row>
     <row r="73" spans="2:63" ht="21" customHeight="1">
       <c r="B73" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W73" s="1" t="str">
         <f t="shared" si="132"/>
@@ -15971,13 +15971,13 @@
         <v/>
       </c>
       <c r="AR73" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AS73" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU73" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV73" s="5" t="s">
         <v>33</v>
@@ -16044,10 +16044,10 @@
         <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H74" s="1">
         <v>1500</v>
@@ -16092,7 +16092,7 @@
         <v>1800</v>
       </c>
       <c r="V74" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W74" s="1">
         <f t="shared" si="132"/>
@@ -16179,13 +16179,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR74" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AS74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU74" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV74" s="5" t="s">
         <v>32</v>
@@ -16252,10 +16252,10 @@
         <v>84</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J75" s="1">
         <v>1630</v>
@@ -16282,7 +16282,7 @@
         <v>1830</v>
       </c>
       <c r="V75" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W75" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16369,16 +16369,16 @@
         <v/>
       </c>
       <c r="AR75" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AS75" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT75" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU75" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV75" s="5" t="s">
         <v>32</v>
@@ -16445,10 +16445,10 @@
         <v>85</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J76" s="1">
         <v>1430</v>
@@ -16487,7 +16487,7 @@
         <v>1730</v>
       </c>
       <c r="V76" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W76" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16574,13 +16574,13 @@
         <v>2.3pm-5.3pm</v>
       </c>
       <c r="AR76" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AS76" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV76" s="5" t="s">
         <v>32</v>
@@ -16644,13 +16644,13 @@
     </row>
     <row r="77" spans="2:63" ht="21" customHeight="1">
       <c r="B77" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>458</v>
       </c>
       <c r="W77" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16737,10 +16737,10 @@
         <v/>
       </c>
       <c r="AR77" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV77" s="5" t="s">
         <v>33</v>
@@ -16803,10 +16803,10 @@
         <v>86</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J78" s="1">
         <v>1100</v>
@@ -16833,7 +16833,7 @@
         <v>1800</v>
       </c>
       <c r="V78" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W78" s="1" t="str">
         <f t="shared" si="132"/>
@@ -16920,13 +16920,13 @@
         <v/>
       </c>
       <c r="AR78" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AS78" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU78" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV78" s="5" t="s">
         <v>32</v>
@@ -16990,13 +16990,13 @@
     </row>
     <row r="79" spans="2:63" ht="21" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H79" s="1">
         <v>1600</v>
@@ -17041,7 +17041,7 @@
         <v>1900</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" si="132"/>
@@ -17132,7 +17132,7 @@
         <v>28</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV79" s="5" t="s">
         <v>32</v>
@@ -17196,13 +17196,13 @@
     </row>
     <row r="80" spans="2:63" ht="21" customHeight="1">
       <c r="B80" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H80" s="1">
         <v>1530</v>
@@ -17247,7 +17247,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W80" s="1">
         <f t="shared" si="132"/>
@@ -17334,10 +17334,10 @@
         <v>3.3pm-6pm</v>
       </c>
       <c r="AR80" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV80" s="5" t="s">
         <v>32</v>
@@ -17401,13 +17401,13 @@
     </row>
     <row r="81" spans="2:63" ht="21" customHeight="1">
       <c r="B81" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W81" s="1" t="str">
         <f t="shared" si="132"/>
@@ -17494,13 +17494,13 @@
         <v/>
       </c>
       <c r="AR81" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AS81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV81" s="5" t="s">
         <v>33</v>
@@ -17564,13 +17564,13 @@
     </row>
     <row r="82" spans="2:63" ht="21" customHeight="1">
       <c r="B82" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W82" s="1" t="str">
         <f t="shared" si="132"/>
@@ -17657,13 +17657,13 @@
         <v/>
       </c>
       <c r="AR82" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AS82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV82" s="5" t="s">
         <v>33</v>
@@ -17730,10 +17730,10 @@
         <v>87</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H83" s="1">
         <v>1530</v>
@@ -17778,7 +17778,7 @@
         <v>1730</v>
       </c>
       <c r="V83" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W83" s="1">
         <f t="shared" si="132"/>
@@ -17865,13 +17865,13 @@
         <v>3.3pm-5.3pm</v>
       </c>
       <c r="AR83" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV83" s="5" t="s">
         <v>32</v>
@@ -17938,10 +17938,10 @@
         <v>88</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H84" s="1">
         <v>1700</v>
@@ -17986,7 +17986,7 @@
         <v>1830</v>
       </c>
       <c r="V84" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" si="132"/>
@@ -18073,13 +18073,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR84" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV84" s="5" t="s">
         <v>32</v>
@@ -18146,10 +18146,10 @@
         <v>89</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H85" s="1">
         <v>1600</v>
@@ -18194,7 +18194,7 @@
         <v>1900</v>
       </c>
       <c r="V85" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W85" s="1">
         <f t="shared" si="132"/>
@@ -18281,13 +18281,13 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR85" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS85" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU85" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV85" s="5" t="s">
         <v>32</v>
@@ -18351,13 +18351,13 @@
     </row>
     <row r="86" spans="2:63" ht="21" customHeight="1">
       <c r="B86" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G86" s="24" t="s">
         <v>423</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G86" s="24" t="s">
-        <v>424</v>
       </c>
       <c r="J86" s="1">
         <v>1600</v>
@@ -18390,7 +18390,7 @@
         <v>1800</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="W86" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18477,10 +18477,10 @@
         <v/>
       </c>
       <c r="AR86" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AU86" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV86" s="5" t="s">
         <v>32</v>
@@ -18544,13 +18544,13 @@
     </row>
     <row r="87" spans="2:63" ht="21" customHeight="1">
       <c r="B87" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W87" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18637,10 +18637,10 @@
         <v/>
       </c>
       <c r="AR87" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AU87" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV87" s="5" t="s">
         <v>33</v>
@@ -18703,10 +18703,10 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J88" s="1">
         <v>1500</v>
@@ -18739,7 +18739,7 @@
         <v>1800</v>
       </c>
       <c r="V88" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W88" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18826,13 +18826,13 @@
         <v/>
       </c>
       <c r="AR88" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS88" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU88" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV88" s="5" t="s">
         <v>32</v>
@@ -18896,13 +18896,13 @@
     </row>
     <row r="89" spans="2:63" ht="21" customHeight="1">
       <c r="B89" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18989,16 +18989,16 @@
         <v/>
       </c>
       <c r="AR89" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AS89" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT89" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU89" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV89" s="5" t="s">
         <v>33</v>
@@ -19062,13 +19062,13 @@
     </row>
     <row r="90" spans="2:63" ht="21" customHeight="1">
       <c r="B90" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H90" s="1">
         <v>1400</v>
@@ -19113,7 +19113,7 @@
         <v>1800</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" si="132"/>
@@ -19200,10 +19200,10 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR90" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AU90" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV90" s="5" t="s">
         <v>32</v>
@@ -19270,10 +19270,10 @@
         <v>24</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J91" s="1">
         <v>1500</v>
@@ -19306,7 +19306,7 @@
         <v>1800</v>
       </c>
       <c r="V91" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W91" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19393,13 +19393,13 @@
         <v/>
       </c>
       <c r="AR91" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AS91" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU91" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV91" s="5" t="s">
         <v>32</v>
@@ -19463,13 +19463,13 @@
     </row>
     <row r="92" spans="2:63" ht="21" customHeight="1">
       <c r="B92" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J92" s="1">
         <v>1600</v>
@@ -19502,7 +19502,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W92" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19589,13 +19589,13 @@
         <v/>
       </c>
       <c r="AR92" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AS92" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU92" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV92" s="5" t="s">
         <v>32</v>
@@ -19659,13 +19659,13 @@
     </row>
     <row r="93" spans="2:63" ht="21" customHeight="1">
       <c r="B93" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H93" s="1">
         <v>1500</v>
@@ -19710,7 +19710,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" si="132"/>
@@ -19797,16 +19797,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR93" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AS93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT93" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU93" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV93" s="5" t="s">
         <v>32</v>
@@ -19874,13 +19874,13 @@
     </row>
     <row r="94" spans="2:63" ht="21" customHeight="1">
       <c r="B94" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="W94" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19967,10 +19967,10 @@
         <v/>
       </c>
       <c r="AR94" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AU94" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV94" s="5" t="s">
         <v>33</v>
@@ -20037,10 +20037,10 @@
         <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H95" s="1">
         <v>1100</v>
@@ -20085,7 +20085,7 @@
         <v>1800</v>
       </c>
       <c r="V95" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" si="132"/>
@@ -20172,13 +20172,13 @@
         <v>11am-6pm</v>
       </c>
       <c r="AR95" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS95" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU95" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV95" s="5" t="s">
         <v>32</v>
@@ -20242,13 +20242,13 @@
     </row>
     <row r="96" spans="2:63" ht="21" customHeight="1">
       <c r="B96" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W96" s="1" t="str">
         <f t="shared" si="132"/>
@@ -20335,10 +20335,10 @@
         <v/>
       </c>
       <c r="AR96" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AU96" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV96" s="5" t="s">
         <v>33</v>
@@ -20405,10 +20405,10 @@
         <v>92</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H97" s="1">
         <v>1500</v>
@@ -20453,7 +20453,7 @@
         <v>1700</v>
       </c>
       <c r="V97" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W97" s="1">
         <f t="shared" si="132"/>
@@ -20540,13 +20540,13 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR97" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AS97" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU97" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV97" s="5" t="s">
         <v>32</v>
@@ -20610,13 +20610,13 @@
     </row>
     <row r="98" spans="2:63" ht="21" customHeight="1">
       <c r="B98" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W98" s="1" t="str">
         <f t="shared" si="132"/>
@@ -20703,10 +20703,10 @@
         <v/>
       </c>
       <c r="AR98" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AU98" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV98" s="5" t="s">
         <v>33</v>
@@ -20773,10 +20773,10 @@
         <v>93</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H99" s="1">
         <v>1500</v>
@@ -20821,7 +20821,7 @@
         <v>1800</v>
       </c>
       <c r="V99" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" si="132"/>
@@ -20908,13 +20908,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR99" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS99" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU99" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV99" s="5" t="s">
         <v>32</v>
@@ -20981,10 +20981,10 @@
         <v>94</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H100" s="1">
         <v>1700</v>
@@ -21029,7 +21029,7 @@
         <v>1900</v>
       </c>
       <c r="V100" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="W100" s="1">
         <f t="shared" si="132"/>
@@ -21116,13 +21116,13 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR100" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS100" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU100" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV100" s="5" t="s">
         <v>32</v>
@@ -21186,13 +21186,13 @@
     </row>
     <row r="101" spans="2:63" ht="21" customHeight="1">
       <c r="B101" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G101" s="29" t="s">
         <v>565</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G101" s="29" t="s">
-        <v>566</v>
       </c>
       <c r="H101" s="1">
         <v>1500</v>
@@ -21237,7 +21237,7 @@
         <v>1800</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" ref="W101" si="165">IF(H101&gt;0,H101/100,"")</f>
@@ -21324,10 +21324,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR101" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AU101" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV101" s="5" t="s">
         <v>32</v>
@@ -21391,13 +21391,13 @@
     </row>
     <row r="102" spans="2:63" ht="21" customHeight="1">
       <c r="B102" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W102" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21484,10 +21484,10 @@
         <v/>
       </c>
       <c r="AR102" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AU102" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV102" s="5" t="s">
         <v>33</v>
@@ -21551,13 +21551,13 @@
     </row>
     <row r="103" spans="2:63" ht="21" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W103" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21644,10 +21644,10 @@
         <v/>
       </c>
       <c r="AR103" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AU103" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV103" s="5" t="s">
         <v>33</v>
@@ -21711,13 +21711,13 @@
     </row>
     <row r="104" spans="2:63" ht="21" customHeight="1">
       <c r="B104" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W104" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21804,10 +21804,10 @@
         <v/>
       </c>
       <c r="AR104" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AU104" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV104" s="5" t="s">
         <v>33</v>
@@ -21871,13 +21871,13 @@
     </row>
     <row r="105" spans="2:63" ht="21" customHeight="1">
       <c r="B105" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W105" s="1" t="str">
         <f t="shared" si="132"/>
@@ -21964,13 +21964,13 @@
         <v/>
       </c>
       <c r="AR105" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AS105" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV105" s="5" t="s">
         <v>33</v>
@@ -22034,13 +22034,13 @@
     </row>
     <row r="106" spans="2:63" ht="21" customHeight="1">
       <c r="B106" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H106" s="1">
         <v>1600</v>
@@ -22085,7 +22085,7 @@
         <v>1800</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W106" s="1">
         <f t="shared" si="132"/>
@@ -22172,13 +22172,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AR106" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AS106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU106" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV106" s="5" t="s">
         <v>32</v>
@@ -22242,13 +22242,13 @@
     </row>
     <row r="107" spans="2:63" ht="21" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H107" s="1">
         <v>1600</v>
@@ -22293,7 +22293,7 @@
         <v>1730</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" si="132"/>
@@ -22380,10 +22380,10 @@
         <v>11am-5.3pm</v>
       </c>
       <c r="AR107" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AU107" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV107" s="5" t="s">
         <v>32</v>
@@ -22450,10 +22450,10 @@
         <v>95</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J108" s="1">
         <v>1700</v>
@@ -22492,7 +22492,7 @@
         <v>1830</v>
       </c>
       <c r="V108" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W108" s="1" t="str">
         <f t="shared" si="132"/>
@@ -22579,13 +22579,13 @@
         <v>5pm-6.3pm</v>
       </c>
       <c r="AR108" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS108" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU108" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV108" s="5" t="s">
         <v>32</v>
@@ -22649,13 +22649,13 @@
     </row>
     <row r="109" spans="2:63" ht="21" customHeight="1">
       <c r="B109" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V109" s="6"/>
       <c r="W109" s="1" t="str">
@@ -22743,10 +22743,10 @@
         <v/>
       </c>
       <c r="AR109" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AU109" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV109" s="5" t="s">
         <v>33</v>
@@ -22813,10 +22813,10 @@
         <v>96</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H110" s="1">
         <v>1100</v>
@@ -22861,7 +22861,7 @@
         <v>1800</v>
       </c>
       <c r="V110" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="W110" s="1">
         <f t="shared" si="132"/>
@@ -22948,13 +22948,13 @@
         <v>2pm-6pm</v>
       </c>
       <c r="AR110" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU110" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV110" s="5" t="s">
         <v>32</v>
@@ -23021,10 +23021,10 @@
         <v>97</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J111" s="1">
         <v>1600</v>
@@ -23063,7 +23063,7 @@
         <v>1800</v>
       </c>
       <c r="V111" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W111" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23150,13 +23150,13 @@
         <v>11.3am-6pm</v>
       </c>
       <c r="AR111" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS111" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU111" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV111" s="5" t="s">
         <v>32</v>
@@ -23223,10 +23223,10 @@
         <v>98</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H112" s="1">
         <v>1500</v>
@@ -23271,7 +23271,7 @@
         <v>1800</v>
       </c>
       <c r="V112" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W112" s="1">
         <f t="shared" si="132"/>
@@ -23358,16 +23358,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR112" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS112" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT112" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU112" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV112" s="5" t="s">
         <v>32</v>
@@ -23431,13 +23431,13 @@
     </row>
     <row r="113" spans="2:64" ht="21" customHeight="1">
       <c r="B113" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W113" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23524,10 +23524,10 @@
         <v/>
       </c>
       <c r="AR113" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AU113" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV113" s="5" t="s">
         <v>33</v>
@@ -23594,10 +23594,10 @@
         <v>65</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H114" s="1">
         <v>2100</v>
@@ -23729,13 +23729,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR114" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AS114" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU114" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV114" s="5" t="s">
         <v>32</v>
@@ -23800,18 +23800,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL114" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115" spans="2:64" ht="21" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J115" s="1">
         <v>1700</v>
@@ -23844,7 +23844,7 @@
         <v>2000</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="132"/>
@@ -23931,13 +23931,13 @@
         <v/>
       </c>
       <c r="AR115" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AS115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU115" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV115" s="5" t="s">
         <v>32</v>
@@ -24004,10 +24004,10 @@
         <v>70</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J116" s="1">
         <v>1600</v>
@@ -24127,13 +24127,13 @@
         <v/>
       </c>
       <c r="AR116" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AS116" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU116" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV116" s="5" t="s">
         <v>32</v>
@@ -24197,13 +24197,13 @@
     </row>
     <row r="117" spans="2:64" ht="21" customHeight="1">
       <c r="B117" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H117" s="1">
         <v>1500</v>
@@ -24248,7 +24248,7 @@
         <v>1800</v>
       </c>
       <c r="V117" s="25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W117" s="1">
         <f t="shared" si="132"/>
@@ -24335,10 +24335,10 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR117" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AU117" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV117" s="5" t="s">
         <v>32</v>
@@ -24405,10 +24405,10 @@
         <v>71</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H118" s="1">
         <v>1500</v>
@@ -24540,13 +24540,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR118" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AS118" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU118" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV118" s="5" t="s">
         <v>32</v>
@@ -24610,13 +24610,13 @@
     </row>
     <row r="119" spans="2:64" ht="21" customHeight="1">
       <c r="B119" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W119" s="1" t="str">
         <f t="shared" si="132"/>
@@ -24703,13 +24703,13 @@
         <v/>
       </c>
       <c r="AR119" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AS119" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU119" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV119" s="5" t="s">
         <v>33</v>
@@ -24776,10 +24776,10 @@
         <v>27</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H120" s="1">
         <v>1400</v>
@@ -24824,7 +24824,7 @@
         <v>1700</v>
       </c>
       <c r="V120" s="10" t="s">
-        <v>115</v>
+        <v>577</v>
       </c>
       <c r="W120" s="1">
         <f t="shared" si="132"/>
@@ -24911,16 +24911,16 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AR120" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS120" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT120" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU120" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV120" s="5" t="s">
         <v>32</v>
@@ -24933,7 +24933,7 @@
         <v>{
     'name': "The Kitchen",
     'area': "pearl",'hours': {
-      'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "Daily 2-5 pm &lt;br&gt; Food: $4-8 appetizers, $12  charcuterie and cheese boards, $8-14 meals, $5 desserts &lt;br&gt; Drinks: $6 Wine and Cocktails, $4 Beer", 'link':"http://www.thekitchen.com/", 'pricing':"",   'phone-number': "", 'address': "1039 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','pet','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "Daily 2-5 pm &lt;br&gt; Food: $15 double cheeseburger and beer&lt;br&gt;$16 oysters on the half shell (6x) and a happy hour beer or wine&lt;br&gt;Selection of $5 beers&lt;br&gt;Selection of $6 cocktails&lt;br&gt;Selection of $7 wine", 'link':"http://www.thekitchen.com/", 'pricing':"",   'phone-number': "", 'address': "1039 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','pet','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY120" s="1" t="str">
         <f t="shared" si="156"/>
@@ -24987,10 +24987,10 @@
         <v>81</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H121" s="1">
         <v>1500</v>
@@ -25035,7 +25035,7 @@
         <v>1830</v>
       </c>
       <c r="V121" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W121" s="1">
         <f t="shared" si="132"/>
@@ -25122,13 +25122,13 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR121" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS121" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU121" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV121" s="5" t="s">
         <v>32</v>
@@ -25192,13 +25192,13 @@
     </row>
     <row r="122" spans="2:64" ht="21" customHeight="1">
       <c r="B122" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W122" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25286,10 +25286,10 @@
       </c>
       <c r="AR122" s="4"/>
       <c r="AT122" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU122" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV122" s="5" t="s">
         <v>33</v>
@@ -25353,13 +25353,13 @@
     </row>
     <row r="123" spans="2:64" ht="21" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W123" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25446,10 +25446,10 @@
         <v/>
       </c>
       <c r="AR123" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AU123" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV123" s="5" t="s">
         <v>33</v>
@@ -25513,13 +25513,13 @@
     </row>
     <row r="124" spans="2:64" ht="21" customHeight="1">
       <c r="B124" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="G124" s="19" t="s">
         <v>293</v>
-      </c>
-      <c r="G124" s="19" t="s">
-        <v>294</v>
       </c>
       <c r="H124" s="1">
         <v>1100</v>
@@ -25558,7 +25558,7 @@
         <v>1800</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W124" s="1">
         <f t="shared" si="132"/>
@@ -25645,13 +25645,13 @@
         <v/>
       </c>
       <c r="AR124" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AS124" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU124" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV124" s="5" t="s">
         <v>32</v>
@@ -25715,13 +25715,13 @@
     </row>
     <row r="125" spans="2:64" ht="21" customHeight="1">
       <c r="B125" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W125" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25808,10 +25808,10 @@
         <v/>
       </c>
       <c r="AR125" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AU125" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="AU125" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="AV125" s="5" t="s">
         <v>33</v>
@@ -25876,18 +25876,18 @@
         <v>&lt;img src=@img/kidicon.png@&gt;</v>
       </c>
       <c r="BL125" s="26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="2:64" ht="21" customHeight="1">
       <c r="B126" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W126" s="1" t="str">
         <f t="shared" si="132"/>
@@ -25974,13 +25974,13 @@
         <v/>
       </c>
       <c r="AR126" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AS126" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU126" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV126" s="5" t="s">
         <v>33</v>
@@ -26048,13 +26048,13 @@
     </row>
     <row r="127" spans="2:64" ht="21" customHeight="1">
       <c r="B127" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H127" s="1">
         <v>1700</v>
@@ -26183,10 +26183,10 @@
         <v>5pm-7pm</v>
       </c>
       <c r="AR127" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AU127" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV127" s="5" t="s">
         <v>33</v>
@@ -26250,13 +26250,13 @@
     </row>
     <row r="128" spans="2:64" ht="21" customHeight="1">
       <c r="B128" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W128" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26343,13 +26343,13 @@
         <v/>
       </c>
       <c r="AR128" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AT128" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU128" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV128" s="5" t="s">
         <v>33</v>
@@ -26413,13 +26413,13 @@
     </row>
     <row r="129" spans="2:63" ht="21" customHeight="1">
       <c r="B129" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W129" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26506,10 +26506,10 @@
         <v/>
       </c>
       <c r="AR129" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AU129" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV129" s="5" t="s">
         <v>33</v>
@@ -26573,13 +26573,13 @@
     </row>
     <row r="130" spans="2:63" ht="21" customHeight="1">
       <c r="B130" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W130" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26666,10 +26666,10 @@
         <v/>
       </c>
       <c r="AR130" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AU130" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV130" s="5" t="s">
         <v>33</v>
@@ -26733,13 +26733,13 @@
     </row>
     <row r="131" spans="2:63" ht="21" customHeight="1">
       <c r="B131" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J131" s="1">
         <v>1100</v>
@@ -26772,7 +26772,7 @@
         <v>1800</v>
       </c>
       <c r="V131" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W131" s="1" t="str">
         <f t="shared" si="206"/>
@@ -26859,10 +26859,10 @@
         <v/>
       </c>
       <c r="AR131" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AU131" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV131" s="5" t="s">
         <v>32</v>
@@ -26926,13 +26926,13 @@
     </row>
     <row r="132" spans="2:63" ht="21" customHeight="1">
       <c r="B132" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W132" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27019,13 +27019,13 @@
         <v/>
       </c>
       <c r="AR132" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AT132" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU132" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV132" s="5" t="s">
         <v>33</v>
@@ -27092,10 +27092,10 @@
         <v>99</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H133" s="1">
         <v>1730</v>
@@ -27140,7 +27140,7 @@
         <v>1830</v>
       </c>
       <c r="V133" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W133" s="1">
         <f t="shared" si="206"/>
@@ -27227,13 +27227,13 @@
         <v>5.3pm-6.3pm</v>
       </c>
       <c r="AR133" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS133" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU133" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV133" s="5" t="s">
         <v>32</v>
@@ -27297,13 +27297,13 @@
     </row>
     <row r="134" spans="2:63" ht="21" customHeight="1">
       <c r="B134" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H134" s="1">
         <v>1500</v>
@@ -27348,7 +27348,7 @@
         <v>1830</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W134" s="1">
         <f t="shared" si="206"/>
@@ -27435,10 +27435,10 @@
         <v>3pm-6.3pm</v>
       </c>
       <c r="AR134" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AU134" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV134" s="5" t="s">
         <v>32</v>
@@ -27502,13 +27502,13 @@
     </row>
     <row r="135" spans="2:63" ht="21" customHeight="1">
       <c r="B135" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W135" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27595,10 +27595,10 @@
         <v/>
       </c>
       <c r="AR135" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU135" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV135" s="5" t="s">
         <v>33</v>
@@ -27662,13 +27662,13 @@
     </row>
     <row r="136" spans="2:63" ht="21" customHeight="1">
       <c r="B136" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="W136" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27756,7 +27756,7 @@
       </c>
       <c r="AR136" s="4"/>
       <c r="AU136" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV136" s="5" t="s">
         <v>33</v>
@@ -27820,13 +27820,13 @@
     </row>
     <row r="137" spans="2:63" ht="21" customHeight="1">
       <c r="B137" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="W137" s="1" t="str">
         <f t="shared" si="206"/>
@@ -27913,13 +27913,13 @@
         <v/>
       </c>
       <c r="AR137" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AT137" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU137" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV137" s="5" t="s">
         <v>33</v>
@@ -27983,13 +27983,13 @@
     </row>
     <row r="138" spans="2:63" ht="21" customHeight="1">
       <c r="B138" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G138" s="24" t="s">
         <v>425</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G138" s="24" t="s">
-        <v>426</v>
       </c>
       <c r="W138" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28076,10 +28076,10 @@
         <v/>
       </c>
       <c r="AR138" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AU138" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV138" s="5" t="s">
         <v>33</v>
@@ -28146,10 +28146,10 @@
         <v>100</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J139" s="1">
         <v>1500</v>
@@ -28188,7 +28188,7 @@
         <v>2400</v>
       </c>
       <c r="V139" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="W139" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28275,13 +28275,13 @@
         <v>9pm-12am</v>
       </c>
       <c r="AR139" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS139" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU139" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV139" s="5" t="s">
         <v>32</v>
@@ -28348,10 +28348,10 @@
         <v>101</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J140" s="1">
         <v>1500</v>
@@ -28384,7 +28384,7 @@
         <v>1800</v>
       </c>
       <c r="V140" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W140" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28471,13 +28471,13 @@
         <v/>
       </c>
       <c r="AR140" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS140" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU140" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV140" s="5" t="s">
         <v>32</v>
@@ -28544,10 +28544,10 @@
         <v>102</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H141" s="1">
         <v>1500</v>
@@ -28592,7 +28592,7 @@
         <v>1700</v>
       </c>
       <c r="V141" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W141" s="1">
         <f t="shared" si="206"/>
@@ -28679,16 +28679,16 @@
         <v>3pm-5pm</v>
       </c>
       <c r="AR141" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS141" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AT141" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU141" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV141" s="5" t="s">
         <v>32</v>
@@ -28752,13 +28752,13 @@
     </row>
     <row r="142" spans="2:63" ht="21" customHeight="1">
       <c r="B142" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W142" s="1" t="str">
         <f t="shared" si="206"/>
@@ -28845,10 +28845,10 @@
         <v/>
       </c>
       <c r="AR142" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AU142" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV142" s="5" t="s">
         <v>33</v>
@@ -28912,13 +28912,13 @@
     </row>
     <row r="143" spans="2:63" ht="21" customHeight="1">
       <c r="B143" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W143" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29005,10 +29005,10 @@
         <v/>
       </c>
       <c r="AR143" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AU143" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV143" s="5" t="s">
         <v>33</v>
@@ -29072,13 +29072,13 @@
     </row>
     <row r="144" spans="2:63" ht="21" customHeight="1">
       <c r="B144" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="W144" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29165,10 +29165,10 @@
         <v/>
       </c>
       <c r="AR144" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AU144" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV144" s="5" t="s">
         <v>33</v>
@@ -29232,13 +29232,13 @@
     </row>
     <row r="145" spans="2:63" ht="21" customHeight="1">
       <c r="B145" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W145" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29325,13 +29325,13 @@
         <v/>
       </c>
       <c r="AR145" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AS145" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU145" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV145" s="5" t="s">
         <v>33</v>
@@ -29395,13 +29395,13 @@
     </row>
     <row r="146" spans="2:63" ht="21" customHeight="1">
       <c r="B146" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J146" s="1">
         <v>1500</v>
@@ -29440,7 +29440,7 @@
         <v>1800</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W146" s="1" t="str">
         <f t="shared" si="206"/>
@@ -29527,13 +29527,13 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR146" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AS146" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AU146" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV146" s="5" t="s">
         <v>32</v>
@@ -29635,25 +29635,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" t="s">
         <v>468</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>469</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>470</v>
-      </c>
-      <c r="H1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="2" spans="2:8">
@@ -29664,16 +29664,16 @@
         <v>-105.26014499999999</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H2" t="s">
         <v>448</v>
-      </c>
-      <c r="H2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -29684,16 +29684,16 @@
         <v>-105.25942000000001</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H3" t="s">
         <v>448</v>
-      </c>
-      <c r="H3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -29704,16 +29704,16 @@
         <v>-105.25924000000001</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H4" t="s">
         <v>448</v>
-      </c>
-      <c r="H4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -29724,16 +29724,16 @@
         <v>-105.20641999999999</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G5" t="s">
+        <v>447</v>
+      </c>
+      <c r="H5" t="s">
         <v>448</v>
-      </c>
-      <c r="H5" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="6" spans="2:8">

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1757,9 +1757,6 @@
     <t>2 -6 pm Daily, All day and night Sunday &lt;br&gt; Food: $2.50 Street Tacos &lt;br&gt; Drinks: $3.50 Draft Beer, $4.50  House Marg, $5.50 Silver Shot, $6.50 Juicy Marg</t>
   </si>
   <si>
-    <t>All night Monday, Tuesday-Sunday 2-6pm / Brunch Happy Hour Sat &amp; Sun 9:30-10 am &lt;br&gt; Food&lt;br&gt;Queso Fundido $6&lt;br&gt;Nachos $8&lt;br&gt;Lamb Taquitos $5&lt;br&gt;Chicken Enchilada $5&lt;br&gt;Chile Relleno $6&lt;br&gt;Street Tacos $3&lt;br&gt;Drinks&lt;br&gt;Post Can $3&lt;br&gt;Draft Beer $4&lt;br&gt;House Wine $5&lt;br&gt;Coin Marg $5.50-7.50&lt;br&gt;Daiquiri $7&lt;br&gt;Dark and Stormy $6&lt;br&gt;Sangria $6</t>
-  </si>
-  <si>
     <t>FOOD&lt;Br&gt;BOQUERONES - ANCHOVIES - $4&lt;Br&gt;CROQUETTAS DE JAMON - HAM REDUCTION - $5&lt;Br&gt;PAN CON TOMATE - CONFIT GARLIC AIOLI, OLIVE OIL - $4&lt;Br&gt;PAN CON BRANDADE - SALT COD BRANDADE, OLIVE OIL - $4&lt;Br&gt;GILDAS - ANCHOVY, OLIVES, GUANDILLA PEPPERS - $4&lt;Br&gt;ACEITUNAS MARINADAS - OLIVES, GARLIC, LEMON, PARSLEY - $5&lt;Br&gt;ACEITUNAS FRITAS - FRIED OLIVES, ALMOND ROMESCO, IDIAZABAL CHEESE - $9&lt;Br&gt;ESPINACA &amp; GARBANZOS - SPINACH, CRISPY CHICKPEAS, TOMATO, CUMIN PANISSE CAKE - $11&lt;Br&gt;PATATAS BRAVAS - SALSA BRAVA, GARLIC CONFIT AIOLI - $8&lt;Br&gt;TARTAR DE WAGYU - 7X WAGYU TARTARE TOAST, OLIVE OIL, LEMON, EGG YOLK, BLACK TRUFFLES - $20&lt;Br&gt;TOSTADA DE GAMBAS - ROYAL RED SHRIMP, TOAST, PIQUILLO PEPPERS, PICKLED ONIONS, AIOLI - 2 - $6&lt;Br&gt;ALBONDIGAS - MEATBALLS, TOMATO, PIQUILLO PEPPERS, CAMPO DE MONTABLON CHEESE - $11&lt;Br&gt;OSTRA - WIANNO OYSTER, GAZPACHO GELEE, CUCUMBER &amp; RED PEPPER MIGNONETTE - $4 EA&lt;Br&gt;DRINKS&lt;br&gt;ESTRELLA - LAGER, ON TAP (10 OZ. VIERTE) - $4&lt;br&gt;GIN TONIC DEL DIA - DEATHS DOOR GIN AND FEVER TREE CITRUS TONIC, GRAPEFRUIT AND LIME - $9&lt;br&gt;WHITE NEGRONI - DE MULLER BLANCO VERMOUTH, BOUGIE TIKI, ALLSPICE DRAM, LIME - $9&lt;br&gt;WINTER DAIQUIRI - STREET PUMAS RUM, PEAR, LIME - $9</t>
   </si>
   <si>
@@ -1767,6 +1764,9 @@
   </si>
   <si>
     <t>Daily 2-5 pm &lt;br&gt; Food: $15 double cheeseburger and beer&lt;br&gt;$16 oysters on the half shell (6x) and a happy hour beer or wine&lt;br&gt;Selection of $5 beers&lt;br&gt;Selection of $6 cocktails&lt;br&gt;Selection of $7 wine</t>
+  </si>
+  <si>
+    <t>All night Monday, Tuesday-Sunday 2-6pm / Brunch Happy Hour Sat &amp; Sun 9:30-10 am &lt;br&gt; Food&lt;br&gt;Queso Fundido $5&lt;br&gt;Nachos $5&lt;br&gt;Lamb Taquitos $5&lt;br&gt;Chicken Enchilada $5&lt;br&gt;Chile Relleno $6&lt;br&gt;Street Tacos $3&lt;br&gt;Drinks&lt;br&gt;Post Can $4&lt;br&gt;Draft Beer $4&lt;br&gt;House Wine $5&lt;br&gt;Coin Marg $5.50-7.50&lt;br&gt;Daiquiri $7&lt;br&gt;Dark and Stormy $6&lt;br&gt;Sangria $6</t>
   </si>
 </sst>
 </file>
@@ -2768,10 +2768,10 @@
   <dimension ref="B1:BL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
+      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -7425,7 +7425,7 @@
         <v>1800</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="W26" s="1">
         <f t="shared" si="32"/>
@@ -7531,7 +7531,7 @@
         <v>{
     'name': "Centro Mexican Kitchen",
     'area': "pearl",'hours': {
-      'sunday-start':"1400", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"2200", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "All night Monday, Tuesday-Sunday 2-6pm / Brunch Happy Hour Sat &amp; Sun 9:30-10 am &lt;br&gt; Food&lt;br&gt;Queso Fundido $6&lt;br&gt;Nachos $8&lt;br&gt;Lamb Taquitos $5&lt;br&gt;Chicken Enchilada $5&lt;br&gt;Chile Relleno $6&lt;br&gt;Street Tacos $3&lt;br&gt;Drinks&lt;br&gt;Post Can $3&lt;br&gt;Draft Beer $4&lt;br&gt;House Wine $5&lt;br&gt;Coin Marg $5.50-7.50&lt;br&gt;Daiquiri $7&lt;br&gt;Dark and Stormy $6&lt;br&gt;Sangria $6", 'link':"http://www.centrolatinkitchen.com/", 'pricing':"",   'phone-number': "", 'address': "950 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1400", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"2200", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "All night Monday, Tuesday-Sunday 2-6pm / Brunch Happy Hour Sat &amp; Sun 9:30-10 am &lt;br&gt; Food&lt;br&gt;Queso Fundido $5&lt;br&gt;Nachos $5&lt;br&gt;Lamb Taquitos $5&lt;br&gt;Chicken Enchilada $5&lt;br&gt;Chile Relleno $6&lt;br&gt;Street Tacos $3&lt;br&gt;Drinks&lt;br&gt;Post Can $4&lt;br&gt;Draft Beer $4&lt;br&gt;House Wine $5&lt;br&gt;Coin Marg $5.50-7.50&lt;br&gt;Daiquiri $7&lt;br&gt;Dark and Stormy $6&lt;br&gt;Sangria $6", 'link':"http://www.centrolatinkitchen.com/", 'pricing':"",   'phone-number': "", 'address': "950 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY26" s="1" t="str">
         <f t="shared" si="22"/>
@@ -7962,7 +7962,7 @@
         <v>1730</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" ref="W29" si="53">IF(H29&gt;0,H29/100,"")</f>
@@ -24824,7 +24824,7 @@
         <v>1700</v>
       </c>
       <c r="V120" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="W120" s="1">
         <f t="shared" si="132"/>
@@ -28188,7 +28188,7 @@
         <v>2400</v>
       </c>
       <c r="V139" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="W139" s="1" t="str">
         <f t="shared" si="206"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1685,9 +1685,6 @@
     <t>Small Plates&lt;br&gt;Soup of the day $4 / $6&lt;br&gt;Calamari Oyster Mushrooms $9 &lt;br&gt;Sweet Potato Gnocchi $6&lt;br&gt;Buffalo Cauliflower Taco $3.25 &lt;br&gt;Grilled Flatbread $8.5 &lt;br&gt;Crab Cake Slider $3.50 &lt;br&gt;Mushroom Burger Slider $3.50 &lt;br&gt;Bowl of Fries $3&lt;br&gt;Creamy Polenta $5.50 &lt;br&gt;Crispy Harissa Tofu $4 &lt;br&gt;Massaged Kale Salad $5.50 &lt;br&gt;Tofu Fries $3&lt;br&gt;&lt;br&gt; House Red, House White, Bubbles 5&lt;br&gt;Well Cocktails 5&lt;br&gt;Draft Beer 5&lt;br&gt;Hand Crafted Cocktails $6.50-8</t>
   </si>
   <si>
-    <t>$5 Med Salad&lt;br&gt;$2 Seasonal Deviled Eggs&lt;br&gt;$2.50 Oysters Hickenlooper&lt;br&gt;$6 Poutine&lt;br&gt;$6 Duck Wings&lt;br&gt;$5 Heirloom Blue Corndog&lt;br&gt;$4 Sweet Potato Nuggets&lt;br&gt;&lt;br&gt;$6 Tap Wines&lt;br&gt;$6 Tap Beers&lt;br&gt;$5-6 Select Cocktails&lt;br&gt;&lt;br&gt;$18 Chefs Forage and Sip Board: A unique chefs selection of tasty morsels from the kitchen plus two glasses of house wine</t>
-  </si>
-  <si>
     <t>Food&lt;br&gt;Garlic Knots $5&lt;br&gt;Caprese $6&lt;br&gt;Roasted Brussels Sprouts with Pancetta and Fresh Grated Parmesan $5&lt;br&gt;Mussels with a Pesto White Wine Sauce $5&lt;br&gt;Mac N Cheese $5&lt;br&gt;Small Cheese Pizza $6&lt;br&gt;Pizza Rosario $8&lt;br&gt;Pizza Verde $8&lt;br&gt;&lt;br&gt;Drink&lt;br&gt;Drafts $4&lt;br&gt;House Wines $4&lt;br&gt;Sangria $5&lt;br&gt;Moscow Mule $5&lt;br&gt;Bellini $5</t>
   </si>
   <si>
@@ -1757,9 +1754,6 @@
     <t>2 -6 pm Daily, All day and night Sunday &lt;br&gt; Food: $2.50 Street Tacos &lt;br&gt; Drinks: $3.50 Draft Beer, $4.50  House Marg, $5.50 Silver Shot, $6.50 Juicy Marg</t>
   </si>
   <si>
-    <t>FOOD&lt;Br&gt;BOQUERONES - ANCHOVIES - $4&lt;Br&gt;CROQUETTAS DE JAMON - HAM REDUCTION - $5&lt;Br&gt;PAN CON TOMATE - CONFIT GARLIC AIOLI, OLIVE OIL - $4&lt;Br&gt;PAN CON BRANDADE - SALT COD BRANDADE, OLIVE OIL - $4&lt;Br&gt;GILDAS - ANCHOVY, OLIVES, GUANDILLA PEPPERS - $4&lt;Br&gt;ACEITUNAS MARINADAS - OLIVES, GARLIC, LEMON, PARSLEY - $5&lt;Br&gt;ACEITUNAS FRITAS - FRIED OLIVES, ALMOND ROMESCO, IDIAZABAL CHEESE - $9&lt;Br&gt;ESPINACA &amp; GARBANZOS - SPINACH, CRISPY CHICKPEAS, TOMATO, CUMIN PANISSE CAKE - $11&lt;Br&gt;PATATAS BRAVAS - SALSA BRAVA, GARLIC CONFIT AIOLI - $8&lt;Br&gt;TARTAR DE WAGYU - 7X WAGYU TARTARE TOAST, OLIVE OIL, LEMON, EGG YOLK, BLACK TRUFFLES - $20&lt;Br&gt;TOSTADA DE GAMBAS - ROYAL RED SHRIMP, TOAST, PIQUILLO PEPPERS, PICKLED ONIONS, AIOLI - 2 - $6&lt;Br&gt;ALBONDIGAS - MEATBALLS, TOMATO, PIQUILLO PEPPERS, CAMPO DE MONTABLON CHEESE - $11&lt;Br&gt;OSTRA - WIANNO OYSTER, GAZPACHO GELEE, CUCUMBER &amp; RED PEPPER MIGNONETTE - $4 EA&lt;Br&gt;DRINKS&lt;br&gt;ESTRELLA - LAGER, ON TAP (10 OZ. VIERTE) - $4&lt;br&gt;GIN TONIC DEL DIA - DEATHS DOOR GIN AND FEVER TREE CITRUS TONIC, GRAPEFRUIT AND LIME - $9&lt;br&gt;WHITE NEGRONI - DE MULLER BLANCO VERMOUTH, BOUGIE TIKI, ALLSPICE DRAM, LIME - $9&lt;br&gt;WINTER DAIQUIRI - STREET PUMAS RUM, PEAR, LIME - $9</t>
-  </si>
-  <si>
     <t>Monday - Friday 3 - 6pm &lt;br&gt; Late Night Thursday - Saturday 9pm - 12am &lt;br&gt; Food: $2-5 &lt;br&gt; Drinks: $4 Select Drafts&lt;br&gt;$3 Workin Man Cans&lt;br&gt;$4 Premium Cans&lt;br&gt;$6 Shot and a Beer&lt;br&gt;$5 Well Drinks&lt;br&gt;$6 House Wine&lt;br&gt;$6 Cocktails</t>
   </si>
   <si>
@@ -1767,6 +1761,12 @@
   </si>
   <si>
     <t>All night Monday, Tuesday-Sunday 2-6pm / Brunch Happy Hour Sat &amp; Sun 9:30-10 am &lt;br&gt; Food&lt;br&gt;Queso Fundido $5&lt;br&gt;Nachos $5&lt;br&gt;Lamb Taquitos $5&lt;br&gt;Chicken Enchilada $5&lt;br&gt;Chile Relleno $6&lt;br&gt;Street Tacos $3&lt;br&gt;Drinks&lt;br&gt;Post Can $4&lt;br&gt;Draft Beer $4&lt;br&gt;House Wine $5&lt;br&gt;Coin Marg $5.50-7.50&lt;br&gt;Daiquiri $7&lt;br&gt;Dark and Stormy $6&lt;br&gt;Sangria $6</t>
+  </si>
+  <si>
+    <t>CROQUETTAS DE JAMON - HAM REDUCTION $3/EA&lt;br&gt;CROQUETTAS DE MORILLA - MORELS, MANCHEGO $4/EA&lt;br&gt;GILDAS - PICKLED RAMP, ANCHOVY, GUANDILLAS, ARTICHOKE, ESPELETTE $3/EA&lt;br&gt;PAN CON TOMATE - CONFIT GARLIC AIOLI, OLIVE OIL $7 &lt;br&gt;ACEITUNAS MARINADAS - OLIVES, GARLIC, LEMON, PARSLEY $7&lt;br&gt;ACEITUNAS FRITAS $13&lt;br&gt;TOSTADA DE ANCHOA $5/EA&lt;br&gt;PADRON PIMIENTOS - OLIVE OIL, SEA SALT $14&lt;br&gt;JAMON IBERICO DE BELLOTA $34/OZ&lt;br&gt;JAMON MANGALICA $19/OZ&lt;br&gt;CHORIZO IBERICO DE BELLOTA $10/OZ</t>
+  </si>
+  <si>
+    <t>$6 Ceasar Salad&lt;br&gt;$2 Seasonal Deviled Eggs&lt;br&gt;$3 Oysters Hickenlooper&lt;br&gt;$7 Poutine&lt;br&gt;$7 Duck Wings&lt;br&gt;$5 Fried Chicken Taco&lt;br&gt;$4 Sweet Potato Nuggets&lt;br&gt;&lt;br&gt;$6 Tap Wines&lt;br&gt;$5 Tap Beers&lt;br&gt;$5-6 Select Cocktails&lt;br&gt;&lt;</t>
   </si>
 </sst>
 </file>
@@ -2768,10 +2768,10 @@
   <dimension ref="B1:BL146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
+      <selection pane="bottomRight" activeCell="T120" sqref="T120:U120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -4452,7 +4452,7 @@
         <v>1800</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" si="32"/>
@@ -5793,7 +5793,7 @@
         <v>1800</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="32"/>
@@ -7425,7 +7425,7 @@
         <v>1800</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="W26" s="1">
         <f t="shared" si="32"/>
@@ -7911,66 +7911,66 @@
     </row>
     <row r="29" spans="2:64" ht="21" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>266</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H29" s="1">
-        <v>1600</v>
+        <v>1430</v>
       </c>
       <c r="I29" s="1">
-        <v>1730</v>
+        <v>2000</v>
       </c>
       <c r="J29" s="1">
         <v>1600</v>
       </c>
       <c r="K29" s="1">
-        <v>1730</v>
+        <v>2000</v>
       </c>
       <c r="L29" s="1">
-        <v>1600</v>
+        <v>1430</v>
       </c>
       <c r="M29" s="1">
-        <v>1730</v>
+        <v>2000</v>
       </c>
       <c r="N29" s="1">
-        <v>1600</v>
+        <v>1430</v>
       </c>
       <c r="O29" s="1">
-        <v>1730</v>
+        <v>2000</v>
       </c>
       <c r="P29" s="1">
-        <v>1600</v>
+        <v>1430</v>
       </c>
       <c r="Q29" s="1">
-        <v>1730</v>
+        <v>2000</v>
       </c>
       <c r="R29" s="1">
-        <v>1600</v>
+        <v>1430</v>
       </c>
       <c r="S29" s="1">
-        <v>1730</v>
+        <v>2000</v>
       </c>
       <c r="T29" s="1">
-        <v>1600</v>
+        <v>1430</v>
       </c>
       <c r="U29" s="1">
-        <v>1730</v>
+        <v>2000</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" ref="W29" si="53">IF(H29&gt;0,H29/100,"")</f>
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="X29" s="1">
         <f t="shared" ref="X29" si="54">IF(I29&gt;0,I29/100,"")</f>
-        <v>17.3</v>
+        <v>20</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" ref="Y29" si="55">IF(J29&gt;0,J29/100,"")</f>
@@ -7978,78 +7978,78 @@
       </c>
       <c r="Z29" s="1">
         <f t="shared" ref="Z29" si="56">IF(K29&gt;0,K29/100,"")</f>
-        <v>17.3</v>
+        <v>20</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" ref="AA29" si="57">IF(L29&gt;0,L29/100,"")</f>
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" ref="AB29" si="58">IF(M29&gt;0,M29/100,"")</f>
-        <v>17.3</v>
+        <v>20</v>
       </c>
       <c r="AC29" s="1">
         <f t="shared" ref="AC29" si="59">IF(N29&gt;0,N29/100,"")</f>
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="AD29" s="1">
         <f t="shared" ref="AD29" si="60">IF(O29&gt;0,O29/100,"")</f>
-        <v>17.3</v>
+        <v>20</v>
       </c>
       <c r="AE29" s="1">
         <f t="shared" ref="AE29" si="61">IF(P29&gt;0,P29/100,"")</f>
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="AF29" s="1">
         <f t="shared" ref="AF29" si="62">IF(Q29&gt;0,Q29/100,"")</f>
-        <v>17.3</v>
+        <v>20</v>
       </c>
       <c r="AG29" s="1">
         <f t="shared" ref="AG29" si="63">IF(R29&gt;0,R29/100,"")</f>
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="AH29" s="1">
         <f t="shared" ref="AH29" si="64">IF(S29&gt;0,S29/100,"")</f>
-        <v>17.3</v>
+        <v>20</v>
       </c>
       <c r="AI29" s="1">
         <f t="shared" ref="AI29" si="65">IF(T29&gt;0,T29/100,"")</f>
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="AJ29" s="1">
         <f t="shared" ref="AJ29" si="66">IF(U29&gt;0,U29/100,"")</f>
-        <v>17.3</v>
+        <v>20</v>
       </c>
       <c r="AK29" s="1" t="str">
         <f t="shared" ref="AK29" si="67">IF(H29&gt;0,CONCATENATE(IF(W29&lt;=12,W29,W29-12),IF(OR(W29&lt;12,W29=24),"am","pm"),"-",IF(X29&lt;=12,X29,X29-12),IF(OR(X29&lt;12,X29=24),"am","pm")),"")</f>
-        <v>4pm-5.3pm</v>
+        <v>2.3pm-8pm</v>
       </c>
       <c r="AL29" s="1" t="str">
         <f t="shared" ref="AL29" si="68">IF(J29&gt;0,CONCATENATE(IF(Y29&lt;=12,Y29,Y29-12),IF(OR(Y29&lt;12,Y29=24),"am","pm"),"-",IF(Z29&lt;=12,Z29,Z29-12),IF(OR(Z29&lt;12,Z29=24),"am","pm")),"")</f>
-        <v>4pm-5.3pm</v>
+        <v>4pm-8pm</v>
       </c>
       <c r="AM29" s="1" t="str">
         <f t="shared" ref="AM29" si="69">IF(L29&gt;0,CONCATENATE(IF(AA29&lt;=12,AA29,AA29-12),IF(OR(AA29&lt;12,AA29=24),"am","pm"),"-",IF(AB29&lt;=12,AB29,AB29-12),IF(OR(AB29&lt;12,AB29=24),"am","pm")),"")</f>
-        <v>4pm-5.3pm</v>
+        <v>2.3pm-8pm</v>
       </c>
       <c r="AN29" s="1" t="str">
         <f t="shared" ref="AN29" si="70">IF(N29&gt;0,CONCATENATE(IF(AC29&lt;=12,AC29,AC29-12),IF(OR(AC29&lt;12,AC29=24),"am","pm"),"-",IF(AD29&lt;=12,AD29,AD29-12),IF(OR(AD29&lt;12,AD29=24),"am","pm")),"")</f>
-        <v>4pm-5.3pm</v>
+        <v>2.3pm-8pm</v>
       </c>
       <c r="AO29" s="1" t="str">
         <f t="shared" ref="AO29" si="71">IF(O29&gt;0,CONCATENATE(IF(AE29&lt;=12,AE29,AE29-12),IF(OR(AE29&lt;12,AE29=24),"am","pm"),"-",IF(AF29&lt;=12,AF29,AF29-12),IF(OR(AF29&lt;12,AF29=24),"am","pm")),"")</f>
-        <v>4pm-5.3pm</v>
+        <v>2.3pm-8pm</v>
       </c>
       <c r="AP29" s="1" t="str">
         <f t="shared" ref="AP29" si="72">IF(R29&gt;0,CONCATENATE(IF(AG29&lt;=12,AG29,AG29-12),IF(OR(AG29&lt;12,AG29=24),"am","pm"),"-",IF(AH29&lt;=12,AH29,AH29-12),IF(OR(AH29&lt;12,AH29=24),"am","pm")),"")</f>
-        <v>4pm-5.3pm</v>
+        <v>2.3pm-8pm</v>
       </c>
       <c r="AQ29" s="1" t="str">
         <f t="shared" ref="AQ29" si="73">IF(T29&gt;0,CONCATENATE(IF(AI29&lt;=12,AI29,AI29-12),IF(OR(AI29&lt;12,AI29=24),"am","pm"),"-",IF(AJ29&lt;=12,AJ29,AJ29-12),IF(OR(AJ29&lt;12,AJ29=24),"am","pm")),"")</f>
-        <v>4pm-5.3pm</v>
+        <v>2.3pm-8pm</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>28</v>
@@ -8072,7 +8072,7 @@
         <v>{
     'name': "Corrida",
     'area': "downtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1730", 'monday-start':"1600", 'monday-end':"1730", 'tuesday-start':"1600", 'tuesday-end':"1730", 'wednesday-start':"1600", 'wednesday-end':"1730", 'thursday-start':"1600", 'thursday-end':"1730", 'friday-start':"1600", 'friday-end':"1730", 'saturday-start':"1600", 'saturday-end':"1730"},  'description': "FOOD&lt;Br&gt;BOQUERONES - ANCHOVIES - $4&lt;Br&gt;CROQUETTAS DE JAMON - HAM REDUCTION - $5&lt;Br&gt;PAN CON TOMATE - CONFIT GARLIC AIOLI, OLIVE OIL - $4&lt;Br&gt;PAN CON BRANDADE - SALT COD BRANDADE, OLIVE OIL - $4&lt;Br&gt;GILDAS - ANCHOVY, OLIVES, GUANDILLA PEPPERS - $4&lt;Br&gt;ACEITUNAS MARINADAS - OLIVES, GARLIC, LEMON, PARSLEY - $5&lt;Br&gt;ACEITUNAS FRITAS - FRIED OLIVES, ALMOND ROMESCO, IDIAZABAL CHEESE - $9&lt;Br&gt;ESPINACA &amp; GARBANZOS - SPINACH, CRISPY CHICKPEAS, TOMATO, CUMIN PANISSE CAKE - $11&lt;Br&gt;PATATAS BRAVAS - SALSA BRAVA, GARLIC CONFIT AIOLI - $8&lt;Br&gt;TARTAR DE WAGYU - 7X WAGYU TARTARE TOAST, OLIVE OIL, LEMON, EGG YOLK, BLACK TRUFFLES - $20&lt;Br&gt;TOSTADA DE GAMBAS - ROYAL RED SHRIMP, TOAST, PIQUILLO PEPPERS, PICKLED ONIONS, AIOLI - 2 - $6&lt;Br&gt;ALBONDIGAS - MEATBALLS, TOMATO, PIQUILLO PEPPERS, CAMPO DE MONTABLON CHEESE - $11&lt;Br&gt;OSTRA - WIANNO OYSTER, GAZPACHO GELEE, CUCUMBER &amp; RED PEPPER MIGNONETTE - $4 EA&lt;Br&gt;DRINKS&lt;br&gt;ESTRELLA - LAGER, ON TAP (10 OZ. VIERTE) - $4&lt;br&gt;GIN TONIC DEL DIA - DEATHS DOOR GIN AND FEVER TREE CITRUS TONIC, GRAPEFRUIT AND LIME - $9&lt;br&gt;WHITE NEGRONI - DE MULLER BLANCO VERMOUTH, BOUGIE TIKI, ALLSPICE DRAM, LIME - $9&lt;br&gt;WINTER DAIQUIRI - STREET PUMAS RUM, PEAR, LIME - $9", 'link':"https://www.corridaboulder.com/", 'pricing':"",   'phone-number': "", 'address': "1023 WALNUT STREET BOULDER, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1430", 'sunday-end':"2000", 'monday-start':"1600", 'monday-end':"2000", 'tuesday-start':"1430", 'tuesday-end':"2000", 'wednesday-start':"1430", 'wednesday-end':"2000", 'thursday-start':"1430", 'thursday-end':"2000", 'friday-start':"1430", 'friday-end':"2000", 'saturday-start':"1430", 'saturday-end':"2000"},  'description': "CROQUETTAS DE JAMON - HAM REDUCTION $3/EA&lt;br&gt;CROQUETTAS DE MORILLA - MORELS, MANCHEGO $4/EA&lt;br&gt;GILDAS - PICKLED RAMP, ANCHOVY, GUANDILLAS, ARTICHOKE, ESPELETTE $3/EA&lt;br&gt;PAN CON TOMATE - CONFIT GARLIC AIOLI, OLIVE OIL $7 &lt;br&gt;ACEITUNAS MARINADAS - OLIVES, GARLIC, LEMON, PARSLEY $7&lt;br&gt;ACEITUNAS FRITAS $13&lt;br&gt;TOSTADA DE ANCHOA $5/EA&lt;br&gt;PADRON PIMIENTOS - OLIVE OIL, SEA SALT $14&lt;br&gt;JAMON IBERICO DE BELLOTA $34/OZ&lt;br&gt;JAMON MANGALICA $19/OZ&lt;br&gt;CHORIZO IBERICO DE BELLOTA $10/OZ", 'link':"https://www.corridaboulder.com/", 'pricing':"",   'phone-number': "", 'address': "1023 WALNUT STREET BOULDER, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY29" s="1" t="str">
         <f t="shared" ref="AY29" si="75">IF(AS29&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -8170,7 +8170,7 @@
         <v>1830</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W30" s="1">
         <f t="shared" si="32"/>
@@ -8324,13 +8324,13 @@
     </row>
     <row r="31" spans="2:64" ht="21" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J31" s="1">
         <v>1600</v>
@@ -8363,7 +8363,7 @@
         <v>2000</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W31" s="1" t="str">
         <f t="shared" ref="W31" si="81">IF(H31&gt;0,H31/100,"")</f>
@@ -16833,7 +16833,7 @@
         <v>1800</v>
       </c>
       <c r="V78" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="W78" s="1" t="str">
         <f t="shared" si="132"/>
@@ -17041,7 +17041,7 @@
         <v>1900</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" si="132"/>
@@ -17247,7 +17247,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="W80" s="1">
         <f t="shared" si="132"/>
@@ -18390,7 +18390,7 @@
         <v>1800</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="W86" s="1" t="str">
         <f t="shared" si="132"/>
@@ -18902,7 +18902,7 @@
         <v>395</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19502,7 +19502,7 @@
         <v>1800</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="W92" s="1" t="str">
         <f t="shared" si="132"/>
@@ -19608,7 +19608,7 @@
         <v>{
     'name': "River and Woods",
     'area': "pearl",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Med Salad&lt;br&gt;$2 Seasonal Deviled Eggs&lt;br&gt;$2.50 Oysters Hickenlooper&lt;br&gt;$6 Poutine&lt;br&gt;$6 Duck Wings&lt;br&gt;$5 Heirloom Blue Corndog&lt;br&gt;$4 Sweet Potato Nuggets&lt;br&gt;&lt;br&gt;$6 Tap Wines&lt;br&gt;$6 Tap Beers&lt;br&gt;$5-6 Select Cocktails&lt;br&gt;&lt;br&gt;$18 Chefs Forage and Sip Board: A unique chefs selection of tasty morsels from the kitchen plus two glasses of house wine", 'link':"http://www.riverandwoodsboulder.com/", 'pricing':"",   'phone-number': "", 'address': "2328 Pearl St Boulder CO", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$6 Ceasar Salad&lt;br&gt;$2 Seasonal Deviled Eggs&lt;br&gt;$3 Oysters Hickenlooper&lt;br&gt;$7 Poutine&lt;br&gt;$7 Duck Wings&lt;br&gt;$5 Fried Chicken Taco&lt;br&gt;$4 Sweet Potato Nuggets&lt;br&gt;&lt;br&gt;$6 Tap Wines&lt;br&gt;$5 Tap Beers&lt;br&gt;$5-6 Select Cocktails&lt;br&gt;&lt;", 'link':"http://www.riverandwoodsboulder.com/", 'pricing':"",   'phone-number': "", 'address': "2328 Pearl St Boulder CO", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY92" s="1" t="str">
         <f t="shared" si="123"/>
@@ -20085,7 +20085,7 @@
         <v>1800</v>
       </c>
       <c r="V95" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" si="132"/>
@@ -21029,7 +21029,7 @@
         <v>1900</v>
       </c>
       <c r="V100" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W100" s="1">
         <f t="shared" si="132"/>
@@ -21186,13 +21186,13 @@
     </row>
     <row r="101" spans="2:63" ht="21" customHeight="1">
       <c r="B101" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>266</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H101" s="1">
         <v>1500</v>
@@ -21237,7 +21237,7 @@
         <v>1800</v>
       </c>
       <c r="V101" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" ref="W101" si="165">IF(H101&gt;0,H101/100,"")</f>
@@ -21324,7 +21324,7 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR101" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AU101" s="1" t="s">
         <v>538</v>
@@ -22861,7 +22861,7 @@
         <v>1800</v>
       </c>
       <c r="V110" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="W110" s="1">
         <f t="shared" si="132"/>
@@ -23844,7 +23844,7 @@
         <v>2000</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="132"/>
@@ -24782,133 +24782,133 @@
         <v>195</v>
       </c>
       <c r="H120" s="1">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I120" s="1">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J120" s="1">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K120" s="1">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L120" s="1">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M120" s="1">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N120" s="1">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="O120" s="1">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P120" s="1">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q120" s="1">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="R120" s="1">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="S120" s="1">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="T120" s="1">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="U120" s="1">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="V120" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="W120" s="1">
         <f t="shared" si="132"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X120" s="1">
         <f t="shared" si="133"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y120" s="1">
         <f t="shared" si="134"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z120" s="1">
         <f t="shared" si="135"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA120" s="1">
         <f t="shared" si="136"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB120" s="1">
         <f t="shared" si="137"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC120" s="1">
         <f t="shared" si="138"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD120" s="1">
         <f t="shared" si="139"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE120" s="1">
         <f t="shared" si="140"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF120" s="1">
         <f t="shared" si="141"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG120" s="1">
         <f t="shared" si="142"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH120" s="1">
         <f t="shared" si="143"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI120" s="1">
         <f t="shared" si="144"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ120" s="1">
         <f t="shared" si="145"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK120" s="1" t="str">
         <f t="shared" si="146"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AL120" s="1" t="str">
         <f t="shared" si="147"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM120" s="1" t="str">
         <f t="shared" si="148"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AN120" s="1" t="str">
         <f t="shared" si="149"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AO120" s="1" t="str">
         <f t="shared" si="150"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AP120" s="1" t="str">
         <f t="shared" si="151"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AQ120" s="1" t="str">
         <f t="shared" si="152"/>
-        <v>2pm-5pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AR120" s="7" t="s">
         <v>150</v>
@@ -24933,7 +24933,7 @@
         <v>{
     'name': "The Kitchen",
     'area': "pearl",'hours': {
-      'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "Daily 2-5 pm &lt;br&gt; Food: $15 double cheeseburger and beer&lt;br&gt;$16 oysters on the half shell (6x) and a happy hour beer or wine&lt;br&gt;Selection of $5 beers&lt;br&gt;Selection of $6 cocktails&lt;br&gt;Selection of $7 wine", 'link':"http://www.thekitchen.com/", 'pricing':"",   'phone-number': "", 'address': "1039 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','pet','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Daily 2-5 pm &lt;br&gt; Food: $15 double cheeseburger and beer&lt;br&gt;$16 oysters on the half shell (6x) and a happy hour beer or wine&lt;br&gt;Selection of $5 beers&lt;br&gt;Selection of $6 cocktails&lt;br&gt;Selection of $7 wine", 'link':"http://www.thekitchen.com/", 'pricing':"",   'phone-number': "", 'address': "1039 Pearl StBoulder, CO 80302", 'other-amenities': ['outdoor','pet','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY120" s="1" t="str">
         <f t="shared" si="156"/>
@@ -25035,7 +25035,7 @@
         <v>1830</v>
       </c>
       <c r="V121" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="W121" s="1">
         <f t="shared" si="132"/>
@@ -28188,7 +28188,7 @@
         <v>2400</v>
       </c>
       <c r="V139" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="W139" s="1" t="str">
         <f t="shared" si="206"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -2777,10 +2777,10 @@
   <dimension ref="B1:BL147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomRight" activeCell="V80" sqref="V80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -17214,43 +17214,43 @@
         <v>579</v>
       </c>
       <c r="H80" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I80" s="1">
         <v>1800</v>
       </c>
       <c r="J80" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K80" s="1">
         <v>1800</v>
       </c>
       <c r="L80" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M80" s="1">
         <v>1800</v>
       </c>
       <c r="N80" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O80" s="1">
         <v>1800</v>
       </c>
       <c r="P80" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="Q80" s="1">
         <v>1800</v>
       </c>
       <c r="R80" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="S80" s="1">
         <v>1800</v>
       </c>
       <c r="T80" s="1">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="U80" s="1">
         <v>1800</v>
@@ -17260,7 +17260,7 @@
       </c>
       <c r="W80" s="1">
         <f t="shared" ref="W80" si="154">IF(H80&gt;0,H80/100,"")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X80" s="1">
         <f t="shared" ref="X80" si="155">IF(I80&gt;0,I80/100,"")</f>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="Y80" s="1">
         <f t="shared" ref="Y80" si="156">IF(J80&gt;0,J80/100,"")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z80" s="1">
         <f t="shared" ref="Z80" si="157">IF(K80&gt;0,K80/100,"")</f>
@@ -17276,7 +17276,7 @@
       </c>
       <c r="AA80" s="1">
         <f t="shared" ref="AA80" si="158">IF(L80&gt;0,L80/100,"")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB80" s="1">
         <f t="shared" ref="AB80" si="159">IF(M80&gt;0,M80/100,"")</f>
@@ -17284,7 +17284,7 @@
       </c>
       <c r="AC80" s="1">
         <f t="shared" ref="AC80" si="160">IF(N80&gt;0,N80/100,"")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD80" s="1">
         <f t="shared" ref="AD80" si="161">IF(O80&gt;0,O80/100,"")</f>
@@ -17292,7 +17292,7 @@
       </c>
       <c r="AE80" s="1">
         <f t="shared" ref="AE80" si="162">IF(P80&gt;0,P80/100,"")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF80" s="1">
         <f t="shared" ref="AF80" si="163">IF(Q80&gt;0,Q80/100,"")</f>
@@ -17300,7 +17300,7 @@
       </c>
       <c r="AG80" s="1">
         <f t="shared" ref="AG80" si="164">IF(R80&gt;0,R80/100,"")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH80" s="1">
         <f t="shared" ref="AH80" si="165">IF(S80&gt;0,S80/100,"")</f>
@@ -17308,7 +17308,7 @@
       </c>
       <c r="AI80" s="1">
         <f t="shared" ref="AI80" si="166">IF(T80&gt;0,T80/100,"")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ80" s="1">
         <f t="shared" ref="AJ80" si="167">IF(U80&gt;0,U80/100,"")</f>
@@ -17316,31 +17316,31 @@
       </c>
       <c r="AK80" s="1" t="str">
         <f t="shared" ref="AK80" si="168">IF(H80&gt;0,CONCATENATE(IF(W80&lt;=12,W80,W80-12),IF(OR(W80&lt;12,W80=24),"am","pm"),"-",IF(X80&lt;=12,X80,X80-12),IF(OR(X80&lt;12,X80=24),"am","pm")),"")</f>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AL80" s="1" t="str">
         <f t="shared" ref="AL80" si="169">IF(J80&gt;0,CONCATENATE(IF(Y80&lt;=12,Y80,Y80-12),IF(OR(Y80&lt;12,Y80=24),"am","pm"),"-",IF(Z80&lt;=12,Z80,Z80-12),IF(OR(Z80&lt;12,Z80=24),"am","pm")),"")</f>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AM80" s="1" t="str">
         <f t="shared" ref="AM80" si="170">IF(L80&gt;0,CONCATENATE(IF(AA80&lt;=12,AA80,AA80-12),IF(OR(AA80&lt;12,AA80=24),"am","pm"),"-",IF(AB80&lt;=12,AB80,AB80-12),IF(OR(AB80&lt;12,AB80=24),"am","pm")),"")</f>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AN80" s="1" t="str">
         <f t="shared" ref="AN80" si="171">IF(N80&gt;0,CONCATENATE(IF(AC80&lt;=12,AC80,AC80-12),IF(OR(AC80&lt;12,AC80=24),"am","pm"),"-",IF(AD80&lt;=12,AD80,AD80-12),IF(OR(AD80&lt;12,AD80=24),"am","pm")),"")</f>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AO80" s="1" t="str">
         <f t="shared" ref="AO80" si="172">IF(O80&gt;0,CONCATENATE(IF(AE80&lt;=12,AE80,AE80-12),IF(OR(AE80&lt;12,AE80=24),"am","pm"),"-",IF(AF80&lt;=12,AF80,AF80-12),IF(OR(AF80&lt;12,AF80=24),"am","pm")),"")</f>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AP80" s="1" t="str">
         <f t="shared" ref="AP80" si="173">IF(R80&gt;0,CONCATENATE(IF(AG80&lt;=12,AG80,AG80-12),IF(OR(AG80&lt;12,AG80=24),"am","pm"),"-",IF(AH80&lt;=12,AH80,AH80-12),IF(OR(AH80&lt;12,AH80=24),"am","pm")),"")</f>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AQ80" s="1" t="str">
         <f t="shared" ref="AQ80" si="174">IF(T80&gt;0,CONCATENATE(IF(AI80&lt;=12,AI80,AI80-12),IF(OR(AI80&lt;12,AI80=24),"am","pm"),"-",IF(AJ80&lt;=12,AJ80,AJ80-12),IF(OR(AJ80&lt;12,AJ80=24),"am","pm")),"")</f>
-        <v>4pm-6pm</v>
+        <v>3pm-6pm</v>
       </c>
       <c r="AR80" s="4"/>
       <c r="AS80" s="1" t="s">
@@ -17364,7 +17364,7 @@
         <v>{
     'name': "Pepper Noshery",
     'area': "pearl",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "$3 beers&lt;br&gt;$4 wines&lt;br&gt;$5 well spirits&lt;br&gt;$7 cocktails&lt;br&gt;$3 grilled corn bites&lt;br&gt;$4 blackened shrimp taco&lt;br&gt;$6 fried calamari&lt;br&gt;$8 wild Alaskan salmon tartare&lt;br&gt;$6 thai mussels&lt;br&gt;$3 Castelvetrano olives&lt;br&gt;$7 roasted buffalo cauliflower&lt;br&gt;$6 crispy brussel sprouts&lt;br&gt;$7 mushroom spring rolls&lt;br&gt;$6 AQ soup&lt;br&gt;$7 cocktail shrimp", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1043 PEARL ST. BOULDER, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$3 beers&lt;br&gt;$4 wines&lt;br&gt;$5 well spirits&lt;br&gt;$7 cocktails&lt;br&gt;$3 grilled corn bites&lt;br&gt;$4 blackened shrimp taco&lt;br&gt;$6 fried calamari&lt;br&gt;$8 wild Alaskan salmon tartare&lt;br&gt;$6 thai mussels&lt;br&gt;$3 Castelvetrano olives&lt;br&gt;$7 roasted buffalo cauliflower&lt;br&gt;$6 crispy brussel sprouts&lt;br&gt;$7 mushroom spring rolls&lt;br&gt;$6 AQ soup&lt;br&gt;$7 cocktail shrimp", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1043 PEARL ST. BOULDER, CO 80302", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY80" s="1" t="str">
         <f t="shared" ref="AY80" si="176">IF(AS80&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
